--- a/monster-golf-docs/monster2014/Monster2014.xlsx
+++ b/monster-golf-docs/monster2014/Monster2014.xlsx
@@ -9,11 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11640" windowHeight="6690"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11640" windowHeight="6690" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="Flights" sheetId="4" r:id="rId1"/>
+    <sheet name="Groups" sheetId="5" r:id="rId2"/>
+    <sheet name="Missing Info" sheetId="3" r:id="rId3"/>
+    <sheet name="Everything" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="354">
   <si>
     <t>Jake</t>
   </si>
@@ -805,6 +807,288 @@
   </si>
   <si>
     <t>mike.roseleip@docusign.com</t>
+  </si>
+  <si>
+    <t>HCP</t>
+  </si>
+  <si>
+    <t>Kern Ward</t>
+  </si>
+  <si>
+    <t>Mike Stork</t>
+  </si>
+  <si>
+    <t>Randy Olson</t>
+  </si>
+  <si>
+    <t>Rick Becker</t>
+  </si>
+  <si>
+    <t>Steve Fennewald</t>
+  </si>
+  <si>
+    <t>Andy Ness</t>
+  </si>
+  <si>
+    <t>Dan Borg</t>
+  </si>
+  <si>
+    <t>Nate Bess</t>
+  </si>
+  <si>
+    <t>Travis Pitts</t>
+  </si>
+  <si>
+    <t>Brian Giesinger</t>
+  </si>
+  <si>
+    <t>Doug Wald</t>
+  </si>
+  <si>
+    <t>Kirk Redfern</t>
+  </si>
+  <si>
+    <t>Pat Evenson</t>
+  </si>
+  <si>
+    <t>Joel Van Dyk</t>
+  </si>
+  <si>
+    <t>Shawn Dumphy</t>
+  </si>
+  <si>
+    <t>Zachary Sumners</t>
+  </si>
+  <si>
+    <t>Brian Donaldson</t>
+  </si>
+  <si>
+    <t>Dewey Wald</t>
+  </si>
+  <si>
+    <t>Grant Peterson</t>
+  </si>
+  <si>
+    <t>Patti Wald</t>
+  </si>
+  <si>
+    <t>Andy Podolak</t>
+  </si>
+  <si>
+    <t>Laura Roseleip</t>
+  </si>
+  <si>
+    <t>Mike Roseleip</t>
+  </si>
+  <si>
+    <t>Mitch Mondala</t>
+  </si>
+  <si>
+    <t>Brad Epker</t>
+  </si>
+  <si>
+    <t>Clyde Gies</t>
+  </si>
+  <si>
+    <t>Jeremy Gies</t>
+  </si>
+  <si>
+    <t>Jon Gies</t>
+  </si>
+  <si>
+    <t>Barak Schneeweiss</t>
+  </si>
+  <si>
+    <t>Dwane Liuska</t>
+  </si>
+  <si>
+    <t>Marshal Hagen</t>
+  </si>
+  <si>
+    <t>Vincent Larson</t>
+  </si>
+  <si>
+    <t>Jen Callahan</t>
+  </si>
+  <si>
+    <t>John Francis</t>
+  </si>
+  <si>
+    <t>Steve Francis</t>
+  </si>
+  <si>
+    <t>Terrie Levitt</t>
+  </si>
+  <si>
+    <t>Curt Erie</t>
+  </si>
+  <si>
+    <t>Myron Irwin</t>
+  </si>
+  <si>
+    <t>Rick Levitt</t>
+  </si>
+  <si>
+    <t>Scott Hinners</t>
+  </si>
+  <si>
+    <t>Bob Cruzan</t>
+  </si>
+  <si>
+    <t>Christopher Stafford</t>
+  </si>
+  <si>
+    <t>Derek Gulbransen</t>
+  </si>
+  <si>
+    <t>Garth Billsten</t>
+  </si>
+  <si>
+    <t>Bob Holso</t>
+  </si>
+  <si>
+    <t>Dennis Wurmlinger</t>
+  </si>
+  <si>
+    <t>Jeff Wurmlinger</t>
+  </si>
+  <si>
+    <t>KT Thayer</t>
+  </si>
+  <si>
+    <t>Jake Jorde</t>
+  </si>
+  <si>
+    <t>Jeff Herberger</t>
+  </si>
+  <si>
+    <t>Jim Clark</t>
+  </si>
+  <si>
+    <t>Mike Levitt</t>
+  </si>
+  <si>
+    <t>Beau Stonefield</t>
+  </si>
+  <si>
+    <t>Dan Luoma</t>
+  </si>
+  <si>
+    <t>Mike Borreson</t>
+  </si>
+  <si>
+    <t>Ryan Thomas</t>
+  </si>
+  <si>
+    <t>Aaron Wald</t>
+  </si>
+  <si>
+    <t>Jon Hanson</t>
+  </si>
+  <si>
+    <t>Paul Plemel</t>
+  </si>
+  <si>
+    <t>Steve Wald</t>
+  </si>
+  <si>
+    <t>Darryl Podolak</t>
+  </si>
+  <si>
+    <t>Dick Dadisman</t>
+  </si>
+  <si>
+    <t>Steven Ehase</t>
+  </si>
+  <si>
+    <t>Talbet Sumners</t>
+  </si>
+  <si>
+    <t>Chad Bodine</t>
+  </si>
+  <si>
+    <t>Jeff Wald</t>
+  </si>
+  <si>
+    <t>Mike Schuette</t>
+  </si>
+  <si>
+    <t>Todd Bodine</t>
+  </si>
+  <si>
+    <t>Ian Quarders</t>
+  </si>
+  <si>
+    <t>John Blackburn</t>
+  </si>
+  <si>
+    <t>Scott Hanson</t>
+  </si>
+  <si>
+    <t>Wayne Podolak</t>
+  </si>
+  <si>
+    <t>Brad Ahrens</t>
+  </si>
+  <si>
+    <t>Brad Krogstad</t>
+  </si>
+  <si>
+    <t>Jason Bartsch</t>
+  </si>
+  <si>
+    <t>Troy Grondahl</t>
+  </si>
+  <si>
+    <t>Jeff Haseleu</t>
+  </si>
+  <si>
+    <t>Michael Benson</t>
+  </si>
+  <si>
+    <t>Neil Hefta</t>
+  </si>
+  <si>
+    <t>Scott Anderson</t>
+  </si>
+  <si>
+    <t>Al Loftis</t>
+  </si>
+  <si>
+    <t>Brian Burbank</t>
+  </si>
+  <si>
+    <t>Greg Robertson</t>
+  </si>
+  <si>
+    <t>Matt Smith</t>
+  </si>
+  <si>
+    <t>Day 1</t>
+  </si>
+  <si>
+    <t>Day 2</t>
+  </si>
+  <si>
+    <t>Starting Hole</t>
+  </si>
+  <si>
+    <t>HCP2</t>
+  </si>
+  <si>
+    <t>Email2</t>
+  </si>
+  <si>
+    <t>Last</t>
+  </si>
+  <si>
+    <t>First</t>
+  </si>
+  <si>
+    <t>First2</t>
+  </si>
+  <si>
+    <t>Last2</t>
   </si>
 </sst>
 </file>
@@ -814,7 +1098,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -836,8 +1120,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -854,8 +1167,19 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -863,13 +1187,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -881,16 +1225,43 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="4" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Good" xfId="4" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="3" builtinId="18"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="7">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
     </dxf>
@@ -909,6 +1280,9 @@
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -923,6 +1297,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J43" totalsRowShown="0">
+  <autoFilter ref="A1:J43"/>
+  <tableColumns count="10">
+    <tableColumn id="1" name="TeamHCP"/>
+    <tableColumn id="2" name="Flight"/>
+    <tableColumn id="3" name="First"/>
+    <tableColumn id="4" name="Last"/>
+    <tableColumn id="5" name="HCP"/>
+    <tableColumn id="6" name="Email"/>
+    <tableColumn id="7" name="First2"/>
+    <tableColumn id="8" name="Last2"/>
+    <tableColumn id="9" name="HCP2"/>
+    <tableColumn id="10" name="Email2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:AE43" totalsRowShown="0">
   <autoFilter ref="A1:AE43"/>
   <sortState ref="A2:AD43">
@@ -931,8 +1324,8 @@
   </sortState>
   <tableColumns count="31">
     <tableColumn id="1" name="TeamId"/>
-    <tableColumn id="27" name="Flight" dataDxfId="0"/>
-    <tableColumn id="2" name="TeamHCP"/>
+    <tableColumn id="27" name="TeamHCP" dataDxfId="6"/>
+    <tableColumn id="2" name="Flight"/>
     <tableColumn id="3" name="UserId"/>
     <tableColumn id="4" name="FirstName"/>
     <tableColumn id="5" name="LastName"/>
@@ -944,9 +1337,9 @@
     <tableColumn id="11" name="TourneyScoresR2HCP"/>
     <tableColumn id="28" name="Email"/>
     <tableColumn id="30" name="MobileEmail"/>
-    <tableColumn id="12" name="HCP Location" dataDxfId="6"/>
-    <tableColumn id="13" name="DateOfRound" dataDxfId="5"/>
-    <tableColumn id="14" name="DateEntered" dataDxfId="4"/>
+    <tableColumn id="12" name="HCP Location" dataDxfId="5"/>
+    <tableColumn id="13" name="DateOfRound" dataDxfId="4"/>
+    <tableColumn id="14" name="DateEntered" dataDxfId="3"/>
     <tableColumn id="15" name="UserID2"/>
     <tableColumn id="16" name="FirstName3"/>
     <tableColumn id="17" name="LastName4"/>
@@ -958,9 +1351,9 @@
     <tableColumn id="23" name="TourneyScoresR2HCP10"/>
     <tableColumn id="29" name="Email11"/>
     <tableColumn id="31" name="MobileEmail12"/>
-    <tableColumn id="24" name="HCP Location13" dataDxfId="3"/>
-    <tableColumn id="25" name="DateOfRound14" dataDxfId="2"/>
-    <tableColumn id="26" name="DateEntered15" dataDxfId="1"/>
+    <tableColumn id="24" name="HCP Location13" dataDxfId="2"/>
+    <tableColumn id="25" name="DateOfRound14" dataDxfId="1"/>
+    <tableColumn id="26" name="DateEntered15" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1229,16 +1622,3167 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" customWidth="1"/>
+    <col min="6" max="6" width="30" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" customWidth="1"/>
+    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.7109375" customWidth="1"/>
+    <col min="10" max="10" width="33.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D1" t="s">
+        <v>350</v>
+      </c>
+      <c r="E1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G1" t="s">
+        <v>352</v>
+      </c>
+      <c r="H1" t="s">
+        <v>353</v>
+      </c>
+      <c r="I1" t="s">
+        <v>348</v>
+      </c>
+      <c r="J1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>5.5</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2">
+        <v>4</v>
+      </c>
+      <c r="J2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>248</v>
+      </c>
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3">
+        <v>5</v>
+      </c>
+      <c r="J3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>9.6</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
+        <v>172</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>9.9</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>174</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>14.8</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
+        <v>249</v>
+      </c>
+      <c r="G7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7">
+        <v>12</v>
+      </c>
+      <c r="J7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>16.3</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8">
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
+        <v>180</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8">
+        <v>10</v>
+      </c>
+      <c r="J8" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>16.8</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <v>11</v>
+      </c>
+      <c r="F9" t="s">
+        <v>173</v>
+      </c>
+      <c r="G9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>17</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>182</v>
+      </c>
+      <c r="G10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10">
+        <v>7</v>
+      </c>
+      <c r="J10" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11">
+        <v>7</v>
+      </c>
+      <c r="F11" t="s">
+        <v>174</v>
+      </c>
+      <c r="G11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11">
+        <v>11</v>
+      </c>
+      <c r="J11" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>18.5</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12">
+        <v>7</v>
+      </c>
+      <c r="F12" t="s">
+        <v>187</v>
+      </c>
+      <c r="G12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12">
+        <v>12</v>
+      </c>
+      <c r="J12" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>22.7</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13">
+        <v>8</v>
+      </c>
+      <c r="F13" t="s">
+        <v>189</v>
+      </c>
+      <c r="G13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13">
+        <v>15</v>
+      </c>
+      <c r="J13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>23.2</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14">
+        <v>8</v>
+      </c>
+      <c r="F14" t="s">
+        <v>191</v>
+      </c>
+      <c r="G14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" t="s">
+        <v>53</v>
+      </c>
+      <c r="I14">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>23.6</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15">
+        <v>7</v>
+      </c>
+      <c r="F15" t="s">
+        <v>193</v>
+      </c>
+      <c r="G15" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" t="s">
+        <v>54</v>
+      </c>
+      <c r="I15">
+        <v>16</v>
+      </c>
+      <c r="J15" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16">
+        <v>15</v>
+      </c>
+      <c r="F16" t="s">
+        <v>195</v>
+      </c>
+      <c r="G16" t="s">
+        <v>42</v>
+      </c>
+      <c r="H16" t="s">
+        <v>43</v>
+      </c>
+      <c r="I16">
+        <v>9</v>
+      </c>
+      <c r="J16" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>25.8</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17">
+        <v>11</v>
+      </c>
+      <c r="F17" t="s">
+        <v>197</v>
+      </c>
+      <c r="G17" t="s">
+        <v>72</v>
+      </c>
+      <c r="H17" t="s">
+        <v>73</v>
+      </c>
+      <c r="I17">
+        <v>15</v>
+      </c>
+      <c r="J17" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>26.1</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18">
+        <v>15</v>
+      </c>
+      <c r="F18" t="s">
+        <v>199</v>
+      </c>
+      <c r="G18" t="s">
+        <v>57</v>
+      </c>
+      <c r="H18" t="s">
+        <v>58</v>
+      </c>
+      <c r="I18">
+        <v>11</v>
+      </c>
+      <c r="J18" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>26.9</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19">
+        <v>14</v>
+      </c>
+      <c r="F19" t="s">
+        <v>201</v>
+      </c>
+      <c r="G19" t="s">
+        <v>61</v>
+      </c>
+      <c r="H19" t="s">
+        <v>62</v>
+      </c>
+      <c r="I19">
+        <v>13</v>
+      </c>
+      <c r="J19" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>28.9</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20">
+        <v>14</v>
+      </c>
+      <c r="F20" t="s">
+        <v>203</v>
+      </c>
+      <c r="G20" t="s">
+        <v>66</v>
+      </c>
+      <c r="H20" t="s">
+        <v>67</v>
+      </c>
+      <c r="I20">
+        <v>15</v>
+      </c>
+      <c r="J20" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>28.9</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E21">
+        <v>9</v>
+      </c>
+      <c r="F21" t="s">
+        <v>205</v>
+      </c>
+      <c r="G21" t="s">
+        <v>49</v>
+      </c>
+      <c r="H21" t="s">
+        <v>91</v>
+      </c>
+      <c r="I21">
+        <v>20</v>
+      </c>
+      <c r="J21" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>30.1</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22">
+        <v>16</v>
+      </c>
+      <c r="F22" t="s">
+        <v>207</v>
+      </c>
+      <c r="G22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H22" t="s">
+        <v>69</v>
+      </c>
+      <c r="I22">
+        <v>14</v>
+      </c>
+      <c r="J22" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23">
+        <v>10</v>
+      </c>
+      <c r="F23" t="s">
+        <v>209</v>
+      </c>
+      <c r="G23" t="s">
+        <v>42</v>
+      </c>
+      <c r="H23" t="s">
+        <v>74</v>
+      </c>
+      <c r="I23">
+        <v>22</v>
+      </c>
+      <c r="J23" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>32.5</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" t="s">
+        <v>78</v>
+      </c>
+      <c r="E24">
+        <v>21</v>
+      </c>
+      <c r="F24" t="s">
+        <v>211</v>
+      </c>
+      <c r="G24" t="s">
+        <v>79</v>
+      </c>
+      <c r="H24" t="s">
+        <v>80</v>
+      </c>
+      <c r="I24">
+        <v>11</v>
+      </c>
+      <c r="J24" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>33.1</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" t="s">
+        <v>83</v>
+      </c>
+      <c r="E25">
+        <v>18</v>
+      </c>
+      <c r="G25" t="s">
+        <v>84</v>
+      </c>
+      <c r="H25" t="s">
+        <v>7</v>
+      </c>
+      <c r="I25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>33.5</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" t="s">
+        <v>86</v>
+      </c>
+      <c r="E26">
+        <v>16</v>
+      </c>
+      <c r="F26" t="s">
+        <v>213</v>
+      </c>
+      <c r="G26" t="s">
+        <v>87</v>
+      </c>
+      <c r="H26" t="s">
+        <v>88</v>
+      </c>
+      <c r="I26">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>75</v>
+      </c>
+      <c r="D27" t="s">
+        <v>76</v>
+      </c>
+      <c r="E27">
+        <v>20</v>
+      </c>
+      <c r="F27" t="s">
+        <v>214</v>
+      </c>
+      <c r="G27" t="s">
+        <v>2</v>
+      </c>
+      <c r="H27" t="s">
+        <v>73</v>
+      </c>
+      <c r="I27">
+        <v>14</v>
+      </c>
+      <c r="J27" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>35.5</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" t="s">
+        <v>92</v>
+      </c>
+      <c r="E28">
+        <v>12</v>
+      </c>
+      <c r="F28" t="s">
+        <v>216</v>
+      </c>
+      <c r="G28" t="s">
+        <v>93</v>
+      </c>
+      <c r="H28" t="s">
+        <v>92</v>
+      </c>
+      <c r="I28">
+        <v>23</v>
+      </c>
+      <c r="J28" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>94</v>
+      </c>
+      <c r="D29" t="s">
+        <v>95</v>
+      </c>
+      <c r="E29">
+        <v>13</v>
+      </c>
+      <c r="F29" t="s">
+        <v>218</v>
+      </c>
+      <c r="G29" t="s">
+        <v>96</v>
+      </c>
+      <c r="H29" t="s">
+        <v>97</v>
+      </c>
+      <c r="I29">
+        <v>23</v>
+      </c>
+      <c r="J29" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>38.1</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
+        <v>100</v>
+      </c>
+      <c r="D30" t="s">
+        <v>101</v>
+      </c>
+      <c r="E30">
+        <v>21</v>
+      </c>
+      <c r="F30" t="s">
+        <v>220</v>
+      </c>
+      <c r="G30" t="s">
+        <v>32</v>
+      </c>
+      <c r="H30" t="s">
+        <v>103</v>
+      </c>
+      <c r="I30">
+        <v>17</v>
+      </c>
+      <c r="J30" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31" t="s">
+        <v>98</v>
+      </c>
+      <c r="D31" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31">
+        <v>11</v>
+      </c>
+      <c r="F31" t="s">
+        <v>222</v>
+      </c>
+      <c r="G31" t="s">
+        <v>99</v>
+      </c>
+      <c r="H31" t="s">
+        <v>15</v>
+      </c>
+      <c r="I31">
+        <v>28</v>
+      </c>
+      <c r="J31" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>41</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32" t="s">
+        <v>106</v>
+      </c>
+      <c r="D32" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32">
+        <v>27</v>
+      </c>
+      <c r="F32" t="s">
+        <v>224</v>
+      </c>
+      <c r="G32" t="s">
+        <v>108</v>
+      </c>
+      <c r="H32" t="s">
+        <v>109</v>
+      </c>
+      <c r="I32">
+        <v>14</v>
+      </c>
+      <c r="J32" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>42.4</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33" t="s">
+        <v>104</v>
+      </c>
+      <c r="E33">
+        <v>23</v>
+      </c>
+      <c r="F33" t="s">
+        <v>226</v>
+      </c>
+      <c r="G33" t="s">
+        <v>105</v>
+      </c>
+      <c r="H33" t="s">
+        <v>92</v>
+      </c>
+      <c r="I33">
+        <v>19</v>
+      </c>
+      <c r="J33" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>42.7</v>
+      </c>
+      <c r="B34">
+        <v>4</v>
+      </c>
+      <c r="C34" t="s">
+        <v>114</v>
+      </c>
+      <c r="D34" t="s">
+        <v>115</v>
+      </c>
+      <c r="E34">
+        <v>23</v>
+      </c>
+      <c r="F34" t="s">
+        <v>230</v>
+      </c>
+      <c r="G34" t="s">
+        <v>116</v>
+      </c>
+      <c r="H34" t="s">
+        <v>117</v>
+      </c>
+      <c r="I34">
+        <v>20</v>
+      </c>
+      <c r="J34" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>44.6</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+      <c r="C35" t="s">
+        <v>110</v>
+      </c>
+      <c r="D35" t="s">
+        <v>111</v>
+      </c>
+      <c r="E35">
+        <v>24</v>
+      </c>
+      <c r="F35" t="s">
+        <v>228</v>
+      </c>
+      <c r="G35" t="s">
+        <v>112</v>
+      </c>
+      <c r="H35" t="s">
+        <v>113</v>
+      </c>
+      <c r="I35">
+        <v>21</v>
+      </c>
+      <c r="J35" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>49.1</v>
+      </c>
+      <c r="B36">
+        <v>4</v>
+      </c>
+      <c r="C36" t="s">
+        <v>118</v>
+      </c>
+      <c r="D36" t="s">
+        <v>119</v>
+      </c>
+      <c r="E36">
+        <v>31</v>
+      </c>
+      <c r="F36" t="s">
+        <v>232</v>
+      </c>
+      <c r="G36" t="s">
+        <v>120</v>
+      </c>
+      <c r="H36" t="s">
+        <v>121</v>
+      </c>
+      <c r="I36">
+        <v>18</v>
+      </c>
+      <c r="J36" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>49.7</v>
+      </c>
+      <c r="B37">
+        <v>4</v>
+      </c>
+      <c r="C37" t="s">
+        <v>125</v>
+      </c>
+      <c r="D37" t="s">
+        <v>164</v>
+      </c>
+      <c r="E37">
+        <v>18</v>
+      </c>
+      <c r="F37" t="s">
+        <v>234</v>
+      </c>
+      <c r="G37" t="s">
+        <v>126</v>
+      </c>
+      <c r="H37" t="s">
+        <v>127</v>
+      </c>
+      <c r="I37">
+        <v>32</v>
+      </c>
+      <c r="J37" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>50.4</v>
+      </c>
+      <c r="B38">
+        <v>4</v>
+      </c>
+      <c r="C38" t="s">
+        <v>128</v>
+      </c>
+      <c r="D38" t="s">
+        <v>129</v>
+      </c>
+      <c r="E38">
+        <v>17</v>
+      </c>
+      <c r="F38" t="s">
+        <v>236</v>
+      </c>
+      <c r="G38" t="s">
+        <v>57</v>
+      </c>
+      <c r="H38" t="s">
+        <v>130</v>
+      </c>
+      <c r="I38">
+        <v>34</v>
+      </c>
+      <c r="J38" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>51</v>
+      </c>
+      <c r="B39">
+        <v>4</v>
+      </c>
+      <c r="C39" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" t="s">
+        <v>131</v>
+      </c>
+      <c r="E39">
+        <v>23</v>
+      </c>
+      <c r="F39" t="s">
+        <v>238</v>
+      </c>
+      <c r="G39" t="s">
+        <v>132</v>
+      </c>
+      <c r="H39" t="s">
+        <v>133</v>
+      </c>
+      <c r="I39">
+        <v>28</v>
+      </c>
+      <c r="J39" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>52.7</v>
+      </c>
+      <c r="B40">
+        <v>4</v>
+      </c>
+      <c r="C40" t="s">
+        <v>70</v>
+      </c>
+      <c r="D40" t="s">
+        <v>122</v>
+      </c>
+      <c r="E40">
+        <v>23</v>
+      </c>
+      <c r="F40" t="s">
+        <v>240</v>
+      </c>
+      <c r="G40" t="s">
+        <v>123</v>
+      </c>
+      <c r="H40" t="s">
+        <v>124</v>
+      </c>
+      <c r="I40">
+        <v>30</v>
+      </c>
+      <c r="J40" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>53.8</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+      <c r="C41" t="s">
+        <v>55</v>
+      </c>
+      <c r="D41" t="s">
+        <v>40</v>
+      </c>
+      <c r="E41">
+        <v>19</v>
+      </c>
+      <c r="F41" t="s">
+        <v>242</v>
+      </c>
+      <c r="G41" t="s">
+        <v>134</v>
+      </c>
+      <c r="H41" t="s">
+        <v>135</v>
+      </c>
+      <c r="I41">
+        <v>35</v>
+      </c>
+      <c r="J41" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>59.9</v>
+      </c>
+      <c r="B42">
+        <v>4</v>
+      </c>
+      <c r="C42" t="s">
+        <v>136</v>
+      </c>
+      <c r="D42" t="s">
+        <v>137</v>
+      </c>
+      <c r="E42">
+        <v>30</v>
+      </c>
+      <c r="F42" t="s">
+        <v>244</v>
+      </c>
+      <c r="G42" t="s">
+        <v>19</v>
+      </c>
+      <c r="H42" t="s">
+        <v>138</v>
+      </c>
+      <c r="I42">
+        <v>30</v>
+      </c>
+      <c r="J42" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>74.2</v>
+      </c>
+      <c r="B43">
+        <v>4</v>
+      </c>
+      <c r="C43" t="s">
+        <v>139</v>
+      </c>
+      <c r="D43" t="s">
+        <v>140</v>
+      </c>
+      <c r="E43">
+        <v>39</v>
+      </c>
+      <c r="F43" t="s">
+        <v>246</v>
+      </c>
+      <c r="G43" t="s">
+        <v>6</v>
+      </c>
+      <c r="H43" t="s">
+        <v>140</v>
+      </c>
+      <c r="I43">
+        <v>35</v>
+      </c>
+      <c r="J43" t="s">
+        <v>259</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G85"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" style="14" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.28515625" style="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="14" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="12"/>
+      <c r="B1" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="10"/>
+      <c r="B2" s="7">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2" s="15">
+        <v>9</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="G2" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="10"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3" s="15">
+        <v>21</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="G3" s="15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="10"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="D4" s="15">
+        <v>20</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="G4" s="15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="10"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="D5" s="15">
+        <v>17</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="G5" s="15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="9">
+        <v>2</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="D6" s="16">
+        <v>15</v>
+      </c>
+      <c r="E6" s="9">
+        <v>2</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="G6" s="16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="11"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="D7" s="16">
+        <v>11</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="G7" s="16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="11"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="D8" s="16">
+        <v>31</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="G8" s="16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="D9" s="16">
+        <v>18</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G9" s="16">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="10"/>
+      <c r="B10" s="8">
+        <v>3</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D10" s="15">
+        <v>12</v>
+      </c>
+      <c r="E10" s="8">
+        <v>3</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="G10" s="15">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="D11" s="15">
+        <v>4</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="G11" s="15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="10"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="D12" s="15">
+        <v>14</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="G12" s="15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="10"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="D13" s="15">
+        <v>15</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="G13" s="15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+      <c r="B14" s="9">
+        <v>4</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="D14" s="16">
+        <v>21</v>
+      </c>
+      <c r="E14" s="9">
+        <v>4</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="G14" s="16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="D15" s="16">
+        <v>4</v>
+      </c>
+      <c r="E15" s="9"/>
+      <c r="F15" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="G15" s="16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="D16" s="16">
+        <v>11</v>
+      </c>
+      <c r="E16" s="9"/>
+      <c r="F16" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="G16" s="16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="D17" s="16">
+        <v>6</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="G17" s="16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="10"/>
+      <c r="B18" s="8">
+        <v>5</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="D18" s="15">
+        <v>30</v>
+      </c>
+      <c r="E18" s="8">
+        <v>5</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="G18" s="15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="10"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="D19" s="15">
+        <v>11</v>
+      </c>
+      <c r="E19" s="8"/>
+      <c r="F19" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="G19" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="10"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="D20" s="15">
+        <v>30</v>
+      </c>
+      <c r="E20" s="8"/>
+      <c r="F20" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="G20" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="10"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="D21" s="15">
+        <v>28</v>
+      </c>
+      <c r="E21" s="8"/>
+      <c r="F21" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="G21" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="11"/>
+      <c r="B22" s="9">
+        <v>6</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="D22" s="16">
+        <v>19</v>
+      </c>
+      <c r="E22" s="9">
+        <v>6</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="G22" s="16">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="11"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="D23" s="16">
+        <v>39</v>
+      </c>
+      <c r="E23" s="9"/>
+      <c r="F23" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="G23" s="16">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="11"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="D24" s="16">
+        <v>35</v>
+      </c>
+      <c r="E24" s="9"/>
+      <c r="F24" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="G24" s="16">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="11"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="D25" s="16">
+        <v>35</v>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="F25" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="G25" s="16">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="10"/>
+      <c r="B26" s="8">
+        <v>7</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="D26" s="15">
+        <v>23</v>
+      </c>
+      <c r="E26" s="8">
+        <v>7</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="G26" s="15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="10"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D27" s="15">
+        <v>23</v>
+      </c>
+      <c r="E27" s="8"/>
+      <c r="F27" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="G27" s="15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="10"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="D28" s="15">
+        <v>19</v>
+      </c>
+      <c r="E28" s="8"/>
+      <c r="F28" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G28" s="15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="10"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="D29" s="15">
+        <v>12</v>
+      </c>
+      <c r="E29" s="8"/>
+      <c r="F29" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="G29" s="15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="11"/>
+      <c r="B30" s="9">
+        <v>8</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="D30" s="16">
+        <v>13</v>
+      </c>
+      <c r="E30" s="9">
+        <v>8</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="G30" s="16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="11"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="D31" s="16">
+        <v>24</v>
+      </c>
+      <c r="E31" s="9"/>
+      <c r="F31" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="G31" s="16">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="11"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="D32" s="16">
+        <v>21</v>
+      </c>
+      <c r="E32" s="9"/>
+      <c r="F32" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="G32" s="16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="11"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="D33" s="16">
+        <v>23</v>
+      </c>
+      <c r="E33" s="9"/>
+      <c r="F33" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="G33" s="16">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="10"/>
+      <c r="B34" s="8">
+        <v>9</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="D34" s="15">
+        <v>18</v>
+      </c>
+      <c r="E34" s="8">
+        <v>9</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="G34" s="15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="10"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="D35" s="15">
+        <v>22</v>
+      </c>
+      <c r="E35" s="8"/>
+      <c r="F35" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="G35" s="15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="10"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="D36" s="15">
+        <v>10</v>
+      </c>
+      <c r="E36" s="8"/>
+      <c r="F36" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="G36" s="15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="10"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D37" s="15">
+        <v>15</v>
+      </c>
+      <c r="E37" s="8"/>
+      <c r="F37" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="G37" s="15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="11"/>
+      <c r="B38" s="9">
+        <v>10</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="D38" s="16">
+        <v>13</v>
+      </c>
+      <c r="E38" s="9">
+        <v>10</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="G38" s="16">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="11"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="D39" s="16">
+        <v>14</v>
+      </c>
+      <c r="E39" s="9"/>
+      <c r="F39" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="G39" s="16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="11"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="D40" s="16">
+        <v>15</v>
+      </c>
+      <c r="E40" s="9"/>
+      <c r="F40" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="G40" s="16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="11"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="D41" s="16">
+        <v>8</v>
+      </c>
+      <c r="E41" s="9"/>
+      <c r="F41" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="G41" s="16">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="10"/>
+      <c r="B42" s="8">
+        <v>11</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="D42" s="15">
+        <v>23</v>
+      </c>
+      <c r="E42" s="8">
+        <v>11</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="G42" s="15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="10"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="D43" s="15">
+        <v>32</v>
+      </c>
+      <c r="E43" s="8"/>
+      <c r="F43" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="G43" s="15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="10"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="D44" s="15">
+        <v>30</v>
+      </c>
+      <c r="E44" s="8"/>
+      <c r="F44" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="G44" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="10"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="D45" s="15">
+        <v>18</v>
+      </c>
+      <c r="E45" s="8"/>
+      <c r="F45" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="G45" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="11"/>
+      <c r="B46" s="9">
+        <v>12</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="D46" s="16">
+        <v>11</v>
+      </c>
+      <c r="E46" s="9">
+        <v>12</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="G46" s="16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="11"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="D47" s="16">
+        <v>15</v>
+      </c>
+      <c r="E47" s="9"/>
+      <c r="F47" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="G47" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="11"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="D48" s="16">
+        <v>14</v>
+      </c>
+      <c r="E48" s="9"/>
+      <c r="F48" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="G48" s="16">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="11"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="D49" s="16">
+        <v>20</v>
+      </c>
+      <c r="E49" s="9"/>
+      <c r="F49" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="G49" s="16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="10"/>
+      <c r="B50" s="8">
+        <v>13</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="D50" s="15">
+        <v>2</v>
+      </c>
+      <c r="E50" s="8">
+        <v>13</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="G50" s="15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="10"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="D51" s="15">
+        <v>4</v>
+      </c>
+      <c r="E51" s="8"/>
+      <c r="F51" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="G51" s="15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="10"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="D52" s="15">
+        <v>3</v>
+      </c>
+      <c r="E52" s="8"/>
+      <c r="F52" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="G52" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="10"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="D53" s="15">
+        <v>5</v>
+      </c>
+      <c r="E53" s="8"/>
+      <c r="F53" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="G53" s="15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="11"/>
+      <c r="B54" s="9">
+        <v>14</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="D54" s="16">
+        <v>10</v>
+      </c>
+      <c r="E54" s="9">
+        <v>14</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="G54" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="11"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="D55" s="16">
+        <v>34</v>
+      </c>
+      <c r="E55" s="9"/>
+      <c r="F55" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="G55" s="16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="11"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="D56" s="16">
+        <v>7</v>
+      </c>
+      <c r="E56" s="9"/>
+      <c r="F56" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="G56" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="11"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="D57" s="16">
+        <v>17</v>
+      </c>
+      <c r="E57" s="9"/>
+      <c r="F57" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="G57" s="16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="10"/>
+      <c r="B58" s="8">
+        <v>15</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="D58" s="15">
+        <v>8</v>
+      </c>
+      <c r="E58" s="8">
+        <v>15</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="G58" s="15">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="10"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="D59" s="15">
+        <v>2</v>
+      </c>
+      <c r="E59" s="8"/>
+      <c r="F59" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="G59" s="15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="10"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="D60" s="15">
+        <v>11</v>
+      </c>
+      <c r="E60" s="8"/>
+      <c r="F60" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="G60" s="15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="10"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="D61" s="15">
+        <v>7</v>
+      </c>
+      <c r="E61" s="8"/>
+      <c r="F61" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="G61" s="15">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="11"/>
+      <c r="B62" s="9">
+        <v>16</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="D62" s="16">
+        <v>27</v>
+      </c>
+      <c r="E62" s="9">
+        <v>16</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="G62" s="16">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="11"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="D63" s="16">
+        <v>14</v>
+      </c>
+      <c r="E63" s="9"/>
+      <c r="F63" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="G63" s="16">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="11"/>
+      <c r="B64" s="9"/>
+      <c r="C64" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="D64" s="16">
+        <v>5</v>
+      </c>
+      <c r="E64" s="9"/>
+      <c r="F64" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="G64" s="16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="11"/>
+      <c r="B65" s="9"/>
+      <c r="C65" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="D65" s="16">
+        <v>11</v>
+      </c>
+      <c r="E65" s="9"/>
+      <c r="F65" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="G65" s="16">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="10"/>
+      <c r="B66" s="8">
+        <v>17</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="D66" s="15">
+        <v>7</v>
+      </c>
+      <c r="E66" s="8">
+        <v>17</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="G66" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="10"/>
+      <c r="B67" s="8"/>
+      <c r="C67" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="D67" s="15">
+        <v>7</v>
+      </c>
+      <c r="E67" s="8"/>
+      <c r="F67" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="G67" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="10"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="D68" s="15">
+        <v>16</v>
+      </c>
+      <c r="E68" s="8"/>
+      <c r="F68" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="G68" s="15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="10"/>
+      <c r="B69" s="8"/>
+      <c r="C69" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="D69" s="15">
+        <v>11</v>
+      </c>
+      <c r="E69" s="8"/>
+      <c r="F69" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="G69" s="15">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="11"/>
+      <c r="B70" s="9">
+        <v>18</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="D70" s="16">
+        <v>14</v>
+      </c>
+      <c r="E70" s="9">
+        <v>18</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="G70" s="16">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="11"/>
+      <c r="B71" s="9"/>
+      <c r="C71" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="D71" s="16">
+        <v>9</v>
+      </c>
+      <c r="E71" s="9"/>
+      <c r="F71" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="G71" s="16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="11"/>
+      <c r="B72" s="9"/>
+      <c r="C72" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="D72" s="16">
+        <v>16</v>
+      </c>
+      <c r="E72" s="9"/>
+      <c r="F72" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="G72" s="16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="11"/>
+      <c r="B73" s="9"/>
+      <c r="C73" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="D73" s="16">
+        <v>15</v>
+      </c>
+      <c r="E73" s="9"/>
+      <c r="F73" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="G73" s="16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="10"/>
+      <c r="B74" s="8">
+        <v>1</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="D74" s="15">
+        <v>16</v>
+      </c>
+      <c r="E74" s="8">
+        <v>1</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="G74" s="15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="10"/>
+      <c r="B75" s="8"/>
+      <c r="C75" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="D75" s="15">
+        <v>5</v>
+      </c>
+      <c r="E75" s="8"/>
+      <c r="F75" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="G75" s="15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="10"/>
+      <c r="B76" s="8"/>
+      <c r="C76" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="D76" s="15">
+        <v>10</v>
+      </c>
+      <c r="E76" s="8"/>
+      <c r="F76" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="G76" s="15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="10"/>
+      <c r="B77" s="8"/>
+      <c r="C77" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="D77" s="15">
+        <v>8</v>
+      </c>
+      <c r="E77" s="8"/>
+      <c r="F77" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="G77" s="15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="11"/>
+      <c r="B78" s="9">
+        <v>2</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="D78" s="16">
+        <v>7</v>
+      </c>
+      <c r="E78" s="9">
+        <v>2</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="G78" s="16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="11"/>
+      <c r="B79" s="9"/>
+      <c r="C79" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="D79" s="16">
+        <v>23</v>
+      </c>
+      <c r="E79" s="9"/>
+      <c r="F79" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="G79" s="16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="11"/>
+      <c r="B80" s="9"/>
+      <c r="C80" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="D80" s="16">
+        <v>20</v>
+      </c>
+      <c r="E80" s="9"/>
+      <c r="F80" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="G80" s="16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="11"/>
+      <c r="B81" s="9"/>
+      <c r="C81" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="D81" s="16">
+        <v>12</v>
+      </c>
+      <c r="E81" s="9"/>
+      <c r="F81" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="G81" s="16">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="10"/>
+      <c r="B82" s="8">
+        <v>3</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="D82" s="15">
+        <v>28</v>
+      </c>
+      <c r="E82" s="8">
+        <v>3</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="G82" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="10"/>
+      <c r="B83" s="8"/>
+      <c r="C83" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="D83" s="15">
+        <v>23</v>
+      </c>
+      <c r="E83" s="8"/>
+      <c r="F83" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="G83" s="15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="10"/>
+      <c r="B84" s="8"/>
+      <c r="C84" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="D84" s="15">
+        <v>16</v>
+      </c>
+      <c r="E84" s="8"/>
+      <c r="F84" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="G84" s="15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="10"/>
+      <c r="B85" s="8"/>
+      <c r="C85" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="D85" s="15">
+        <v>18</v>
+      </c>
+      <c r="E85" s="8"/>
+      <c r="F85" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="G85" s="15">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="42">
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="B74:B77"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="E74:E77"/>
+    <mergeCell ref="E78:E81"/>
+    <mergeCell ref="E82:E85"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="E50:E53"/>
+    <mergeCell ref="E54:E57"/>
+    <mergeCell ref="E58:E61"/>
+    <mergeCell ref="E62:E65"/>
+    <mergeCell ref="E66:E69"/>
+    <mergeCell ref="E70:E73"/>
+    <mergeCell ref="E26:E29"/>
+    <mergeCell ref="E30:E33"/>
+    <mergeCell ref="E34:E37"/>
+    <mergeCell ref="E38:E41"/>
+    <mergeCell ref="E42:E45"/>
+    <mergeCell ref="E46:E49"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="E18:E21"/>
+    <mergeCell ref="E22:E25"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2">
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F3">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F4">
+        <v>31.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F5">
+        <v>23.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" t="s">
+        <v>125</v>
+      </c>
+      <c r="E6" t="s">
+        <v>164</v>
+      </c>
+      <c r="F6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>120</v>
+      </c>
+      <c r="E8" t="s">
+        <v>121</v>
+      </c>
+      <c r="F8">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>96</v>
+      </c>
+      <c r="E9" t="s">
+        <v>97</v>
+      </c>
+      <c r="F9">
+        <v>22.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="D2:F10">
+    <sortCondition ref="D2:D10"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="W8" sqref="W8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" customWidth="1"/>
     <col min="3" max="3" width="5.42578125" customWidth="1"/>
     <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
@@ -1262,10 +4806,10 @@
         <v>141</v>
       </c>
       <c r="B1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C1" t="s">
         <v>142</v>
-      </c>
-      <c r="C1" t="s">
-        <v>167</v>
       </c>
       <c r="D1" t="s">
         <v>143</v>
@@ -5215,173 +8759,4 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="A1:F10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>257</v>
-      </c>
-      <c r="D1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F2">
-        <v>15.7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" t="s">
-        <v>138</v>
-      </c>
-      <c r="F3">
-        <v>29.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>126</v>
-      </c>
-      <c r="E4" t="s">
-        <v>127</v>
-      </c>
-      <c r="F4">
-        <v>31.7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F5">
-        <v>23.4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" t="s">
-        <v>125</v>
-      </c>
-      <c r="E6" t="s">
-        <v>164</v>
-      </c>
-      <c r="F6">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>84</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>114</v>
-      </c>
-      <c r="E7" t="s">
-        <v>115</v>
-      </c>
-      <c r="F7">
-        <v>26.1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8">
-        <v>10.8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D9" t="s">
-        <v>120</v>
-      </c>
-      <c r="E9" t="s">
-        <v>121</v>
-      </c>
-      <c r="F9">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E10" t="s">
-        <v>97</v>
-      </c>
-      <c r="F10">
-        <v>22.5</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState ref="D2:F10">
-    <sortCondition ref="D2:D10"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/monster-golf-docs/monster2014/Monster2014.xlsx
+++ b/monster-golf-docs/monster2014/Monster2014.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11640" windowHeight="6690" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11640" windowHeight="6690" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Flights" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="Missing Info" sheetId="3" r:id="rId3"/>
     <sheet name="Everything" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="365">
   <si>
     <t>Jake</t>
   </si>
@@ -587,9 +587,6 @@
     <t>prplemel@msn.com</t>
   </si>
   <si>
-    <t>monster@monstergolf.org</t>
-  </si>
-  <si>
     <t>jhaseleu@teksystems.com</t>
   </si>
   <si>
@@ -800,9 +797,6 @@
     <t>DateEntered15</t>
   </si>
   <si>
-    <t>Emails</t>
-  </si>
-  <si>
     <t>Handicaps</t>
   </si>
   <si>
@@ -941,9 +935,6 @@
     <t>Derek Gulbransen</t>
   </si>
   <si>
-    <t>Garth Billsten</t>
-  </si>
-  <si>
     <t>Bob Holso</t>
   </si>
   <si>
@@ -1089,6 +1080,48 @@
   </si>
   <si>
     <t>Last2</t>
+  </si>
+  <si>
+    <t>Practice</t>
+  </si>
+  <si>
+    <t>Scot Anderson</t>
+  </si>
+  <si>
+    <t>MaryBeth Thomas</t>
+  </si>
+  <si>
+    <t>Mitch Mondola</t>
+  </si>
+  <si>
+    <t>Vince Larson</t>
+  </si>
+  <si>
+    <t>Justin Kosanovich</t>
+  </si>
+  <si>
+    <t>Chris Stafford</t>
+  </si>
+  <si>
+    <t>Garth Billstin</t>
+  </si>
+  <si>
+    <t>Starting Time</t>
+  </si>
+  <si>
+    <t>ceerie@hotmail.com</t>
+  </si>
+  <si>
+    <t>Mdsmith0369@sbcglobal.com</t>
+  </si>
+  <si>
+    <t>steven.ehase@gmail.com</t>
+  </si>
+  <si>
+    <t>Jencal01@yahoo.com</t>
+  </si>
+  <si>
+    <t>Tlevitt@telus.net</t>
   </si>
 </sst>
 </file>
@@ -1213,7 +1246,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1227,15 +1260,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="4" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="2" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="3" applyFill="1" applyAlignment="1">
@@ -1252,6 +1276,24 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="5" fillId="4" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="5" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1624,8 +1666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1650,28 +1692,28 @@
         <v>142</v>
       </c>
       <c r="C1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F1" t="s">
         <v>166</v>
       </c>
       <c r="G1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="I1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="J1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -1723,7 +1765,7 @@
         <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G3" t="s">
         <v>6</v>
@@ -1848,7 +1890,7 @@
         <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G7" t="s">
         <v>19</v>
@@ -1923,6 +1965,9 @@
       <c r="I9">
         <v>5</v>
       </c>
+      <c r="J9" t="s">
+        <v>362</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -2005,7 +2050,7 @@
         <v>7</v>
       </c>
       <c r="F12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G12" t="s">
         <v>30</v>
@@ -2017,7 +2062,7 @@
         <v>12</v>
       </c>
       <c r="J12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -2037,7 +2082,7 @@
         <v>8</v>
       </c>
       <c r="F13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G13" t="s">
         <v>49</v>
@@ -2049,7 +2094,7 @@
         <v>15</v>
       </c>
       <c r="J13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -2069,7 +2114,7 @@
         <v>8</v>
       </c>
       <c r="F14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G14" t="s">
         <v>23</v>
@@ -2081,7 +2126,7 @@
         <v>16</v>
       </c>
       <c r="J14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -2101,7 +2146,7 @@
         <v>7</v>
       </c>
       <c r="F15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G15" t="s">
         <v>6</v>
@@ -2113,7 +2158,7 @@
         <v>16</v>
       </c>
       <c r="J15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -2133,7 +2178,7 @@
         <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G16" t="s">
         <v>42</v>
@@ -2145,7 +2190,7 @@
         <v>9</v>
       </c>
       <c r="J16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -2165,7 +2210,7 @@
         <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G17" t="s">
         <v>72</v>
@@ -2177,7 +2222,7 @@
         <v>15</v>
       </c>
       <c r="J17" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -2197,7 +2242,7 @@
         <v>15</v>
       </c>
       <c r="F18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G18" t="s">
         <v>57</v>
@@ -2209,7 +2254,7 @@
         <v>11</v>
       </c>
       <c r="J18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -2229,7 +2274,7 @@
         <v>14</v>
       </c>
       <c r="F19" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G19" t="s">
         <v>61</v>
@@ -2241,7 +2286,7 @@
         <v>13</v>
       </c>
       <c r="J19" t="s">
-        <v>186</v>
+        <v>360</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -2261,7 +2306,7 @@
         <v>14</v>
       </c>
       <c r="F20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G20" t="s">
         <v>66</v>
@@ -2273,7 +2318,7 @@
         <v>15</v>
       </c>
       <c r="J20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -2293,7 +2338,7 @@
         <v>9</v>
       </c>
       <c r="F21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G21" t="s">
         <v>49</v>
@@ -2305,7 +2350,7 @@
         <v>20</v>
       </c>
       <c r="J21" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -2325,7 +2370,7 @@
         <v>16</v>
       </c>
       <c r="F22" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G22" t="s">
         <v>68</v>
@@ -2337,7 +2382,7 @@
         <v>14</v>
       </c>
       <c r="J22" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -2357,7 +2402,7 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G23" t="s">
         <v>42</v>
@@ -2369,7 +2414,7 @@
         <v>22</v>
       </c>
       <c r="J23" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -2389,7 +2434,7 @@
         <v>21</v>
       </c>
       <c r="F24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G24" t="s">
         <v>79</v>
@@ -2401,7 +2446,7 @@
         <v>11</v>
       </c>
       <c r="J24" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -2420,6 +2465,9 @@
       <c r="E25">
         <v>18</v>
       </c>
+      <c r="F25" t="s">
+        <v>363</v>
+      </c>
       <c r="G25" t="s">
         <v>84</v>
       </c>
@@ -2428,6 +2476,9 @@
       </c>
       <c r="I25">
         <v>15</v>
+      </c>
+      <c r="J25" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -2447,7 +2498,7 @@
         <v>16</v>
       </c>
       <c r="F26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G26" t="s">
         <v>87</v>
@@ -2457,6 +2508,9 @@
       </c>
       <c r="I26">
         <v>18</v>
+      </c>
+      <c r="J26" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -2476,7 +2530,7 @@
         <v>20</v>
       </c>
       <c r="F27" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G27" t="s">
         <v>2</v>
@@ -2488,7 +2542,7 @@
         <v>14</v>
       </c>
       <c r="J27" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -2508,7 +2562,7 @@
         <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G28" t="s">
         <v>93</v>
@@ -2520,7 +2574,7 @@
         <v>23</v>
       </c>
       <c r="J28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -2540,7 +2594,7 @@
         <v>13</v>
       </c>
       <c r="F29" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G29" t="s">
         <v>96</v>
@@ -2552,7 +2606,7 @@
         <v>23</v>
       </c>
       <c r="J29" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -2572,7 +2626,7 @@
         <v>21</v>
       </c>
       <c r="F30" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G30" t="s">
         <v>32</v>
@@ -2584,7 +2638,7 @@
         <v>17</v>
       </c>
       <c r="J30" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -2604,7 +2658,7 @@
         <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G31" t="s">
         <v>99</v>
@@ -2616,7 +2670,7 @@
         <v>28</v>
       </c>
       <c r="J31" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -2636,7 +2690,7 @@
         <v>27</v>
       </c>
       <c r="F32" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G32" t="s">
         <v>108</v>
@@ -2648,7 +2702,7 @@
         <v>14</v>
       </c>
       <c r="J32" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -2668,7 +2722,7 @@
         <v>23</v>
       </c>
       <c r="F33" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G33" t="s">
         <v>105</v>
@@ -2680,7 +2734,7 @@
         <v>19</v>
       </c>
       <c r="J33" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -2700,7 +2754,7 @@
         <v>23</v>
       </c>
       <c r="F34" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G34" t="s">
         <v>116</v>
@@ -2712,7 +2766,7 @@
         <v>20</v>
       </c>
       <c r="J34" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -2732,7 +2786,7 @@
         <v>24</v>
       </c>
       <c r="F35" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G35" t="s">
         <v>112</v>
@@ -2744,7 +2798,7 @@
         <v>21</v>
       </c>
       <c r="J35" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -2764,7 +2818,7 @@
         <v>31</v>
       </c>
       <c r="F36" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G36" t="s">
         <v>120</v>
@@ -2776,7 +2830,7 @@
         <v>18</v>
       </c>
       <c r="J36" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -2793,10 +2847,10 @@
         <v>164</v>
       </c>
       <c r="E37">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F37" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G37" t="s">
         <v>126</v>
@@ -2808,7 +2862,7 @@
         <v>32</v>
       </c>
       <c r="J37" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -2828,7 +2882,7 @@
         <v>17</v>
       </c>
       <c r="F38" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G38" t="s">
         <v>57</v>
@@ -2840,7 +2894,7 @@
         <v>34</v>
       </c>
       <c r="J38" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -2860,7 +2914,7 @@
         <v>23</v>
       </c>
       <c r="F39" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G39" t="s">
         <v>132</v>
@@ -2872,7 +2926,7 @@
         <v>28</v>
       </c>
       <c r="J39" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -2892,7 +2946,7 @@
         <v>23</v>
       </c>
       <c r="F40" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G40" t="s">
         <v>123</v>
@@ -2904,7 +2958,7 @@
         <v>30</v>
       </c>
       <c r="J40" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -2924,7 +2978,7 @@
         <v>19</v>
       </c>
       <c r="F41" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G41" t="s">
         <v>134</v>
@@ -2936,7 +2990,7 @@
         <v>35</v>
       </c>
       <c r="J41" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -2956,7 +3010,7 @@
         <v>30</v>
       </c>
       <c r="F42" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G42" t="s">
         <v>19</v>
@@ -2968,7 +3022,7 @@
         <v>30</v>
       </c>
       <c r="J42" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -2988,7 +3042,7 @@
         <v>39</v>
       </c>
       <c r="F43" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G43" t="s">
         <v>6</v>
@@ -3000,7 +3054,7 @@
         <v>35</v>
       </c>
       <c r="J43" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -3013,10 +3067,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G85"/>
+  <dimension ref="A1:M85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView topLeftCell="B51" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3024,1589 +3078,2341 @@
     <col min="1" max="1" width="5.28515625" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.28515625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" customWidth="1"/>
     <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.28515625" style="14" customWidth="1"/>
+    <col min="7" max="7" width="5.28515625" style="11" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.28515625" style="11" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="19.28515625" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="5.28515625" style="11" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="14" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12"/>
-      <c r="B1" s="13" t="s">
-        <v>347</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>345</v>
-      </c>
-      <c r="D1" s="12" t="s">
+    <row r="1" spans="1:13" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9"/>
+      <c r="B1" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="D1" s="9"/>
+      <c r="E1" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="9"/>
+    </row>
+    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="18">
+        <v>0.40625</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="17">
+        <v>1</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="G2" s="12">
+        <v>12</v>
+      </c>
+      <c r="H2" s="17">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="J2" s="12">
+        <v>8</v>
+      </c>
+      <c r="K2" s="17"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="12"/>
+    </row>
+    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="G3" s="12">
+        <v>4</v>
+      </c>
+      <c r="H3" s="16"/>
+      <c r="I3" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="J3" s="12">
+        <v>2</v>
+      </c>
+      <c r="K3" s="16"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="12"/>
+    </row>
+    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="G4" s="12">
+        <v>14</v>
+      </c>
+      <c r="H4" s="16"/>
+      <c r="I4" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="J4" s="12">
+        <v>3</v>
+      </c>
+      <c r="K4" s="16"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="12"/>
+    </row>
+    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="G5" s="12">
+        <v>15</v>
+      </c>
+      <c r="H5" s="16"/>
+      <c r="I5" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="J5" s="12">
+        <v>5</v>
+      </c>
+      <c r="K5" s="16"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="12"/>
+    </row>
+    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="14">
+        <v>0.41319444444444442</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="15">
+        <v>2</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="G6" s="13">
+        <v>8</v>
+      </c>
+      <c r="H6" s="15">
+        <v>2</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="J6" s="13">
+        <v>12</v>
+      </c>
+      <c r="K6" s="15"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="13"/>
+    </row>
+    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="G7" s="13">
+        <v>2</v>
+      </c>
+      <c r="H7" s="15"/>
+      <c r="I7" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="J7" s="13">
+        <v>4</v>
+      </c>
+      <c r="K7" s="15"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="13"/>
+    </row>
+    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="G8" s="13">
+        <v>11</v>
+      </c>
+      <c r="H8" s="15"/>
+      <c r="I8" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="J8" s="13">
+        <v>23</v>
+      </c>
+      <c r="K8" s="15"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="13"/>
+    </row>
+    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="G9" s="13">
+        <v>7</v>
+      </c>
+      <c r="H9" s="15"/>
+      <c r="I9" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="J9" s="13">
+        <v>20</v>
+      </c>
+      <c r="K9" s="15"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="13"/>
+    </row>
+    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="19">
+        <v>0.4201388888888889</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="16">
+        <v>3</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="G10" s="12">
+        <v>3</v>
+      </c>
+      <c r="H10" s="16">
+        <v>3</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="J10" s="12">
+        <v>11</v>
+      </c>
+      <c r="K10" s="16"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="12"/>
+    </row>
+    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="G11" s="12">
+        <v>5</v>
+      </c>
+      <c r="H11" s="16"/>
+      <c r="I11" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="J11" s="12">
+        <v>7</v>
+      </c>
+      <c r="K11" s="16"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="12"/>
+    </row>
+    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G12" s="12">
+        <v>2</v>
+      </c>
+      <c r="H12" s="16"/>
+      <c r="I12" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="J12" s="12">
+        <v>7</v>
+      </c>
+      <c r="K12" s="16"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="12"/>
+    </row>
+    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="G13" s="12">
+        <v>4</v>
+      </c>
+      <c r="H13" s="16"/>
+      <c r="I13" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="J13" s="12">
+        <v>16</v>
+      </c>
+      <c r="K13" s="16"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="12"/>
+    </row>
+    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="B14" s="14">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="15">
+        <v>4</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="G14" s="13">
+        <v>5</v>
+      </c>
+      <c r="H14" s="15">
+        <v>4</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="J14" s="13">
+        <v>13</v>
+      </c>
+      <c r="K14" s="15"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="13"/>
+    </row>
+    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="G15" s="13">
+        <v>10</v>
+      </c>
+      <c r="H15" s="15"/>
+      <c r="I15" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="J15" s="13">
+        <v>14</v>
+      </c>
+      <c r="K15" s="15"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="13"/>
+    </row>
+    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="G16" s="13">
+        <v>7</v>
+      </c>
+      <c r="H16" s="15"/>
+      <c r="I16" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="J16" s="13">
+        <v>2</v>
+      </c>
+      <c r="K16" s="15"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="13"/>
+    </row>
+    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="G17" s="13">
+        <v>16</v>
+      </c>
+      <c r="H17" s="15"/>
+      <c r="I17" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="J17" s="13">
+        <v>4</v>
+      </c>
+      <c r="K17" s="15"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="13"/>
+    </row>
+    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="19">
+        <v>0.43402777777777801</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="16">
+        <v>5</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="G18" s="12">
+        <v>23</v>
+      </c>
+      <c r="H18" s="16">
+        <v>5</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="J18" s="12">
+        <v>16</v>
+      </c>
+      <c r="K18" s="16"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="12"/>
+    </row>
+    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="G19" s="12">
+        <v>20</v>
+      </c>
+      <c r="H19" s="16"/>
+      <c r="I19" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="J19" s="12">
+        <v>8</v>
+      </c>
+      <c r="K19" s="16"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="12"/>
+    </row>
+    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="G20" s="12">
+        <v>7</v>
+      </c>
+      <c r="H20" s="16"/>
+      <c r="I20" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="J20" s="12">
+        <v>7</v>
+      </c>
+      <c r="K20" s="16"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="12"/>
+    </row>
+    <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="G21" s="12">
+        <v>12</v>
+      </c>
+      <c r="H21" s="16"/>
+      <c r="I21" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="J21" s="12">
+        <v>12</v>
+      </c>
+      <c r="K21" s="16"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="12"/>
+    </row>
+    <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="14">
+        <v>0.44097222222222199</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="15">
+        <v>6</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="G22" s="13">
+        <v>16</v>
+      </c>
+      <c r="H22" s="15">
+        <v>6</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="J22" s="13">
+        <v>22</v>
+      </c>
+      <c r="K22" s="15"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="13"/>
+    </row>
+    <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="G23" s="13">
+        <v>8</v>
+      </c>
+      <c r="H23" s="15"/>
+      <c r="I23" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="J23" s="13">
+        <v>10</v>
+      </c>
+      <c r="K23" s="15"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="13"/>
+    </row>
+    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="G24" s="13">
+        <v>7</v>
+      </c>
+      <c r="H24" s="15"/>
+      <c r="I24" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="J24" s="13">
+        <v>10</v>
+      </c>
+      <c r="K24" s="15"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="13"/>
+    </row>
+    <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="G25" s="13">
+        <v>11</v>
+      </c>
+      <c r="H25" s="15"/>
+      <c r="I25" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="J25" s="13">
+        <v>7</v>
+      </c>
+      <c r="K25" s="15"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="13"/>
+    </row>
+    <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="7"/>
+      <c r="B26" s="19">
+        <v>0.44791666666666702</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="D26" s="7"/>
+      <c r="E26" s="16">
+        <v>7</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="G26" s="12">
+        <v>24</v>
+      </c>
+      <c r="H26" s="16">
+        <v>7</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="J26" s="12">
+        <v>21</v>
+      </c>
+      <c r="K26" s="16"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="12"/>
+    </row>
+    <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="7"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="G27" s="12">
+        <v>21</v>
+      </c>
+      <c r="H27" s="16"/>
+      <c r="I27" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="J27" s="12">
+        <v>17</v>
+      </c>
+      <c r="K27" s="16"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="12"/>
+    </row>
+    <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="7"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="D28" s="7"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="G28" s="12">
+        <v>13</v>
+      </c>
+      <c r="H28" s="16"/>
+      <c r="I28" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="J28" s="12">
+        <v>5</v>
+      </c>
+      <c r="K28" s="16"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="12"/>
+    </row>
+    <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="7"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="D29" s="7"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="G29" s="12">
+        <v>23</v>
+      </c>
+      <c r="H29" s="16"/>
+      <c r="I29" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="J29" s="12">
+        <v>10</v>
+      </c>
+      <c r="K29" s="16"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="12"/>
+    </row>
+    <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="8"/>
+      <c r="B30" s="14">
+        <v>0.45486111111111099</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="15">
+        <v>8</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="G30" s="13">
+        <v>4</v>
+      </c>
+      <c r="H30" s="15">
+        <v>8</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="J30" s="13">
+        <v>5</v>
+      </c>
+      <c r="K30" s="15"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="13"/>
+    </row>
+    <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="8"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="G31" s="13">
+        <v>6</v>
+      </c>
+      <c r="H31" s="15"/>
+      <c r="I31" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="J31" s="13">
+        <v>11</v>
+      </c>
+      <c r="K31" s="15"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="13"/>
+    </row>
+    <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="8"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="E1" s="13" t="s">
-        <v>347</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>346</v>
-      </c>
-      <c r="G1" s="12" t="s">
+      <c r="D32" s="8"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="G32" s="13">
+        <v>21</v>
+      </c>
+      <c r="H32" s="15"/>
+      <c r="I32" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="J32" s="13">
+        <v>21</v>
+      </c>
+      <c r="K32" s="15"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="13"/>
+    </row>
+    <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="8"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="G33" s="13">
+        <v>11</v>
+      </c>
+      <c r="H33" s="15"/>
+      <c r="I33" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="J33" s="13">
+        <v>11</v>
+      </c>
+      <c r="K33" s="15"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="13"/>
+    </row>
+    <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="7"/>
+      <c r="B34" s="19">
+        <v>0.46180555555555503</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="D34" s="7"/>
+      <c r="E34" s="16">
+        <v>9</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="G34" s="12">
+        <v>13</v>
+      </c>
+      <c r="H34" s="16">
+        <v>9</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="J34" s="12">
+        <v>14</v>
+      </c>
+      <c r="K34" s="16"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="12"/>
+    </row>
+    <row r="35" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="7"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="D35" s="7"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="G35" s="12">
+        <v>14</v>
+      </c>
+      <c r="H35" s="16"/>
+      <c r="I35" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="J35" s="12">
+        <v>15</v>
+      </c>
+      <c r="K35" s="16"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="12"/>
+    </row>
+    <row r="36" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="7"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="D36" s="7"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="G36" s="12">
+        <v>15</v>
+      </c>
+      <c r="H36" s="16"/>
+      <c r="I36" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="J36" s="12">
+        <v>11</v>
+      </c>
+      <c r="K36" s="16"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="12"/>
+    </row>
+    <row r="37" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="7"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="G37" s="12">
+        <v>8</v>
+      </c>
+      <c r="H37" s="16"/>
+      <c r="I37" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="J37" s="12">
+        <v>28</v>
+      </c>
+      <c r="K37" s="16"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="12"/>
+    </row>
+    <row r="38" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="8"/>
+      <c r="B38" s="14">
+        <v>0.46875</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="15">
+        <v>10</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="G38" s="13">
+        <v>30</v>
+      </c>
+      <c r="H38" s="15">
+        <v>10</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="J38" s="13">
+        <v>7</v>
+      </c>
+      <c r="K38" s="15"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="13"/>
+    </row>
+    <row r="39" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="8"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="G39" s="13">
+        <v>30</v>
+      </c>
+      <c r="H39" s="15"/>
+      <c r="I39" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="J39" s="13">
+        <v>11</v>
+      </c>
+      <c r="K39" s="15"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="13"/>
+    </row>
+    <row r="40" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="8"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="G40" s="13">
+        <v>11</v>
+      </c>
+      <c r="H40" s="15"/>
+      <c r="I40" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="J40" s="13">
+        <v>14</v>
+      </c>
+      <c r="K40" s="15"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="13"/>
+    </row>
+    <row r="41" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="8"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="G41" s="13">
+        <v>28</v>
+      </c>
+      <c r="H41" s="15"/>
+      <c r="I41" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="J41" s="13">
+        <v>20</v>
+      </c>
+      <c r="K41" s="15"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="13"/>
+    </row>
+    <row r="42" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="7"/>
+      <c r="B42" s="19">
+        <v>0.47569444444444398</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="D42" s="7"/>
+      <c r="E42" s="16">
+        <v>11</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="G42" s="12">
+        <v>34</v>
+      </c>
+      <c r="H42" s="16">
+        <v>11</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="J42" s="12">
+        <v>15</v>
+      </c>
+      <c r="K42" s="16"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="12"/>
+    </row>
+    <row r="43" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="7"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="D43" s="7"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="G43" s="12">
+        <v>17</v>
+      </c>
+      <c r="H43" s="16"/>
+      <c r="I43" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="J43" s="12">
+        <v>11</v>
+      </c>
+      <c r="K43" s="16"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="12"/>
+    </row>
+    <row r="44" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="7"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="D44" s="7"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="G44" s="12">
+        <v>10</v>
+      </c>
+      <c r="H44" s="16"/>
+      <c r="I44" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="J44" s="12">
+        <v>4</v>
+      </c>
+      <c r="K44" s="16"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="12"/>
+    </row>
+    <row r="45" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="7"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="D45" s="7"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="G45" s="12">
+        <v>7</v>
+      </c>
+      <c r="H45" s="16"/>
+      <c r="I45" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="J45" s="12">
+        <v>6</v>
+      </c>
+      <c r="K45" s="16"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="12"/>
+    </row>
+    <row r="46" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="8"/>
+      <c r="B46" s="14">
+        <v>0.48263888888888801</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="15">
+        <v>12</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="G46" s="13">
+        <v>23</v>
+      </c>
+      <c r="H46" s="15">
+        <v>12</v>
+      </c>
+      <c r="I46" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="J46" s="13">
+        <v>23</v>
+      </c>
+      <c r="K46" s="15"/>
+      <c r="L46" s="6"/>
+      <c r="M46" s="13"/>
+    </row>
+    <row r="47" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="8"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="G47" s="13">
+        <v>19</v>
+      </c>
+      <c r="H47" s="15"/>
+      <c r="I47" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="J47" s="13">
+        <v>19</v>
+      </c>
+      <c r="K47" s="15"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="13"/>
+    </row>
+    <row r="48" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="8"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="G48" s="13">
+        <v>23</v>
+      </c>
+      <c r="H48" s="15"/>
+      <c r="I48" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="J48" s="13">
+        <v>32</v>
+      </c>
+      <c r="K48" s="15"/>
+      <c r="L48" s="6"/>
+      <c r="M48" s="13"/>
+    </row>
+    <row r="49" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="8"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="G49" s="13">
+        <v>12</v>
+      </c>
+      <c r="H49" s="15"/>
+      <c r="I49" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="J49" s="13">
+        <v>19</v>
+      </c>
+      <c r="K49" s="15"/>
+      <c r="L49" s="6"/>
+      <c r="M49" s="13"/>
+    </row>
+    <row r="50" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="7"/>
+      <c r="B50" s="19">
+        <v>0.48958333333333198</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="D50" s="7"/>
+      <c r="E50" s="16">
+        <v>13</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="G50" s="12">
+        <v>23</v>
+      </c>
+      <c r="H50" s="16">
+        <v>13</v>
+      </c>
+      <c r="I50" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="J50" s="12">
+        <v>9</v>
+      </c>
+      <c r="K50" s="16"/>
+      <c r="L50" s="5"/>
+      <c r="M50" s="12"/>
+    </row>
+    <row r="51" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="7"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="D51" s="7"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="G51" s="12">
+        <v>30</v>
+      </c>
+      <c r="H51" s="16"/>
+      <c r="I51" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="J51" s="12">
+        <v>15</v>
+      </c>
+      <c r="K51" s="16"/>
+      <c r="L51" s="5"/>
+      <c r="M51" s="12"/>
+    </row>
+    <row r="52" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="7"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="D52" s="7"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="G52" s="12">
+        <v>32</v>
+      </c>
+      <c r="H52" s="16"/>
+      <c r="I52" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="J52" s="12">
+        <v>11</v>
+      </c>
+      <c r="K52" s="16"/>
+      <c r="L52" s="5"/>
+      <c r="M52" s="12"/>
+    </row>
+    <row r="53" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="7"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="D53" s="7"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="G53" s="12">
+        <v>19</v>
+      </c>
+      <c r="H53" s="16"/>
+      <c r="I53" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="J53" s="12">
+        <v>15</v>
+      </c>
+      <c r="K53" s="16"/>
+      <c r="L53" s="5"/>
+      <c r="M53" s="12"/>
+    </row>
+    <row r="54" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="8"/>
+      <c r="B54" s="14">
+        <v>0.49652777777777601</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="15">
+        <v>14</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="G54" s="13">
+        <v>11</v>
+      </c>
+      <c r="H54" s="15">
+        <v>14</v>
+      </c>
+      <c r="I54" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="J54" s="13">
+        <v>18</v>
+      </c>
+      <c r="K54" s="15"/>
+      <c r="L54" s="6"/>
+      <c r="M54" s="13"/>
+    </row>
+    <row r="55" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="8"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="G55" s="13">
+        <v>15</v>
+      </c>
+      <c r="H55" s="15"/>
+      <c r="I55" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="J55" s="13">
+        <v>15</v>
+      </c>
+      <c r="K55" s="15"/>
+      <c r="L55" s="6"/>
+      <c r="M55" s="13"/>
+    </row>
+    <row r="56" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="8"/>
+      <c r="B56" s="15"/>
+      <c r="C56" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="G56" s="13">
+        <v>14</v>
+      </c>
+      <c r="H56" s="15"/>
+      <c r="I56" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="J56" s="13">
+        <v>15</v>
+      </c>
+      <c r="K56" s="15"/>
+      <c r="L56" s="6"/>
+      <c r="M56" s="13"/>
+    </row>
+    <row r="57" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="8"/>
+      <c r="B57" s="15"/>
+      <c r="C57" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="G57" s="13">
+        <v>20</v>
+      </c>
+      <c r="H57" s="15"/>
+      <c r="I57" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="J57" s="13">
+        <v>8</v>
+      </c>
+      <c r="K57" s="15"/>
+      <c r="L57" s="6"/>
+      <c r="M57" s="13"/>
+    </row>
+    <row r="58" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="7"/>
+      <c r="B58" s="19">
+        <v>0.50347222222221999</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="D58" s="7"/>
+      <c r="E58" s="16">
+        <v>15</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="G58" s="12">
+        <v>9</v>
+      </c>
+      <c r="H58" s="16">
+        <v>15</v>
+      </c>
+      <c r="I58" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="J58" s="12">
+        <v>28</v>
+      </c>
+      <c r="K58" s="16"/>
+      <c r="L58" s="5"/>
+      <c r="M58" s="12"/>
+    </row>
+    <row r="59" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="7"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="D59" s="7"/>
+      <c r="E59" s="16"/>
+      <c r="F59" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="G59" s="12">
+        <v>15</v>
+      </c>
+      <c r="H59" s="16"/>
+      <c r="I59" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="J59" s="12">
+        <v>23</v>
+      </c>
+      <c r="K59" s="16"/>
+      <c r="L59" s="5"/>
+      <c r="M59" s="12"/>
+    </row>
+    <row r="60" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="7"/>
+      <c r="B60" s="16"/>
+      <c r="C60" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="D60" s="7"/>
+      <c r="E60" s="16"/>
+      <c r="F60" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="G60" s="12">
+        <v>14</v>
+      </c>
+      <c r="H60" s="16"/>
+      <c r="I60" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="J60" s="12">
+        <v>23</v>
+      </c>
+      <c r="K60" s="16"/>
+      <c r="L60" s="5"/>
+      <c r="M60" s="12"/>
+    </row>
+    <row r="61" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="7"/>
+      <c r="B61" s="16"/>
+      <c r="C61" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="D61" s="7"/>
+      <c r="E61" s="16"/>
+      <c r="F61" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="G61" s="12">
+        <v>16</v>
+      </c>
+      <c r="H61" s="16"/>
+      <c r="I61" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="J61" s="12">
+        <v>30</v>
+      </c>
+      <c r="K61" s="16"/>
+      <c r="L61" s="5"/>
+      <c r="M61" s="12"/>
+    </row>
+    <row r="62" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="8"/>
+      <c r="B62" s="14">
+        <v>0.51041666666666397</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="15">
+        <v>16</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="G62" s="13">
+        <v>21</v>
+      </c>
+      <c r="H62" s="15">
+        <v>16</v>
+      </c>
+      <c r="I62" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="J62" s="13">
+        <v>14</v>
+      </c>
+      <c r="K62" s="15"/>
+      <c r="L62" s="6"/>
+      <c r="M62" s="13"/>
+    </row>
+    <row r="63" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="8"/>
+      <c r="B63" s="15"/>
+      <c r="C63" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="D63" s="8"/>
+      <c r="E63" s="15"/>
+      <c r="F63" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="G63" s="13">
+        <v>17</v>
+      </c>
+      <c r="H63" s="15"/>
+      <c r="I63" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="J63" s="13">
+        <v>16</v>
+      </c>
+      <c r="K63" s="15"/>
+      <c r="L63" s="6"/>
+      <c r="M63" s="13"/>
+    </row>
+    <row r="64" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="8"/>
+      <c r="B64" s="15"/>
+      <c r="C64" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="G64" s="13">
+        <v>27</v>
+      </c>
+      <c r="H64" s="15"/>
+      <c r="I64" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="J64" s="13">
+        <v>13</v>
+      </c>
+      <c r="K64" s="15"/>
+      <c r="L64" s="6"/>
+      <c r="M64" s="13"/>
+    </row>
+    <row r="65" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="8"/>
+      <c r="B65" s="15"/>
+      <c r="C65" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="D65" s="8"/>
+      <c r="E65" s="15"/>
+      <c r="F65" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="G65" s="13">
+        <v>14</v>
+      </c>
+      <c r="H65" s="15"/>
+      <c r="I65" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="J65" s="13">
+        <v>23</v>
+      </c>
+      <c r="K65" s="15"/>
+      <c r="L65" s="6"/>
+      <c r="M65" s="13"/>
+    </row>
+    <row r="66" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="7"/>
+      <c r="B66" s="19">
+        <v>0.51736111111110805</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="D66" s="7"/>
+      <c r="E66" s="16">
+        <v>17</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="G66" s="12">
+        <v>18</v>
+      </c>
+      <c r="H66" s="16">
+        <v>17</v>
+      </c>
+      <c r="I66" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="J66" s="12">
+        <v>24</v>
+      </c>
+      <c r="K66" s="16"/>
+      <c r="L66" s="5"/>
+      <c r="M66" s="12"/>
+    </row>
+    <row r="67" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="7"/>
+      <c r="B67" s="16"/>
+      <c r="C67" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="D67" s="7"/>
+      <c r="E67" s="16"/>
+      <c r="F67" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="G67" s="12">
+        <v>15</v>
+      </c>
+      <c r="H67" s="16"/>
+      <c r="I67" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="J67" s="12">
+        <v>21</v>
+      </c>
+      <c r="K67" s="16"/>
+      <c r="L67" s="5"/>
+      <c r="M67" s="12"/>
+    </row>
+    <row r="68" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="7"/>
+      <c r="B68" s="16"/>
+      <c r="C68" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="D68" s="7"/>
+      <c r="E68" s="16"/>
+      <c r="F68" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="G68" s="12">
+        <v>22</v>
+      </c>
+      <c r="H68" s="16"/>
+      <c r="I68" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="J68" s="12">
+        <v>34</v>
+      </c>
+      <c r="K68" s="16"/>
+      <c r="L68" s="5"/>
+      <c r="M68" s="12"/>
+    </row>
+    <row r="69" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="7"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="16"/>
+      <c r="F69" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="G69" s="12">
+        <v>10</v>
+      </c>
+      <c r="H69" s="16"/>
+      <c r="I69" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="J69" s="12">
+        <v>17</v>
+      </c>
+      <c r="K69" s="16"/>
+      <c r="L69" s="5"/>
+      <c r="M69" s="12"/>
+    </row>
+    <row r="70" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="8"/>
+      <c r="B70" s="14">
+        <v>0.52430555555555203</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="D70" s="8"/>
+      <c r="E70" s="15">
+        <v>18</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="G70" s="13">
+        <v>5</v>
+      </c>
+      <c r="H70" s="15">
+        <v>18</v>
+      </c>
+      <c r="I70" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="J70" s="13">
+        <v>23</v>
+      </c>
+      <c r="K70" s="15"/>
+      <c r="L70" s="6"/>
+      <c r="M70" s="13"/>
+    </row>
+    <row r="71" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="8"/>
+      <c r="B71" s="15"/>
+      <c r="C71" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="D71" s="8"/>
+      <c r="E71" s="15"/>
+      <c r="F71" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="G71" s="13">
+        <v>11</v>
+      </c>
+      <c r="H71" s="15"/>
+      <c r="I71" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="J71" s="13">
+        <v>12</v>
+      </c>
+      <c r="K71" s="15"/>
+      <c r="L71" s="6"/>
+      <c r="M71" s="13"/>
+    </row>
+    <row r="72" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="8"/>
+      <c r="B72" s="15"/>
+      <c r="C72" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="D72" s="8"/>
+      <c r="E72" s="15"/>
+      <c r="F72" s="6" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="7">
-        <v>1</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="G72" s="13">
+        <v>9</v>
+      </c>
+      <c r="H72" s="15"/>
+      <c r="I72" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="J72" s="13">
+        <v>19</v>
+      </c>
+      <c r="K72" s="15"/>
+      <c r="L72" s="6"/>
+      <c r="M72" s="13"/>
+    </row>
+    <row r="73" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="8"/>
+      <c r="B73" s="15"/>
+      <c r="C73" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="D73" s="8"/>
+      <c r="E73" s="15"/>
+      <c r="F73" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="D2" s="15">
+      <c r="G73" s="13">
+        <v>20</v>
+      </c>
+      <c r="H73" s="15"/>
+      <c r="I73" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="J73" s="13">
+        <v>35</v>
+      </c>
+      <c r="K73" s="15"/>
+      <c r="L73" s="6"/>
+      <c r="M73" s="13"/>
+    </row>
+    <row r="74" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="7"/>
+      <c r="B74" s="19">
+        <v>0.531249999999996</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="D74" s="7"/>
+      <c r="E74" s="16">
+        <v>19</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="G74" s="12">
+        <v>15</v>
+      </c>
+      <c r="H74" s="16">
+        <v>19</v>
+      </c>
+      <c r="I74" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="J74" s="12">
+        <v>27</v>
+      </c>
+      <c r="K74" s="16"/>
+      <c r="L74" s="5"/>
+      <c r="M74" s="12"/>
+    </row>
+    <row r="75" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="7"/>
+      <c r="B75" s="16"/>
+      <c r="C75" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="D75" s="7"/>
+      <c r="E75" s="16"/>
+      <c r="F75" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="G75" s="12">
+        <v>11</v>
+      </c>
+      <c r="H75" s="16"/>
+      <c r="I75" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="J75" s="12">
+        <v>14</v>
+      </c>
+      <c r="K75" s="16"/>
+      <c r="L75" s="5"/>
+      <c r="M75" s="12"/>
+    </row>
+    <row r="76" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="7"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="D76" s="7"/>
+      <c r="E76" s="16"/>
+      <c r="F76" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="G76" s="12">
+        <v>31</v>
+      </c>
+      <c r="H76" s="16"/>
+      <c r="I76" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="J76" s="12">
         <v>9</v>
       </c>
-      <c r="E2" s="7">
-        <v>1</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="G2" s="15">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="D3" s="15">
+      <c r="K76" s="16"/>
+      <c r="L76" s="5"/>
+      <c r="M76" s="12"/>
+    </row>
+    <row r="77" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="7"/>
+      <c r="B77" s="16"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="16"/>
+      <c r="F77" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="G77" s="12">
+        <v>18</v>
+      </c>
+      <c r="H77" s="16"/>
+      <c r="I77" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="J77" s="12">
+        <v>20</v>
+      </c>
+      <c r="K77" s="16"/>
+      <c r="L77" s="5"/>
+      <c r="M77" s="12"/>
+    </row>
+    <row r="78" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="8"/>
+      <c r="B78" s="14">
+        <v>0.53819444444443998</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="D78" s="8"/>
+      <c r="E78" s="15">
+        <v>20</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="G78" s="13">
+        <v>28</v>
+      </c>
+      <c r="H78" s="15">
+        <v>20</v>
+      </c>
+      <c r="I78" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="J78" s="13">
+        <v>31</v>
+      </c>
+      <c r="K78" s="15"/>
+      <c r="L78" s="6"/>
+      <c r="M78" s="13"/>
+    </row>
+    <row r="79" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="8"/>
+      <c r="B79" s="15"/>
+      <c r="C79" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="D79" s="8"/>
+      <c r="E79" s="15"/>
+      <c r="F79" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="G79" s="13">
+        <v>23</v>
+      </c>
+      <c r="H79" s="15"/>
+      <c r="I79" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="J79" s="13">
+        <v>18</v>
+      </c>
+      <c r="K79" s="15"/>
+      <c r="L79" s="6"/>
+      <c r="M79" s="13"/>
+    </row>
+    <row r="80" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="8"/>
+      <c r="B80" s="15"/>
+      <c r="C80" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="D80" s="8"/>
+      <c r="E80" s="15"/>
+      <c r="F80" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="G80" s="13">
+        <v>16</v>
+      </c>
+      <c r="H80" s="15"/>
+      <c r="I80" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="J80" s="13">
+        <v>16</v>
+      </c>
+      <c r="K80" s="15"/>
+      <c r="L80" s="6"/>
+      <c r="M80" s="13"/>
+    </row>
+    <row r="81" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="8"/>
+      <c r="B81" s="15"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="15"/>
+      <c r="F81" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="G81" s="13">
+        <v>18</v>
+      </c>
+      <c r="H81" s="15"/>
+      <c r="I81" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="J81" s="13">
+        <v>18</v>
+      </c>
+      <c r="K81" s="15"/>
+      <c r="L81" s="6"/>
+      <c r="M81" s="13"/>
+    </row>
+    <row r="82" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="7"/>
+      <c r="B82" s="16"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="16">
         <v>21</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="G3" s="15">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="D4" s="15">
-        <v>20</v>
-      </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="G4" s="15">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="D5" s="15">
-        <v>17</v>
-      </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="G5" s="15">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="9">
-        <v>2</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="D6" s="16">
-        <v>15</v>
-      </c>
-      <c r="E6" s="9">
-        <v>2</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="G6" s="16">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="D7" s="16">
-        <v>11</v>
-      </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="G7" s="16">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="D8" s="16">
-        <v>31</v>
-      </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="G8" s="16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="D9" s="16">
-        <v>18</v>
-      </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="6" t="s">
+      <c r="F82" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="G82" s="12">
+        <v>19</v>
+      </c>
+      <c r="H82" s="16">
+        <v>21</v>
+      </c>
+      <c r="I82" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="J82" s="12">
+        <v>30</v>
+      </c>
+      <c r="K82" s="16"/>
+      <c r="L82" s="5"/>
+      <c r="M82" s="12"/>
+    </row>
+    <row r="83" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="7"/>
+      <c r="B83" s="16"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="16"/>
+      <c r="F83" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="G83" s="12">
+        <v>35</v>
+      </c>
+      <c r="H83" s="16"/>
+      <c r="I83" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="J83" s="12">
+        <v>30</v>
+      </c>
+      <c r="K83" s="16"/>
+      <c r="L83" s="5"/>
+      <c r="M83" s="12"/>
+    </row>
+    <row r="84" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="7"/>
+      <c r="B84" s="16"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="16"/>
+      <c r="F84" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="G9" s="16">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="8">
-        <v>3</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="D10" s="15">
-        <v>12</v>
-      </c>
-      <c r="E10" s="8">
-        <v>3</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="G10" s="15">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="D11" s="15">
-        <v>4</v>
-      </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="G11" s="15">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="D12" s="15">
-        <v>14</v>
-      </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="G12" s="15">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="D13" s="15">
-        <v>15</v>
-      </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="G13" s="15">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="9">
-        <v>4</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="D14" s="16">
-        <v>21</v>
-      </c>
-      <c r="E14" s="9">
-        <v>4</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="G14" s="16">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="D15" s="16">
-        <v>4</v>
-      </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="G15" s="16">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="D16" s="16">
-        <v>11</v>
-      </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="G16" s="16">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="D17" s="16">
-        <v>6</v>
-      </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="G17" s="16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="8">
-        <v>5</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="D18" s="15">
-        <v>30</v>
-      </c>
-      <c r="E18" s="8">
-        <v>5</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="G18" s="15">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="D19" s="15">
-        <v>11</v>
-      </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="G19" s="15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="D20" s="15">
-        <v>30</v>
-      </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="G20" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="5" t="s">
+      <c r="G84" s="12">
+        <v>39</v>
+      </c>
+      <c r="H84" s="16"/>
+      <c r="I84" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="D21" s="15">
-        <v>28</v>
-      </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="G21" s="15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
-      <c r="B22" s="9">
-        <v>6</v>
-      </c>
-      <c r="C22" s="6" t="s">
+      <c r="J84" s="12">
+        <v>39</v>
+      </c>
+      <c r="K84" s="16"/>
+      <c r="L84" s="5"/>
+      <c r="M84" s="12"/>
+    </row>
+    <row r="85" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="7"/>
+      <c r="B85" s="16"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="16"/>
+      <c r="F85" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="D22" s="16">
-        <v>19</v>
-      </c>
-      <c r="E22" s="9">
-        <v>6</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="G22" s="16">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="D23" s="16">
-        <v>39</v>
-      </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="G23" s="16">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="D24" s="16">
+      <c r="G85" s="12">
         <v>35</v>
       </c>
-      <c r="E24" s="9"/>
-      <c r="F24" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="G24" s="16">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="D25" s="16">
+      <c r="H85" s="16"/>
+      <c r="I85" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="J85" s="12">
         <v>35</v>
       </c>
-      <c r="E25" s="9"/>
-      <c r="F25" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="G25" s="16">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
-      <c r="B26" s="8">
-        <v>7</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="D26" s="15">
-        <v>23</v>
-      </c>
-      <c r="E26" s="8">
-        <v>7</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="G26" s="15">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="10"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="D27" s="15">
-        <v>23</v>
-      </c>
-      <c r="E27" s="8"/>
-      <c r="F27" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="G27" s="15">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="10"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="D28" s="15">
-        <v>19</v>
-      </c>
-      <c r="E28" s="8"/>
-      <c r="F28" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="G28" s="15">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="10"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="D29" s="15">
-        <v>12</v>
-      </c>
-      <c r="E29" s="8"/>
-      <c r="F29" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="G29" s="15">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="11"/>
-      <c r="B30" s="9">
-        <v>8</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="D30" s="16">
-        <v>13</v>
-      </c>
-      <c r="E30" s="9">
-        <v>8</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="G30" s="16">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="11"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="D31" s="16">
-        <v>24</v>
-      </c>
-      <c r="E31" s="9"/>
-      <c r="F31" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="G31" s="16">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="11"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="D32" s="16">
-        <v>21</v>
-      </c>
-      <c r="E32" s="9"/>
-      <c r="F32" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="G32" s="16">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="11"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="D33" s="16">
-        <v>23</v>
-      </c>
-      <c r="E33" s="9"/>
-      <c r="F33" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="G33" s="16">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="10"/>
-      <c r="B34" s="8">
-        <v>9</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="D34" s="15">
-        <v>18</v>
-      </c>
-      <c r="E34" s="8">
-        <v>9</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="G34" s="15">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="10"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="D35" s="15">
-        <v>22</v>
-      </c>
-      <c r="E35" s="8"/>
-      <c r="F35" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="G35" s="15">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="10"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="D36" s="15">
-        <v>10</v>
-      </c>
-      <c r="E36" s="8"/>
-      <c r="F36" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="G36" s="15">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="10"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="D37" s="15">
-        <v>15</v>
-      </c>
-      <c r="E37" s="8"/>
-      <c r="F37" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="G37" s="15">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="11"/>
-      <c r="B38" s="9">
-        <v>10</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="D38" s="16">
-        <v>13</v>
-      </c>
-      <c r="E38" s="9">
-        <v>10</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="G38" s="16">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="11"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="D39" s="16">
-        <v>14</v>
-      </c>
-      <c r="E39" s="9"/>
-      <c r="F39" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="G39" s="16">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="11"/>
-      <c r="B40" s="9"/>
-      <c r="C40" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="D40" s="16">
-        <v>15</v>
-      </c>
-      <c r="E40" s="9"/>
-      <c r="F40" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="G40" s="16">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="11"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="D41" s="16">
-        <v>8</v>
-      </c>
-      <c r="E41" s="9"/>
-      <c r="F41" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="G41" s="16">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="10"/>
-      <c r="B42" s="8">
-        <v>11</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="D42" s="15">
-        <v>23</v>
-      </c>
-      <c r="E42" s="8">
-        <v>11</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="G42" s="15">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="10"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="D43" s="15">
-        <v>32</v>
-      </c>
-      <c r="E43" s="8"/>
-      <c r="F43" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="G43" s="15">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="10"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="D44" s="15">
-        <v>30</v>
-      </c>
-      <c r="E44" s="8"/>
-      <c r="F44" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="G44" s="15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="10"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="D45" s="15">
-        <v>18</v>
-      </c>
-      <c r="E45" s="8"/>
-      <c r="F45" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="G45" s="15">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="11"/>
-      <c r="B46" s="9">
-        <v>12</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="D46" s="16">
-        <v>11</v>
-      </c>
-      <c r="E46" s="9">
-        <v>12</v>
-      </c>
-      <c r="F46" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="G46" s="16">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="11"/>
-      <c r="B47" s="9"/>
-      <c r="C47" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="D47" s="16">
-        <v>15</v>
-      </c>
-      <c r="E47" s="9"/>
-      <c r="F47" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="G47" s="16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="11"/>
-      <c r="B48" s="9"/>
-      <c r="C48" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="D48" s="16">
-        <v>14</v>
-      </c>
-      <c r="E48" s="9"/>
-      <c r="F48" s="6" t="s">
-        <v>338</v>
-      </c>
-      <c r="G48" s="16">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="11"/>
-      <c r="B49" s="9"/>
-      <c r="C49" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="D49" s="16">
-        <v>20</v>
-      </c>
-      <c r="E49" s="9"/>
-      <c r="F49" s="6" t="s">
-        <v>339</v>
-      </c>
-      <c r="G49" s="16">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="10"/>
-      <c r="B50" s="8">
-        <v>13</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="D50" s="15">
-        <v>2</v>
-      </c>
-      <c r="E50" s="8">
-        <v>13</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="G50" s="15">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="10"/>
-      <c r="B51" s="8"/>
-      <c r="C51" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="D51" s="15">
-        <v>4</v>
-      </c>
-      <c r="E51" s="8"/>
-      <c r="F51" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="G51" s="15">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="10"/>
-      <c r="B52" s="8"/>
-      <c r="C52" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="D52" s="15">
-        <v>3</v>
-      </c>
-      <c r="E52" s="8"/>
-      <c r="F52" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="G52" s="15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="10"/>
-      <c r="B53" s="8"/>
-      <c r="C53" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="D53" s="15">
-        <v>5</v>
-      </c>
-      <c r="E53" s="8"/>
-      <c r="F53" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="G53" s="15">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="11"/>
-      <c r="B54" s="9">
-        <v>14</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="D54" s="16">
-        <v>10</v>
-      </c>
-      <c r="E54" s="9">
-        <v>14</v>
-      </c>
-      <c r="F54" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="G54" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="11"/>
-      <c r="B55" s="9"/>
-      <c r="C55" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="D55" s="16">
-        <v>34</v>
-      </c>
-      <c r="E55" s="9"/>
-      <c r="F55" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="G55" s="16">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="11"/>
-      <c r="B56" s="9"/>
-      <c r="C56" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="D56" s="16">
-        <v>7</v>
-      </c>
-      <c r="E56" s="9"/>
-      <c r="F56" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="G56" s="16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="11"/>
-      <c r="B57" s="9"/>
-      <c r="C57" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="D57" s="16">
-        <v>17</v>
-      </c>
-      <c r="E57" s="9"/>
-      <c r="F57" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="G57" s="16">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="10"/>
-      <c r="B58" s="8">
-        <v>15</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="D58" s="15">
-        <v>8</v>
-      </c>
-      <c r="E58" s="8">
-        <v>15</v>
-      </c>
-      <c r="F58" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="G58" s="15">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="10"/>
-      <c r="B59" s="8"/>
-      <c r="C59" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="D59" s="15">
-        <v>2</v>
-      </c>
-      <c r="E59" s="8"/>
-      <c r="F59" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="G59" s="15">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="10"/>
-      <c r="B60" s="8"/>
-      <c r="C60" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="D60" s="15">
-        <v>11</v>
-      </c>
-      <c r="E60" s="8"/>
-      <c r="F60" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="G60" s="15">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="10"/>
-      <c r="B61" s="8"/>
-      <c r="C61" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="D61" s="15">
-        <v>7</v>
-      </c>
-      <c r="E61" s="8"/>
-      <c r="F61" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="G61" s="15">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="11"/>
-      <c r="B62" s="9">
-        <v>16</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="D62" s="16">
-        <v>27</v>
-      </c>
-      <c r="E62" s="9">
-        <v>16</v>
-      </c>
-      <c r="F62" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="G62" s="16">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="11"/>
-      <c r="B63" s="9"/>
-      <c r="C63" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="D63" s="16">
-        <v>14</v>
-      </c>
-      <c r="E63" s="9"/>
-      <c r="F63" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="G63" s="16">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="11"/>
-      <c r="B64" s="9"/>
-      <c r="C64" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="D64" s="16">
-        <v>5</v>
-      </c>
-      <c r="E64" s="9"/>
-      <c r="F64" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="G64" s="16">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="11"/>
-      <c r="B65" s="9"/>
-      <c r="C65" s="6" t="s">
-        <v>324</v>
-      </c>
-      <c r="D65" s="16">
-        <v>11</v>
-      </c>
-      <c r="E65" s="9"/>
-      <c r="F65" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="G65" s="16">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="10"/>
-      <c r="B66" s="8">
-        <v>17</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="D66" s="15">
-        <v>7</v>
-      </c>
-      <c r="E66" s="8">
-        <v>17</v>
-      </c>
-      <c r="F66" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="G66" s="15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="10"/>
-      <c r="B67" s="8"/>
-      <c r="C67" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="D67" s="15">
-        <v>7</v>
-      </c>
-      <c r="E67" s="8"/>
-      <c r="F67" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="G67" s="15">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="10"/>
-      <c r="B68" s="8"/>
-      <c r="C68" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="D68" s="15">
-        <v>16</v>
-      </c>
-      <c r="E68" s="8"/>
-      <c r="F68" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="G68" s="15">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="10"/>
-      <c r="B69" s="8"/>
-      <c r="C69" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="D69" s="15">
-        <v>11</v>
-      </c>
-      <c r="E69" s="8"/>
-      <c r="F69" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="G69" s="15">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="11"/>
-      <c r="B70" s="9">
-        <v>18</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="D70" s="16">
-        <v>14</v>
-      </c>
-      <c r="E70" s="9">
-        <v>18</v>
-      </c>
-      <c r="F70" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="G70" s="16">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="11"/>
-      <c r="B71" s="9"/>
-      <c r="C71" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="D71" s="16">
-        <v>9</v>
-      </c>
-      <c r="E71" s="9"/>
-      <c r="F71" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="G71" s="16">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="11"/>
-      <c r="B72" s="9"/>
-      <c r="C72" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="D72" s="16">
-        <v>16</v>
-      </c>
-      <c r="E72" s="9"/>
-      <c r="F72" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="G72" s="16">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="11"/>
-      <c r="B73" s="9"/>
-      <c r="C73" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="D73" s="16">
-        <v>15</v>
-      </c>
-      <c r="E73" s="9"/>
-      <c r="F73" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="G73" s="16">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="10"/>
-      <c r="B74" s="8">
-        <v>1</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="D74" s="15">
-        <v>16</v>
-      </c>
-      <c r="E74" s="8">
-        <v>1</v>
-      </c>
-      <c r="F74" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="G74" s="15">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="10"/>
-      <c r="B75" s="8"/>
-      <c r="C75" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="D75" s="15">
-        <v>5</v>
-      </c>
-      <c r="E75" s="8"/>
-      <c r="F75" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="G75" s="15">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="10"/>
-      <c r="B76" s="8"/>
-      <c r="C76" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="D76" s="15">
-        <v>10</v>
-      </c>
-      <c r="E76" s="8"/>
-      <c r="F76" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="G76" s="15">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="10"/>
-      <c r="B77" s="8"/>
-      <c r="C77" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="D77" s="15">
-        <v>8</v>
-      </c>
-      <c r="E77" s="8"/>
-      <c r="F77" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="G77" s="15">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="11"/>
-      <c r="B78" s="9">
-        <v>2</v>
-      </c>
-      <c r="C78" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="D78" s="16">
-        <v>7</v>
-      </c>
-      <c r="E78" s="9">
-        <v>2</v>
-      </c>
-      <c r="F78" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="G78" s="16">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="11"/>
-      <c r="B79" s="9"/>
-      <c r="C79" s="6" t="s">
-        <v>338</v>
-      </c>
-      <c r="D79" s="16">
-        <v>23</v>
-      </c>
-      <c r="E79" s="9"/>
-      <c r="F79" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="G79" s="16">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="11"/>
-      <c r="B80" s="9"/>
-      <c r="C80" s="6" t="s">
-        <v>339</v>
-      </c>
-      <c r="D80" s="16">
-        <v>20</v>
-      </c>
-      <c r="E80" s="9"/>
-      <c r="F80" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="G80" s="16">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="11"/>
-      <c r="B81" s="9"/>
-      <c r="C81" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="D81" s="16">
-        <v>12</v>
-      </c>
-      <c r="E81" s="9"/>
-      <c r="F81" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="G81" s="16">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="10"/>
-      <c r="B82" s="8">
-        <v>3</v>
-      </c>
-      <c r="C82" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="D82" s="15">
-        <v>28</v>
-      </c>
-      <c r="E82" s="8">
-        <v>3</v>
-      </c>
-      <c r="F82" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="G82" s="15">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="10"/>
-      <c r="B83" s="8"/>
-      <c r="C83" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="D83" s="15">
-        <v>23</v>
-      </c>
-      <c r="E83" s="8"/>
-      <c r="F83" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="G83" s="15">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="10"/>
-      <c r="B84" s="8"/>
-      <c r="C84" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="D84" s="15">
-        <v>16</v>
-      </c>
-      <c r="E84" s="8"/>
-      <c r="F84" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="G84" s="15">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="10"/>
-      <c r="B85" s="8"/>
-      <c r="C85" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="D85" s="15">
-        <v>18</v>
-      </c>
-      <c r="E85" s="8"/>
-      <c r="F85" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="G85" s="15">
-        <v>7</v>
-      </c>
+      <c r="K85" s="16"/>
+      <c r="L85" s="5"/>
+      <c r="M85" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="84">
+    <mergeCell ref="K54:K57"/>
+    <mergeCell ref="K58:K61"/>
+    <mergeCell ref="K82:K85"/>
+    <mergeCell ref="K62:K65"/>
+    <mergeCell ref="K66:K69"/>
+    <mergeCell ref="K70:K73"/>
+    <mergeCell ref="K74:K77"/>
+    <mergeCell ref="K78:K81"/>
+    <mergeCell ref="B74:B77"/>
     <mergeCell ref="B78:B81"/>
     <mergeCell ref="B82:B85"/>
+    <mergeCell ref="K2:K5"/>
+    <mergeCell ref="K6:K9"/>
+    <mergeCell ref="K10:K13"/>
+    <mergeCell ref="K14:K17"/>
+    <mergeCell ref="K18:K21"/>
+    <mergeCell ref="K22:K25"/>
+    <mergeCell ref="K26:K29"/>
+    <mergeCell ref="K30:K33"/>
+    <mergeCell ref="K34:K37"/>
+    <mergeCell ref="K38:K41"/>
+    <mergeCell ref="K42:K45"/>
+    <mergeCell ref="K46:K49"/>
+    <mergeCell ref="K50:K53"/>
     <mergeCell ref="B54:B57"/>
     <mergeCell ref="B58:B61"/>
     <mergeCell ref="B62:B65"/>
     <mergeCell ref="B66:B69"/>
     <mergeCell ref="B70:B73"/>
-    <mergeCell ref="B74:B77"/>
-    <mergeCell ref="B30:B33"/>
     <mergeCell ref="B34:B37"/>
     <mergeCell ref="B38:B41"/>
     <mergeCell ref="B42:B45"/>
     <mergeCell ref="B46:B49"/>
     <mergeCell ref="B50:B53"/>
-    <mergeCell ref="E74:E77"/>
-    <mergeCell ref="E78:E81"/>
-    <mergeCell ref="E82:E85"/>
+    <mergeCell ref="H82:H85"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B14:B17"/>
     <mergeCell ref="B18:B21"/>
     <mergeCell ref="B22:B25"/>
     <mergeCell ref="B26:B29"/>
+    <mergeCell ref="H42:H45"/>
+    <mergeCell ref="H34:H37"/>
+    <mergeCell ref="H58:H61"/>
+    <mergeCell ref="H50:H53"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="H22:H25"/>
+    <mergeCell ref="H38:H41"/>
+    <mergeCell ref="H78:H81"/>
+    <mergeCell ref="H54:H57"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="H46:H49"/>
+    <mergeCell ref="H62:H65"/>
+    <mergeCell ref="H10:H13"/>
+    <mergeCell ref="E62:E65"/>
+    <mergeCell ref="H18:H21"/>
+    <mergeCell ref="H14:H17"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="E30:E33"/>
+    <mergeCell ref="E38:E41"/>
+    <mergeCell ref="E82:E85"/>
+    <mergeCell ref="E46:E49"/>
+    <mergeCell ref="E18:E21"/>
+    <mergeCell ref="E78:E81"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="H74:H77"/>
+    <mergeCell ref="H26:H29"/>
+    <mergeCell ref="E26:E29"/>
+    <mergeCell ref="E66:E69"/>
+    <mergeCell ref="E34:E37"/>
     <mergeCell ref="E50:E53"/>
     <mergeCell ref="E54:E57"/>
+    <mergeCell ref="E42:E45"/>
+    <mergeCell ref="E70:E73"/>
     <mergeCell ref="E58:E61"/>
-    <mergeCell ref="E62:E65"/>
-    <mergeCell ref="E66:E69"/>
-    <mergeCell ref="E70:E73"/>
-    <mergeCell ref="E26:E29"/>
-    <mergeCell ref="E30:E33"/>
-    <mergeCell ref="E34:E37"/>
-    <mergeCell ref="E38:E41"/>
-    <mergeCell ref="E42:E45"/>
-    <mergeCell ref="E46:E49"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="E18:E21"/>
-    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="E74:E77"/>
+    <mergeCell ref="H70:H73"/>
+    <mergeCell ref="H30:H33"/>
+    <mergeCell ref="H66:H69"/>
+    <mergeCell ref="B30:B33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4615,157 +5421,50 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="B1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:F7"/>
+      <selection activeCell="B2" sqref="B2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>257</v>
-      </c>
-      <c r="D1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>61</v>
-      </c>
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F2">
-        <v>15.7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>82</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" t="s">
-        <v>138</v>
-      </c>
-      <c r="F3">
-        <v>29.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>126</v>
-      </c>
-      <c r="E4" t="s">
-        <v>127</v>
-      </c>
-      <c r="F4">
-        <v>31.7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F5">
-        <v>23.4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" t="s">
-        <v>125</v>
-      </c>
-      <c r="E6" t="s">
-        <v>164</v>
-      </c>
-      <c r="F6">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>84</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7">
-        <v>10.8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D8" t="s">
-        <v>120</v>
-      </c>
-      <c r="E8" t="s">
-        <v>121</v>
-      </c>
-      <c r="F8">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D9" t="s">
         <v>96</v>
       </c>
-      <c r="E9" t="s">
+      <c r="C3" t="s">
         <v>97</v>
       </c>
-      <c r="F9">
+      <c r="D3">
         <v>22.5</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="D2:F10">
-    <sortCondition ref="D2:D10"/>
+  <sortState ref="B2:D10">
+    <sortCondition ref="B2:B10"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4775,8 +5474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="W8" sqref="W8"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4842,7 +5541,7 @@
         <v>166</v>
       </c>
       <c r="N1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>150</v>
@@ -4881,19 +5580,19 @@
         <v>163</v>
       </c>
       <c r="AA1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AB1" t="s">
+        <v>252</v>
+      </c>
+      <c r="AC1" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>255</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
@@ -4941,10 +5640,10 @@
       </c>
       <c r="O2" s="3"/>
       <c r="P2" s="1">
-        <v>41748</v>
+        <v>41761</v>
       </c>
       <c r="Q2" s="1">
-        <v>41748.641018518516</v>
+        <v>41765.571018518516</v>
       </c>
       <c r="R2">
         <v>70</v>
@@ -4981,10 +5680,10 @@
       </c>
       <c r="AC2" s="3"/>
       <c r="AD2" s="1">
-        <v>41748</v>
+        <v>41762</v>
       </c>
       <c r="AE2" s="1">
-        <v>41756.68204861111</v>
+        <v>41764.481192129628</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
@@ -5028,7 +5727,7 @@
         <v>170</v>
       </c>
       <c r="N3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O3" s="3">
         <v>7665609</v>
@@ -5175,7 +5874,7 @@
         <v>1386</v>
       </c>
       <c r="B5">
-        <v>9.9000009999999996</v>
+        <v>9.9</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -5395,7 +6094,7 @@
         <v>178</v>
       </c>
       <c r="N7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O7" s="3"/>
       <c r="P7" s="1">
@@ -5616,7 +6315,10 @@
         <v>5</v>
       </c>
       <c r="AA9" t="s">
-        <v>186</v>
+        <v>362</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>362</v>
       </c>
       <c r="AC9" s="3"/>
       <c r="AD9" s="1" t="s">
@@ -5848,10 +6550,10 @@
         <v>7</v>
       </c>
       <c r="M12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O12" s="3" t="s">
         <v>29</v>
@@ -5890,10 +6592,10 @@
         <v>12</v>
       </c>
       <c r="AA12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AB12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AC12" s="3"/>
       <c r="AD12" s="1">
@@ -5941,10 +6643,10 @@
         <v>8</v>
       </c>
       <c r="M13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O13" s="3">
         <v>2174248</v>
@@ -5983,10 +6685,10 @@
         <v>15</v>
       </c>
       <c r="AA13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AB13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AC13" s="3" t="s">
         <v>50</v>
@@ -6036,10 +6738,10 @@
         <v>8</v>
       </c>
       <c r="M14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O14" s="3"/>
       <c r="P14" s="1">
@@ -6076,12 +6778,12 @@
         <v>16</v>
       </c>
       <c r="AA14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AB14" t="s">
-        <v>192</v>
-      </c>
-      <c r="AC14" s="4"/>
+        <v>191</v>
+      </c>
+      <c r="AC14" s="3"/>
       <c r="AD14" s="1">
         <v>41363</v>
       </c>
@@ -6127,10 +6829,10 @@
         <v>7</v>
       </c>
       <c r="M15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="N15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O15" s="3"/>
       <c r="P15" s="1">
@@ -6167,10 +6869,10 @@
         <v>16</v>
       </c>
       <c r="AA15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AB15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AC15" s="3"/>
       <c r="AD15" s="1">
@@ -6218,10 +6920,10 @@
         <v>15</v>
       </c>
       <c r="M16" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="N16" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O16" s="3" t="s">
         <v>41</v>
@@ -6260,10 +6962,10 @@
         <v>9</v>
       </c>
       <c r="AA16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AB16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AC16" s="3"/>
       <c r="AD16" s="1">
@@ -6311,10 +7013,10 @@
         <v>11</v>
       </c>
       <c r="M17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="N17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O17" s="3" t="s">
         <v>29</v>
@@ -6353,10 +7055,10 @@
         <v>15</v>
       </c>
       <c r="AA17" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AB17" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AC17" s="3" t="s">
         <v>29</v>
@@ -6406,10 +7108,10 @@
         <v>15</v>
       </c>
       <c r="M18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="N18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O18" s="3"/>
       <c r="P18" s="1">
@@ -6446,10 +7148,10 @@
         <v>11</v>
       </c>
       <c r="AA18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AB18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AC18" s="3"/>
       <c r="AD18" s="1" t="s">
@@ -6497,10 +7199,10 @@
         <v>14</v>
       </c>
       <c r="M19" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N19" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O19" s="3"/>
       <c r="P19" s="1">
@@ -6537,10 +7239,10 @@
         <v>13</v>
       </c>
       <c r="AA19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AB19" t="s">
-        <v>186</v>
+        <v>360</v>
       </c>
       <c r="AC19" s="3" t="s">
         <v>165</v>
@@ -6590,10 +7292,10 @@
         <v>14</v>
       </c>
       <c r="M20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="N20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>65</v>
@@ -6632,10 +7334,10 @@
         <v>15</v>
       </c>
       <c r="AA20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AB20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AC20" s="3"/>
       <c r="AD20" s="1">
@@ -6683,10 +7385,10 @@
         <v>9</v>
       </c>
       <c r="M21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>90</v>
@@ -6725,10 +7427,10 @@
         <v>20</v>
       </c>
       <c r="AA21" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AB21" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AC21" s="3"/>
       <c r="AD21" s="1">
@@ -6776,10 +7478,10 @@
         <v>16</v>
       </c>
       <c r="M22" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N22" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O22" s="3"/>
       <c r="P22" s="1">
@@ -6816,10 +7518,10 @@
         <v>14</v>
       </c>
       <c r="AA22" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AB22" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AC22" s="3"/>
       <c r="AD22" s="1">
@@ -6867,10 +7569,10 @@
         <v>10</v>
       </c>
       <c r="M23" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N23" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O23" s="3">
         <v>724935</v>
@@ -6909,10 +7611,10 @@
         <v>22</v>
       </c>
       <c r="AA23" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AB23" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AC23" s="3">
         <v>5855822</v>
@@ -6962,10 +7664,10 @@
         <v>21</v>
       </c>
       <c r="M24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O24" s="3"/>
       <c r="P24" s="1">
@@ -7002,10 +7704,10 @@
         <v>11</v>
       </c>
       <c r="AA24" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AB24" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AC24" s="3" t="s">
         <v>81</v>
@@ -7055,7 +7757,10 @@
         <v>18</v>
       </c>
       <c r="M25" t="s">
-        <v>186</v>
+        <v>363</v>
+      </c>
+      <c r="N25" t="s">
+        <v>363</v>
       </c>
       <c r="O25" s="3"/>
       <c r="P25" s="1" t="s">
@@ -7092,7 +7797,10 @@
         <v>15</v>
       </c>
       <c r="AA25" t="s">
-        <v>186</v>
+        <v>364</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>364</v>
       </c>
       <c r="AC25" s="3"/>
       <c r="AD25" s="1" t="s">
@@ -7140,10 +7848,10 @@
         <v>16</v>
       </c>
       <c r="M26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O26" s="3"/>
       <c r="P26" s="1">
@@ -7180,7 +7888,10 @@
         <v>18</v>
       </c>
       <c r="AA26" t="s">
-        <v>186</v>
+        <v>361</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>361</v>
       </c>
       <c r="AC26" s="3"/>
       <c r="AD26" s="1">
@@ -7228,10 +7939,10 @@
         <v>20</v>
       </c>
       <c r="M27" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="N27" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O27" s="3">
         <v>5449442</v>
@@ -7270,10 +7981,10 @@
         <v>14</v>
       </c>
       <c r="AA27" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AB27" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AC27" s="3"/>
       <c r="AD27" s="1">
@@ -7321,10 +8032,10 @@
         <v>12</v>
       </c>
       <c r="M28" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N28" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O28" s="3">
         <v>354968</v>
@@ -7363,12 +8074,12 @@
         <v>23</v>
       </c>
       <c r="AA28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AB28" t="s">
-        <v>217</v>
-      </c>
-      <c r="AC28" s="4"/>
+        <v>216</v>
+      </c>
+      <c r="AC28" s="3"/>
       <c r="AD28" s="1">
         <v>41440</v>
       </c>
@@ -7414,10 +8125,10 @@
         <v>13</v>
       </c>
       <c r="M29" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N29" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O29" s="3"/>
       <c r="P29" s="1">
@@ -7454,10 +8165,10 @@
         <v>23</v>
       </c>
       <c r="AA29" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AB29" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AC29" s="4"/>
       <c r="AD29" s="1">
@@ -7505,10 +8216,10 @@
         <v>21</v>
       </c>
       <c r="M30" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N30" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O30" s="3" t="s">
         <v>102</v>
@@ -7547,10 +8258,10 @@
         <v>17</v>
       </c>
       <c r="AA30" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AB30" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AC30" s="3"/>
       <c r="AD30" s="1">
@@ -7598,10 +8309,10 @@
         <v>11</v>
       </c>
       <c r="M31" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="N31" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O31" s="3"/>
       <c r="P31" s="1">
@@ -7638,10 +8349,10 @@
         <v>28</v>
       </c>
       <c r="AA31" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AB31" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AC31" s="3"/>
       <c r="AD31" s="1">
@@ -7689,10 +8400,10 @@
         <v>27</v>
       </c>
       <c r="M32" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="N32" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>107</v>
@@ -7731,10 +8442,10 @@
         <v>14</v>
       </c>
       <c r="AA32" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AB32" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AC32" s="3">
         <v>1144041</v>
@@ -7784,10 +8495,10 @@
         <v>23</v>
       </c>
       <c r="M33" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N33" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O33" s="3"/>
       <c r="P33" s="1">
@@ -7824,12 +8535,14 @@
         <v>19</v>
       </c>
       <c r="AA33" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AB33" t="s">
-        <v>250</v>
-      </c>
-      <c r="AC33" s="3"/>
+        <v>249</v>
+      </c>
+      <c r="AC33" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="AD33" s="1">
         <v>41440</v>
       </c>
@@ -7875,10 +8588,10 @@
         <v>23</v>
       </c>
       <c r="M34" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="N34" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O34" s="3">
         <v>2588102</v>
@@ -7917,10 +8630,10 @@
         <v>20</v>
       </c>
       <c r="AA34" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AB34" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AC34" s="3"/>
       <c r="AD34" s="1">
@@ -7968,10 +8681,10 @@
         <v>24</v>
       </c>
       <c r="M35" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="N35" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O35" s="3"/>
       <c r="P35" s="1">
@@ -8008,10 +8721,10 @@
         <v>21</v>
       </c>
       <c r="AA35" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AB35" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AC35" s="3"/>
       <c r="AD35" s="1">
@@ -8059,10 +8772,10 @@
         <v>31</v>
       </c>
       <c r="M36" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="N36" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O36" s="3"/>
       <c r="P36" s="1">
@@ -8099,12 +8812,12 @@
         <v>18</v>
       </c>
       <c r="AA36" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AB36" t="s">
-        <v>233</v>
-      </c>
-      <c r="AC36" s="4"/>
+        <v>232</v>
+      </c>
+      <c r="AC36" s="3"/>
       <c r="AD36" s="1">
         <v>41754</v>
       </c>
@@ -8114,275 +8827,275 @@
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>1454</v>
+        <v>1432</v>
       </c>
       <c r="B37">
-        <v>49.7</v>
+        <v>50.4</v>
       </c>
       <c r="C37">
         <v>4</v>
       </c>
       <c r="D37">
-        <v>297</v>
+        <v>81</v>
       </c>
       <c r="E37" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F37" t="s">
-        <v>164</v>
+        <v>129</v>
       </c>
       <c r="G37">
-        <v>406</v>
+        <v>103</v>
       </c>
       <c r="H37">
-        <v>18</v>
+        <v>16.8</v>
       </c>
       <c r="I37">
-        <v>18</v>
+        <v>16.8</v>
       </c>
       <c r="J37">
-        <v>18</v>
+        <v>16.8</v>
       </c>
       <c r="K37">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L37">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M37" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N37" t="s">
-        <v>234</v>
-      </c>
-      <c r="O37" s="4"/>
+        <v>235</v>
+      </c>
+      <c r="O37" s="3"/>
       <c r="P37" s="1">
-        <v>41440</v>
+        <v>41731</v>
       </c>
       <c r="Q37" s="1">
-        <v>41442.511678240742</v>
+        <v>41731.72340023148</v>
       </c>
       <c r="R37">
-        <v>299</v>
+        <v>321</v>
       </c>
       <c r="S37" t="s">
-        <v>126</v>
+        <v>57</v>
       </c>
       <c r="T37" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="U37">
-        <v>301</v>
+        <v>419</v>
       </c>
       <c r="V37">
-        <v>31.7</v>
+        <v>33.6</v>
       </c>
       <c r="W37">
-        <v>31.7</v>
+        <v>33.6</v>
       </c>
       <c r="X37">
-        <v>31.7</v>
+        <v>33.6</v>
       </c>
       <c r="Y37">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Z37">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AA37" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AB37" t="s">
-        <v>235</v>
-      </c>
-      <c r="AC37" s="4"/>
+        <v>236</v>
+      </c>
+      <c r="AC37" s="3"/>
       <c r="AD37" s="1">
-        <v>41762</v>
+        <v>41731</v>
       </c>
       <c r="AE37" s="1">
-        <v>41762.761053240742</v>
+        <v>41731.723400428244</v>
       </c>
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>1432</v>
+        <v>1398</v>
       </c>
       <c r="B38">
-        <v>50.4</v>
+        <v>51</v>
       </c>
       <c r="C38">
         <v>4</v>
       </c>
       <c r="D38">
-        <v>81</v>
+        <v>300</v>
       </c>
       <c r="E38" t="s">
-        <v>128</v>
+        <v>19</v>
       </c>
       <c r="F38" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G38">
-        <v>103</v>
+        <v>274</v>
       </c>
       <c r="H38">
-        <v>16.8</v>
+        <v>22.6</v>
       </c>
       <c r="I38">
-        <v>16.8</v>
+        <v>22.6</v>
       </c>
       <c r="J38">
-        <v>16.8</v>
+        <v>22.6</v>
       </c>
       <c r="K38">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="L38">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="M38" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N38" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O38" s="3"/>
       <c r="P38" s="1">
-        <v>41731</v>
+        <v>41079</v>
       </c>
       <c r="Q38" s="1">
-        <v>41731.72340023148</v>
+        <v>41086.876331018517</v>
       </c>
       <c r="R38">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="S38" t="s">
-        <v>57</v>
+        <v>132</v>
       </c>
       <c r="T38" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="U38">
-        <v>419</v>
+        <v>16</v>
       </c>
       <c r="V38">
-        <v>33.6</v>
+        <v>28.4</v>
       </c>
       <c r="W38">
-        <v>33.6</v>
+        <v>28.4</v>
       </c>
       <c r="X38">
-        <v>33.6</v>
+        <v>28.4</v>
       </c>
       <c r="Y38">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="Z38">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="AA38" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AB38" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AC38" s="3"/>
       <c r="AD38" s="1">
-        <v>41731</v>
+        <v>41079</v>
       </c>
       <c r="AE38" s="1">
-        <v>41731.723400428244</v>
+        <v>41086.88009259259</v>
       </c>
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>1398</v>
+        <v>1454</v>
       </c>
       <c r="B39">
-        <v>51</v>
+        <v>51.1</v>
       </c>
       <c r="C39">
         <v>4</v>
       </c>
       <c r="D39">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E39" t="s">
+        <v>125</v>
+      </c>
+      <c r="F39" t="s">
+        <v>164</v>
+      </c>
+      <c r="G39">
+        <v>406</v>
+      </c>
+      <c r="H39">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="I39">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="J39">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="K39">
         <v>19</v>
       </c>
-      <c r="F39" t="s">
-        <v>131</v>
-      </c>
-      <c r="G39">
-        <v>274</v>
-      </c>
-      <c r="H39">
-        <v>22.6</v>
-      </c>
-      <c r="I39">
-        <v>22.6</v>
-      </c>
-      <c r="J39">
-        <v>22.6</v>
-      </c>
-      <c r="K39">
-        <v>23</v>
-      </c>
       <c r="L39">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M39" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="N39" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="O39" s="3"/>
       <c r="P39" s="1">
-        <v>41079</v>
+        <v>41760</v>
       </c>
       <c r="Q39" s="1">
-        <v>41086.876331018517</v>
+        <v>41765.533125000002</v>
       </c>
       <c r="R39">
+        <v>299</v>
+      </c>
+      <c r="S39" t="s">
+        <v>126</v>
+      </c>
+      <c r="T39" t="s">
+        <v>127</v>
+      </c>
+      <c r="U39">
         <v>301</v>
       </c>
-      <c r="S39" t="s">
-        <v>132</v>
-      </c>
-      <c r="T39" t="s">
-        <v>133</v>
-      </c>
-      <c r="U39">
-        <v>16</v>
-      </c>
       <c r="V39">
-        <v>28.4</v>
+        <v>31.7</v>
       </c>
       <c r="W39">
-        <v>28.4</v>
+        <v>31.7</v>
       </c>
       <c r="X39">
-        <v>28.4</v>
+        <v>31.7</v>
       </c>
       <c r="Y39">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="Z39">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AA39" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="AB39" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="AC39" s="3"/>
       <c r="AD39" s="1">
-        <v>41079</v>
+        <v>41755</v>
       </c>
       <c r="AE39" s="1">
-        <v>41086.88009259259</v>
+        <v>41765.410405092596</v>
       </c>
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.25">
@@ -8423,10 +9136,10 @@
         <v>23</v>
       </c>
       <c r="M40" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="N40" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O40" s="3" t="s">
         <v>90</v>
@@ -8465,10 +9178,10 @@
         <v>30</v>
       </c>
       <c r="AA40" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AB40" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AC40" s="3" t="s">
         <v>90</v>
@@ -8518,10 +9231,10 @@
         <v>19</v>
       </c>
       <c r="M41" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N41" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O41" s="3"/>
       <c r="P41" s="1">
@@ -8558,10 +9271,10 @@
         <v>35</v>
       </c>
       <c r="AA41" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AB41" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AC41" s="3"/>
       <c r="AD41" s="1">
@@ -8609,10 +9322,10 @@
         <v>30</v>
       </c>
       <c r="M42" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="N42" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O42" s="3"/>
       <c r="P42" s="1">
@@ -8649,12 +9362,12 @@
         <v>30</v>
       </c>
       <c r="AA42" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AB42" t="s">
-        <v>245</v>
-      </c>
-      <c r="AC42" s="4"/>
+        <v>244</v>
+      </c>
+      <c r="AC42" s="3"/>
       <c r="AD42" s="1">
         <v>40698</v>
       </c>
@@ -8700,10 +9413,10 @@
         <v>39</v>
       </c>
       <c r="M43" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N43" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O43" s="3"/>
       <c r="P43" s="1">
@@ -8740,10 +9453,10 @@
         <v>35</v>
       </c>
       <c r="AA43" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AB43" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AC43" s="3"/>
       <c r="AD43" s="1">

--- a/monster-golf-docs/monster2014/Monster2014.xlsx
+++ b/monster-golf-docs/monster2014/Monster2014.xlsx
@@ -9,13 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11640" windowHeight="6690" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11640" windowHeight="6690" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Flights" sheetId="4" r:id="rId1"/>
     <sheet name="Groups" sheetId="5" r:id="rId2"/>
-    <sheet name="Missing Info" sheetId="3" r:id="rId3"/>
-    <sheet name="Everything" sheetId="2" r:id="rId4"/>
+    <sheet name="Everything" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="388">
   <si>
     <t>Jake</t>
   </si>
@@ -797,9 +796,6 @@
     <t>DateEntered15</t>
   </si>
   <si>
-    <t>Handicaps</t>
-  </si>
-  <si>
     <t>mike.roseleip@docusign.com</t>
   </si>
   <si>
@@ -1122,6 +1118,78 @@
   </si>
   <si>
     <t>Tlevitt@telus.net</t>
+  </si>
+  <si>
+    <t>12a</t>
+  </si>
+  <si>
+    <t>12b</t>
+  </si>
+  <si>
+    <t>10a</t>
+  </si>
+  <si>
+    <t>10b</t>
+  </si>
+  <si>
+    <t>9a</t>
+  </si>
+  <si>
+    <t>9b</t>
+  </si>
+  <si>
+    <t>8a</t>
+  </si>
+  <si>
+    <t>8b</t>
+  </si>
+  <si>
+    <t>6a</t>
+  </si>
+  <si>
+    <t>6b</t>
+  </si>
+  <si>
+    <t>5a</t>
+  </si>
+  <si>
+    <t>5b</t>
+  </si>
+  <si>
+    <t>3a</t>
+  </si>
+  <si>
+    <t>3b</t>
+  </si>
+  <si>
+    <t>4a</t>
+  </si>
+  <si>
+    <t>2a</t>
+  </si>
+  <si>
+    <t>2b</t>
+  </si>
+  <si>
+    <t>1a</t>
+  </si>
+  <si>
+    <t>1b</t>
+  </si>
+  <si>
+    <t>4b</t>
+  </si>
+  <si>
+    <t>7b</t>
+  </si>
+  <si>
+    <t>7a</t>
+  </si>
+  <si>
+    <t>11b</t>
+  </si>
+  <si>
+    <t>11a</t>
   </si>
 </sst>
 </file>
@@ -1131,17 +1199,10 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1183,17 +1244,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1239,68 +1295,63 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="4" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="2" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="3" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="6" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="4" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="5" fillId="4" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="5" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="4" fillId="3" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="Bad" xfId="1" builtinId="27"/>
-    <cellStyle name="Good" xfId="4" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="3" builtinId="18"/>
-    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
+  <cellStyles count="4">
+    <cellStyle name="Good" xfId="3" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="2" builtinId="18"/>
+    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="7">
@@ -1666,7 +1717,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
@@ -1692,28 +1743,28 @@
         <v>142</v>
       </c>
       <c r="C1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F1" t="s">
         <v>166</v>
       </c>
       <c r="G1" t="s">
+        <v>348</v>
+      </c>
+      <c r="H1" t="s">
         <v>349</v>
       </c>
-      <c r="H1" t="s">
-        <v>350</v>
-      </c>
       <c r="I1" t="s">
+        <v>344</v>
+      </c>
+      <c r="J1" t="s">
         <v>345</v>
-      </c>
-      <c r="J1" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -1966,7 +2017,7 @@
         <v>5</v>
       </c>
       <c r="J9" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -2286,7 +2337,7 @@
         <v>13</v>
       </c>
       <c r="J19" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -2466,7 +2517,7 @@
         <v>18</v>
       </c>
       <c r="F25" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G25" t="s">
         <v>84</v>
@@ -2478,7 +2529,7 @@
         <v>15</v>
       </c>
       <c r="J25" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -2510,7 +2561,7 @@
         <v>18</v>
       </c>
       <c r="J26" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -3054,7 +3105,7 @@
         <v>35</v>
       </c>
       <c r="J43" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -3069,8 +3120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M85"/>
   <sheetViews>
-    <sheetView topLeftCell="B51" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22:H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3081,2262 +3132,2314 @@
     <col min="4" max="4" width="5.28515625" customWidth="1"/>
     <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.28515625" style="11" customWidth="1"/>
+    <col min="7" max="7" width="5.28515625" style="10" customWidth="1"/>
     <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.28515625" style="11" customWidth="1"/>
+    <col min="10" max="10" width="5.28515625" style="10" customWidth="1"/>
     <col min="11" max="11" width="12.42578125" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="19.28515625" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="5.28515625" style="11" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="5.28515625" style="10" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9"/>
-      <c r="B1" s="10" t="s">
-        <v>359</v>
-      </c>
-      <c r="C1" s="10" t="s">
+    <row r="1" spans="1:13" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8"/>
+      <c r="B1" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="D1" s="8"/>
+      <c r="E1" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="8"/>
+    </row>
+    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="18">
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="17" t="s">
+        <v>364</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="G2" s="11">
+        <v>12</v>
+      </c>
+      <c r="H2" s="17">
+        <v>12</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="J2" s="11">
+        <v>8</v>
+      </c>
+      <c r="K2" s="17"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="11"/>
+    </row>
+    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="G3" s="11">
+        <v>4</v>
+      </c>
+      <c r="H3" s="14"/>
+      <c r="I3" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="J3" s="11">
+        <v>2</v>
+      </c>
+      <c r="K3" s="14"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="11"/>
+    </row>
+    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="G4" s="11">
+        <v>14</v>
+      </c>
+      <c r="H4" s="14"/>
+      <c r="I4" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="J4" s="11">
+        <v>3</v>
+      </c>
+      <c r="K4" s="14"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="11"/>
+    </row>
+    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="G5" s="11">
+        <v>15</v>
+      </c>
+      <c r="H5" s="14"/>
+      <c r="I5" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="J5" s="11">
+        <v>5</v>
+      </c>
+      <c r="K5" s="14"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="11"/>
+    </row>
+    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="B6" s="16">
+        <v>0.40625</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="13" t="s">
+        <v>365</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="G6" s="12">
+        <v>8</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="J6" s="12">
+        <v>12</v>
+      </c>
+      <c r="K6" s="13"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="12"/>
+    </row>
+    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="G7" s="12">
+        <v>2</v>
+      </c>
+      <c r="H7" s="13"/>
+      <c r="I7" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="J7" s="12">
+        <v>4</v>
+      </c>
+      <c r="K7" s="13"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="12"/>
+    </row>
+    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="G8" s="12">
+        <v>11</v>
+      </c>
+      <c r="H8" s="13"/>
+      <c r="I8" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="J8" s="12">
+        <v>23</v>
+      </c>
+      <c r="K8" s="13"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="12"/>
+    </row>
+    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="10" t="s">
-        <v>344</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>342</v>
-      </c>
-      <c r="G1" s="9" t="s">
+      <c r="D9" s="7"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="G9" s="12">
+        <v>7</v>
+      </c>
+      <c r="H9" s="13"/>
+      <c r="I9" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="J9" s="12">
+        <v>20</v>
+      </c>
+      <c r="K9" s="13"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="12"/>
+    </row>
+    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="15">
+        <v>0.41250000000000003</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="14">
+        <v>11</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="G10" s="11">
+        <v>3</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>386</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="J10" s="11">
+        <v>11</v>
+      </c>
+      <c r="K10" s="14"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="11"/>
+    </row>
+    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="G11" s="11">
+        <v>5</v>
+      </c>
+      <c r="H11" s="14"/>
+      <c r="I11" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="J11" s="11">
+        <v>7</v>
+      </c>
+      <c r="K11" s="14"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="11"/>
+    </row>
+    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="G12" s="11">
+        <v>2</v>
+      </c>
+      <c r="H12" s="14"/>
+      <c r="I12" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="J12" s="11">
+        <v>7</v>
+      </c>
+      <c r="K12" s="14"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="11"/>
+    </row>
+    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="G13" s="11">
+        <v>4</v>
+      </c>
+      <c r="H13" s="14"/>
+      <c r="I13" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="J13" s="11">
+        <v>16</v>
+      </c>
+      <c r="K13" s="14"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="11"/>
+    </row>
+    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="16">
+        <v>0.41875000000000001</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="13" t="s">
+        <v>366</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="G14" s="12">
+        <v>5</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>366</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="J14" s="12">
+        <v>13</v>
+      </c>
+      <c r="K14" s="13"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="12"/>
+    </row>
+    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="G15" s="12">
+        <v>10</v>
+      </c>
+      <c r="H15" s="13"/>
+      <c r="I15" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="J15" s="12">
+        <v>14</v>
+      </c>
+      <c r="K15" s="13"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="12"/>
+    </row>
+    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="G16" s="12">
+        <v>7</v>
+      </c>
+      <c r="H16" s="13"/>
+      <c r="I16" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="J16" s="12">
+        <v>2</v>
+      </c>
+      <c r="K16" s="13"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="12"/>
+    </row>
+    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="G17" s="12">
+        <v>16</v>
+      </c>
+      <c r="H17" s="13"/>
+      <c r="I17" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="J17" s="12">
+        <v>4</v>
+      </c>
+      <c r="K17" s="13"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="12"/>
+    </row>
+    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+      <c r="B18" s="15">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="14" t="s">
+        <v>367</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="G18" s="11">
+        <v>23</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>367</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="J18" s="11">
+        <v>16</v>
+      </c>
+      <c r="K18" s="14"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="11"/>
+    </row>
+    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="G19" s="11">
+        <v>20</v>
+      </c>
+      <c r="H19" s="14"/>
+      <c r="I19" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="J19" s="11">
+        <v>8</v>
+      </c>
+      <c r="K19" s="14"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="11"/>
+    </row>
+    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="G20" s="11">
+        <v>7</v>
+      </c>
+      <c r="H20" s="14"/>
+      <c r="I20" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="J20" s="11">
+        <v>7</v>
+      </c>
+      <c r="K20" s="14"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="11"/>
+    </row>
+    <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="G21" s="11">
+        <v>12</v>
+      </c>
+      <c r="H21" s="14"/>
+      <c r="I21" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="J21" s="11">
+        <v>12</v>
+      </c>
+      <c r="K21" s="14"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="11"/>
+    </row>
+    <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+      <c r="B22" s="16">
+        <v>0.43125000000000002</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="G22" s="12">
+        <v>16</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="J22" s="12">
+        <v>22</v>
+      </c>
+      <c r="K22" s="13"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="12"/>
+    </row>
+    <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="D23" s="7"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="G23" s="12">
+        <v>8</v>
+      </c>
+      <c r="H23" s="13"/>
+      <c r="I23" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="J23" s="12">
+        <v>10</v>
+      </c>
+      <c r="K23" s="13"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="12"/>
+    </row>
+    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="G24" s="12">
+        <v>7</v>
+      </c>
+      <c r="H24" s="13"/>
+      <c r="I24" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="J24" s="12">
+        <v>10</v>
+      </c>
+      <c r="K24" s="13"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="12"/>
+    </row>
+    <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="7"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="G25" s="12">
+        <v>11</v>
+      </c>
+      <c r="H25" s="13"/>
+      <c r="I25" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="J25" s="12">
+        <v>7</v>
+      </c>
+      <c r="K25" s="13"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="12"/>
+    </row>
+    <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+      <c r="B26" s="15">
+        <v>0.4375</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="G26" s="11">
+        <v>24</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="J26" s="11">
+        <v>21</v>
+      </c>
+      <c r="K26" s="14"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="11"/>
+    </row>
+    <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="G27" s="11">
+        <v>21</v>
+      </c>
+      <c r="H27" s="14"/>
+      <c r="I27" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="J27" s="11">
+        <v>17</v>
+      </c>
+      <c r="K27" s="14"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="11"/>
+    </row>
+    <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="6"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="G28" s="11">
+        <v>13</v>
+      </c>
+      <c r="H28" s="14"/>
+      <c r="I28" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="J28" s="11">
+        <v>5</v>
+      </c>
+      <c r="K28" s="14"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="11"/>
+    </row>
+    <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="G29" s="11">
+        <v>23</v>
+      </c>
+      <c r="H29" s="14"/>
+      <c r="I29" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="J29" s="11">
+        <v>10</v>
+      </c>
+      <c r="K29" s="14"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="11"/>
+    </row>
+    <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="7"/>
+      <c r="B30" s="16">
+        <v>0.44374999999999998</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="D30" s="7"/>
+      <c r="E30" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="F30" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="H1" s="10" t="s">
-        <v>344</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>343</v>
-      </c>
-      <c r="J1" s="9" t="s">
+      <c r="G30" s="12">
+        <v>4</v>
+      </c>
+      <c r="H30" s="13">
+        <v>8</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="J30" s="12">
+        <v>5</v>
+      </c>
+      <c r="K30" s="13"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="12"/>
+    </row>
+    <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="7"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="D31" s="7"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="G31" s="12">
+        <v>6</v>
+      </c>
+      <c r="H31" s="13"/>
+      <c r="I31" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="J31" s="12">
+        <v>11</v>
+      </c>
+      <c r="K31" s="13"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="12"/>
+    </row>
+    <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="7"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="D32" s="7"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="G32" s="12">
+        <v>21</v>
+      </c>
+      <c r="H32" s="13"/>
+      <c r="I32" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="J32" s="12">
+        <v>21</v>
+      </c>
+      <c r="K32" s="13"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="12"/>
+    </row>
+    <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="7"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="G33" s="12">
+        <v>11</v>
+      </c>
+      <c r="H33" s="13"/>
+      <c r="I33" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="J33" s="12">
+        <v>11</v>
+      </c>
+      <c r="K33" s="13"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="12"/>
+    </row>
+    <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="6"/>
+      <c r="B34" s="15">
+        <v>0.45</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="D34" s="6"/>
+      <c r="E34" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="G34" s="11">
+        <v>13</v>
+      </c>
+      <c r="H34" s="14" t="s">
+        <v>385</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="J34" s="11">
+        <v>14</v>
+      </c>
+      <c r="K34" s="14"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="11"/>
+    </row>
+    <row r="35" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="6"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="D35" s="6"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="G35" s="11">
+        <v>14</v>
+      </c>
+      <c r="H35" s="14"/>
+      <c r="I35" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="J35" s="11">
+        <v>15</v>
+      </c>
+      <c r="K35" s="14"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="11"/>
+    </row>
+    <row r="36" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="6"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="D36" s="6"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="G36" s="11">
+        <v>15</v>
+      </c>
+      <c r="H36" s="14"/>
+      <c r="I36" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="J36" s="11">
+        <v>11</v>
+      </c>
+      <c r="K36" s="14"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="11"/>
+    </row>
+    <row r="37" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="6"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="G37" s="11">
+        <v>8</v>
+      </c>
+      <c r="H37" s="14"/>
+      <c r="I37" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="J37" s="11">
+        <v>28</v>
+      </c>
+      <c r="K37" s="14"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="11"/>
+    </row>
+    <row r="38" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="7"/>
+      <c r="B38" s="16">
+        <v>0.45624999999999999</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="D38" s="7"/>
+      <c r="E38" s="13">
+        <v>7</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="G38" s="12">
+        <v>30</v>
+      </c>
+      <c r="H38" s="13" t="s">
+        <v>384</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="J38" s="12">
+        <v>7</v>
+      </c>
+      <c r="K38" s="13"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="12"/>
+    </row>
+    <row r="39" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="7"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="D39" s="7"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="G39" s="12">
+        <v>30</v>
+      </c>
+      <c r="H39" s="13"/>
+      <c r="I39" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="J39" s="12">
+        <v>11</v>
+      </c>
+      <c r="K39" s="13"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="12"/>
+    </row>
+    <row r="40" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="7"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="D40" s="7"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="G40" s="12">
+        <v>11</v>
+      </c>
+      <c r="H40" s="13"/>
+      <c r="I40" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="J40" s="12">
+        <v>14</v>
+      </c>
+      <c r="K40" s="13"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="12"/>
+    </row>
+    <row r="41" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="7"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="9"/>
-    </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="18">
-        <v>0.40625</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="D41" s="7"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="G41" s="12">
+        <v>28</v>
+      </c>
+      <c r="H41" s="13"/>
+      <c r="I41" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="J41" s="12">
+        <v>20</v>
+      </c>
+      <c r="K41" s="13"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="12"/>
+    </row>
+    <row r="42" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="6"/>
+      <c r="B42" s="15">
+        <v>0.46250000000000002</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="D42" s="6"/>
+      <c r="E42" s="14" t="s">
+        <v>372</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="G42" s="11">
+        <v>34</v>
+      </c>
+      <c r="H42" s="14" t="s">
+        <v>372</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="J42" s="11">
+        <v>15</v>
+      </c>
+      <c r="K42" s="14"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="11"/>
+    </row>
+    <row r="43" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="6"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="D43" s="6"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="G43" s="11">
+        <v>17</v>
+      </c>
+      <c r="H43" s="14"/>
+      <c r="I43" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="J43" s="11">
+        <v>11</v>
+      </c>
+      <c r="K43" s="14"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="11"/>
+    </row>
+    <row r="44" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="6"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="D44" s="6"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="G44" s="11">
+        <v>10</v>
+      </c>
+      <c r="H44" s="14"/>
+      <c r="I44" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="J44" s="11">
+        <v>4</v>
+      </c>
+      <c r="K44" s="14"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="11"/>
+    </row>
+    <row r="45" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="6"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="D45" s="6"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="G45" s="11">
+        <v>7</v>
+      </c>
+      <c r="H45" s="14"/>
+      <c r="I45" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="J45" s="11">
+        <v>6</v>
+      </c>
+      <c r="K45" s="14"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="11"/>
+    </row>
+    <row r="46" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="7"/>
+      <c r="B46" s="16">
+        <v>0.46875</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="D46" s="7"/>
+      <c r="E46" s="13" t="s">
+        <v>373</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="G46" s="12">
+        <v>23</v>
+      </c>
+      <c r="H46" s="13" t="s">
+        <v>373</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="J46" s="12">
+        <v>23</v>
+      </c>
+      <c r="K46" s="13"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="12"/>
+    </row>
+    <row r="47" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="7"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="D47" s="7"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="G47" s="12">
+        <v>19</v>
+      </c>
+      <c r="H47" s="13"/>
+      <c r="I47" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="J47" s="12">
+        <v>19</v>
+      </c>
+      <c r="K47" s="13"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="12"/>
+    </row>
+    <row r="48" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="7"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="D48" s="7"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="G48" s="12">
+        <v>23</v>
+      </c>
+      <c r="H48" s="13"/>
+      <c r="I48" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="J48" s="12">
+        <v>32</v>
+      </c>
+      <c r="K48" s="13"/>
+      <c r="L48" s="5"/>
+      <c r="M48" s="12"/>
+    </row>
+    <row r="49" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="7"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="D49" s="7"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="G49" s="12">
+        <v>12</v>
+      </c>
+      <c r="H49" s="13"/>
+      <c r="I49" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="J49" s="12">
+        <v>19</v>
+      </c>
+      <c r="K49" s="13"/>
+      <c r="L49" s="5"/>
+      <c r="M49" s="12"/>
+    </row>
+    <row r="50" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="6"/>
+      <c r="B50" s="15">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="D50" s="6"/>
+      <c r="E50" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="G50" s="11">
+        <v>23</v>
+      </c>
+      <c r="H50" s="14">
+        <v>5</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="J50" s="11">
+        <v>9</v>
+      </c>
+      <c r="K50" s="14"/>
+      <c r="L50" s="4"/>
+      <c r="M50" s="11"/>
+    </row>
+    <row r="51" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="6"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="D51" s="6"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="G51" s="11">
+        <v>30</v>
+      </c>
+      <c r="H51" s="14"/>
+      <c r="I51" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="J51" s="11">
+        <v>15</v>
+      </c>
+      <c r="K51" s="14"/>
+      <c r="L51" s="4"/>
+      <c r="M51" s="11"/>
+    </row>
+    <row r="52" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="6"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="D52" s="6"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="G52" s="11">
+        <v>32</v>
+      </c>
+      <c r="H52" s="14"/>
+      <c r="I52" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="J52" s="11">
+        <v>11</v>
+      </c>
+      <c r="K52" s="14"/>
+      <c r="L52" s="4"/>
+      <c r="M52" s="11"/>
+    </row>
+    <row r="53" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="6"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="D53" s="6"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="G53" s="11">
+        <v>19</v>
+      </c>
+      <c r="H53" s="14"/>
+      <c r="I53" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="J53" s="11">
+        <v>15</v>
+      </c>
+      <c r="K53" s="14"/>
+      <c r="L53" s="4"/>
+      <c r="M53" s="11"/>
+    </row>
+    <row r="54" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="7"/>
+      <c r="B54" s="16">
+        <v>0.48125000000000001</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="D54" s="7"/>
+      <c r="E54" s="13" t="s">
+        <v>375</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="G54" s="12">
+        <v>11</v>
+      </c>
+      <c r="H54" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="I54" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="J54" s="12">
+        <v>18</v>
+      </c>
+      <c r="K54" s="13"/>
+      <c r="L54" s="5"/>
+      <c r="M54" s="12"/>
+    </row>
+    <row r="55" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="7"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="D55" s="7"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="G55" s="12">
+        <v>15</v>
+      </c>
+      <c r="H55" s="13"/>
+      <c r="I55" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="J55" s="12">
+        <v>15</v>
+      </c>
+      <c r="K55" s="13"/>
+      <c r="L55" s="5"/>
+      <c r="M55" s="12"/>
+    </row>
+    <row r="56" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="7"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="D56" s="7"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="G56" s="12">
+        <v>14</v>
+      </c>
+      <c r="H56" s="13"/>
+      <c r="I56" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="J56" s="12">
+        <v>15</v>
+      </c>
+      <c r="K56" s="13"/>
+      <c r="L56" s="5"/>
+      <c r="M56" s="12"/>
+    </row>
+    <row r="57" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="7"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="D57" s="7"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="G57" s="12">
+        <v>20</v>
+      </c>
+      <c r="H57" s="13"/>
+      <c r="I57" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="J57" s="12">
+        <v>8</v>
+      </c>
+      <c r="K57" s="13"/>
+      <c r="L57" s="5"/>
+      <c r="M57" s="12"/>
+    </row>
+    <row r="58" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="6"/>
+      <c r="B58" s="15">
+        <v>0.48749999999999999</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="D58" s="6"/>
+      <c r="E58" s="14">
+        <v>4</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="G58" s="11">
+        <v>9</v>
+      </c>
+      <c r="H58" s="14" t="s">
+        <v>383</v>
+      </c>
+      <c r="I58" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="J58" s="11">
+        <v>28</v>
+      </c>
+      <c r="K58" s="14"/>
+      <c r="L58" s="4"/>
+      <c r="M58" s="11"/>
+    </row>
+    <row r="59" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="6"/>
+      <c r="B59" s="14"/>
+      <c r="C59" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="D59" s="6"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="G59" s="11">
+        <v>15</v>
+      </c>
+      <c r="H59" s="14"/>
+      <c r="I59" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="J59" s="11">
+        <v>23</v>
+      </c>
+      <c r="K59" s="14"/>
+      <c r="L59" s="4"/>
+      <c r="M59" s="11"/>
+    </row>
+    <row r="60" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="6"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="D60" s="6"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="G60" s="11">
+        <v>14</v>
+      </c>
+      <c r="H60" s="14"/>
+      <c r="I60" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="J60" s="11">
+        <v>23</v>
+      </c>
+      <c r="K60" s="14"/>
+      <c r="L60" s="4"/>
+      <c r="M60" s="11"/>
+    </row>
+    <row r="61" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="6"/>
+      <c r="B61" s="14"/>
+      <c r="C61" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="D61" s="6"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="G61" s="11">
+        <v>16</v>
+      </c>
+      <c r="H61" s="14"/>
+      <c r="I61" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="J61" s="11">
+        <v>30</v>
+      </c>
+      <c r="K61" s="14"/>
+      <c r="L61" s="4"/>
+      <c r="M61" s="11"/>
+    </row>
+    <row r="62" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="7"/>
+      <c r="B62" s="16">
+        <v>0.49375000000000002</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="D62" s="7"/>
+      <c r="E62" s="13" t="s">
+        <v>376</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="G62" s="12">
+        <v>21</v>
+      </c>
+      <c r="H62" s="13" t="s">
+        <v>376</v>
+      </c>
+      <c r="I62" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="J62" s="12">
+        <v>14</v>
+      </c>
+      <c r="K62" s="13"/>
+      <c r="L62" s="5"/>
+      <c r="M62" s="12"/>
+    </row>
+    <row r="63" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="7"/>
+      <c r="B63" s="13"/>
+      <c r="C63" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="D63" s="7"/>
+      <c r="E63" s="13"/>
+      <c r="F63" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="G63" s="12">
+        <v>17</v>
+      </c>
+      <c r="H63" s="13"/>
+      <c r="I63" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="J63" s="12">
+        <v>16</v>
+      </c>
+      <c r="K63" s="13"/>
+      <c r="L63" s="5"/>
+      <c r="M63" s="12"/>
+    </row>
+    <row r="64" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="7"/>
+      <c r="B64" s="13"/>
+      <c r="C64" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="D64" s="7"/>
+      <c r="E64" s="13"/>
+      <c r="F64" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="G64" s="12">
+        <v>27</v>
+      </c>
+      <c r="H64" s="13"/>
+      <c r="I64" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="J64" s="12">
+        <v>13</v>
+      </c>
+      <c r="K64" s="13"/>
+      <c r="L64" s="5"/>
+      <c r="M64" s="12"/>
+    </row>
+    <row r="65" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="7"/>
+      <c r="B65" s="13"/>
+      <c r="C65" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="D65" s="7"/>
+      <c r="E65" s="13"/>
+      <c r="F65" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="G65" s="12">
+        <v>14</v>
+      </c>
+      <c r="H65" s="13"/>
+      <c r="I65" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="J65" s="12">
+        <v>23</v>
+      </c>
+      <c r="K65" s="13"/>
+      <c r="L65" s="5"/>
+      <c r="M65" s="12"/>
+    </row>
+    <row r="66" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="6"/>
+      <c r="B66" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="D66" s="6"/>
+      <c r="E66" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="G66" s="11">
+        <v>18</v>
+      </c>
+      <c r="H66" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="I66" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="J66" s="11">
+        <v>24</v>
+      </c>
+      <c r="K66" s="14"/>
+      <c r="L66" s="4"/>
+      <c r="M66" s="11"/>
+    </row>
+    <row r="67" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="6"/>
+      <c r="B67" s="14"/>
+      <c r="C67" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="D67" s="6"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="G67" s="11">
+        <v>15</v>
+      </c>
+      <c r="H67" s="14"/>
+      <c r="I67" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="J67" s="11">
+        <v>21</v>
+      </c>
+      <c r="K67" s="14"/>
+      <c r="L67" s="4"/>
+      <c r="M67" s="11"/>
+    </row>
+    <row r="68" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="6"/>
+      <c r="B68" s="14"/>
+      <c r="C68" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="D68" s="6"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="G68" s="11">
+        <v>22</v>
+      </c>
+      <c r="H68" s="14"/>
+      <c r="I68" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="J68" s="11">
+        <v>34</v>
+      </c>
+      <c r="K68" s="14"/>
+      <c r="L68" s="4"/>
+      <c r="M68" s="11"/>
+    </row>
+    <row r="69" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="6"/>
+      <c r="B69" s="14"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="G69" s="11">
+        <v>10</v>
+      </c>
+      <c r="H69" s="14"/>
+      <c r="I69" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="J69" s="11">
+        <v>17</v>
+      </c>
+      <c r="K69" s="14"/>
+      <c r="L69" s="4"/>
+      <c r="M69" s="11"/>
+    </row>
+    <row r="70" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="7"/>
+      <c r="B70" s="16">
+        <v>0.50625000000000098</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="D70" s="7"/>
+      <c r="E70" s="13" t="s">
+        <v>379</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="G70" s="12">
+        <v>5</v>
+      </c>
+      <c r="H70" s="13" t="s">
+        <v>379</v>
+      </c>
+      <c r="I70" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="J70" s="12">
+        <v>23</v>
+      </c>
+      <c r="K70" s="13"/>
+      <c r="L70" s="5"/>
+      <c r="M70" s="12"/>
+    </row>
+    <row r="71" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="7"/>
+      <c r="B71" s="13"/>
+      <c r="C71" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="D71" s="7"/>
+      <c r="E71" s="13"/>
+      <c r="F71" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="G71" s="12">
+        <v>11</v>
+      </c>
+      <c r="H71" s="13"/>
+      <c r="I71" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="J71" s="12">
+        <v>12</v>
+      </c>
+      <c r="K71" s="13"/>
+      <c r="L71" s="5"/>
+      <c r="M71" s="12"/>
+    </row>
+    <row r="72" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="7"/>
+      <c r="B72" s="13"/>
+      <c r="C72" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="D72" s="7"/>
+      <c r="E72" s="13"/>
+      <c r="F72" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="G72" s="12">
+        <v>9</v>
+      </c>
+      <c r="H72" s="13"/>
+      <c r="I72" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="J72" s="12">
+        <v>19</v>
+      </c>
+      <c r="K72" s="13"/>
+      <c r="L72" s="5"/>
+      <c r="M72" s="12"/>
+    </row>
+    <row r="73" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="7"/>
+      <c r="B73" s="13"/>
+      <c r="C73" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="D73" s="7"/>
+      <c r="E73" s="13"/>
+      <c r="F73" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="G73" s="12">
+        <v>20</v>
+      </c>
+      <c r="H73" s="13"/>
+      <c r="I73" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="J73" s="12">
+        <v>35</v>
+      </c>
+      <c r="K73" s="13"/>
+      <c r="L73" s="5"/>
+      <c r="M73" s="12"/>
+    </row>
+    <row r="74" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="6"/>
+      <c r="B74" s="15">
+        <v>0.51250000000000095</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="D74" s="6"/>
+      <c r="E74" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="G74" s="11">
+        <v>15</v>
+      </c>
+      <c r="H74" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="I74" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="J74" s="11">
+        <v>27</v>
+      </c>
+      <c r="K74" s="14"/>
+      <c r="L74" s="4"/>
+      <c r="M74" s="11"/>
+    </row>
+    <row r="75" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="6"/>
+      <c r="B75" s="14"/>
+      <c r="C75" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="D75" s="6"/>
+      <c r="E75" s="14"/>
+      <c r="F75" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="G75" s="11">
+        <v>11</v>
+      </c>
+      <c r="H75" s="14"/>
+      <c r="I75" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="J75" s="11">
+        <v>14</v>
+      </c>
+      <c r="K75" s="14"/>
+      <c r="L75" s="4"/>
+      <c r="M75" s="11"/>
+    </row>
+    <row r="76" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="6"/>
+      <c r="B76" s="14"/>
+      <c r="C76" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="D76" s="6"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="G76" s="11">
+        <v>31</v>
+      </c>
+      <c r="H76" s="14"/>
+      <c r="I76" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="J76" s="11">
+        <v>9</v>
+      </c>
+      <c r="K76" s="14"/>
+      <c r="L76" s="4"/>
+      <c r="M76" s="11"/>
+    </row>
+    <row r="77" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="6"/>
+      <c r="B77" s="14"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="G77" s="11">
+        <v>18</v>
+      </c>
+      <c r="H77" s="14"/>
+      <c r="I77" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="J77" s="11">
+        <v>20</v>
+      </c>
+      <c r="K77" s="14"/>
+      <c r="L77" s="4"/>
+      <c r="M77" s="11"/>
+    </row>
+    <row r="78" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="7"/>
+      <c r="B78" s="16">
+        <v>0.51875000000000104</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="D78" s="7"/>
+      <c r="E78" s="13" t="s">
+        <v>381</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="G78" s="12">
+        <v>28</v>
+      </c>
+      <c r="H78" s="13" t="s">
+        <v>381</v>
+      </c>
+      <c r="I78" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="J78" s="12">
+        <v>31</v>
+      </c>
+      <c r="K78" s="13"/>
+      <c r="L78" s="5"/>
+      <c r="M78" s="12"/>
+    </row>
+    <row r="79" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="7"/>
+      <c r="B79" s="13"/>
+      <c r="C79" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="D79" s="7"/>
+      <c r="E79" s="13"/>
+      <c r="F79" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="G79" s="12">
+        <v>23</v>
+      </c>
+      <c r="H79" s="13"/>
+      <c r="I79" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="J79" s="12">
+        <v>18</v>
+      </c>
+      <c r="K79" s="13"/>
+      <c r="L79" s="5"/>
+      <c r="M79" s="12"/>
+    </row>
+    <row r="80" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="7"/>
+      <c r="B80" s="13"/>
+      <c r="C80" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="D80" s="7"/>
+      <c r="E80" s="13"/>
+      <c r="F80" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="G80" s="12">
+        <v>16</v>
+      </c>
+      <c r="H80" s="13"/>
+      <c r="I80" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="J80" s="12">
+        <v>16</v>
+      </c>
+      <c r="K80" s="13"/>
+      <c r="L80" s="5"/>
+      <c r="M80" s="12"/>
+    </row>
+    <row r="81" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="7"/>
+      <c r="B81" s="13"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="13"/>
+      <c r="F81" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="G81" s="12">
+        <v>18</v>
+      </c>
+      <c r="H81" s="13"/>
+      <c r="I81" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="J81" s="12">
+        <v>18</v>
+      </c>
+      <c r="K81" s="13"/>
+      <c r="L81" s="5"/>
+      <c r="M81" s="12"/>
+    </row>
+    <row r="82" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="6"/>
+      <c r="B82" s="14"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="G82" s="11">
+        <v>19</v>
+      </c>
+      <c r="H82" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="I82" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="J82" s="11">
+        <v>30</v>
+      </c>
+      <c r="K82" s="14"/>
+      <c r="L82" s="4"/>
+      <c r="M82" s="11"/>
+    </row>
+    <row r="83" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="6"/>
+      <c r="B83" s="14"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="14"/>
+      <c r="F83" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="G83" s="11">
+        <v>35</v>
+      </c>
+      <c r="H83" s="14"/>
+      <c r="I83" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="17">
-        <v>1</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="G2" s="12">
-        <v>12</v>
-      </c>
-      <c r="H2" s="17">
-        <v>1</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="J2" s="12">
-        <v>8</v>
-      </c>
-      <c r="K2" s="17"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="12"/>
-    </row>
-    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="G3" s="12">
-        <v>4</v>
-      </c>
-      <c r="H3" s="16"/>
-      <c r="I3" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="J3" s="12">
-        <v>2</v>
-      </c>
-      <c r="K3" s="16"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="12"/>
-    </row>
-    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="G4" s="12">
-        <v>14</v>
-      </c>
-      <c r="H4" s="16"/>
-      <c r="I4" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="J4" s="12">
-        <v>3</v>
-      </c>
-      <c r="K4" s="16"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="12"/>
-    </row>
-    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="G5" s="12">
-        <v>15</v>
-      </c>
-      <c r="H5" s="16"/>
-      <c r="I5" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="J5" s="12">
-        <v>5</v>
-      </c>
-      <c r="K5" s="16"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="12"/>
-    </row>
-    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="14">
-        <v>0.41319444444444442</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="15">
-        <v>2</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="G6" s="13">
-        <v>8</v>
-      </c>
-      <c r="H6" s="15">
-        <v>2</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="J6" s="13">
-        <v>12</v>
-      </c>
-      <c r="K6" s="15"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="13"/>
-    </row>
-    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="G7" s="13">
-        <v>2</v>
-      </c>
-      <c r="H7" s="15"/>
-      <c r="I7" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="J7" s="13">
-        <v>4</v>
-      </c>
-      <c r="K7" s="15"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="13"/>
-    </row>
-    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="G8" s="13">
-        <v>11</v>
-      </c>
-      <c r="H8" s="15"/>
-      <c r="I8" s="6" t="s">
-        <v>335</v>
-      </c>
-      <c r="J8" s="13">
-        <v>23</v>
-      </c>
-      <c r="K8" s="15"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="13"/>
-    </row>
-    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="6" t="s">
-        <v>352</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="G9" s="13">
-        <v>7</v>
-      </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="6" t="s">
-        <v>336</v>
-      </c>
-      <c r="J9" s="13">
-        <v>20</v>
-      </c>
-      <c r="K9" s="15"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="13"/>
-    </row>
-    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="19">
-        <v>0.4201388888888889</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="16">
-        <v>3</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="G10" s="12">
-        <v>3</v>
-      </c>
-      <c r="H10" s="16">
-        <v>3</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="J10" s="12">
-        <v>11</v>
-      </c>
-      <c r="K10" s="16"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="12"/>
-    </row>
-    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="G11" s="12">
-        <v>5</v>
-      </c>
-      <c r="H11" s="16"/>
-      <c r="I11" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="J11" s="12">
-        <v>7</v>
-      </c>
-      <c r="K11" s="16"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="12"/>
-    </row>
-    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="G12" s="12">
-        <v>2</v>
-      </c>
-      <c r="H12" s="16"/>
-      <c r="I12" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="J12" s="12">
-        <v>7</v>
-      </c>
-      <c r="K12" s="16"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="12"/>
-    </row>
-    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="G13" s="12">
-        <v>4</v>
-      </c>
-      <c r="H13" s="16"/>
-      <c r="I13" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="J13" s="12">
-        <v>16</v>
-      </c>
-      <c r="K13" s="16"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="12"/>
-    </row>
-    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="14">
-        <v>0.42708333333333331</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="15">
-        <v>4</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="G14" s="13">
-        <v>5</v>
-      </c>
-      <c r="H14" s="15">
-        <v>4</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="J14" s="13">
-        <v>13</v>
-      </c>
-      <c r="K14" s="15"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="13"/>
-    </row>
-    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="G15" s="13">
-        <v>10</v>
-      </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="J15" s="13">
-        <v>14</v>
-      </c>
-      <c r="K15" s="15"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="13"/>
-    </row>
-    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="G16" s="13">
-        <v>7</v>
-      </c>
-      <c r="H16" s="15"/>
-      <c r="I16" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="J16" s="13">
-        <v>2</v>
-      </c>
-      <c r="K16" s="15"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="13"/>
-    </row>
-    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="6" t="s">
-        <v>324</v>
-      </c>
-      <c r="G17" s="13">
-        <v>16</v>
-      </c>
-      <c r="H17" s="15"/>
-      <c r="I17" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="J17" s="13">
-        <v>4</v>
-      </c>
-      <c r="K17" s="15"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="13"/>
-    </row>
-    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="19">
-        <v>0.43402777777777801</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="16">
-        <v>5</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="G18" s="12">
-        <v>23</v>
-      </c>
-      <c r="H18" s="16">
-        <v>5</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="J18" s="12">
-        <v>16</v>
-      </c>
-      <c r="K18" s="16"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="12"/>
-    </row>
-    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="G19" s="12">
-        <v>20</v>
-      </c>
-      <c r="H19" s="16"/>
-      <c r="I19" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="J19" s="12">
-        <v>8</v>
-      </c>
-      <c r="K19" s="16"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="12"/>
-    </row>
-    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="G20" s="12">
-        <v>7</v>
-      </c>
-      <c r="H20" s="16"/>
-      <c r="I20" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="J20" s="12">
-        <v>7</v>
-      </c>
-      <c r="K20" s="16"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="12"/>
-    </row>
-    <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="G21" s="12">
-        <v>12</v>
-      </c>
-      <c r="H21" s="16"/>
-      <c r="I21" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="J21" s="12">
-        <v>12</v>
-      </c>
-      <c r="K21" s="16"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="12"/>
-    </row>
-    <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="14">
-        <v>0.44097222222222199</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="15">
-        <v>6</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="G22" s="13">
-        <v>16</v>
-      </c>
-      <c r="H22" s="15">
-        <v>6</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="J22" s="13">
-        <v>22</v>
-      </c>
-      <c r="K22" s="15"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="13"/>
-    </row>
-    <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="G23" s="13">
-        <v>8</v>
-      </c>
-      <c r="H23" s="15"/>
-      <c r="I23" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="J23" s="13">
-        <v>10</v>
-      </c>
-      <c r="K23" s="15"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="13"/>
-    </row>
-    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="G24" s="13">
-        <v>7</v>
-      </c>
-      <c r="H24" s="15"/>
-      <c r="I24" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="J24" s="13">
-        <v>10</v>
-      </c>
-      <c r="K24" s="15"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="13"/>
-    </row>
-    <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="G25" s="13">
-        <v>11</v>
-      </c>
-      <c r="H25" s="15"/>
-      <c r="I25" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="J25" s="13">
-        <v>7</v>
-      </c>
-      <c r="K25" s="15"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="13"/>
-    </row>
-    <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
-      <c r="B26" s="19">
-        <v>0.44791666666666702</v>
-      </c>
-      <c r="C26" s="5" t="s">
+      <c r="J83" s="11">
+        <v>30</v>
+      </c>
+      <c r="K83" s="14"/>
+      <c r="L83" s="4"/>
+      <c r="M83" s="11"/>
+    </row>
+    <row r="84" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="6"/>
+      <c r="B84" s="14"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="14"/>
+      <c r="F84" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="G84" s="11">
+        <v>39</v>
+      </c>
+      <c r="H84" s="14"/>
+      <c r="I84" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="J84" s="11">
+        <v>39</v>
+      </c>
+      <c r="K84" s="14"/>
+      <c r="L84" s="4"/>
+      <c r="M84" s="11"/>
+    </row>
+    <row r="85" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="6"/>
+      <c r="B85" s="14"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="14"/>
+      <c r="F85" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="D26" s="7"/>
-      <c r="E26" s="16">
-        <v>7</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="G26" s="12">
-        <v>24</v>
-      </c>
-      <c r="H26" s="16">
-        <v>7</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="J26" s="12">
-        <v>21</v>
-      </c>
-      <c r="K26" s="16"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="12"/>
-    </row>
-    <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="D27" s="7"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="G27" s="12">
-        <v>21</v>
-      </c>
-      <c r="H27" s="16"/>
-      <c r="I27" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="J27" s="12">
-        <v>17</v>
-      </c>
-      <c r="K27" s="16"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="12"/>
-    </row>
-    <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="D28" s="7"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="G28" s="12">
-        <v>13</v>
-      </c>
-      <c r="H28" s="16"/>
-      <c r="I28" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="J28" s="12">
-        <v>5</v>
-      </c>
-      <c r="K28" s="16"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="12"/>
-    </row>
-    <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="7"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="D29" s="7"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="G29" s="12">
-        <v>23</v>
-      </c>
-      <c r="H29" s="16"/>
-      <c r="I29" s="5" t="s">
-        <v>332</v>
-      </c>
-      <c r="J29" s="12">
-        <v>10</v>
-      </c>
-      <c r="K29" s="16"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="12"/>
-    </row>
-    <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
-      <c r="B30" s="14">
-        <v>0.45486111111111099</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="D30" s="8"/>
-      <c r="E30" s="15">
-        <v>8</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="G30" s="13">
-        <v>4</v>
-      </c>
-      <c r="H30" s="15">
-        <v>8</v>
-      </c>
-      <c r="I30" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="J30" s="13">
-        <v>5</v>
-      </c>
-      <c r="K30" s="15"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="13"/>
-    </row>
-    <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="D31" s="8"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="G31" s="13">
-        <v>6</v>
-      </c>
-      <c r="H31" s="15"/>
-      <c r="I31" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="J31" s="13">
-        <v>11</v>
-      </c>
-      <c r="K31" s="15"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="13"/>
-    </row>
-    <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="D32" s="8"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="G32" s="13">
-        <v>21</v>
-      </c>
-      <c r="H32" s="15"/>
-      <c r="I32" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="J32" s="13">
-        <v>21</v>
-      </c>
-      <c r="K32" s="15"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="13"/>
-    </row>
-    <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="8"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="G33" s="13">
-        <v>11</v>
-      </c>
-      <c r="H33" s="15"/>
-      <c r="I33" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="J33" s="13">
-        <v>11</v>
-      </c>
-      <c r="K33" s="15"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="13"/>
-    </row>
-    <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="7"/>
-      <c r="B34" s="19">
-        <v>0.46180555555555503</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="D34" s="7"/>
-      <c r="E34" s="16">
-        <v>9</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="G34" s="12">
-        <v>13</v>
-      </c>
-      <c r="H34" s="16">
-        <v>9</v>
-      </c>
-      <c r="I34" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="J34" s="12">
-        <v>14</v>
-      </c>
-      <c r="K34" s="16"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="12"/>
-    </row>
-    <row r="35" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="7"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="D35" s="7"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="G35" s="12">
-        <v>14</v>
-      </c>
-      <c r="H35" s="16"/>
-      <c r="I35" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="J35" s="12">
-        <v>15</v>
-      </c>
-      <c r="K35" s="16"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="12"/>
-    </row>
-    <row r="36" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="7"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="D36" s="7"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="G36" s="12">
-        <v>15</v>
-      </c>
-      <c r="H36" s="16"/>
-      <c r="I36" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="J36" s="12">
-        <v>11</v>
-      </c>
-      <c r="K36" s="16"/>
-      <c r="L36" s="5"/>
-      <c r="M36" s="12"/>
-    </row>
-    <row r="37" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="7"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="G37" s="12">
-        <v>8</v>
-      </c>
-      <c r="H37" s="16"/>
-      <c r="I37" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="J37" s="12">
-        <v>28</v>
-      </c>
-      <c r="K37" s="16"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="12"/>
-    </row>
-    <row r="38" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="8"/>
-      <c r="B38" s="14">
-        <v>0.46875</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="D38" s="8"/>
-      <c r="E38" s="15">
-        <v>10</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="G38" s="13">
-        <v>30</v>
-      </c>
-      <c r="H38" s="15">
-        <v>10</v>
-      </c>
-      <c r="I38" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="J38" s="13">
-        <v>7</v>
-      </c>
-      <c r="K38" s="15"/>
-      <c r="L38" s="6"/>
-      <c r="M38" s="13"/>
-    </row>
-    <row r="39" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="8"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="D39" s="8"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="G39" s="13">
-        <v>30</v>
-      </c>
-      <c r="H39" s="15"/>
-      <c r="I39" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="J39" s="13">
-        <v>11</v>
-      </c>
-      <c r="K39" s="15"/>
-      <c r="L39" s="6"/>
-      <c r="M39" s="13"/>
-    </row>
-    <row r="40" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="8"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="D40" s="8"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="G40" s="13">
-        <v>11</v>
-      </c>
-      <c r="H40" s="15"/>
-      <c r="I40" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="J40" s="13">
-        <v>14</v>
-      </c>
-      <c r="K40" s="15"/>
-      <c r="L40" s="6"/>
-      <c r="M40" s="13"/>
-    </row>
-    <row r="41" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="8"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="D41" s="8"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="G41" s="13">
-        <v>28</v>
-      </c>
-      <c r="H41" s="15"/>
-      <c r="I41" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="J41" s="13">
-        <v>20</v>
-      </c>
-      <c r="K41" s="15"/>
-      <c r="L41" s="6"/>
-      <c r="M41" s="13"/>
-    </row>
-    <row r="42" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="7"/>
-      <c r="B42" s="19">
-        <v>0.47569444444444398</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="D42" s="7"/>
-      <c r="E42" s="16">
-        <v>11</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="G42" s="12">
-        <v>34</v>
-      </c>
-      <c r="H42" s="16">
-        <v>11</v>
-      </c>
-      <c r="I42" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="J42" s="12">
-        <v>15</v>
-      </c>
-      <c r="K42" s="16"/>
-      <c r="L42" s="5"/>
-      <c r="M42" s="12"/>
-    </row>
-    <row r="43" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="7"/>
-      <c r="B43" s="16"/>
-      <c r="C43" s="5" t="s">
-        <v>354</v>
-      </c>
-      <c r="D43" s="7"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="G43" s="12">
-        <v>17</v>
-      </c>
-      <c r="H43" s="16"/>
-      <c r="I43" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="J43" s="12">
-        <v>11</v>
-      </c>
-      <c r="K43" s="16"/>
-      <c r="L43" s="5"/>
-      <c r="M43" s="12"/>
-    </row>
-    <row r="44" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="7"/>
-      <c r="B44" s="16"/>
-      <c r="C44" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="D44" s="7"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="G44" s="12">
-        <v>10</v>
-      </c>
-      <c r="H44" s="16"/>
-      <c r="I44" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="J44" s="12">
-        <v>4</v>
-      </c>
-      <c r="K44" s="16"/>
-      <c r="L44" s="5"/>
-      <c r="M44" s="12"/>
-    </row>
-    <row r="45" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="7"/>
-      <c r="B45" s="16"/>
-      <c r="C45" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="D45" s="7"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="G45" s="12">
-        <v>7</v>
-      </c>
-      <c r="H45" s="16"/>
-      <c r="I45" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="J45" s="12">
-        <v>6</v>
-      </c>
-      <c r="K45" s="16"/>
-      <c r="L45" s="5"/>
-      <c r="M45" s="12"/>
-    </row>
-    <row r="46" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="8"/>
-      <c r="B46" s="14">
-        <v>0.48263888888888801</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="D46" s="8"/>
-      <c r="E46" s="15">
-        <v>12</v>
-      </c>
-      <c r="F46" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="G46" s="13">
-        <v>23</v>
-      </c>
-      <c r="H46" s="15">
-        <v>12</v>
-      </c>
-      <c r="I46" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="J46" s="13">
-        <v>23</v>
-      </c>
-      <c r="K46" s="15"/>
-      <c r="L46" s="6"/>
-      <c r="M46" s="13"/>
-    </row>
-    <row r="47" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="8"/>
-      <c r="B47" s="15"/>
-      <c r="C47" s="6" t="s">
-        <v>328</v>
-      </c>
-      <c r="D47" s="8"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="G47" s="13">
-        <v>19</v>
-      </c>
-      <c r="H47" s="15"/>
-      <c r="I47" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="J47" s="13">
-        <v>19</v>
-      </c>
-      <c r="K47" s="15"/>
-      <c r="L47" s="6"/>
-      <c r="M47" s="13"/>
-    </row>
-    <row r="48" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="8"/>
-      <c r="B48" s="15"/>
-      <c r="C48" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="D48" s="8"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="G48" s="13">
-        <v>23</v>
-      </c>
-      <c r="H48" s="15"/>
-      <c r="I48" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="J48" s="13">
-        <v>32</v>
-      </c>
-      <c r="K48" s="15"/>
-      <c r="L48" s="6"/>
-      <c r="M48" s="13"/>
-    </row>
-    <row r="49" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="8"/>
-      <c r="B49" s="15"/>
-      <c r="C49" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="D49" s="8"/>
-      <c r="E49" s="15"/>
-      <c r="F49" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="G49" s="13">
-        <v>12</v>
-      </c>
-      <c r="H49" s="15"/>
-      <c r="I49" s="6" t="s">
-        <v>358</v>
-      </c>
-      <c r="J49" s="13">
-        <v>19</v>
-      </c>
-      <c r="K49" s="15"/>
-      <c r="L49" s="6"/>
-      <c r="M49" s="13"/>
-    </row>
-    <row r="50" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="7"/>
-      <c r="B50" s="19">
-        <v>0.48958333333333198</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="D50" s="7"/>
-      <c r="E50" s="16">
-        <v>13</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="G50" s="12">
-        <v>23</v>
-      </c>
-      <c r="H50" s="16">
-        <v>13</v>
-      </c>
-      <c r="I50" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="J50" s="12">
-        <v>9</v>
-      </c>
-      <c r="K50" s="16"/>
-      <c r="L50" s="5"/>
-      <c r="M50" s="12"/>
-    </row>
-    <row r="51" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="7"/>
-      <c r="B51" s="16"/>
-      <c r="C51" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="D51" s="7"/>
-      <c r="E51" s="16"/>
-      <c r="F51" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="G51" s="12">
-        <v>30</v>
-      </c>
-      <c r="H51" s="16"/>
-      <c r="I51" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="J51" s="12">
-        <v>15</v>
-      </c>
-      <c r="K51" s="16"/>
-      <c r="L51" s="5"/>
-      <c r="M51" s="12"/>
-    </row>
-    <row r="52" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="7"/>
-      <c r="B52" s="16"/>
-      <c r="C52" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="D52" s="7"/>
-      <c r="E52" s="16"/>
-      <c r="F52" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="G52" s="12">
-        <v>32</v>
-      </c>
-      <c r="H52" s="16"/>
-      <c r="I52" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="J52" s="12">
-        <v>11</v>
-      </c>
-      <c r="K52" s="16"/>
-      <c r="L52" s="5"/>
-      <c r="M52" s="12"/>
-    </row>
-    <row r="53" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="7"/>
-      <c r="B53" s="16"/>
-      <c r="C53" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="D53" s="7"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="5" t="s">
-        <v>358</v>
-      </c>
-      <c r="G53" s="12">
-        <v>19</v>
-      </c>
-      <c r="H53" s="16"/>
-      <c r="I53" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="J53" s="12">
-        <v>15</v>
-      </c>
-      <c r="K53" s="16"/>
-      <c r="L53" s="5"/>
-      <c r="M53" s="12"/>
-    </row>
-    <row r="54" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="8"/>
-      <c r="B54" s="14">
-        <v>0.49652777777777601</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>339</v>
-      </c>
-      <c r="D54" s="8"/>
-      <c r="E54" s="15">
-        <v>14</v>
-      </c>
-      <c r="F54" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="G54" s="13">
-        <v>11</v>
-      </c>
-      <c r="H54" s="15">
-        <v>14</v>
-      </c>
-      <c r="I54" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="J54" s="13">
-        <v>18</v>
-      </c>
-      <c r="K54" s="15"/>
-      <c r="L54" s="6"/>
-      <c r="M54" s="13"/>
-    </row>
-    <row r="55" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="8"/>
-      <c r="B55" s="15"/>
-      <c r="C55" s="6" t="s">
-        <v>338</v>
-      </c>
-      <c r="D55" s="8"/>
-      <c r="E55" s="15"/>
-      <c r="F55" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="G55" s="13">
-        <v>15</v>
-      </c>
-      <c r="H55" s="15"/>
-      <c r="I55" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="J55" s="13">
-        <v>15</v>
-      </c>
-      <c r="K55" s="15"/>
-      <c r="L55" s="6"/>
-      <c r="M55" s="13"/>
-    </row>
-    <row r="56" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="8"/>
-      <c r="B56" s="15"/>
-      <c r="C56" s="6" t="s">
-        <v>341</v>
-      </c>
-      <c r="D56" s="8"/>
-      <c r="E56" s="15"/>
-      <c r="F56" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="G56" s="13">
-        <v>14</v>
-      </c>
-      <c r="H56" s="15"/>
-      <c r="I56" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="J56" s="13">
-        <v>15</v>
-      </c>
-      <c r="K56" s="15"/>
-      <c r="L56" s="6"/>
-      <c r="M56" s="13"/>
-    </row>
-    <row r="57" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="8"/>
-      <c r="B57" s="15"/>
-      <c r="C57" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="D57" s="8"/>
-      <c r="E57" s="15"/>
-      <c r="F57" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="G57" s="13">
-        <v>20</v>
-      </c>
-      <c r="H57" s="15"/>
-      <c r="I57" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="J57" s="13">
-        <v>8</v>
-      </c>
-      <c r="K57" s="15"/>
-      <c r="L57" s="6"/>
-      <c r="M57" s="13"/>
-    </row>
-    <row r="58" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="7"/>
-      <c r="B58" s="19">
-        <v>0.50347222222221999</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="D58" s="7"/>
-      <c r="E58" s="16">
-        <v>15</v>
-      </c>
-      <c r="F58" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="G58" s="12">
-        <v>9</v>
-      </c>
-      <c r="H58" s="16">
-        <v>15</v>
-      </c>
-      <c r="I58" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="J58" s="12">
-        <v>28</v>
-      </c>
-      <c r="K58" s="16"/>
-      <c r="L58" s="5"/>
-      <c r="M58" s="12"/>
-    </row>
-    <row r="59" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="7"/>
-      <c r="B59" s="16"/>
-      <c r="C59" s="5" t="s">
-        <v>332</v>
-      </c>
-      <c r="D59" s="7"/>
-      <c r="E59" s="16"/>
-      <c r="F59" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="G59" s="12">
-        <v>15</v>
-      </c>
-      <c r="H59" s="16"/>
-      <c r="I59" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="J59" s="12">
-        <v>23</v>
-      </c>
-      <c r="K59" s="16"/>
-      <c r="L59" s="5"/>
-      <c r="M59" s="12"/>
-    </row>
-    <row r="60" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="7"/>
-      <c r="B60" s="16"/>
-      <c r="C60" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="D60" s="7"/>
-      <c r="E60" s="16"/>
-      <c r="F60" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="G60" s="12">
-        <v>14</v>
-      </c>
-      <c r="H60" s="16"/>
-      <c r="I60" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="J60" s="12">
-        <v>23</v>
-      </c>
-      <c r="K60" s="16"/>
-      <c r="L60" s="5"/>
-      <c r="M60" s="12"/>
-    </row>
-    <row r="61" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="7"/>
-      <c r="B61" s="16"/>
-      <c r="C61" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="D61" s="7"/>
-      <c r="E61" s="16"/>
-      <c r="F61" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="G61" s="12">
-        <v>16</v>
-      </c>
-      <c r="H61" s="16"/>
-      <c r="I61" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="J61" s="12">
-        <v>30</v>
-      </c>
-      <c r="K61" s="16"/>
-      <c r="L61" s="5"/>
-      <c r="M61" s="12"/>
-    </row>
-    <row r="62" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="8"/>
-      <c r="B62" s="14">
-        <v>0.51041666666666397</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="D62" s="8"/>
-      <c r="E62" s="15">
-        <v>16</v>
-      </c>
-      <c r="F62" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="G62" s="13">
-        <v>21</v>
-      </c>
-      <c r="H62" s="15">
-        <v>16</v>
-      </c>
-      <c r="I62" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="J62" s="13">
-        <v>14</v>
-      </c>
-      <c r="K62" s="15"/>
-      <c r="L62" s="6"/>
-      <c r="M62" s="13"/>
-    </row>
-    <row r="63" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="8"/>
-      <c r="B63" s="15"/>
-      <c r="C63" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="D63" s="8"/>
-      <c r="E63" s="15"/>
-      <c r="F63" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="G63" s="13">
-        <v>17</v>
-      </c>
-      <c r="H63" s="15"/>
-      <c r="I63" s="6" t="s">
-        <v>328</v>
-      </c>
-      <c r="J63" s="13">
-        <v>16</v>
-      </c>
-      <c r="K63" s="15"/>
-      <c r="L63" s="6"/>
-      <c r="M63" s="13"/>
-    </row>
-    <row r="64" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="8"/>
-      <c r="B64" s="15"/>
-      <c r="C64" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="D64" s="8"/>
-      <c r="E64" s="15"/>
-      <c r="F64" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="G64" s="13">
-        <v>27</v>
-      </c>
-      <c r="H64" s="15"/>
-      <c r="I64" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="J64" s="13">
-        <v>13</v>
-      </c>
-      <c r="K64" s="15"/>
-      <c r="L64" s="6"/>
-      <c r="M64" s="13"/>
-    </row>
-    <row r="65" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="8"/>
-      <c r="B65" s="15"/>
-      <c r="C65" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="D65" s="8"/>
-      <c r="E65" s="15"/>
-      <c r="F65" s="6" t="s">
-        <v>319</v>
-      </c>
-      <c r="G65" s="13">
-        <v>14</v>
-      </c>
-      <c r="H65" s="15"/>
-      <c r="I65" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="J65" s="13">
-        <v>23</v>
-      </c>
-      <c r="K65" s="15"/>
-      <c r="L65" s="6"/>
-      <c r="M65" s="13"/>
-    </row>
-    <row r="66" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="7"/>
-      <c r="B66" s="19">
-        <v>0.51736111111110805</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="D66" s="7"/>
-      <c r="E66" s="16">
-        <v>17</v>
-      </c>
-      <c r="F66" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="G66" s="12">
-        <v>18</v>
-      </c>
-      <c r="H66" s="16">
-        <v>17</v>
-      </c>
-      <c r="I66" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="J66" s="12">
-        <v>24</v>
-      </c>
-      <c r="K66" s="16"/>
-      <c r="L66" s="5"/>
-      <c r="M66" s="12"/>
-    </row>
-    <row r="67" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="7"/>
-      <c r="B67" s="16"/>
-      <c r="C67" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="D67" s="7"/>
-      <c r="E67" s="16"/>
-      <c r="F67" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="G67" s="12">
-        <v>15</v>
-      </c>
-      <c r="H67" s="16"/>
-      <c r="I67" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="J67" s="12">
-        <v>21</v>
-      </c>
-      <c r="K67" s="16"/>
-      <c r="L67" s="5"/>
-      <c r="M67" s="12"/>
-    </row>
-    <row r="68" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="7"/>
-      <c r="B68" s="16"/>
-      <c r="C68" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="D68" s="7"/>
-      <c r="E68" s="16"/>
-      <c r="F68" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="G68" s="12">
-        <v>22</v>
-      </c>
-      <c r="H68" s="16"/>
-      <c r="I68" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="J68" s="12">
-        <v>34</v>
-      </c>
-      <c r="K68" s="16"/>
-      <c r="L68" s="5"/>
-      <c r="M68" s="12"/>
-    </row>
-    <row r="69" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="7"/>
-      <c r="B69" s="16"/>
-      <c r="C69" s="5"/>
-      <c r="D69" s="7"/>
-      <c r="E69" s="16"/>
-      <c r="F69" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="G69" s="12">
-        <v>10</v>
-      </c>
-      <c r="H69" s="16"/>
-      <c r="I69" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="J69" s="12">
-        <v>17</v>
-      </c>
-      <c r="K69" s="16"/>
-      <c r="L69" s="5"/>
-      <c r="M69" s="12"/>
-    </row>
-    <row r="70" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="8"/>
-      <c r="B70" s="14">
-        <v>0.52430555555555203</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="D70" s="8"/>
-      <c r="E70" s="15">
-        <v>18</v>
-      </c>
-      <c r="F70" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="G70" s="13">
-        <v>5</v>
-      </c>
-      <c r="H70" s="15">
-        <v>18</v>
-      </c>
-      <c r="I70" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="J70" s="13">
-        <v>23</v>
-      </c>
-      <c r="K70" s="15"/>
-      <c r="L70" s="6"/>
-      <c r="M70" s="13"/>
-    </row>
-    <row r="71" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="8"/>
-      <c r="B71" s="15"/>
-      <c r="C71" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="D71" s="8"/>
-      <c r="E71" s="15"/>
-      <c r="F71" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="G71" s="13">
-        <v>11</v>
-      </c>
-      <c r="H71" s="15"/>
-      <c r="I71" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="J71" s="13">
-        <v>12</v>
-      </c>
-      <c r="K71" s="15"/>
-      <c r="L71" s="6"/>
-      <c r="M71" s="13"/>
-    </row>
-    <row r="72" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="8"/>
-      <c r="B72" s="15"/>
-      <c r="C72" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="D72" s="8"/>
-      <c r="E72" s="15"/>
-      <c r="F72" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="G72" s="13">
-        <v>9</v>
-      </c>
-      <c r="H72" s="15"/>
-      <c r="I72" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="J72" s="13">
-        <v>19</v>
-      </c>
-      <c r="K72" s="15"/>
-      <c r="L72" s="6"/>
-      <c r="M72" s="13"/>
-    </row>
-    <row r="73" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="8"/>
-      <c r="B73" s="15"/>
-      <c r="C73" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="D73" s="8"/>
-      <c r="E73" s="15"/>
-      <c r="F73" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="G73" s="13">
-        <v>20</v>
-      </c>
-      <c r="H73" s="15"/>
-      <c r="I73" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="J73" s="13">
+      <c r="G85" s="11">
         <v>35</v>
       </c>
-      <c r="K73" s="15"/>
-      <c r="L73" s="6"/>
-      <c r="M73" s="13"/>
-    </row>
-    <row r="74" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="7"/>
-      <c r="B74" s="19">
-        <v>0.531249999999996</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="D74" s="7"/>
-      <c r="E74" s="16">
-        <v>19</v>
-      </c>
-      <c r="F74" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="G74" s="12">
-        <v>15</v>
-      </c>
-      <c r="H74" s="16">
-        <v>19</v>
-      </c>
-      <c r="I74" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="J74" s="12">
-        <v>27</v>
-      </c>
-      <c r="K74" s="16"/>
-      <c r="L74" s="5"/>
-      <c r="M74" s="12"/>
-    </row>
-    <row r="75" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="7"/>
-      <c r="B75" s="16"/>
-      <c r="C75" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="D75" s="7"/>
-      <c r="E75" s="16"/>
-      <c r="F75" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="G75" s="12">
-        <v>11</v>
-      </c>
-      <c r="H75" s="16"/>
-      <c r="I75" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="J75" s="12">
-        <v>14</v>
-      </c>
-      <c r="K75" s="16"/>
-      <c r="L75" s="5"/>
-      <c r="M75" s="12"/>
-    </row>
-    <row r="76" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="7"/>
-      <c r="B76" s="16"/>
-      <c r="C76" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="D76" s="7"/>
-      <c r="E76" s="16"/>
-      <c r="F76" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="G76" s="12">
-        <v>31</v>
-      </c>
-      <c r="H76" s="16"/>
-      <c r="I76" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="J76" s="12">
-        <v>9</v>
-      </c>
-      <c r="K76" s="16"/>
-      <c r="L76" s="5"/>
-      <c r="M76" s="12"/>
-    </row>
-    <row r="77" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="7"/>
-      <c r="B77" s="16"/>
-      <c r="C77" s="5"/>
-      <c r="D77" s="7"/>
-      <c r="E77" s="16"/>
-      <c r="F77" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="G77" s="12">
-        <v>18</v>
-      </c>
-      <c r="H77" s="16"/>
-      <c r="I77" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="J77" s="12">
-        <v>20</v>
-      </c>
-      <c r="K77" s="16"/>
-      <c r="L77" s="5"/>
-      <c r="M77" s="12"/>
-    </row>
-    <row r="78" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="8"/>
-      <c r="B78" s="14">
-        <v>0.53819444444443998</v>
-      </c>
-      <c r="C78" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="D78" s="8"/>
-      <c r="E78" s="15">
-        <v>20</v>
-      </c>
-      <c r="F78" s="6" t="s">
-        <v>338</v>
-      </c>
-      <c r="G78" s="13">
-        <v>28</v>
-      </c>
-      <c r="H78" s="15">
-        <v>20</v>
-      </c>
-      <c r="I78" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="J78" s="13">
-        <v>31</v>
-      </c>
-      <c r="K78" s="15"/>
-      <c r="L78" s="6"/>
-      <c r="M78" s="13"/>
-    </row>
-    <row r="79" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="8"/>
-      <c r="B79" s="15"/>
-      <c r="C79" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="D79" s="8"/>
-      <c r="E79" s="15"/>
-      <c r="F79" s="6" t="s">
-        <v>339</v>
-      </c>
-      <c r="G79" s="13">
-        <v>23</v>
-      </c>
-      <c r="H79" s="15"/>
-      <c r="I79" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="J79" s="13">
-        <v>18</v>
-      </c>
-      <c r="K79" s="15"/>
-      <c r="L79" s="6"/>
-      <c r="M79" s="13"/>
-    </row>
-    <row r="80" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="8"/>
-      <c r="B80" s="15"/>
-      <c r="C80" s="6" t="s">
-        <v>358</v>
-      </c>
-      <c r="D80" s="8"/>
-      <c r="E80" s="15"/>
-      <c r="F80" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="G80" s="13">
-        <v>16</v>
-      </c>
-      <c r="H80" s="15"/>
-      <c r="I80" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="J80" s="13">
-        <v>16</v>
-      </c>
-      <c r="K80" s="15"/>
-      <c r="L80" s="6"/>
-      <c r="M80" s="13"/>
-    </row>
-    <row r="81" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="8"/>
-      <c r="B81" s="15"/>
-      <c r="C81" s="6"/>
-      <c r="D81" s="8"/>
-      <c r="E81" s="15"/>
-      <c r="F81" s="6" t="s">
-        <v>341</v>
-      </c>
-      <c r="G81" s="13">
-        <v>18</v>
-      </c>
-      <c r="H81" s="15"/>
-      <c r="I81" s="6" t="s">
-        <v>341</v>
-      </c>
-      <c r="J81" s="13">
-        <v>18</v>
-      </c>
-      <c r="K81" s="15"/>
-      <c r="L81" s="6"/>
-      <c r="M81" s="13"/>
-    </row>
-    <row r="82" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="7"/>
-      <c r="B82" s="16"/>
-      <c r="C82" s="5"/>
-      <c r="D82" s="7"/>
-      <c r="E82" s="16">
-        <v>21</v>
-      </c>
-      <c r="F82" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="G82" s="12">
-        <v>19</v>
-      </c>
-      <c r="H82" s="16">
-        <v>21</v>
-      </c>
-      <c r="I82" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="J82" s="12">
-        <v>30</v>
-      </c>
-      <c r="K82" s="16"/>
-      <c r="L82" s="5"/>
-      <c r="M82" s="12"/>
-    </row>
-    <row r="83" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="7"/>
-      <c r="B83" s="16"/>
-      <c r="C83" s="5"/>
-      <c r="D83" s="7"/>
-      <c r="E83" s="16"/>
-      <c r="F83" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="G83" s="12">
+      <c r="H85" s="14"/>
+      <c r="I85" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="J85" s="11">
         <v>35</v>
       </c>
-      <c r="H83" s="16"/>
-      <c r="I83" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="J83" s="12">
-        <v>30</v>
-      </c>
-      <c r="K83" s="16"/>
-      <c r="L83" s="5"/>
-      <c r="M83" s="12"/>
-    </row>
-    <row r="84" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="7"/>
-      <c r="B84" s="16"/>
-      <c r="C84" s="5"/>
-      <c r="D84" s="7"/>
-      <c r="E84" s="16"/>
-      <c r="F84" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="G84" s="12">
-        <v>39</v>
-      </c>
-      <c r="H84" s="16"/>
-      <c r="I84" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="J84" s="12">
-        <v>39</v>
-      </c>
-      <c r="K84" s="16"/>
-      <c r="L84" s="5"/>
-      <c r="M84" s="12"/>
-    </row>
-    <row r="85" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="7"/>
-      <c r="B85" s="16"/>
-      <c r="C85" s="5"/>
-      <c r="D85" s="7"/>
-      <c r="E85" s="16"/>
-      <c r="F85" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="G85" s="12">
-        <v>35</v>
-      </c>
-      <c r="H85" s="16"/>
-      <c r="I85" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="J85" s="12">
-        <v>35</v>
-      </c>
-      <c r="K85" s="16"/>
-      <c r="L85" s="5"/>
-      <c r="M85" s="12"/>
+      <c r="K85" s="14"/>
+      <c r="L85" s="4"/>
+      <c r="M85" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="K54:K57"/>
-    <mergeCell ref="K58:K61"/>
-    <mergeCell ref="K82:K85"/>
-    <mergeCell ref="K62:K65"/>
-    <mergeCell ref="K66:K69"/>
-    <mergeCell ref="K70:K73"/>
-    <mergeCell ref="K74:K77"/>
-    <mergeCell ref="K78:K81"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="H74:H77"/>
+    <mergeCell ref="H26:H29"/>
+    <mergeCell ref="E26:E29"/>
+    <mergeCell ref="E66:E69"/>
+    <mergeCell ref="E34:E37"/>
+    <mergeCell ref="E50:E53"/>
+    <mergeCell ref="E54:E57"/>
+    <mergeCell ref="E42:E45"/>
+    <mergeCell ref="E70:E73"/>
+    <mergeCell ref="E58:E61"/>
+    <mergeCell ref="E74:E77"/>
+    <mergeCell ref="H70:H73"/>
+    <mergeCell ref="H30:H33"/>
+    <mergeCell ref="H66:H69"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="E30:E33"/>
+    <mergeCell ref="E38:E41"/>
+    <mergeCell ref="E82:E85"/>
+    <mergeCell ref="E46:E49"/>
+    <mergeCell ref="E18:E21"/>
+    <mergeCell ref="E78:E81"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="H46:H49"/>
+    <mergeCell ref="H62:H65"/>
+    <mergeCell ref="H10:H13"/>
+    <mergeCell ref="E62:E65"/>
+    <mergeCell ref="H18:H21"/>
+    <mergeCell ref="H14:H17"/>
+    <mergeCell ref="H82:H85"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="H42:H45"/>
+    <mergeCell ref="H34:H37"/>
+    <mergeCell ref="H58:H61"/>
+    <mergeCell ref="H50:H53"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="H22:H25"/>
+    <mergeCell ref="H38:H41"/>
+    <mergeCell ref="H78:H81"/>
+    <mergeCell ref="H54:H57"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="B70:B73"/>
     <mergeCell ref="B74:B77"/>
     <mergeCell ref="B78:B81"/>
     <mergeCell ref="B82:B85"/>
@@ -5353,66 +5456,14 @@
     <mergeCell ref="K42:K45"/>
     <mergeCell ref="K46:K49"/>
     <mergeCell ref="K50:K53"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="H82:H85"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="H42:H45"/>
-    <mergeCell ref="H34:H37"/>
-    <mergeCell ref="H58:H61"/>
-    <mergeCell ref="H50:H53"/>
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="H22:H25"/>
-    <mergeCell ref="H38:H41"/>
-    <mergeCell ref="H78:H81"/>
-    <mergeCell ref="H54:H57"/>
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="H46:H49"/>
-    <mergeCell ref="H62:H65"/>
-    <mergeCell ref="H10:H13"/>
-    <mergeCell ref="E62:E65"/>
-    <mergeCell ref="H18:H21"/>
-    <mergeCell ref="H14:H17"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="E30:E33"/>
-    <mergeCell ref="E38:E41"/>
-    <mergeCell ref="E82:E85"/>
-    <mergeCell ref="E46:E49"/>
-    <mergeCell ref="E18:E21"/>
-    <mergeCell ref="E78:E81"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="H74:H77"/>
-    <mergeCell ref="H26:H29"/>
-    <mergeCell ref="E26:E29"/>
-    <mergeCell ref="E66:E69"/>
-    <mergeCell ref="E34:E37"/>
-    <mergeCell ref="E50:E53"/>
-    <mergeCell ref="E54:E57"/>
-    <mergeCell ref="E42:E45"/>
-    <mergeCell ref="E70:E73"/>
-    <mergeCell ref="E58:E61"/>
-    <mergeCell ref="E74:E77"/>
-    <mergeCell ref="H70:H73"/>
-    <mergeCell ref="H30:H33"/>
-    <mergeCell ref="H66:H69"/>
-    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="K54:K57"/>
+    <mergeCell ref="K58:K61"/>
+    <mergeCell ref="K82:K85"/>
+    <mergeCell ref="K62:K65"/>
+    <mergeCell ref="K66:K69"/>
+    <mergeCell ref="K70:K73"/>
+    <mergeCell ref="K74:K77"/>
+    <mergeCell ref="K78:K81"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5421,61 +5472,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="8.5703125" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2">
-        <v>10.8</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D3">
-        <v>22.5</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState ref="B2:D10">
-    <sortCondition ref="B2:B10"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="M36" sqref="M36"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="AC29" sqref="AC29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6315,10 +6315,10 @@
         <v>5</v>
       </c>
       <c r="AA9" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AB9" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AC9" s="3"/>
       <c r="AD9" s="1" t="s">
@@ -6504,7 +6504,7 @@
       <c r="AB11" t="s">
         <v>185</v>
       </c>
-      <c r="AC11" s="4"/>
+      <c r="AC11" s="3"/>
       <c r="AD11" s="1">
         <v>41440</v>
       </c>
@@ -7242,7 +7242,7 @@
         <v>201</v>
       </c>
       <c r="AB19" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AC19" s="3" t="s">
         <v>165</v>
@@ -7757,10 +7757,10 @@
         <v>18</v>
       </c>
       <c r="M25" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="N25" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="O25" s="3"/>
       <c r="P25" s="1" t="s">
@@ -7797,10 +7797,10 @@
         <v>15</v>
       </c>
       <c r="AA25" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AB25" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AC25" s="3"/>
       <c r="AD25" s="1" t="s">
@@ -7888,10 +7888,10 @@
         <v>18</v>
       </c>
       <c r="AA26" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AB26" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AC26" s="3"/>
       <c r="AD26" s="1">
@@ -8170,7 +8170,7 @@
       <c r="AB29" t="s">
         <v>218</v>
       </c>
-      <c r="AC29" s="4"/>
+      <c r="AC29" s="3"/>
       <c r="AD29" s="1">
         <v>41079</v>
       </c>
@@ -9456,7 +9456,7 @@
         <v>245</v>
       </c>
       <c r="AB43" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AC43" s="3"/>
       <c r="AD43" s="1">

--- a/monster-golf-docs/monster2014/Monster2014.xlsx
+++ b/monster-golf-docs/monster2014/Monster2014.xlsx
@@ -9,14 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11640" windowHeight="6690" activeTab="1"/>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21435" windowHeight="6285"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21435" windowHeight="6285" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Flights" sheetId="4" r:id="rId1"/>
     <sheet name="Groups" sheetId="5" r:id="rId2"/>
     <sheet name="Everything" sheetId="2" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Groups!$A$1:$Q$90</definedName>
+  </definedNames>
   <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="404">
   <si>
     <t>Jake</t>
   </si>
@@ -1052,12 +1054,6 @@
     <t>Matt Smith</t>
   </si>
   <si>
-    <t>Day 1</t>
-  </si>
-  <si>
-    <t>Day 2</t>
-  </si>
-  <si>
     <t>Starting Hole</t>
   </si>
   <si>
@@ -1079,21 +1075,9 @@
     <t>Last2</t>
   </si>
   <si>
-    <t>Practice</t>
-  </si>
-  <si>
-    <t>Scot Anderson</t>
-  </si>
-  <si>
-    <t>MaryBeth Thomas</t>
-  </si>
-  <si>
     <t>Mitch Mondola</t>
   </si>
   <si>
-    <t>Vince Larson</t>
-  </si>
-  <si>
     <t>Justin Kosanovich</t>
   </si>
   <si>
@@ -1236,6 +1220,27 @@
   </si>
   <si>
     <t>ndakrock@yahoo.com</t>
+  </si>
+  <si>
+    <t>Maribeth Thomas</t>
+  </si>
+  <si>
+    <t>Blind 10$</t>
+  </si>
+  <si>
+    <t>Gross Skins 5$</t>
+  </si>
+  <si>
+    <t>Net Skins 5$</t>
+  </si>
+  <si>
+    <t>Practice, May 15th</t>
+  </si>
+  <si>
+    <t>Day 1, May 16th 1pm</t>
+  </si>
+  <si>
+    <t>Day 2, May 17th 1pm</t>
   </si>
 </sst>
 </file>
@@ -1245,7 +1250,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1262,49 +1267,31 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="12.1"/>
+      <color rgb="FF44546A"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="22"/>
+      <color theme="1" tint="0.14999847407452621"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="20"/>
-      <color rgb="FF006100"/>
+      <sz val="12.1"/>
+      <color theme="1" tint="0.14999847407452621"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="20"/>
-      <color rgb="FF9C6500"/>
+      <sz val="17.600000000000001"/>
+      <color theme="1" tint="0.14999847407452621"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1318,17 +1305,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBDD6EE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1337,31 +1331,63 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.39997558519241921"/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color theme="4" tint="0.39997558519241921"/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1370,54 +1396,59 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="4" fillId="3" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="4" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="Good" xfId="3" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="2" builtinId="18"/>
+  <cellStyles count="2">
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1784,10 +1815,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
-    </sheetView>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="1">
+    <sheetView topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
@@ -1813,10 +1841,10 @@
         <v>142</v>
       </c>
       <c r="C1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E1" t="s">
         <v>257</v>
@@ -1825,16 +1853,16 @@
         <v>166</v>
       </c>
       <c r="G1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="H1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="I1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="J1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -1970,28 +1998,28 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="D6" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="E6">
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="G6" t="s">
         <v>6</v>
       </c>
       <c r="H6" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="I6">
         <v>9</v>
       </c>
       <c r="J6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -2066,22 +2094,22 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="D9" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="E9">
         <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="G9" t="s">
         <v>108</v>
       </c>
       <c r="H9" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="I9">
         <v>9</v>
@@ -2148,7 +2176,7 @@
         <v>5</v>
       </c>
       <c r="J11" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -2468,7 +2496,7 @@
         <v>13</v>
       </c>
       <c r="J21" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -2648,7 +2676,7 @@
         <v>18</v>
       </c>
       <c r="F27" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="G27" t="s">
         <v>84</v>
@@ -2660,7 +2688,7 @@
         <v>15</v>
       </c>
       <c r="J27" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -2692,7 +2720,7 @@
         <v>18</v>
       </c>
       <c r="J28" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -3249,2891 +3277,3281 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O89"/>
+  <dimension ref="A1:Q90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14:I17"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G82" sqref="G82"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.28515625" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.28515625" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.28515625" style="10" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.28515625" style="10" customWidth="1"/>
-    <col min="13" max="13" width="12.42578125" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="19.28515625" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="5.28515625" style="10" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" style="6" customWidth="1"/>
+    <col min="5" max="7" width="14.7109375" customWidth="1"/>
+    <col min="8" max="8" width="5.28515625" customWidth="1"/>
+    <col min="9" max="9" width="14" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.28515625" style="6" customWidth="1"/>
+    <col min="13" max="13" width="5.28515625" customWidth="1"/>
+    <col min="14" max="14" width="14" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.28515625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8"/>
-      <c r="B1" s="9" t="s">
+    <row r="1" spans="1:17" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="20"/>
+      <c r="B1" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="H1" s="20"/>
+      <c r="I1" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="M1" s="20"/>
+      <c r="N1" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="21"/>
+      <c r="B2" s="8">
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="D2" s="10">
+        <v>11</v>
+      </c>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="11" t="s">
         <v>358</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>350</v>
-      </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="9" t="s">
-        <v>343</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>341</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>343</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>342</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="8"/>
-    </row>
-    <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="17">
-        <v>0.39999999999999997</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="16" t="s">
-        <v>364</v>
-      </c>
-      <c r="F2" s="20">
+      <c r="J2" s="12">
         <v>1</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="K2" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="H2" s="11">
+      <c r="L2" s="10">
         <v>12</v>
       </c>
-      <c r="I2" s="16" t="s">
-        <v>364</v>
-      </c>
-      <c r="J2" s="20">
-        <v>1</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="L2" s="11">
-        <v>8</v>
-      </c>
-      <c r="M2" s="16"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="11"/>
-    </row>
-    <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="4" t="s">
+      <c r="M2" s="21"/>
+      <c r="N2" s="16" t="s">
+        <v>367</v>
+      </c>
+      <c r="O2" s="17">
+        <v>4</v>
+      </c>
+      <c r="P2" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q2" s="15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="21"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="4" t="s">
+      <c r="D3" s="10">
+        <v>7</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="H3" s="11">
+      <c r="L3" s="10">
         <v>4</v>
       </c>
-      <c r="I3" s="15"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="L3" s="11">
+      <c r="M3" s="21"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q3" s="15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="21"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="D4" s="10">
+        <v>22</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="12">
         <v>2</v>
       </c>
-      <c r="M3" s="15"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="11"/>
-    </row>
-    <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="20">
-        <v>2</v>
-      </c>
-      <c r="G4" s="4" t="s">
+      <c r="K4" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="H4" s="11">
+      <c r="L4" s="10">
         <v>14</v>
       </c>
-      <c r="I4" s="15"/>
-      <c r="J4" s="20">
-        <v>1</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="L4" s="11">
+      <c r="M4" s="21"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="17">
         <v>3</v>
       </c>
-      <c r="M4" s="15"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="11"/>
-    </row>
-    <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="4" t="s">
+      <c r="P4" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q4" s="15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="21"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="4" t="s">
+      <c r="D5" s="10">
+        <v>10</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="H5" s="11">
+      <c r="L5" s="10">
         <v>15</v>
       </c>
-      <c r="I5" s="15"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="L5" s="11">
-        <v>5</v>
-      </c>
-      <c r="M5" s="15"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="11"/>
-    </row>
-    <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q5" s="15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="21"/>
       <c r="B6" s="13">
         <v>0.40625</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="D6" s="15">
+        <v>4</v>
+      </c>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="16" t="s">
+        <v>359</v>
+      </c>
+      <c r="J6" s="17">
+        <v>1</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="L6" s="15">
+        <v>8</v>
+      </c>
+      <c r="M6" s="21"/>
+      <c r="N6" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="O6" s="12">
+        <v>4</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q6" s="10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="21"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="14" t="s">
         <v>307</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="14" t="s">
-        <v>365</v>
-      </c>
-      <c r="F6" s="21">
+      <c r="D7" s="15">
+        <v>3</v>
+      </c>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="L7" s="15">
+        <v>2</v>
+      </c>
+      <c r="M7" s="21"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q7" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="21"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="14" t="s">
+        <v>333</v>
+      </c>
+      <c r="D8" s="15">
+        <v>7</v>
+      </c>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="17">
+        <v>2</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="L8" s="15">
+        <v>11</v>
+      </c>
+      <c r="M8" s="21"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="12">
+        <v>4</v>
+      </c>
+      <c r="P8" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q8" s="10">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="21"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="14" t="s">
+        <v>336</v>
+      </c>
+      <c r="D9" s="15">
+        <v>12</v>
+      </c>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="L9" s="15">
+        <v>7</v>
+      </c>
+      <c r="M9" s="21"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q9" s="10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="21"/>
+      <c r="B10" s="8">
+        <v>0.41250000000000003</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="D10" s="10">
+        <v>18</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="11">
+        <v>11</v>
+      </c>
+      <c r="J10" s="12">
         <v>1</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="H6" s="12">
+      <c r="K10" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="L10" s="10">
+        <v>3</v>
+      </c>
+      <c r="M10" s="21"/>
+      <c r="N10" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="O10" s="17">
+        <v>2</v>
+      </c>
+      <c r="P10" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q10" s="15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="21"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="D11" s="10">
+        <v>15</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="L11" s="10">
+        <v>5</v>
+      </c>
+      <c r="M11" s="21"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q11" s="15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="21"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="D12" s="10">
         <v>8</v>
       </c>
-      <c r="I6" s="14" t="s">
-        <v>365</v>
-      </c>
-      <c r="J6" s="21">
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="12">
         <v>1</v>
       </c>
-      <c r="K6" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="L6" s="12">
-        <v>12</v>
-      </c>
-      <c r="M6" s="14"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="12"/>
-    </row>
-    <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="H7" s="12">
+      <c r="K12" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="L12" s="10">
         <v>2</v>
       </c>
-      <c r="I7" s="14"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="L7" s="12">
+      <c r="M12" s="21"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="17">
+        <v>3</v>
+      </c>
+      <c r="P12" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q12" s="15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="21"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="D13" s="10">
+        <v>5</v>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="L13" s="10">
         <v>4</v>
       </c>
-      <c r="M7" s="14"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="12"/>
-    </row>
-    <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="21">
-        <v>2</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="H8" s="12">
-        <v>11</v>
-      </c>
-      <c r="I8" s="14"/>
-      <c r="J8" s="21">
-        <v>4</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="L8" s="12">
-        <v>23</v>
-      </c>
-      <c r="M8" s="14"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="12"/>
-    </row>
-    <row r="9" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="H9" s="12">
-        <v>7</v>
-      </c>
-      <c r="I9" s="14"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="L9" s="12">
+      <c r="M13" s="21"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q13" s="15">
         <v>20</v>
       </c>
-      <c r="M9" s="14"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="12"/>
-    </row>
-    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="18">
-        <v>0.41250000000000003</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="15">
-        <v>11</v>
-      </c>
-      <c r="F10" s="20">
-        <v>1</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="H10" s="11">
-        <v>3</v>
-      </c>
-      <c r="I10" s="15" t="s">
-        <v>387</v>
-      </c>
-      <c r="J10" s="20">
-        <v>2</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="L10" s="11">
-        <v>11</v>
-      </c>
-      <c r="M10" s="15"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="11"/>
-    </row>
-    <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="H11" s="11">
-        <v>5</v>
-      </c>
-      <c r="I11" s="15"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="L11" s="11">
-        <v>7</v>
-      </c>
-      <c r="M11" s="15"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="11"/>
-    </row>
-    <row r="12" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="20">
-        <v>1</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="H12" s="11">
-        <v>2</v>
-      </c>
-      <c r="I12" s="15"/>
-      <c r="J12" s="20">
-        <v>2</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="L12" s="11">
-        <v>7</v>
-      </c>
-      <c r="M12" s="15"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="11"/>
-    </row>
-    <row r="13" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="H13" s="11">
-        <v>4</v>
-      </c>
-      <c r="I13" s="15"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="L13" s="11">
-        <v>16</v>
-      </c>
-      <c r="M13" s="15"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="11"/>
-    </row>
-    <row r="14" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
+    </row>
+    <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="21"/>
       <c r="B14" s="13">
         <v>0.41875000000000001</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="14" t="s">
         <v>296</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="14" t="s">
-        <v>366</v>
-      </c>
-      <c r="F14" s="21">
+      <c r="D14" s="15">
+        <v>15</v>
+      </c>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="16" t="s">
+        <v>360</v>
+      </c>
+      <c r="J14" s="17">
         <v>1</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="K14" s="14" t="s">
         <v>330</v>
       </c>
-      <c r="H14" s="12">
+      <c r="L14" s="15">
         <v>5</v>
       </c>
-      <c r="I14" s="14" t="s">
-        <v>386</v>
-      </c>
-      <c r="J14" s="21">
+      <c r="M14" s="21"/>
+      <c r="N14" s="11">
+        <v>4</v>
+      </c>
+      <c r="O14" s="12">
         <v>2</v>
       </c>
-      <c r="K14" s="5" t="s">
+      <c r="P14" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q14" s="10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="21"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="D15" s="15">
+        <v>11</v>
+      </c>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="14" t="s">
+        <v>331</v>
+      </c>
+      <c r="L15" s="15">
+        <v>10</v>
+      </c>
+      <c r="M15" s="21"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q15" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="21"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="14" t="s">
         <v>294</v>
       </c>
-      <c r="L14" s="12">
+      <c r="D16" s="15">
         <v>13</v>
       </c>
-      <c r="M14" s="14"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="12"/>
-    </row>
-    <row r="15" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="5" t="s">
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="17">
+        <v>2</v>
+      </c>
+      <c r="K16" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="L16" s="15">
+        <v>7</v>
+      </c>
+      <c r="M16" s="21"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="12">
+        <v>3</v>
+      </c>
+      <c r="P16" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q16" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="21"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="D17" s="15">
+        <v>14</v>
+      </c>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="L17" s="15">
+        <v>16</v>
+      </c>
+      <c r="M17" s="21"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q17" s="10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="21"/>
+      <c r="B18" s="8">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="D18" s="10">
+        <v>7</v>
+      </c>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="11" t="s">
+        <v>361</v>
+      </c>
+      <c r="J18" s="12">
+        <v>4</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="L18" s="10">
+        <v>23</v>
+      </c>
+      <c r="M18" s="21"/>
+      <c r="N18" s="16" t="s">
+        <v>370</v>
+      </c>
+      <c r="O18" s="17">
+        <v>3</v>
+      </c>
+      <c r="P18" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q18" s="15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="21"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="D19" s="10">
+        <v>12</v>
+      </c>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="L19" s="10">
+        <v>20</v>
+      </c>
+      <c r="M19" s="21"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q19" s="15">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="21"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="D20" s="10">
+        <v>2</v>
+      </c>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="12">
+        <v>2</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="L20" s="10">
+        <v>7</v>
+      </c>
+      <c r="M20" s="21"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="17">
+        <v>3</v>
+      </c>
+      <c r="P20" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q20" s="15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="21"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="D21" s="10">
+        <v>4</v>
+      </c>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="L21" s="10">
+        <v>12</v>
+      </c>
+      <c r="M21" s="21"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q21" s="15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="21"/>
+      <c r="B22" s="13">
+        <v>0.43124999999999997</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="D22" s="15">
+        <v>24</v>
+      </c>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="16" t="s">
+        <v>362</v>
+      </c>
+      <c r="J22" s="17">
+        <v>2</v>
+      </c>
+      <c r="K22" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="L22" s="15">
+        <v>16</v>
+      </c>
+      <c r="M22" s="21"/>
+      <c r="N22" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="O22" s="12">
+        <v>3</v>
+      </c>
+      <c r="P22" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q22" s="10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="21"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="D23" s="15">
+        <v>21</v>
+      </c>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="L23" s="15">
+        <v>8</v>
+      </c>
+      <c r="M23" s="21"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q23" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="21"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="D24" s="15">
+        <v>30</v>
+      </c>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="17">
+        <v>1</v>
+      </c>
+      <c r="K24" s="14" t="s">
+        <v>321</v>
+      </c>
+      <c r="L24" s="15">
+        <v>7</v>
+      </c>
+      <c r="M24" s="21"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="12">
+        <v>3</v>
+      </c>
+      <c r="P24" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q24" s="10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="21"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D25" s="15">
+        <v>30</v>
+      </c>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="14" t="s">
         <v>324</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="H15" s="12">
+      <c r="L25" s="15">
+        <v>11</v>
+      </c>
+      <c r="M25" s="21"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="18" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q25" s="10">
         <v>10</v>
       </c>
-      <c r="I15" s="14"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="5" t="s">
+    </row>
+    <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="21"/>
+      <c r="B26" s="8">
+        <v>0.4375</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="D26" s="10">
+        <v>39</v>
+      </c>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="J26" s="12">
+        <v>4</v>
+      </c>
+      <c r="K26" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="L26" s="10">
+        <v>24</v>
+      </c>
+      <c r="M26" s="21"/>
+      <c r="N26" s="16" t="s">
+        <v>373</v>
+      </c>
+      <c r="O26" s="17">
+        <v>1</v>
+      </c>
+      <c r="P26" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q26" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="21"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="D27" s="10">
+        <v>35</v>
+      </c>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="L27" s="10">
+        <v>21</v>
+      </c>
+      <c r="M27" s="21"/>
+      <c r="N27" s="16"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q27" s="15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="21"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="D28" s="10">
+        <v>17</v>
+      </c>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="12">
+        <v>3</v>
+      </c>
+      <c r="K28" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="L28" s="10">
+        <v>13</v>
+      </c>
+      <c r="M28" s="21"/>
+      <c r="N28" s="16"/>
+      <c r="O28" s="17">
+        <v>2</v>
+      </c>
+      <c r="P28" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q28" s="15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="21"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="D29" s="10">
+        <v>45</v>
+      </c>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="L29" s="10">
+        <v>23</v>
+      </c>
+      <c r="M29" s="21"/>
+      <c r="N29" s="16"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q29" s="15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="21"/>
+      <c r="B30" s="13">
+        <v>0.44375000000000003</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="D30" s="15">
+        <v>15</v>
+      </c>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="16" t="s">
+        <v>364</v>
+      </c>
+      <c r="J30" s="17">
+        <v>1</v>
+      </c>
+      <c r="K30" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="L30" s="15">
+        <v>4</v>
+      </c>
+      <c r="M30" s="21"/>
+      <c r="N30" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="O30" s="12">
+        <v>2</v>
+      </c>
+      <c r="P30" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q30" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="21"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="D31" s="15">
+        <v>11</v>
+      </c>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="L31" s="15">
+        <v>6</v>
+      </c>
+      <c r="M31" s="21"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q31" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="21"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="14" t="s">
+        <v>390</v>
+      </c>
+      <c r="D32" s="15">
+        <v>9</v>
+      </c>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="17">
+        <v>3</v>
+      </c>
+      <c r="K32" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="L32" s="15">
+        <v>21</v>
+      </c>
+      <c r="M32" s="21"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="12">
+        <v>4</v>
+      </c>
+      <c r="P32" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q32" s="10">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="21"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="14" t="s">
+        <v>391</v>
+      </c>
+      <c r="D33" s="15">
+        <v>7</v>
+      </c>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="L33" s="15">
+        <v>11</v>
+      </c>
+      <c r="M33" s="21"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="12"/>
+      <c r="P33" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q33" s="10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="21"/>
+      <c r="B34" s="8">
+        <v>0.45</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="D34" s="10">
+        <v>18</v>
+      </c>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="J34" s="12">
+        <v>2</v>
+      </c>
+      <c r="K34" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="L34" s="10">
+        <v>13</v>
+      </c>
+      <c r="M34" s="21"/>
+      <c r="N34" s="16" t="s">
+        <v>375</v>
+      </c>
+      <c r="O34" s="17">
+        <v>1</v>
+      </c>
+      <c r="P34" s="14" t="s">
+        <v>390</v>
+      </c>
+      <c r="Q34" s="15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="21"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="D35" s="10">
+        <v>31</v>
+      </c>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="L15" s="12">
+      <c r="L35" s="10">
         <v>14</v>
       </c>
-      <c r="M15" s="14"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="12"/>
-    </row>
-    <row r="16" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="21">
+      <c r="M35" s="21"/>
+      <c r="N35" s="16"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="14" t="s">
+        <v>391</v>
+      </c>
+      <c r="Q35" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="21"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="D36" s="10">
+        <v>20</v>
+      </c>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="12">
         <v>2</v>
       </c>
-      <c r="G16" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="H16" s="12">
-        <v>7</v>
-      </c>
-      <c r="I16" s="14"/>
-      <c r="J16" s="21">
+      <c r="K36" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="L36" s="10">
+        <v>15</v>
+      </c>
+      <c r="M36" s="21"/>
+      <c r="N36" s="16"/>
+      <c r="O36" s="17">
         <v>1</v>
       </c>
-      <c r="K16" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="L16" s="12">
-        <v>2</v>
-      </c>
-      <c r="M16" s="14"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="12"/>
-    </row>
-    <row r="17" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="H17" s="12">
-        <v>16</v>
-      </c>
-      <c r="I17" s="14"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="L17" s="12">
-        <v>4</v>
-      </c>
-      <c r="M17" s="14"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="12"/>
-    </row>
-    <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="18">
-        <v>0.42499999999999999</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="15" t="s">
-        <v>367</v>
-      </c>
-      <c r="F18" s="20">
-        <v>4</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="H18" s="11">
-        <v>23</v>
-      </c>
-      <c r="I18" s="15" t="s">
-        <v>366</v>
-      </c>
-      <c r="J18" s="20">
-        <v>2</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="L18" s="11">
-        <v>16</v>
-      </c>
-      <c r="M18" s="15"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="11"/>
-    </row>
-    <row r="19" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="H19" s="11">
-        <v>20</v>
-      </c>
-      <c r="I19" s="15"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="L19" s="11">
+      <c r="P36" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q36" s="15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="21"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="D37" s="10">
+        <v>9</v>
+      </c>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="L37" s="10">
         <v>8</v>
       </c>
-      <c r="M19" s="15"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="11"/>
-    </row>
-    <row r="20" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="20">
-        <v>2</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="H20" s="11">
-        <v>7</v>
-      </c>
-      <c r="I20" s="15"/>
-      <c r="J20" s="20">
-        <v>2</v>
-      </c>
-      <c r="K20" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="L20" s="11">
-        <v>7</v>
-      </c>
-      <c r="M20" s="15"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="11"/>
-    </row>
-    <row r="21" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="H21" s="11">
-        <v>12</v>
-      </c>
-      <c r="I21" s="15"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="L21" s="11">
-        <v>12</v>
-      </c>
-      <c r="M21" s="15"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="11"/>
-    </row>
-    <row r="22" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="13">
-        <v>0.43125000000000002</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="14" t="s">
-        <v>368</v>
-      </c>
-      <c r="F22" s="21">
-        <v>2</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="H22" s="12">
-        <v>16</v>
-      </c>
-      <c r="I22" s="14" t="s">
-        <v>367</v>
-      </c>
-      <c r="J22" s="21">
-        <v>3</v>
-      </c>
-      <c r="K22" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="L22" s="12">
-        <v>22</v>
-      </c>
-      <c r="M22" s="14"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="12"/>
-    </row>
-    <row r="23" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="5" t="s">
-        <v>332</v>
-      </c>
-      <c r="H23" s="12">
-        <v>8</v>
-      </c>
-      <c r="I23" s="14"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="L23" s="12">
-        <v>10</v>
-      </c>
-      <c r="M23" s="14"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="12"/>
-    </row>
-    <row r="24" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="21">
-        <v>1</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="H24" s="12">
-        <v>7</v>
-      </c>
-      <c r="I24" s="14"/>
-      <c r="J24" s="21">
-        <v>1</v>
-      </c>
-      <c r="K24" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="L24" s="12">
-        <v>10</v>
-      </c>
-      <c r="M24" s="14"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="12"/>
-    </row>
-    <row r="25" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="D25" s="7"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="H25" s="12">
-        <v>11</v>
-      </c>
-      <c r="I25" s="14"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="L25" s="12">
-        <v>7</v>
-      </c>
-      <c r="M25" s="14"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="12"/>
-    </row>
-    <row r="26" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="18">
-        <v>0.4375</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="15" t="s">
-        <v>369</v>
-      </c>
-      <c r="F26" s="20">
-        <v>4</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="H26" s="11">
-        <v>24</v>
-      </c>
-      <c r="I26" s="15" t="s">
-        <v>368</v>
-      </c>
-      <c r="J26" s="20">
-        <v>3</v>
-      </c>
-      <c r="K26" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="L26" s="11">
-        <v>21</v>
-      </c>
-      <c r="M26" s="15"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="11"/>
-    </row>
-    <row r="27" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="H27" s="11">
-        <v>21</v>
-      </c>
-      <c r="I27" s="15"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="L27" s="11">
-        <v>17</v>
-      </c>
-      <c r="M27" s="15"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="11"/>
-    </row>
-    <row r="28" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="20">
-        <v>3</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="H28" s="11">
-        <v>13</v>
-      </c>
-      <c r="I28" s="15"/>
-      <c r="J28" s="20">
-        <v>1</v>
-      </c>
-      <c r="K28" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="L28" s="11">
+      <c r="M37" s="21"/>
+      <c r="N37" s="16"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="19" t="s">
+        <v>393</v>
+      </c>
+      <c r="Q37" s="15">
         <v>5</v>
       </c>
-      <c r="M28" s="15"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="11"/>
-    </row>
-    <row r="29" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="H29" s="11">
-        <v>23</v>
-      </c>
-      <c r="I29" s="15"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="L29" s="11">
-        <v>10</v>
-      </c>
-      <c r="M29" s="15"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="11"/>
-    </row>
-    <row r="30" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="7"/>
-      <c r="B30" s="13">
-        <v>0.44374999999999998</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="D30" s="7"/>
-      <c r="E30" s="14" t="s">
-        <v>370</v>
-      </c>
-      <c r="F30" s="21">
-        <v>1</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="H30" s="12">
-        <v>4</v>
-      </c>
-      <c r="I30" s="14" t="s">
-        <v>369</v>
-      </c>
-      <c r="J30" s="21">
-        <v>1</v>
-      </c>
-      <c r="K30" s="5" t="s">
-        <v>396</v>
-      </c>
-      <c r="L30" s="12">
-        <v>9</v>
-      </c>
-      <c r="M30" s="14"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="12"/>
-    </row>
-    <row r="31" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="D31" s="7"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="H31" s="12">
-        <v>6</v>
-      </c>
-      <c r="I31" s="14"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="L31" s="12">
-        <v>7</v>
-      </c>
-      <c r="M31" s="14"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="12"/>
-    </row>
-    <row r="32" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="7"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="D32" s="7"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="21">
-        <v>3</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="H32" s="12">
-        <v>21</v>
-      </c>
-      <c r="I32" s="14"/>
-      <c r="J32" s="21">
-        <v>1</v>
-      </c>
-      <c r="K32" s="5" t="s">
-        <v>398</v>
-      </c>
-      <c r="L32" s="12">
-        <v>9</v>
-      </c>
-      <c r="M32" s="14"/>
-      <c r="N32" s="5"/>
-      <c r="O32" s="12"/>
-    </row>
-    <row r="33" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="7"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="H33" s="12">
-        <v>11</v>
-      </c>
-      <c r="I33" s="14"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="5" t="s">
-        <v>399</v>
-      </c>
-      <c r="L33" s="12">
-        <v>5</v>
-      </c>
-      <c r="M33" s="14"/>
-      <c r="N33" s="5"/>
-      <c r="O33" s="12"/>
-    </row>
-    <row r="34" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
-      <c r="B34" s="18">
-        <v>0.45</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="D34" s="6"/>
-      <c r="E34" s="15" t="s">
-        <v>371</v>
-      </c>
-      <c r="F34" s="20">
-        <v>2</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="H34" s="11">
-        <v>13</v>
-      </c>
-      <c r="I34" s="15">
-        <v>8</v>
-      </c>
-      <c r="J34" s="20">
-        <v>1</v>
-      </c>
-      <c r="K34" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="L34" s="11">
-        <v>5</v>
-      </c>
-      <c r="M34" s="15"/>
-      <c r="N34" s="4"/>
-      <c r="O34" s="11"/>
-    </row>
-    <row r="35" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="6"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="D35" s="6"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="H35" s="11">
-        <v>14</v>
-      </c>
-      <c r="I35" s="15"/>
-      <c r="J35" s="20"/>
-      <c r="K35" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="L35" s="11">
-        <v>11</v>
-      </c>
-      <c r="M35" s="15"/>
-      <c r="N35" s="4"/>
-      <c r="O35" s="11"/>
-    </row>
-    <row r="36" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="D36" s="6"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="20">
-        <v>2</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="H36" s="11">
-        <v>15</v>
-      </c>
-      <c r="I36" s="15"/>
-      <c r="J36" s="20">
-        <v>3</v>
-      </c>
-      <c r="K36" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="L36" s="11">
-        <v>21</v>
-      </c>
-      <c r="M36" s="15"/>
-      <c r="N36" s="4"/>
-      <c r="O36" s="11"/>
-    </row>
-    <row r="37" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="H37" s="11">
-        <v>8</v>
-      </c>
-      <c r="I37" s="15"/>
-      <c r="J37" s="20"/>
-      <c r="K37" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="L37" s="11">
-        <v>11</v>
-      </c>
-      <c r="M37" s="15"/>
-      <c r="N37" s="4"/>
-      <c r="O37" s="11"/>
-    </row>
-    <row r="38" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="7"/>
+    </row>
+    <row r="38" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="21"/>
       <c r="B38" s="13">
         <v>0.45624999999999999</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="D38" s="15">
+        <v>4</v>
+      </c>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="16">
+        <v>7</v>
+      </c>
+      <c r="J38" s="17">
+        <v>4</v>
+      </c>
+      <c r="K38" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="L38" s="15">
+        <v>30</v>
+      </c>
+      <c r="M38" s="21"/>
+      <c r="N38" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="O38" s="12">
+        <v>4</v>
+      </c>
+      <c r="P38" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q38" s="10">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="21"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="D39" s="15">
+        <v>6</v>
+      </c>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="L39" s="15">
+        <v>30</v>
+      </c>
+      <c r="M39" s="21"/>
+      <c r="N39" s="11"/>
+      <c r="O39" s="12"/>
+      <c r="P39" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q39" s="10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="21"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="D40" s="15">
+        <v>11</v>
+      </c>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="17">
+        <v>3</v>
+      </c>
+      <c r="K40" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="L40" s="15">
+        <v>11</v>
+      </c>
+      <c r="M40" s="21"/>
+      <c r="N40" s="11"/>
+      <c r="O40" s="12">
+        <v>3</v>
+      </c>
+      <c r="P40" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q40" s="10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="21"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="14" t="s">
         <v>319</v>
       </c>
-      <c r="D38" s="7"/>
-      <c r="E38" s="14">
+      <c r="D41" s="15">
+        <v>5</v>
+      </c>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="L41" s="15">
+        <v>28</v>
+      </c>
+      <c r="M41" s="21"/>
+      <c r="N41" s="11"/>
+      <c r="O41" s="12"/>
+      <c r="P41" s="18" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q41" s="10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="21"/>
+      <c r="B42" s="8">
+        <v>0.46249999999999997</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="D42" s="10">
+        <v>19</v>
+      </c>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="21"/>
+      <c r="I42" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="J42" s="12">
+        <v>4</v>
+      </c>
+      <c r="K42" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="L42" s="10">
+        <v>34</v>
+      </c>
+      <c r="M42" s="21"/>
+      <c r="N42" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="O42" s="17">
+        <v>4</v>
+      </c>
+      <c r="P42" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q42" s="15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="21"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="D43" s="10">
+        <v>35</v>
+      </c>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="L43" s="10">
+        <v>17</v>
+      </c>
+      <c r="M43" s="21"/>
+      <c r="N43" s="16"/>
+      <c r="O43" s="17"/>
+      <c r="P43" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q43" s="15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="21"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="D44" s="10">
+        <v>13</v>
+      </c>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="12">
+        <v>1</v>
+      </c>
+      <c r="K44" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="L44" s="10">
+        <v>10</v>
+      </c>
+      <c r="M44" s="21"/>
+      <c r="N44" s="16"/>
+      <c r="O44" s="17">
+        <v>4</v>
+      </c>
+      <c r="P44" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q44" s="15">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="22"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="D45" s="10">
+        <v>23</v>
+      </c>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="22"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="L45" s="10">
         <v>7</v>
       </c>
-      <c r="F38" s="21">
+      <c r="M45" s="22"/>
+      <c r="N45" s="16"/>
+      <c r="O45" s="17"/>
+      <c r="P45" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q45" s="15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="20"/>
+      <c r="B46" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="H46" s="20"/>
+      <c r="I46" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="M46" s="20"/>
+      <c r="N46" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="O46" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="Q46" s="7" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="21"/>
+      <c r="B47" s="13">
+        <v>0.46875</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="D47" s="15">
+        <v>14</v>
+      </c>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="J47" s="12">
+        <v>1</v>
+      </c>
+      <c r="K47" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="L47" s="10">
+        <v>8</v>
+      </c>
+      <c r="M47" s="21"/>
+      <c r="N47" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="O47" s="17">
+        <v>2</v>
+      </c>
+      <c r="P47" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q47" s="15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="21"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="D48" s="15">
+        <v>16</v>
+      </c>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="21"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="12"/>
+      <c r="K48" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="L48" s="10">
+        <v>2</v>
+      </c>
+      <c r="M48" s="21"/>
+      <c r="N48" s="16"/>
+      <c r="O48" s="17"/>
+      <c r="P48" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q48" s="15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="21"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D49" s="15">
+        <v>21</v>
+      </c>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="12">
+        <v>1</v>
+      </c>
+      <c r="K49" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="L49" s="10">
+        <v>3</v>
+      </c>
+      <c r="M49" s="21"/>
+      <c r="N49" s="16"/>
+      <c r="O49" s="17">
+        <v>1</v>
+      </c>
+      <c r="P49" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q49" s="15">
         <v>4</v>
       </c>
-      <c r="G38" s="5" t="s">
+    </row>
+    <row r="50" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="21"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D50" s="15">
+        <v>11</v>
+      </c>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="21"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="12"/>
+      <c r="K50" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="L50" s="10">
+        <v>5</v>
+      </c>
+      <c r="M50" s="21"/>
+      <c r="N50" s="16"/>
+      <c r="O50" s="17"/>
+      <c r="P50" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q50" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="21"/>
+      <c r="B51" s="8">
+        <v>0.47500000000000003</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="D51" s="10">
+        <v>9</v>
+      </c>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="21"/>
+      <c r="I51" s="16" t="s">
+        <v>359</v>
+      </c>
+      <c r="J51" s="17">
+        <v>1</v>
+      </c>
+      <c r="K51" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="L51" s="15">
+        <v>12</v>
+      </c>
+      <c r="M51" s="21"/>
+      <c r="N51" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="O51" s="12">
+        <v>4</v>
+      </c>
+      <c r="P51" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q51" s="10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="21"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="D52" s="10">
+        <v>15</v>
+      </c>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="21"/>
+      <c r="I52" s="16"/>
+      <c r="J52" s="17"/>
+      <c r="K52" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="L52" s="15">
+        <v>4</v>
+      </c>
+      <c r="M52" s="21"/>
+      <c r="N52" s="11"/>
+      <c r="O52" s="12"/>
+      <c r="P52" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q52" s="10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="21"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="D53" s="10">
+        <v>27</v>
+      </c>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="21"/>
+      <c r="I53" s="16"/>
+      <c r="J53" s="17">
+        <v>4</v>
+      </c>
+      <c r="K53" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="L53" s="15">
+        <v>23</v>
+      </c>
+      <c r="M53" s="21"/>
+      <c r="N53" s="11"/>
+      <c r="O53" s="12">
+        <v>4</v>
+      </c>
+      <c r="P53" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q53" s="10">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="21"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="D54" s="10">
+        <v>14</v>
+      </c>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="21"/>
+      <c r="I54" s="16"/>
+      <c r="J54" s="17"/>
+      <c r="K54" s="14" t="s">
+        <v>335</v>
+      </c>
+      <c r="L54" s="15">
+        <v>20</v>
+      </c>
+      <c r="M54" s="21"/>
+      <c r="N54" s="11"/>
+      <c r="O54" s="12"/>
+      <c r="P54" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q54" s="10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="21"/>
+      <c r="B55" s="13">
+        <v>0.48125000000000001</v>
+      </c>
+      <c r="C55" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="D55" s="15">
+        <v>23</v>
+      </c>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="14"/>
+      <c r="H55" s="21"/>
+      <c r="I55" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="J55" s="12">
+        <v>2</v>
+      </c>
+      <c r="K55" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="L55" s="10">
+        <v>11</v>
+      </c>
+      <c r="M55" s="21"/>
+      <c r="N55" s="16">
+        <v>5</v>
+      </c>
+      <c r="O55" s="17">
+        <v>2</v>
+      </c>
+      <c r="P55" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q55" s="15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="21"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="D56" s="15">
+        <v>28</v>
+      </c>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="14"/>
+      <c r="H56" s="21"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="12"/>
+      <c r="K56" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="L56" s="10">
+        <v>7</v>
+      </c>
+      <c r="M56" s="21"/>
+      <c r="N56" s="16"/>
+      <c r="O56" s="17"/>
+      <c r="P56" s="14" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q56" s="15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="21"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="D57" s="15">
+        <v>18</v>
+      </c>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="14"/>
+      <c r="H57" s="21"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="12">
+        <v>2</v>
+      </c>
+      <c r="K57" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="L57" s="10">
+        <v>7</v>
+      </c>
+      <c r="M57" s="21"/>
+      <c r="N57" s="16"/>
+      <c r="O57" s="17">
+        <v>2</v>
+      </c>
+      <c r="P57" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q57" s="15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="21"/>
+      <c r="B58" s="13"/>
+      <c r="C58" s="14" t="s">
+        <v>339</v>
+      </c>
+      <c r="D58" s="15">
+        <v>16</v>
+      </c>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
+      <c r="G58" s="14"/>
+      <c r="H58" s="21"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="12"/>
+      <c r="K58" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="L58" s="10">
+        <v>16</v>
+      </c>
+      <c r="M58" s="21"/>
+      <c r="N58" s="16"/>
+      <c r="O58" s="17"/>
+      <c r="P58" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q58" s="15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="21"/>
+      <c r="B59" s="8">
+        <v>0.48749999999999999</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="D59" s="10">
+        <v>5</v>
+      </c>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="21"/>
+      <c r="I59" s="16" t="s">
+        <v>380</v>
+      </c>
+      <c r="J59" s="17">
+        <v>2</v>
+      </c>
+      <c r="K59" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="L59" s="15">
+        <v>13</v>
+      </c>
+      <c r="M59" s="21"/>
+      <c r="N59" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="O59" s="12">
+        <v>3</v>
+      </c>
+      <c r="P59" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q59" s="10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="21"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="D60" s="10">
+        <v>10</v>
+      </c>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="21"/>
+      <c r="I60" s="16"/>
+      <c r="J60" s="17"/>
+      <c r="K60" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="L60" s="15">
+        <v>14</v>
+      </c>
+      <c r="M60" s="21"/>
+      <c r="N60" s="11"/>
+      <c r="O60" s="12"/>
+      <c r="P60" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q60" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="21"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="D61" s="10">
+        <v>8</v>
+      </c>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="21"/>
+      <c r="I61" s="16"/>
+      <c r="J61" s="17">
+        <v>1</v>
+      </c>
+      <c r="K61" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="L61" s="15">
+        <v>2</v>
+      </c>
+      <c r="M61" s="21"/>
+      <c r="N61" s="11"/>
+      <c r="O61" s="12">
+        <v>2</v>
+      </c>
+      <c r="P61" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q61" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="21"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="D62" s="10">
+        <v>7</v>
+      </c>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="21"/>
+      <c r="I62" s="16"/>
+      <c r="J62" s="17"/>
+      <c r="K62" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="L62" s="15">
+        <v>4</v>
+      </c>
+      <c r="M62" s="21"/>
+      <c r="N62" s="11"/>
+      <c r="O62" s="12"/>
+      <c r="P62" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q62" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="21"/>
+      <c r="B63" s="13">
+        <v>0.49374999999999997</v>
+      </c>
+      <c r="C63" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="D63" s="15">
+        <v>11</v>
+      </c>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c r="G63" s="14"/>
+      <c r="H63" s="21"/>
+      <c r="I63" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="J63" s="12">
+        <v>2</v>
+      </c>
+      <c r="K63" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="L63" s="10">
+        <v>16</v>
+      </c>
+      <c r="M63" s="21"/>
+      <c r="N63" s="16" t="s">
+        <v>377</v>
+      </c>
+      <c r="O63" s="17">
+        <v>4</v>
+      </c>
+      <c r="P63" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q63" s="15">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="21"/>
+      <c r="B64" s="13"/>
+      <c r="C64" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="D64" s="15">
+        <v>15</v>
+      </c>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c r="G64" s="14"/>
+      <c r="H64" s="21"/>
+      <c r="I64" s="11"/>
+      <c r="J64" s="12"/>
+      <c r="K64" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="L64" s="10">
+        <v>8</v>
+      </c>
+      <c r="M64" s="21"/>
+      <c r="N64" s="16"/>
+      <c r="O64" s="17"/>
+      <c r="P64" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q64" s="15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="21"/>
+      <c r="B65" s="13"/>
+      <c r="C65" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="D65" s="15">
+        <v>14</v>
+      </c>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c r="G65" s="14"/>
+      <c r="H65" s="21"/>
+      <c r="I65" s="11"/>
+      <c r="J65" s="12">
+        <v>2</v>
+      </c>
+      <c r="K65" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="L65" s="10">
+        <v>7</v>
+      </c>
+      <c r="M65" s="21"/>
+      <c r="N65" s="16"/>
+      <c r="O65" s="17">
+        <v>4</v>
+      </c>
+      <c r="P65" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q65" s="15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="21"/>
+      <c r="B66" s="13"/>
+      <c r="C66" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="D66" s="15">
+        <v>20</v>
+      </c>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c r="G66" s="14"/>
+      <c r="H66" s="21"/>
+      <c r="I66" s="11"/>
+      <c r="J66" s="12"/>
+      <c r="K66" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="L66" s="10">
+        <v>12</v>
+      </c>
+      <c r="M66" s="21"/>
+      <c r="N66" s="16"/>
+      <c r="O66" s="17"/>
+      <c r="P66" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q66" s="15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="21"/>
+      <c r="B67" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="D67" s="10">
+        <v>23</v>
+      </c>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="9"/>
+      <c r="H67" s="21"/>
+      <c r="I67" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="J67" s="17">
+        <v>3</v>
+      </c>
+      <c r="K67" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="L67" s="15">
+        <v>22</v>
+      </c>
+      <c r="M67" s="21"/>
+      <c r="N67" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="O67" s="12">
+        <v>3</v>
+      </c>
+      <c r="P67" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q67" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="21"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="D68" s="10">
+        <v>30</v>
+      </c>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="21"/>
+      <c r="I68" s="16"/>
+      <c r="J68" s="17"/>
+      <c r="K68" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="L68" s="15">
+        <v>10</v>
+      </c>
+      <c r="M68" s="21"/>
+      <c r="N68" s="11"/>
+      <c r="O68" s="12"/>
+      <c r="P68" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q68" s="10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="21"/>
+      <c r="B69" s="8"/>
+      <c r="C69" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="D69" s="10">
+        <v>28</v>
+      </c>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="21"/>
+      <c r="I69" s="16"/>
+      <c r="J69" s="17">
+        <v>1</v>
+      </c>
+      <c r="K69" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="L69" s="15">
+        <v>10</v>
+      </c>
+      <c r="M69" s="21"/>
+      <c r="N69" s="11"/>
+      <c r="O69" s="12">
+        <v>3</v>
+      </c>
+      <c r="P69" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q69" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="21"/>
+      <c r="B70" s="8"/>
+      <c r="C70" s="18"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
+      <c r="H70" s="21"/>
+      <c r="I70" s="16"/>
+      <c r="J70" s="17"/>
+      <c r="K70" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="L70" s="15">
+        <v>7</v>
+      </c>
+      <c r="M70" s="21"/>
+      <c r="N70" s="11"/>
+      <c r="O70" s="12"/>
+      <c r="P70" s="18" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q70" s="10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="21"/>
+      <c r="B71" s="13">
+        <v>0.50624999999999998</v>
+      </c>
+      <c r="C71" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="D71" s="15">
+        <v>16</v>
+      </c>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c r="G71" s="14"/>
+      <c r="H71" s="21"/>
+      <c r="I71" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="J71" s="12">
+        <v>3</v>
+      </c>
+      <c r="K71" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="L71" s="10">
+        <v>21</v>
+      </c>
+      <c r="M71" s="21"/>
+      <c r="N71" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="O71" s="17">
+        <v>4</v>
+      </c>
+      <c r="P71" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q71" s="15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="21"/>
+      <c r="B72" s="13"/>
+      <c r="C72" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="D72" s="15">
+        <v>8</v>
+      </c>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
+      <c r="G72" s="14"/>
+      <c r="H72" s="21"/>
+      <c r="I72" s="11"/>
+      <c r="J72" s="12"/>
+      <c r="K72" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="L72" s="10">
+        <v>17</v>
+      </c>
+      <c r="M72" s="21"/>
+      <c r="N72" s="16"/>
+      <c r="O72" s="17"/>
+      <c r="P72" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q72" s="15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="21"/>
+      <c r="B73" s="13"/>
+      <c r="C73" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="D73" s="15">
+        <v>17</v>
+      </c>
+      <c r="E73" s="14"/>
+      <c r="F73" s="14"/>
+      <c r="G73" s="14"/>
+      <c r="H73" s="21"/>
+      <c r="I73" s="11"/>
+      <c r="J73" s="12">
+        <v>1</v>
+      </c>
+      <c r="K73" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="L73" s="10">
+        <v>5</v>
+      </c>
+      <c r="M73" s="21"/>
+      <c r="N73" s="16"/>
+      <c r="O73" s="17">
+        <v>4</v>
+      </c>
+      <c r="P73" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q73" s="15">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="21"/>
+      <c r="B74" s="13"/>
+      <c r="C74" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="D74" s="15">
+        <v>21</v>
+      </c>
+      <c r="E74" s="14"/>
+      <c r="F74" s="14"/>
+      <c r="G74" s="14"/>
+      <c r="H74" s="21"/>
+      <c r="I74" s="11"/>
+      <c r="J74" s="12"/>
+      <c r="K74" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="L74" s="10">
+        <v>10</v>
+      </c>
+      <c r="M74" s="21"/>
+      <c r="N74" s="16"/>
+      <c r="O74" s="17"/>
+      <c r="P74" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q74" s="15">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="21"/>
+      <c r="B75" s="8">
+        <v>0.51250000000000007</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="D75" s="10">
+        <v>23</v>
+      </c>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="9"/>
+      <c r="H75" s="21"/>
+      <c r="I75" s="16" t="s">
+        <v>363</v>
+      </c>
+      <c r="J75" s="17">
+        <v>1</v>
+      </c>
+      <c r="K75" s="14" t="s">
+        <v>390</v>
+      </c>
+      <c r="L75" s="15">
+        <v>9</v>
+      </c>
+      <c r="M75" s="21"/>
+      <c r="N75" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="O75" s="12">
+        <v>3</v>
+      </c>
+      <c r="P75" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q75" s="10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="21"/>
+      <c r="B76" s="8"/>
+      <c r="C76" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="D76" s="10">
+        <v>19</v>
+      </c>
+      <c r="E76" s="9"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="9"/>
+      <c r="H76" s="21"/>
+      <c r="I76" s="16"/>
+      <c r="J76" s="17"/>
+      <c r="K76" s="14" t="s">
+        <v>391</v>
+      </c>
+      <c r="L76" s="15">
+        <v>7</v>
+      </c>
+      <c r="M76" s="21"/>
+      <c r="N76" s="11"/>
+      <c r="O76" s="12"/>
+      <c r="P76" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q76" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="21"/>
+      <c r="B77" s="8"/>
+      <c r="C77" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="D77" s="10">
+        <v>23</v>
+      </c>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="9"/>
+      <c r="H77" s="21"/>
+      <c r="I77" s="16"/>
+      <c r="J77" s="17">
+        <v>1</v>
+      </c>
+      <c r="K77" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="L77" s="15">
+        <v>9</v>
+      </c>
+      <c r="M77" s="21"/>
+      <c r="N77" s="11"/>
+      <c r="O77" s="12">
+        <v>4</v>
+      </c>
+      <c r="P77" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q77" s="10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="21"/>
+      <c r="B78" s="8"/>
+      <c r="C78" s="18"/>
+      <c r="D78" s="10"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="9"/>
+      <c r="H78" s="21"/>
+      <c r="I78" s="16"/>
+      <c r="J78" s="17"/>
+      <c r="K78" s="14" t="s">
+        <v>393</v>
+      </c>
+      <c r="L78" s="15">
+        <v>5</v>
+      </c>
+      <c r="M78" s="21"/>
+      <c r="N78" s="11"/>
+      <c r="O78" s="12"/>
+      <c r="P78" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q78" s="10">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="21"/>
+      <c r="B79" s="13">
+        <v>0.51874999999999993</v>
+      </c>
+      <c r="C79" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="D79" s="15">
+        <v>12</v>
+      </c>
+      <c r="E79" s="14"/>
+      <c r="F79" s="14"/>
+      <c r="G79" s="14"/>
+      <c r="H79" s="21"/>
+      <c r="I79" s="11">
+        <v>8</v>
+      </c>
+      <c r="J79" s="12">
+        <v>1</v>
+      </c>
+      <c r="K79" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="L79" s="10">
+        <v>5</v>
+      </c>
+      <c r="M79" s="21"/>
+      <c r="N79" s="16" t="s">
+        <v>374</v>
+      </c>
+      <c r="O79" s="17">
+        <v>3</v>
+      </c>
+      <c r="P79" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q79" s="15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="21"/>
+      <c r="B80" s="13"/>
+      <c r="C80" s="14" t="s">
+        <v>350</v>
+      </c>
+      <c r="D80" s="15">
+        <v>32</v>
+      </c>
+      <c r="E80" s="14"/>
+      <c r="F80" s="14"/>
+      <c r="G80" s="14"/>
+      <c r="H80" s="21"/>
+      <c r="I80" s="11"/>
+      <c r="J80" s="12"/>
+      <c r="K80" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="L80" s="10">
+        <v>11</v>
+      </c>
+      <c r="M80" s="21"/>
+      <c r="N80" s="16"/>
+      <c r="O80" s="17"/>
+      <c r="P80" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q80" s="15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="21"/>
+      <c r="B81" s="13"/>
+      <c r="C81" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="D81" s="15">
+        <v>19</v>
+      </c>
+      <c r="E81" s="14"/>
+      <c r="F81" s="14"/>
+      <c r="G81" s="14"/>
+      <c r="H81" s="21"/>
+      <c r="I81" s="11"/>
+      <c r="J81" s="12">
+        <v>3</v>
+      </c>
+      <c r="K81" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="L81" s="10">
+        <v>21</v>
+      </c>
+      <c r="M81" s="21"/>
+      <c r="N81" s="16"/>
+      <c r="O81" s="17">
+        <v>2</v>
+      </c>
+      <c r="P81" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q81" s="15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="21"/>
+      <c r="B82" s="13"/>
+      <c r="C82" s="19"/>
+      <c r="D82" s="15"/>
+      <c r="E82" s="14"/>
+      <c r="F82" s="14"/>
+      <c r="G82" s="14"/>
+      <c r="H82" s="21"/>
+      <c r="I82" s="11"/>
+      <c r="J82" s="12"/>
+      <c r="K82" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="L82" s="10">
+        <v>11</v>
+      </c>
+      <c r="M82" s="21"/>
+      <c r="N82" s="16"/>
+      <c r="O82" s="17"/>
+      <c r="P82" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q82" s="15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="21"/>
+      <c r="B83" s="11"/>
+      <c r="C83" s="9"/>
+      <c r="D83" s="10"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="9"/>
+      <c r="G83" s="9"/>
+      <c r="H83" s="21"/>
+      <c r="I83" s="16" t="s">
+        <v>379</v>
+      </c>
+      <c r="J83" s="17">
+        <v>2</v>
+      </c>
+      <c r="K83" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="L83" s="15">
+        <v>14</v>
+      </c>
+      <c r="M83" s="21"/>
+      <c r="N83" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="O83" s="12">
+        <v>4</v>
+      </c>
+      <c r="P83" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q83" s="10">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="21"/>
+      <c r="B84" s="11"/>
+      <c r="C84" s="9"/>
+      <c r="D84" s="10"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="9"/>
+      <c r="G84" s="9"/>
+      <c r="H84" s="21"/>
+      <c r="I84" s="16"/>
+      <c r="J84" s="17"/>
+      <c r="K84" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="L84" s="15">
+        <v>15</v>
+      </c>
+      <c r="M84" s="21"/>
+      <c r="N84" s="11"/>
+      <c r="O84" s="12"/>
+      <c r="P84" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q84" s="10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="21"/>
+      <c r="B85" s="11"/>
+      <c r="C85" s="9"/>
+      <c r="D85" s="10"/>
+      <c r="E85" s="9"/>
+      <c r="F85" s="9"/>
+      <c r="G85" s="9"/>
+      <c r="H85" s="21"/>
+      <c r="I85" s="16"/>
+      <c r="J85" s="17">
+        <v>3</v>
+      </c>
+      <c r="K85" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="L85" s="15">
+        <v>11</v>
+      </c>
+      <c r="M85" s="21"/>
+      <c r="N85" s="11"/>
+      <c r="O85" s="12">
+        <v>3</v>
+      </c>
+      <c r="P85" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q85" s="10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="21"/>
+      <c r="B86" s="11"/>
+      <c r="C86" s="18"/>
+      <c r="D86" s="10"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="9"/>
+      <c r="G86" s="9"/>
+      <c r="H86" s="21"/>
+      <c r="I86" s="16"/>
+      <c r="J86" s="17"/>
+      <c r="K86" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="L86" s="15">
+        <v>28</v>
+      </c>
+      <c r="M86" s="21"/>
+      <c r="N86" s="11"/>
+      <c r="O86" s="12"/>
+      <c r="P86" s="18" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q86" s="10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="21"/>
+      <c r="B87" s="16"/>
+      <c r="C87" s="14"/>
+      <c r="D87" s="15"/>
+      <c r="E87" s="14"/>
+      <c r="F87" s="14"/>
+      <c r="G87" s="14"/>
+      <c r="H87" s="21"/>
+      <c r="I87" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="J87" s="12">
+        <v>1</v>
+      </c>
+      <c r="K87" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="L87" s="10">
+        <v>7</v>
+      </c>
+      <c r="M87" s="21"/>
+      <c r="N87" s="16" t="s">
+        <v>376</v>
+      </c>
+      <c r="O87" s="17">
+        <v>4</v>
+      </c>
+      <c r="P87" s="14" t="s">
         <v>274</v>
       </c>
-      <c r="H38" s="12">
+      <c r="Q87" s="15">
         <v>30</v>
       </c>
-      <c r="I38" s="14" t="s">
-        <v>385</v>
-      </c>
-      <c r="J38" s="21">
-        <v>2</v>
-      </c>
-      <c r="K38" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="L38" s="12">
+    </row>
+    <row r="88" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="21"/>
+      <c r="B88" s="16"/>
+      <c r="C88" s="14"/>
+      <c r="D88" s="15"/>
+      <c r="E88" s="14"/>
+      <c r="F88" s="14"/>
+      <c r="G88" s="14"/>
+      <c r="H88" s="21"/>
+      <c r="I88" s="11"/>
+      <c r="J88" s="12"/>
+      <c r="K88" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="L88" s="10">
+        <v>11</v>
+      </c>
+      <c r="M88" s="21"/>
+      <c r="N88" s="16"/>
+      <c r="O88" s="17"/>
+      <c r="P88" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q88" s="15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="21"/>
+      <c r="B89" s="16"/>
+      <c r="C89" s="14"/>
+      <c r="D89" s="15"/>
+      <c r="E89" s="14"/>
+      <c r="F89" s="14"/>
+      <c r="G89" s="14"/>
+      <c r="H89" s="21"/>
+      <c r="I89" s="11"/>
+      <c r="J89" s="12">
+        <v>3</v>
+      </c>
+      <c r="K89" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="L89" s="10">
         <v>14</v>
       </c>
-      <c r="M38" s="14"/>
-      <c r="N38" s="5"/>
-      <c r="O38" s="12"/>
-    </row>
-    <row r="39" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="7"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="D39" s="7"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="H39" s="12">
-        <v>30</v>
-      </c>
-      <c r="I39" s="14"/>
-      <c r="J39" s="21"/>
-      <c r="K39" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="L39" s="12">
-        <v>15</v>
-      </c>
-      <c r="M39" s="14"/>
-      <c r="N39" s="5"/>
-      <c r="O39" s="12"/>
-    </row>
-    <row r="40" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="7"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="D40" s="7"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="21">
-        <v>3</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="H40" s="12">
-        <v>11</v>
-      </c>
-      <c r="I40" s="14"/>
-      <c r="J40" s="21">
-        <v>3</v>
-      </c>
-      <c r="K40" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="L40" s="12">
-        <v>11</v>
-      </c>
-      <c r="M40" s="14"/>
-      <c r="N40" s="5"/>
-      <c r="O40" s="12"/>
-    </row>
-    <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="7"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="D41" s="7"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="H41" s="12">
-        <v>28</v>
-      </c>
-      <c r="I41" s="14"/>
-      <c r="J41" s="21"/>
-      <c r="K41" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="L41" s="12">
-        <v>28</v>
-      </c>
-      <c r="M41" s="14"/>
-      <c r="N41" s="5"/>
-      <c r="O41" s="12"/>
-    </row>
-    <row r="42" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="6"/>
-      <c r="B42" s="18">
-        <v>0.46250000000000002</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="D42" s="6"/>
-      <c r="E42" s="15" t="s">
-        <v>372</v>
-      </c>
-      <c r="F42" s="20">
+      <c r="M89" s="21"/>
+      <c r="N89" s="16"/>
+      <c r="O89" s="17">
         <v>4</v>
       </c>
-      <c r="G42" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="H42" s="11">
-        <v>34</v>
-      </c>
-      <c r="I42" s="15" t="s">
-        <v>384</v>
-      </c>
-      <c r="J42" s="20">
-        <v>1</v>
-      </c>
-      <c r="K42" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="L42" s="11">
-        <v>7</v>
-      </c>
-      <c r="M42" s="15"/>
-      <c r="N42" s="4"/>
-      <c r="O42" s="11"/>
-    </row>
-    <row r="43" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="6"/>
-      <c r="B43" s="15"/>
-      <c r="C43" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="D43" s="6"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="20"/>
-      <c r="G43" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="H43" s="11">
-        <v>17</v>
-      </c>
-      <c r="I43" s="15"/>
-      <c r="J43" s="20"/>
-      <c r="K43" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="L43" s="11">
-        <v>11</v>
-      </c>
-      <c r="M43" s="15"/>
-      <c r="N43" s="4"/>
-      <c r="O43" s="11"/>
-    </row>
-    <row r="44" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="6"/>
-      <c r="B44" s="15"/>
-      <c r="C44" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="D44" s="6"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="20">
-        <v>1</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="H44" s="11">
-        <v>10</v>
-      </c>
-      <c r="I44" s="15"/>
-      <c r="J44" s="20">
-        <v>3</v>
-      </c>
-      <c r="K44" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="L44" s="11">
-        <v>14</v>
-      </c>
-      <c r="M44" s="15"/>
-      <c r="N44" s="4"/>
-      <c r="O44" s="11"/>
-    </row>
-    <row r="45" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="6"/>
-      <c r="B45" s="15"/>
-      <c r="C45" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="D45" s="6"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="H45" s="11">
-        <v>7</v>
-      </c>
-      <c r="I45" s="15"/>
-      <c r="J45" s="20"/>
-      <c r="K45" s="4" t="s">
+      <c r="P89" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q89" s="15">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="22"/>
+      <c r="B90" s="16"/>
+      <c r="C90" s="19"/>
+      <c r="D90" s="15"/>
+      <c r="E90" s="14"/>
+      <c r="F90" s="14"/>
+      <c r="G90" s="14"/>
+      <c r="H90" s="22"/>
+      <c r="I90" s="11"/>
+      <c r="J90" s="12"/>
+      <c r="K90" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="L45" s="11">
+      <c r="L90" s="10">
         <v>20</v>
       </c>
-      <c r="M45" s="15"/>
-      <c r="N45" s="4"/>
-      <c r="O45" s="11"/>
-    </row>
-    <row r="46" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="7"/>
-      <c r="B46" s="13">
-        <v>0.46875</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="D46" s="7"/>
-      <c r="E46" s="14" t="s">
-        <v>373</v>
-      </c>
-      <c r="F46" s="21">
-        <v>4</v>
-      </c>
-      <c r="G46" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="H46" s="12">
-        <v>23</v>
-      </c>
-      <c r="I46" s="14" t="s">
-        <v>372</v>
-      </c>
-      <c r="J46" s="21">
-        <v>2</v>
-      </c>
-      <c r="K46" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="L46" s="12">
-        <v>15</v>
-      </c>
-      <c r="M46" s="14"/>
-      <c r="N46" s="5"/>
-      <c r="O46" s="12"/>
-    </row>
-    <row r="47" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="7"/>
-      <c r="B47" s="14"/>
-      <c r="C47" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="D47" s="7"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="H47" s="12">
-        <v>19</v>
-      </c>
-      <c r="I47" s="14"/>
-      <c r="J47" s="21"/>
-      <c r="K47" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="L47" s="12">
-        <v>11</v>
-      </c>
-      <c r="M47" s="14"/>
-      <c r="N47" s="5"/>
-      <c r="O47" s="12"/>
-    </row>
-    <row r="48" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="7"/>
-      <c r="B48" s="14"/>
-      <c r="C48" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="D48" s="7"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="21">
-        <v>3</v>
-      </c>
-      <c r="G48" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="H48" s="12">
-        <v>23</v>
-      </c>
-      <c r="I48" s="14"/>
-      <c r="J48" s="21">
-        <v>1</v>
-      </c>
-      <c r="K48" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="L48" s="12">
-        <v>4</v>
-      </c>
-      <c r="M48" s="14"/>
-      <c r="N48" s="5"/>
-      <c r="O48" s="12"/>
-    </row>
-    <row r="49" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="7"/>
-      <c r="B49" s="14"/>
-      <c r="C49" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="D49" s="7"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="H49" s="12">
-        <v>12</v>
-      </c>
-      <c r="I49" s="14"/>
-      <c r="J49" s="21"/>
-      <c r="K49" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="L49" s="12">
-        <v>6</v>
-      </c>
-      <c r="M49" s="14"/>
-      <c r="N49" s="5"/>
-      <c r="O49" s="12"/>
-    </row>
-    <row r="50" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="6"/>
-      <c r="B50" s="18">
-        <v>0.47499999999999998</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="D50" s="6"/>
-      <c r="E50" s="15" t="s">
-        <v>374</v>
-      </c>
-      <c r="F50" s="20">
-        <v>4</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="H50" s="11">
-        <v>23</v>
-      </c>
-      <c r="I50" s="15" t="s">
-        <v>373</v>
-      </c>
-      <c r="J50" s="20">
-        <v>4</v>
-      </c>
-      <c r="K50" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="L50" s="11">
-        <v>23</v>
-      </c>
-      <c r="M50" s="15"/>
-      <c r="N50" s="4"/>
-      <c r="O50" s="11"/>
-    </row>
-    <row r="51" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="6"/>
-      <c r="B51" s="15"/>
-      <c r="C51" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="D51" s="6"/>
-      <c r="E51" s="15"/>
-      <c r="F51" s="20"/>
-      <c r="G51" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="H51" s="11">
-        <v>30</v>
-      </c>
-      <c r="I51" s="15"/>
-      <c r="J51" s="20"/>
-      <c r="K51" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="L51" s="11">
-        <v>19</v>
-      </c>
-      <c r="M51" s="15"/>
-      <c r="N51" s="4"/>
-      <c r="O51" s="11"/>
-    </row>
-    <row r="52" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="6"/>
-      <c r="B52" s="15"/>
-      <c r="C52" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="D52" s="6"/>
-      <c r="E52" s="15"/>
-      <c r="F52" s="20">
-        <v>4</v>
-      </c>
-      <c r="G52" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="H52" s="11">
-        <v>32</v>
-      </c>
-      <c r="I52" s="15"/>
-      <c r="J52" s="20">
-        <v>4</v>
-      </c>
-      <c r="K52" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="L52" s="11">
-        <v>32</v>
-      </c>
-      <c r="M52" s="15"/>
-      <c r="N52" s="4"/>
-      <c r="O52" s="11"/>
-    </row>
-    <row r="53" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="6"/>
-      <c r="B53" s="15"/>
-      <c r="C53" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="D53" s="6"/>
-      <c r="E53" s="15"/>
-      <c r="F53" s="20"/>
-      <c r="G53" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="H53" s="11">
-        <v>19</v>
-      </c>
-      <c r="I53" s="15"/>
-      <c r="J53" s="20"/>
-      <c r="K53" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="L53" s="11">
-        <v>19</v>
-      </c>
-      <c r="M53" s="15"/>
-      <c r="N53" s="4"/>
-      <c r="O53" s="11"/>
-    </row>
-    <row r="54" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="7"/>
-      <c r="B54" s="13">
-        <v>0.48125000000000001</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="D54" s="7"/>
-      <c r="E54" s="14" t="s">
-        <v>375</v>
-      </c>
-      <c r="F54" s="21">
-        <v>2</v>
-      </c>
-      <c r="G54" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="H54" s="12">
-        <v>11</v>
-      </c>
-      <c r="I54" s="14">
-        <v>5</v>
-      </c>
-      <c r="J54" s="21">
-        <v>2</v>
-      </c>
-      <c r="K54" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="L54" s="12">
-        <v>9</v>
-      </c>
-      <c r="M54" s="14"/>
-      <c r="N54" s="5"/>
-      <c r="O54" s="12"/>
-    </row>
-    <row r="55" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="7"/>
-      <c r="B55" s="14"/>
-      <c r="C55" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="D55" s="7"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="21"/>
-      <c r="G55" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="H55" s="12">
-        <v>15</v>
-      </c>
-      <c r="I55" s="14"/>
-      <c r="J55" s="21"/>
-      <c r="K55" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="L55" s="12">
-        <v>15</v>
-      </c>
-      <c r="M55" s="14"/>
-      <c r="N55" s="5"/>
-      <c r="O55" s="12"/>
-    </row>
-    <row r="56" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="7"/>
-      <c r="B56" s="14"/>
-      <c r="C56" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="D56" s="7"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="21">
-        <v>3</v>
-      </c>
-      <c r="G56" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="H56" s="12">
-        <v>14</v>
-      </c>
-      <c r="I56" s="14"/>
-      <c r="J56" s="21">
-        <v>2</v>
-      </c>
-      <c r="K56" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="L56" s="12">
-        <v>11</v>
-      </c>
-      <c r="M56" s="14"/>
-      <c r="N56" s="5"/>
-      <c r="O56" s="12"/>
-    </row>
-    <row r="57" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="7"/>
-      <c r="B57" s="14"/>
-      <c r="C57" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="D57" s="7"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="21"/>
-      <c r="G57" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="H57" s="12">
-        <v>20</v>
-      </c>
-      <c r="I57" s="14"/>
-      <c r="J57" s="21"/>
-      <c r="K57" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="L57" s="12">
-        <v>15</v>
-      </c>
-      <c r="M57" s="14"/>
-      <c r="N57" s="5"/>
-      <c r="O57" s="12"/>
-    </row>
-    <row r="58" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="6"/>
-      <c r="B58" s="18">
-        <v>0.48749999999999999</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="D58" s="6"/>
-      <c r="E58" s="15">
-        <v>4</v>
-      </c>
-      <c r="F58" s="20">
-        <v>2</v>
-      </c>
-      <c r="G58" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="H58" s="11">
-        <v>9</v>
-      </c>
-      <c r="I58" s="15" t="s">
-        <v>378</v>
-      </c>
-      <c r="J58" s="20">
-        <v>3</v>
-      </c>
-      <c r="K58" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="L58" s="11">
-        <v>18</v>
-      </c>
-      <c r="M58" s="15"/>
-      <c r="N58" s="4"/>
-      <c r="O58" s="11"/>
-    </row>
-    <row r="59" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="6"/>
-      <c r="B59" s="15"/>
-      <c r="C59" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="D59" s="6"/>
-      <c r="E59" s="15"/>
-      <c r="F59" s="20"/>
-      <c r="G59" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="H59" s="11">
-        <v>15</v>
-      </c>
-      <c r="I59" s="15"/>
-      <c r="J59" s="20"/>
-      <c r="K59" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="L59" s="11">
-        <v>15</v>
-      </c>
-      <c r="M59" s="15"/>
-      <c r="N59" s="4"/>
-      <c r="O59" s="11"/>
-    </row>
-    <row r="60" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="6"/>
-      <c r="B60" s="15"/>
-      <c r="C60" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="D60" s="6"/>
-      <c r="E60" s="15"/>
-      <c r="F60" s="20">
-        <v>3</v>
-      </c>
-      <c r="G60" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="H60" s="11">
-        <v>14</v>
-      </c>
-      <c r="I60" s="15"/>
-      <c r="J60" s="20">
-        <v>2</v>
-      </c>
-      <c r="K60" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="L60" s="11">
-        <v>15</v>
-      </c>
-      <c r="M60" s="15"/>
-      <c r="N60" s="4"/>
-      <c r="O60" s="11"/>
-    </row>
-    <row r="61" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="6"/>
-      <c r="B61" s="15"/>
-      <c r="C61" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="D61" s="6"/>
-      <c r="E61" s="15"/>
-      <c r="F61" s="20"/>
-      <c r="G61" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="H61" s="11">
-        <v>16</v>
-      </c>
-      <c r="I61" s="15"/>
-      <c r="J61" s="20"/>
-      <c r="K61" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="L61" s="11">
-        <v>8</v>
-      </c>
-      <c r="M61" s="15"/>
-      <c r="N61" s="4"/>
-      <c r="O61" s="11"/>
-    </row>
-    <row r="62" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="7"/>
-      <c r="B62" s="13">
-        <v>0.49375000000000002</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="D62" s="7"/>
-      <c r="E62" s="14" t="s">
-        <v>376</v>
-      </c>
-      <c r="F62" s="21">
-        <v>3</v>
-      </c>
-      <c r="G62" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="H62" s="12">
-        <v>21</v>
-      </c>
-      <c r="I62" s="14" t="s">
-        <v>383</v>
-      </c>
-      <c r="J62" s="21">
-        <v>4</v>
-      </c>
-      <c r="K62" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="L62" s="12">
-        <v>28</v>
-      </c>
-      <c r="M62" s="14"/>
-      <c r="N62" s="5"/>
-      <c r="O62" s="12"/>
-    </row>
-    <row r="63" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="7"/>
-      <c r="B63" s="14"/>
-      <c r="C63" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="D63" s="7"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="21"/>
-      <c r="G63" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="H63" s="12">
-        <v>17</v>
-      </c>
-      <c r="I63" s="14"/>
-      <c r="J63" s="21"/>
-      <c r="K63" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="L63" s="12">
-        <v>23</v>
-      </c>
-      <c r="M63" s="14"/>
-      <c r="N63" s="5"/>
-      <c r="O63" s="12"/>
-    </row>
-    <row r="64" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="7"/>
-      <c r="B64" s="14"/>
-      <c r="C64" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="D64" s="7"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="21">
-        <v>3</v>
-      </c>
-      <c r="G64" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="H64" s="12">
-        <v>27</v>
-      </c>
-      <c r="I64" s="14"/>
-      <c r="J64" s="21">
-        <v>4</v>
-      </c>
-      <c r="K64" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="L64" s="12">
-        <v>23</v>
-      </c>
-      <c r="M64" s="14"/>
-      <c r="N64" s="5"/>
-      <c r="O64" s="12"/>
-    </row>
-    <row r="65" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="7"/>
-      <c r="B65" s="14"/>
-      <c r="C65" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="D65" s="7"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="21"/>
-      <c r="G65" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="H65" s="12">
-        <v>14</v>
-      </c>
-      <c r="I65" s="14"/>
-      <c r="J65" s="21"/>
-      <c r="K65" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="L65" s="12">
-        <v>30</v>
-      </c>
-      <c r="M65" s="14"/>
-      <c r="N65" s="5"/>
-      <c r="O65" s="12"/>
-    </row>
-    <row r="66" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="6"/>
-      <c r="B66" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="D66" s="6"/>
-      <c r="E66" s="15" t="s">
-        <v>377</v>
-      </c>
-      <c r="F66" s="20">
-        <v>3</v>
-      </c>
-      <c r="G66" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="H66" s="11">
-        <v>18</v>
-      </c>
-      <c r="I66" s="15" t="s">
-        <v>376</v>
-      </c>
-      <c r="J66" s="20">
-        <v>3</v>
-      </c>
-      <c r="K66" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="L66" s="11">
-        <v>14</v>
-      </c>
-      <c r="M66" s="15"/>
-      <c r="N66" s="4"/>
-      <c r="O66" s="11"/>
-    </row>
-    <row r="67" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="6"/>
-      <c r="B67" s="15"/>
-      <c r="C67" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="D67" s="6"/>
-      <c r="E67" s="15"/>
-      <c r="F67" s="20"/>
-      <c r="G67" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="H67" s="11">
-        <v>15</v>
-      </c>
-      <c r="I67" s="15"/>
-      <c r="J67" s="20"/>
-      <c r="K67" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="L67" s="11">
-        <v>16</v>
-      </c>
-      <c r="M67" s="15"/>
-      <c r="N67" s="4"/>
-      <c r="O67" s="11"/>
-    </row>
-    <row r="68" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="6"/>
-      <c r="B68" s="15"/>
-      <c r="C68" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="D68" s="6"/>
-      <c r="E68" s="15"/>
-      <c r="F68" s="20">
-        <v>3</v>
-      </c>
-      <c r="G68" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="H68" s="11">
-        <v>22</v>
-      </c>
-      <c r="I68" s="15"/>
-      <c r="J68" s="20">
-        <v>3</v>
-      </c>
-      <c r="K68" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="L68" s="11">
-        <v>13</v>
-      </c>
-      <c r="M68" s="15"/>
-      <c r="N68" s="4"/>
-      <c r="O68" s="11"/>
-    </row>
-    <row r="69" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="6"/>
-      <c r="B69" s="15"/>
-      <c r="C69" s="4"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="15"/>
-      <c r="F69" s="20"/>
-      <c r="G69" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="H69" s="11">
-        <v>10</v>
-      </c>
-      <c r="I69" s="15"/>
-      <c r="J69" s="20"/>
-      <c r="K69" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="L69" s="11">
-        <v>23</v>
-      </c>
-      <c r="M69" s="15"/>
-      <c r="N69" s="4"/>
-      <c r="O69" s="11"/>
-    </row>
-    <row r="70" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="7"/>
-      <c r="B70" s="13">
-        <v>0.50625000000000098</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="D70" s="7"/>
-      <c r="E70" s="14" t="s">
-        <v>379</v>
-      </c>
-      <c r="F70" s="21">
-        <v>1</v>
-      </c>
-      <c r="G70" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="H70" s="12">
-        <v>5</v>
-      </c>
-      <c r="I70" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="J70" s="21">
-        <v>4</v>
-      </c>
-      <c r="K70" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="L70" s="12">
-        <v>24</v>
-      </c>
-      <c r="M70" s="14"/>
-      <c r="N70" s="5"/>
-      <c r="O70" s="12"/>
-    </row>
-    <row r="71" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="7"/>
-      <c r="B71" s="14"/>
-      <c r="C71" s="5" t="s">
-        <v>332</v>
-      </c>
-      <c r="D71" s="7"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="21"/>
-      <c r="G71" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="H71" s="12">
-        <v>11</v>
-      </c>
-      <c r="I71" s="14"/>
-      <c r="J71" s="21"/>
-      <c r="K71" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="L71" s="12">
-        <v>21</v>
-      </c>
-      <c r="M71" s="14"/>
-      <c r="N71" s="5"/>
-      <c r="O71" s="12"/>
-    </row>
-    <row r="72" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="7"/>
-      <c r="B72" s="14"/>
-      <c r="C72" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="D72" s="7"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="21">
-        <v>2</v>
-      </c>
-      <c r="G72" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="H72" s="12">
-        <v>9</v>
-      </c>
-      <c r="I72" s="14"/>
-      <c r="J72" s="21">
-        <v>4</v>
-      </c>
-      <c r="K72" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="L72" s="12">
-        <v>34</v>
-      </c>
-      <c r="M72" s="14"/>
-      <c r="N72" s="5"/>
-      <c r="O72" s="12"/>
-    </row>
-    <row r="73" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="7"/>
-      <c r="B73" s="14"/>
-      <c r="C73" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="D73" s="7"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="21"/>
-      <c r="G73" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="H73" s="12">
-        <v>20</v>
-      </c>
-      <c r="I73" s="14"/>
-      <c r="J73" s="21"/>
-      <c r="K73" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="L73" s="12">
-        <v>17</v>
-      </c>
-      <c r="M73" s="14"/>
-      <c r="N73" s="5"/>
-      <c r="O73" s="12"/>
-    </row>
-    <row r="74" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="6"/>
-      <c r="B74" s="18">
-        <v>0.51250000000000095</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="D74" s="6"/>
-      <c r="E74" s="15" t="s">
-        <v>380</v>
-      </c>
-      <c r="F74" s="20">
-        <v>2</v>
-      </c>
-      <c r="G74" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="H74" s="11">
-        <v>15</v>
-      </c>
-      <c r="I74" s="15" t="s">
-        <v>379</v>
-      </c>
-      <c r="J74" s="20">
-        <v>3</v>
-      </c>
-      <c r="K74" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="L74" s="11">
-        <v>23</v>
-      </c>
-      <c r="M74" s="15"/>
-      <c r="N74" s="4"/>
-      <c r="O74" s="11"/>
-    </row>
-    <row r="75" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="6"/>
-      <c r="B75" s="15"/>
-      <c r="C75" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="D75" s="6"/>
-      <c r="E75" s="15"/>
-      <c r="F75" s="20"/>
-      <c r="G75" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="H75" s="11">
-        <v>11</v>
-      </c>
-      <c r="I75" s="15"/>
-      <c r="J75" s="20"/>
-      <c r="K75" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="L75" s="11">
-        <v>12</v>
-      </c>
-      <c r="M75" s="15"/>
-      <c r="N75" s="4"/>
-      <c r="O75" s="11"/>
-    </row>
-    <row r="76" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="6"/>
-      <c r="B76" s="15"/>
-      <c r="C76" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="D76" s="6"/>
-      <c r="E76" s="15"/>
-      <c r="F76" s="20">
-        <v>4</v>
-      </c>
-      <c r="G76" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="H76" s="11">
-        <v>31</v>
-      </c>
-      <c r="I76" s="15"/>
-      <c r="J76" s="20">
-        <v>4</v>
-      </c>
-      <c r="K76" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="L76" s="11">
-        <v>19</v>
-      </c>
-      <c r="M76" s="15"/>
-      <c r="N76" s="4"/>
-      <c r="O76" s="11"/>
-    </row>
-    <row r="77" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="6"/>
-      <c r="B77" s="15"/>
-      <c r="C77" s="4"/>
-      <c r="D77" s="6"/>
-      <c r="E77" s="15"/>
-      <c r="F77" s="20"/>
-      <c r="G77" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="H77" s="11">
-        <v>18</v>
-      </c>
-      <c r="I77" s="15"/>
-      <c r="J77" s="20"/>
-      <c r="K77" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="L77" s="11">
+      <c r="M90" s="22"/>
+      <c r="N90" s="16"/>
+      <c r="O90" s="17"/>
+      <c r="P90" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q90" s="15">
         <v>35</v>
       </c>
-      <c r="M77" s="15"/>
-      <c r="N77" s="4"/>
-      <c r="O77" s="11"/>
-    </row>
-    <row r="78" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="7"/>
-      <c r="B78" s="13">
-        <v>0.51875000000000104</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="D78" s="7"/>
-      <c r="E78" s="14" t="s">
-        <v>381</v>
-      </c>
-      <c r="F78" s="21">
-        <v>1</v>
-      </c>
-      <c r="G78" s="5" t="s">
-        <v>396</v>
-      </c>
-      <c r="H78" s="12">
-        <v>9</v>
-      </c>
-      <c r="I78" s="14" t="s">
-        <v>380</v>
-      </c>
-      <c r="J78" s="21">
-        <v>3</v>
-      </c>
-      <c r="K78" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="L78" s="12">
-        <v>27</v>
-      </c>
-      <c r="M78" s="14"/>
-      <c r="N78" s="5"/>
-      <c r="O78" s="12"/>
-    </row>
-    <row r="79" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="7"/>
-      <c r="B79" s="14"/>
-      <c r="C79" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="D79" s="7"/>
-      <c r="E79" s="14"/>
-      <c r="F79" s="21"/>
-      <c r="G79" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="H79" s="12">
-        <v>7</v>
-      </c>
-      <c r="I79" s="14"/>
-      <c r="J79" s="21"/>
-      <c r="K79" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="L79" s="12">
-        <v>14</v>
-      </c>
-      <c r="M79" s="14"/>
-      <c r="N79" s="5"/>
-      <c r="O79" s="12"/>
-    </row>
-    <row r="80" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="7"/>
-      <c r="B80" s="14"/>
-      <c r="C80" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="D80" s="7"/>
-      <c r="E80" s="14"/>
-      <c r="F80" s="21">
-        <v>1</v>
-      </c>
-      <c r="G80" s="5" t="s">
-        <v>398</v>
-      </c>
-      <c r="H80" s="12">
-        <v>9</v>
-      </c>
-      <c r="I80" s="14"/>
-      <c r="J80" s="21">
-        <v>2</v>
-      </c>
-      <c r="K80" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="L80" s="12">
-        <v>9</v>
-      </c>
-      <c r="M80" s="14"/>
-      <c r="N80" s="5"/>
-      <c r="O80" s="12"/>
-    </row>
-    <row r="81" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="7"/>
-      <c r="B81" s="14"/>
-      <c r="C81" s="5"/>
-      <c r="D81" s="7"/>
-      <c r="E81" s="14"/>
-      <c r="F81" s="21"/>
-      <c r="G81" s="5" t="s">
-        <v>399</v>
-      </c>
-      <c r="H81" s="12">
-        <v>5</v>
-      </c>
-      <c r="I81" s="14"/>
-      <c r="J81" s="21"/>
-      <c r="K81" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="L81" s="12">
-        <v>20</v>
-      </c>
-      <c r="M81" s="14"/>
-      <c r="N81" s="5"/>
-      <c r="O81" s="12"/>
-    </row>
-    <row r="82" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="6"/>
-      <c r="B82" s="15"/>
-      <c r="C82" s="4"/>
-      <c r="D82" s="6"/>
-      <c r="E82" s="15" t="s">
-        <v>382</v>
-      </c>
-      <c r="F82" s="20">
-        <v>4</v>
-      </c>
-      <c r="G82" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="H82" s="11">
-        <v>28</v>
-      </c>
-      <c r="I82" s="15" t="s">
-        <v>381</v>
-      </c>
-      <c r="J82" s="20">
-        <v>4</v>
-      </c>
-      <c r="K82" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="L82" s="11">
-        <v>31</v>
-      </c>
-      <c r="M82" s="15"/>
-      <c r="N82" s="4"/>
-      <c r="O82" s="11"/>
-    </row>
-    <row r="83" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="6"/>
-      <c r="B83" s="15"/>
-      <c r="C83" s="4"/>
-      <c r="D83" s="6"/>
-      <c r="E83" s="15"/>
-      <c r="F83" s="20"/>
-      <c r="G83" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="H83" s="11">
-        <v>23</v>
-      </c>
-      <c r="I83" s="15"/>
-      <c r="J83" s="20"/>
-      <c r="K83" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="L83" s="11">
-        <v>18</v>
-      </c>
-      <c r="M83" s="15"/>
-      <c r="N83" s="4"/>
-      <c r="O83" s="11"/>
-    </row>
-    <row r="84" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="6"/>
-      <c r="B84" s="15"/>
-      <c r="C84" s="4"/>
-      <c r="D84" s="6"/>
-      <c r="E84" s="15"/>
-      <c r="F84" s="20">
-        <v>3</v>
-      </c>
-      <c r="G84" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="H84" s="11">
-        <v>16</v>
-      </c>
-      <c r="I84" s="15"/>
-      <c r="J84" s="20">
-        <v>3</v>
-      </c>
-      <c r="K84" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="L84" s="11">
-        <v>16</v>
-      </c>
-      <c r="M84" s="15"/>
-      <c r="N84" s="4"/>
-      <c r="O84" s="11"/>
-    </row>
-    <row r="85" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="6"/>
-      <c r="B85" s="15"/>
-      <c r="C85" s="4"/>
-      <c r="D85" s="6"/>
-      <c r="E85" s="15"/>
-      <c r="F85" s="20"/>
-      <c r="G85" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="H85" s="11">
-        <v>18</v>
-      </c>
-      <c r="I85" s="15"/>
-      <c r="J85" s="20"/>
-      <c r="K85" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="L85" s="11">
-        <v>18</v>
-      </c>
-      <c r="M85" s="15"/>
-      <c r="N85" s="4"/>
-      <c r="O85" s="11"/>
-    </row>
-    <row r="86" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="7"/>
-      <c r="B86" s="13"/>
-      <c r="C86" s="5"/>
-      <c r="D86" s="7"/>
-      <c r="E86" s="14" t="s">
-        <v>395</v>
-      </c>
-      <c r="F86" s="21">
-        <v>4</v>
-      </c>
-      <c r="G86" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="H86" s="12">
-        <v>19</v>
-      </c>
-      <c r="I86" s="14" t="s">
-        <v>382</v>
-      </c>
-      <c r="J86" s="21">
-        <v>4</v>
-      </c>
-      <c r="K86" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="L86" s="12">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="7"/>
-      <c r="B87" s="14"/>
-      <c r="C87" s="5"/>
-      <c r="D87" s="7"/>
-      <c r="E87" s="14"/>
-      <c r="F87" s="21"/>
-      <c r="G87" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="H87" s="12">
-        <v>35</v>
-      </c>
-      <c r="I87" s="14"/>
-      <c r="J87" s="21"/>
-      <c r="K87" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="L87" s="12">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="7"/>
-      <c r="B88" s="14"/>
-      <c r="C88" s="5"/>
-      <c r="D88" s="7"/>
-      <c r="E88" s="14"/>
-      <c r="F88" s="21">
-        <v>4</v>
-      </c>
-      <c r="G88" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="H88" s="12">
-        <v>39</v>
-      </c>
-      <c r="I88" s="14"/>
-      <c r="J88" s="21">
-        <v>4</v>
-      </c>
-      <c r="K88" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="L88" s="12">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="7"/>
-      <c r="B89" s="14"/>
-      <c r="C89" s="5"/>
-      <c r="D89" s="7"/>
-      <c r="E89" s="14"/>
-      <c r="F89" s="21"/>
-      <c r="G89" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="H89" s="12">
-        <v>35</v>
-      </c>
-      <c r="I89" s="14"/>
-      <c r="J89" s="21"/>
-      <c r="K89" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="L89" s="12">
-        <v>35</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="175">
-    <mergeCell ref="J82:J83"/>
-    <mergeCell ref="J84:J85"/>
-    <mergeCell ref="J86:J87"/>
-    <mergeCell ref="J88:J89"/>
-    <mergeCell ref="J72:J73"/>
-    <mergeCell ref="J74:J75"/>
-    <mergeCell ref="J76:J77"/>
-    <mergeCell ref="J78:J79"/>
-    <mergeCell ref="J80:J81"/>
-    <mergeCell ref="J62:J63"/>
-    <mergeCell ref="J64:J65"/>
-    <mergeCell ref="J66:J67"/>
-    <mergeCell ref="J68:J69"/>
-    <mergeCell ref="J70:J71"/>
-    <mergeCell ref="J52:J53"/>
-    <mergeCell ref="J54:J55"/>
-    <mergeCell ref="J56:J57"/>
-    <mergeCell ref="J58:J59"/>
-    <mergeCell ref="J60:J61"/>
+  <mergeCells count="160">
+    <mergeCell ref="A1:A45"/>
+    <mergeCell ref="A46:A90"/>
+    <mergeCell ref="H1:H45"/>
+    <mergeCell ref="H46:H90"/>
+    <mergeCell ref="M1:M45"/>
+    <mergeCell ref="M46:M90"/>
+    <mergeCell ref="N83:N86"/>
+    <mergeCell ref="O83:O84"/>
+    <mergeCell ref="O40:O41"/>
+    <mergeCell ref="O85:O86"/>
+    <mergeCell ref="N42:N45"/>
+    <mergeCell ref="O42:O43"/>
+    <mergeCell ref="N87:N90"/>
+    <mergeCell ref="O87:O88"/>
+    <mergeCell ref="O44:O45"/>
+    <mergeCell ref="O89:O90"/>
+    <mergeCell ref="N75:N78"/>
+    <mergeCell ref="O75:O76"/>
+    <mergeCell ref="O32:O33"/>
+    <mergeCell ref="O77:O78"/>
+    <mergeCell ref="N34:N37"/>
+    <mergeCell ref="O34:O35"/>
+    <mergeCell ref="N79:N82"/>
+    <mergeCell ref="O79:O80"/>
+    <mergeCell ref="O36:O37"/>
+    <mergeCell ref="O81:O82"/>
+    <mergeCell ref="N67:N70"/>
+    <mergeCell ref="O67:O68"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="O69:O70"/>
+    <mergeCell ref="N26:N29"/>
+    <mergeCell ref="O26:O27"/>
+    <mergeCell ref="N71:N74"/>
+    <mergeCell ref="O71:O72"/>
+    <mergeCell ref="O28:O29"/>
+    <mergeCell ref="O73:O74"/>
+    <mergeCell ref="O49:O50"/>
+    <mergeCell ref="N6:N9"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="N51:N54"/>
+    <mergeCell ref="O51:O52"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="O53:O54"/>
+    <mergeCell ref="N10:N13"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="N55:N58"/>
+    <mergeCell ref="O55:O56"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="O57:O58"/>
+    <mergeCell ref="I79:I82"/>
+    <mergeCell ref="J79:J80"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="J81:J82"/>
+    <mergeCell ref="I38:I41"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="I83:I86"/>
+    <mergeCell ref="J83:J84"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="J85:J86"/>
+    <mergeCell ref="I71:I74"/>
+    <mergeCell ref="J71:J72"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="J73:J74"/>
+    <mergeCell ref="I30:I33"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="I75:I78"/>
+    <mergeCell ref="J75:J76"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="J77:J78"/>
+    <mergeCell ref="I63:I66"/>
+    <mergeCell ref="J63:J64"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="J65:J66"/>
+    <mergeCell ref="I22:I25"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="I67:I70"/>
+    <mergeCell ref="J67:J68"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="J69:J70"/>
+    <mergeCell ref="I55:I58"/>
+    <mergeCell ref="J55:J56"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="J57:J58"/>
+    <mergeCell ref="I14:I17"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="I59:I62"/>
+    <mergeCell ref="J59:J60"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="J61:J62"/>
+    <mergeCell ref="I2:I5"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="I47:I50"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="J49:J50"/>
+    <mergeCell ref="I6:I9"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="I51:I54"/>
+    <mergeCell ref="J51:J52"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="J53:J54"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="I26:I29"/>
+    <mergeCell ref="I34:I37"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="I18:I21"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="J34:J35"/>
+    <mergeCell ref="I42:I45"/>
     <mergeCell ref="J42:J43"/>
+    <mergeCell ref="N22:N25"/>
+    <mergeCell ref="I10:I13"/>
+    <mergeCell ref="J10:J11"/>
     <mergeCell ref="J44:J45"/>
-    <mergeCell ref="J46:J47"/>
-    <mergeCell ref="J48:J49"/>
-    <mergeCell ref="J50:J51"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="J34:J35"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="J38:J39"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="F82:F83"/>
-    <mergeCell ref="F84:F85"/>
-    <mergeCell ref="F86:F87"/>
-    <mergeCell ref="F88:F89"/>
-    <mergeCell ref="F72:F73"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="F76:F77"/>
-    <mergeCell ref="F78:F79"/>
-    <mergeCell ref="F80:F81"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="E86:E89"/>
-    <mergeCell ref="I86:I89"/>
-    <mergeCell ref="B86:B89"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="M54:M57"/>
-    <mergeCell ref="M58:M61"/>
-    <mergeCell ref="M82:M85"/>
-    <mergeCell ref="M62:M65"/>
-    <mergeCell ref="M66:M69"/>
-    <mergeCell ref="M70:M73"/>
-    <mergeCell ref="M74:M77"/>
-    <mergeCell ref="M78:M81"/>
-    <mergeCell ref="B74:B77"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="B82:B85"/>
-    <mergeCell ref="M2:M5"/>
-    <mergeCell ref="M6:M9"/>
-    <mergeCell ref="M10:M13"/>
-    <mergeCell ref="M14:M17"/>
-    <mergeCell ref="M18:M21"/>
-    <mergeCell ref="M22:M25"/>
-    <mergeCell ref="M26:M29"/>
-    <mergeCell ref="M30:M33"/>
-    <mergeCell ref="M34:M37"/>
-    <mergeCell ref="M38:M41"/>
-    <mergeCell ref="M42:M45"/>
-    <mergeCell ref="M46:M49"/>
-    <mergeCell ref="M50:M53"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="N2:N5"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="N14:N17"/>
+    <mergeCell ref="O14:O15"/>
+    <mergeCell ref="B55:B58"/>
+    <mergeCell ref="B59:B62"/>
+    <mergeCell ref="B63:B66"/>
+    <mergeCell ref="B67:B70"/>
+    <mergeCell ref="B71:B74"/>
     <mergeCell ref="B38:B41"/>
     <mergeCell ref="B42:B45"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="I82:I85"/>
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="N18:N21"/>
+    <mergeCell ref="I87:I90"/>
+    <mergeCell ref="J87:J88"/>
+    <mergeCell ref="J89:J90"/>
+    <mergeCell ref="N47:N50"/>
+    <mergeCell ref="O47:O48"/>
+    <mergeCell ref="B75:B78"/>
+    <mergeCell ref="B79:B82"/>
+    <mergeCell ref="B83:B86"/>
+    <mergeCell ref="N38:N41"/>
+    <mergeCell ref="N59:N62"/>
+    <mergeCell ref="O59:O60"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="O61:O62"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="N63:N66"/>
+    <mergeCell ref="O63:O64"/>
+    <mergeCell ref="O20:O21"/>
+    <mergeCell ref="O65:O66"/>
+    <mergeCell ref="O22:O23"/>
+    <mergeCell ref="B87:B90"/>
+    <mergeCell ref="B34:B37"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="B18:B21"/>
     <mergeCell ref="B22:B25"/>
     <mergeCell ref="B26:B29"/>
-    <mergeCell ref="I46:I49"/>
-    <mergeCell ref="I38:I41"/>
-    <mergeCell ref="I62:I65"/>
-    <mergeCell ref="I54:I57"/>
-    <mergeCell ref="I2:I5"/>
-    <mergeCell ref="I22:I25"/>
-    <mergeCell ref="I42:I45"/>
-    <mergeCell ref="I30:I33"/>
-    <mergeCell ref="I58:I61"/>
-    <mergeCell ref="I6:I9"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="I50:I53"/>
-    <mergeCell ref="I66:I69"/>
-    <mergeCell ref="I10:I13"/>
-    <mergeCell ref="E62:E65"/>
-    <mergeCell ref="I18:I21"/>
-    <mergeCell ref="I14:I17"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="E30:E33"/>
-    <mergeCell ref="E38:E41"/>
-    <mergeCell ref="E82:E85"/>
-    <mergeCell ref="E46:E49"/>
-    <mergeCell ref="E18:E21"/>
-    <mergeCell ref="E78:E81"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="I78:I81"/>
-    <mergeCell ref="I26:I29"/>
-    <mergeCell ref="E26:E29"/>
-    <mergeCell ref="E66:E69"/>
-    <mergeCell ref="E34:E37"/>
-    <mergeCell ref="E50:E53"/>
-    <mergeCell ref="E54:E57"/>
-    <mergeCell ref="E42:E45"/>
-    <mergeCell ref="E70:E73"/>
-    <mergeCell ref="E58:E61"/>
-    <mergeCell ref="E74:E77"/>
-    <mergeCell ref="I74:I77"/>
-    <mergeCell ref="I34:I37"/>
-    <mergeCell ref="I70:I73"/>
-    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="N30:N33"/>
+    <mergeCell ref="O30:O31"/>
+    <mergeCell ref="O38:O39"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.45" right="0.45" top="1" bottom="0.75" header="0.5" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;20Monster XXIV</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -6141,10 +6559,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE45"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6642,10 +7057,10 @@
         <v>327</v>
       </c>
       <c r="E6" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="F6" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="G6">
         <v>466</v>
@@ -6666,10 +7081,10 @@
         <v>5</v>
       </c>
       <c r="M6" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="N6" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="O6" s="3" t="s">
         <v>33</v>
@@ -6687,7 +7102,7 @@
         <v>6</v>
       </c>
       <c r="T6" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="U6">
         <v>465</v>
@@ -6708,10 +7123,10 @@
         <v>9</v>
       </c>
       <c r="AA6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="AB6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="AC6" s="3" t="s">
         <v>33</v>
@@ -6921,10 +7336,10 @@
         <v>255</v>
       </c>
       <c r="E9" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="F9" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="G9">
         <v>467</v>
@@ -6945,10 +7360,10 @@
         <v>7</v>
       </c>
       <c r="M9" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="N9" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>33</v>
@@ -6966,7 +7381,7 @@
         <v>108</v>
       </c>
       <c r="T9" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="U9">
         <v>431</v>
@@ -6987,7 +7402,7 @@
         <v>9</v>
       </c>
       <c r="AA9" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="AC9" s="3" t="s">
         <v>65</v>
@@ -7170,10 +7585,10 @@
         <v>5</v>
       </c>
       <c r="AA11" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="AB11" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="AC11" s="3"/>
       <c r="AD11" s="1" t="s">
@@ -8097,7 +8512,7 @@
         <v>201</v>
       </c>
       <c r="AB21" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="AC21" s="3" t="s">
         <v>165</v>
@@ -8612,10 +9027,10 @@
         <v>18</v>
       </c>
       <c r="M27" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="N27" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="O27" s="3"/>
       <c r="P27" s="1" t="s">
@@ -8652,10 +9067,10 @@
         <v>15</v>
       </c>
       <c r="AA27" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="AB27" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="AC27" s="3"/>
       <c r="AD27" s="1" t="s">
@@ -8743,10 +9158,10 @@
         <v>18</v>
       </c>
       <c r="AA28" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="AB28" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="AC28" s="3"/>
       <c r="AD28" s="1">
@@ -10143,7 +10558,7 @@
       <c r="A44">
         <v>1406</v>
       </c>
-      <c r="B44" s="19">
+      <c r="B44" s="5">
         <v>59.9</v>
       </c>
       <c r="C44">
@@ -10234,7 +10649,7 @@
       <c r="A45">
         <v>1448</v>
       </c>
-      <c r="B45" s="19">
+      <c r="B45" s="5">
         <v>74.2</v>
       </c>
       <c r="C45">

--- a/monster-golf-docs/monster2014/Monster2014.xlsx
+++ b/monster-golf-docs/monster2014/Monster2014.xlsx
@@ -1225,15 +1225,6 @@
     <t>Maribeth Thomas</t>
   </si>
   <si>
-    <t>Blind 10$</t>
-  </si>
-  <si>
-    <t>Gross Skins 5$</t>
-  </si>
-  <si>
-    <t>Net Skins 5$</t>
-  </si>
-  <si>
     <t>Practice, May 15th</t>
   </si>
   <si>
@@ -1241,6 +1232,15 @@
   </si>
   <si>
     <t>Day 2, May 17th 1pm</t>
+  </si>
+  <si>
+    <t>Gross Skins 10$</t>
+  </si>
+  <si>
+    <t>Net Skins 10$</t>
+  </si>
+  <si>
+    <t>Blind Draw 10$</t>
   </si>
 </sst>
 </file>
@@ -1406,14 +1406,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="20" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1421,23 +1435,9 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3279,8 +3279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q90"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G82" sqref="G82"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46:G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3308,19 +3308,19 @@
         <v>352</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>257</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="H1" s="20"/>
       <c r="I1" s="7" t="s">
@@ -3330,7 +3330,7 @@
         <v>142</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="L1" s="7" t="s">
         <v>257</v>
@@ -3343,7 +3343,7 @@
         <v>142</v>
       </c>
       <c r="P1" s="7" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="Q1" s="7" t="s">
         <v>257</v>
@@ -3351,1519 +3351,1519 @@
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21"/>
-      <c r="B2" s="8">
+      <c r="B2" s="15">
         <v>0.39999999999999997</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="9">
         <v>11</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="17" t="s">
         <v>358</v>
       </c>
-      <c r="J2" s="12">
+      <c r="J2" s="18">
         <v>1</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="L2" s="10">
+      <c r="L2" s="9">
         <v>12</v>
       </c>
       <c r="M2" s="21"/>
       <c r="N2" s="16" t="s">
         <v>367</v>
       </c>
-      <c r="O2" s="17">
+      <c r="O2" s="19">
         <v>4</v>
       </c>
-      <c r="P2" s="14" t="s">
+      <c r="P2" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="Q2" s="15">
+      <c r="Q2" s="11">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="21"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="9" t="s">
+      <c r="B3" s="15"/>
+      <c r="C3" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="9">
         <v>7</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
       <c r="H3" s="21"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="9" t="s">
+      <c r="I3" s="17"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="L3" s="10">
+      <c r="L3" s="9">
         <v>4</v>
       </c>
       <c r="M3" s="21"/>
       <c r="N3" s="16"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="14" t="s">
+      <c r="O3" s="19"/>
+      <c r="P3" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="Q3" s="15">
+      <c r="Q3" s="11">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="21"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="9" t="s">
+      <c r="B4" s="15"/>
+      <c r="C4" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="9">
         <v>22</v>
       </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
       <c r="H4" s="21"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="12">
+      <c r="I4" s="17"/>
+      <c r="J4" s="18">
         <v>2</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="L4" s="10">
+      <c r="L4" s="9">
         <v>14</v>
       </c>
       <c r="M4" s="21"/>
       <c r="N4" s="16"/>
-      <c r="O4" s="17">
+      <c r="O4" s="19">
         <v>3</v>
       </c>
-      <c r="P4" s="14" t="s">
+      <c r="P4" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="Q4" s="15">
+      <c r="Q4" s="11">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="21"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9" t="s">
+      <c r="B5" s="15"/>
+      <c r="C5" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="9">
         <v>10</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
       <c r="H5" s="21"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="9" t="s">
+      <c r="I5" s="17"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="L5" s="10">
+      <c r="L5" s="9">
         <v>15</v>
       </c>
       <c r="M5" s="21"/>
       <c r="N5" s="16"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="14" t="s">
+      <c r="O5" s="19"/>
+      <c r="P5" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="Q5" s="15">
+      <c r="Q5" s="11">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21"/>
-      <c r="B6" s="13">
+      <c r="B6" s="14">
         <v>0.40625</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="11">
         <v>4</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
       <c r="H6" s="21"/>
       <c r="I6" s="16" t="s">
         <v>359</v>
       </c>
-      <c r="J6" s="17">
+      <c r="J6" s="19">
         <v>1</v>
       </c>
-      <c r="K6" s="14" t="s">
+      <c r="K6" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="L6" s="15">
+      <c r="L6" s="11">
         <v>8</v>
       </c>
       <c r="M6" s="21"/>
-      <c r="N6" s="11" t="s">
+      <c r="N6" s="17" t="s">
         <v>368</v>
       </c>
-      <c r="O6" s="12">
+      <c r="O6" s="18">
         <v>4</v>
       </c>
-      <c r="P6" s="9" t="s">
+      <c r="P6" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="Q6" s="10">
+      <c r="Q6" s="9">
         <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="14" t="s">
+      <c r="B7" s="14"/>
+      <c r="C7" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="11">
         <v>3</v>
       </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
       <c r="H7" s="21"/>
       <c r="I7" s="16"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="14" t="s">
+      <c r="J7" s="19"/>
+      <c r="K7" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="L7" s="15">
+      <c r="L7" s="11">
         <v>2</v>
       </c>
       <c r="M7" s="21"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="9" t="s">
+      <c r="N7" s="17"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="8" t="s">
         <v>300</v>
       </c>
-      <c r="Q7" s="10">
+      <c r="Q7" s="9">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="14" t="s">
+      <c r="B8" s="14"/>
+      <c r="C8" s="10" t="s">
         <v>333</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="11">
         <v>7</v>
       </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
       <c r="H8" s="21"/>
       <c r="I8" s="16"/>
-      <c r="J8" s="17">
+      <c r="J8" s="19">
         <v>2</v>
       </c>
-      <c r="K8" s="14" t="s">
+      <c r="K8" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="L8" s="15">
+      <c r="L8" s="11">
         <v>11</v>
       </c>
       <c r="M8" s="21"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="12">
+      <c r="N8" s="17"/>
+      <c r="O8" s="18">
         <v>4</v>
       </c>
-      <c r="P8" s="9" t="s">
+      <c r="P8" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="Q8" s="10">
+      <c r="Q8" s="9">
         <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="21"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="14" t="s">
+      <c r="B9" s="14"/>
+      <c r="C9" s="10" t="s">
         <v>336</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="11">
         <v>12</v>
       </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
       <c r="H9" s="21"/>
       <c r="I9" s="16"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="14" t="s">
+      <c r="J9" s="19"/>
+      <c r="K9" s="10" t="s">
         <v>316</v>
       </c>
-      <c r="L9" s="15">
+      <c r="L9" s="11">
         <v>7</v>
       </c>
       <c r="M9" s="21"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="9" t="s">
+      <c r="N9" s="17"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="8" t="s">
         <v>351</v>
       </c>
-      <c r="Q9" s="10">
+      <c r="Q9" s="9">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="21"/>
-      <c r="B10" s="8">
+      <c r="B10" s="15">
         <v>0.41250000000000003</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="9">
         <v>18</v>
       </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
       <c r="H10" s="21"/>
-      <c r="I10" s="11">
+      <c r="I10" s="17">
         <v>11</v>
       </c>
-      <c r="J10" s="12">
+      <c r="J10" s="18">
         <v>1</v>
       </c>
-      <c r="K10" s="9" t="s">
+      <c r="K10" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="L10" s="10">
+      <c r="L10" s="9">
         <v>3</v>
       </c>
       <c r="M10" s="21"/>
       <c r="N10" s="16" t="s">
         <v>369</v>
       </c>
-      <c r="O10" s="17">
+      <c r="O10" s="19">
         <v>2</v>
       </c>
-      <c r="P10" s="14" t="s">
+      <c r="P10" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="Q10" s="15">
+      <c r="Q10" s="11">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="21"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="9" t="s">
+      <c r="B11" s="15"/>
+      <c r="C11" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="9">
         <v>15</v>
       </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
       <c r="H11" s="21"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="9" t="s">
+      <c r="I11" s="17"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="L11" s="10">
+      <c r="L11" s="9">
         <v>5</v>
       </c>
       <c r="M11" s="21"/>
       <c r="N11" s="16"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="14" t="s">
+      <c r="O11" s="19"/>
+      <c r="P11" s="10" t="s">
         <v>302</v>
       </c>
-      <c r="Q11" s="15">
+      <c r="Q11" s="11">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="21"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9" t="s">
+      <c r="B12" s="15"/>
+      <c r="C12" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="9">
         <v>8</v>
       </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
       <c r="H12" s="21"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="12">
+      <c r="I12" s="17"/>
+      <c r="J12" s="18">
         <v>1</v>
       </c>
-      <c r="K12" s="9" t="s">
+      <c r="K12" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="L12" s="10">
+      <c r="L12" s="9">
         <v>2</v>
       </c>
       <c r="M12" s="21"/>
       <c r="N12" s="16"/>
-      <c r="O12" s="17">
+      <c r="O12" s="19">
         <v>3</v>
       </c>
-      <c r="P12" s="14" t="s">
+      <c r="P12" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="Q12" s="15">
+      <c r="Q12" s="11">
         <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="21"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9" t="s">
+      <c r="B13" s="15"/>
+      <c r="C13" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="9">
         <v>5</v>
       </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
       <c r="H13" s="21"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="9" t="s">
+      <c r="I13" s="17"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="L13" s="10">
+      <c r="L13" s="9">
         <v>4</v>
       </c>
       <c r="M13" s="21"/>
       <c r="N13" s="16"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="14" t="s">
+      <c r="O13" s="19"/>
+      <c r="P13" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="Q13" s="15">
+      <c r="Q13" s="11">
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="21"/>
-      <c r="B14" s="13">
+      <c r="B14" s="14">
         <v>0.41875000000000001</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="11">
         <v>15</v>
       </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
       <c r="H14" s="21"/>
       <c r="I14" s="16" t="s">
         <v>360</v>
       </c>
-      <c r="J14" s="17">
+      <c r="J14" s="19">
         <v>1</v>
       </c>
-      <c r="K14" s="14" t="s">
+      <c r="K14" s="10" t="s">
         <v>330</v>
       </c>
-      <c r="L14" s="15">
+      <c r="L14" s="11">
         <v>5</v>
       </c>
       <c r="M14" s="21"/>
-      <c r="N14" s="11">
+      <c r="N14" s="17">
         <v>4</v>
       </c>
-      <c r="O14" s="12">
+      <c r="O14" s="18">
         <v>2</v>
       </c>
-      <c r="P14" s="9" t="s">
+      <c r="P14" s="8" t="s">
         <v>326</v>
       </c>
-      <c r="Q14" s="10">
+      <c r="Q14" s="9">
         <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="21"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="14" t="s">
+      <c r="B15" s="14"/>
+      <c r="C15" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="11">
         <v>11</v>
       </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
       <c r="H15" s="21"/>
       <c r="I15" s="16"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="14" t="s">
+      <c r="J15" s="19"/>
+      <c r="K15" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="L15" s="15">
+      <c r="L15" s="11">
         <v>10</v>
       </c>
       <c r="M15" s="21"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="9" t="s">
+      <c r="N15" s="17"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="Q15" s="10">
+      <c r="Q15" s="9">
         <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="21"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="14" t="s">
+      <c r="B16" s="14"/>
+      <c r="C16" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="11">
         <v>13</v>
       </c>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
       <c r="H16" s="21"/>
       <c r="I16" s="16"/>
-      <c r="J16" s="17">
+      <c r="J16" s="19">
         <v>2</v>
       </c>
-      <c r="K16" s="14" t="s">
+      <c r="K16" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="L16" s="15">
+      <c r="L16" s="11">
         <v>7</v>
       </c>
       <c r="M16" s="21"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="12">
+      <c r="N16" s="17"/>
+      <c r="O16" s="18">
         <v>3</v>
       </c>
-      <c r="P16" s="9" t="s">
+      <c r="P16" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="Q16" s="10">
+      <c r="Q16" s="9">
         <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="21"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="14" t="s">
+      <c r="B17" s="14"/>
+      <c r="C17" s="10" t="s">
         <v>295</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="11">
         <v>14</v>
       </c>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
       <c r="H17" s="21"/>
       <c r="I17" s="16"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="14" t="s">
+      <c r="J17" s="19"/>
+      <c r="K17" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="L17" s="15">
+      <c r="L17" s="11">
         <v>16</v>
       </c>
       <c r="M17" s="21"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="9" t="s">
+      <c r="N17" s="17"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="8" t="s">
         <v>327</v>
       </c>
-      <c r="Q17" s="10">
+      <c r="Q17" s="9">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="21"/>
-      <c r="B18" s="8">
+      <c r="B18" s="15">
         <v>0.42499999999999999</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="9">
         <v>7</v>
       </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
       <c r="H18" s="21"/>
-      <c r="I18" s="11" t="s">
+      <c r="I18" s="17" t="s">
         <v>361</v>
       </c>
-      <c r="J18" s="12">
+      <c r="J18" s="18">
         <v>4</v>
       </c>
-      <c r="K18" s="9" t="s">
+      <c r="K18" s="8" t="s">
         <v>334</v>
       </c>
-      <c r="L18" s="10">
+      <c r="L18" s="9">
         <v>23</v>
       </c>
       <c r="M18" s="21"/>
       <c r="N18" s="16" t="s">
         <v>370</v>
       </c>
-      <c r="O18" s="17">
+      <c r="O18" s="19">
         <v>3</v>
       </c>
-      <c r="P18" s="14" t="s">
+      <c r="P18" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="Q18" s="15">
+      <c r="Q18" s="11">
         <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="21"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="9" t="s">
+      <c r="B19" s="15"/>
+      <c r="C19" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="9">
         <v>12</v>
       </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
       <c r="H19" s="21"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="9" t="s">
+      <c r="I19" s="17"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="L19" s="10">
+      <c r="L19" s="9">
         <v>20</v>
       </c>
       <c r="M19" s="21"/>
       <c r="N19" s="16"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="14" t="s">
+      <c r="O19" s="19"/>
+      <c r="P19" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="Q19" s="15">
+      <c r="Q19" s="11">
         <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="9" t="s">
+      <c r="B20" s="15"/>
+      <c r="C20" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="9">
         <v>2</v>
       </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
       <c r="H20" s="21"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="12">
+      <c r="I20" s="17"/>
+      <c r="J20" s="18">
         <v>2</v>
       </c>
-      <c r="K20" s="9" t="s">
+      <c r="K20" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="L20" s="10">
+      <c r="L20" s="9">
         <v>7</v>
       </c>
       <c r="M20" s="21"/>
       <c r="N20" s="16"/>
-      <c r="O20" s="17">
+      <c r="O20" s="19">
         <v>3</v>
       </c>
-      <c r="P20" s="14" t="s">
+      <c r="P20" s="10" t="s">
         <v>317</v>
       </c>
-      <c r="Q20" s="15">
+      <c r="Q20" s="11">
         <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9" t="s">
+      <c r="B21" s="15"/>
+      <c r="C21" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="9">
         <v>4</v>
       </c>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
       <c r="H21" s="21"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="9" t="s">
+      <c r="I21" s="17"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="L21" s="10">
+      <c r="L21" s="9">
         <v>12</v>
       </c>
       <c r="M21" s="21"/>
       <c r="N21" s="16"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="14" t="s">
+      <c r="O21" s="19"/>
+      <c r="P21" s="10" t="s">
         <v>318</v>
       </c>
-      <c r="Q21" s="15">
+      <c r="Q21" s="11">
         <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="21"/>
-      <c r="B22" s="13">
+      <c r="B22" s="14">
         <v>0.43124999999999997</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="11">
         <v>24</v>
       </c>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
       <c r="H22" s="21"/>
       <c r="I22" s="16" t="s">
         <v>362</v>
       </c>
-      <c r="J22" s="17">
+      <c r="J22" s="19">
         <v>2</v>
       </c>
-      <c r="K22" s="14" t="s">
+      <c r="K22" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="L22" s="15">
+      <c r="L22" s="11">
         <v>16</v>
       </c>
       <c r="M22" s="21"/>
-      <c r="N22" s="11" t="s">
+      <c r="N22" s="17" t="s">
         <v>371</v>
       </c>
-      <c r="O22" s="12">
+      <c r="O22" s="18">
         <v>3</v>
       </c>
-      <c r="P22" s="9" t="s">
+      <c r="P22" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="Q22" s="10">
+      <c r="Q22" s="9">
         <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="21"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="14" t="s">
+      <c r="B23" s="14"/>
+      <c r="C23" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="D23" s="15">
+      <c r="D23" s="11">
         <v>21</v>
       </c>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
       <c r="H23" s="21"/>
       <c r="I23" s="16"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="14" t="s">
+      <c r="J23" s="19"/>
+      <c r="K23" s="10" t="s">
         <v>332</v>
       </c>
-      <c r="L23" s="15">
+      <c r="L23" s="11">
         <v>8</v>
       </c>
       <c r="M23" s="21"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="9" t="s">
+      <c r="N23" s="17"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="Q23" s="10">
+      <c r="Q23" s="9">
         <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="21"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="14" t="s">
+      <c r="B24" s="14"/>
+      <c r="C24" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="D24" s="15">
+      <c r="D24" s="11">
         <v>30</v>
       </c>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
       <c r="H24" s="21"/>
       <c r="I24" s="16"/>
-      <c r="J24" s="17">
+      <c r="J24" s="19">
         <v>1</v>
       </c>
-      <c r="K24" s="14" t="s">
+      <c r="K24" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="L24" s="15">
+      <c r="L24" s="11">
         <v>7</v>
       </c>
       <c r="M24" s="21"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="12">
+      <c r="N24" s="17"/>
+      <c r="O24" s="18">
         <v>3</v>
       </c>
-      <c r="P24" s="9" t="s">
+      <c r="P24" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="Q24" s="10">
+      <c r="Q24" s="9">
         <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="21"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="14" t="s">
+      <c r="B25" s="14"/>
+      <c r="C25" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="D25" s="15">
+      <c r="D25" s="11">
         <v>30</v>
       </c>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
       <c r="H25" s="21"/>
       <c r="I25" s="16"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="14" t="s">
+      <c r="J25" s="19"/>
+      <c r="K25" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="L25" s="15">
+      <c r="L25" s="11">
         <v>11</v>
       </c>
       <c r="M25" s="21"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="12"/>
-      <c r="P25" s="18" t="s">
+      <c r="N25" s="17"/>
+      <c r="O25" s="18"/>
+      <c r="P25" s="12" t="s">
         <v>292</v>
       </c>
-      <c r="Q25" s="10">
+      <c r="Q25" s="9">
         <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="21"/>
-      <c r="B26" s="8">
+      <c r="B26" s="15">
         <v>0.4375</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="9">
         <v>39</v>
       </c>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
       <c r="H26" s="21"/>
-      <c r="I26" s="11" t="s">
+      <c r="I26" s="17" t="s">
         <v>363</v>
       </c>
-      <c r="J26" s="12">
+      <c r="J26" s="18">
         <v>4</v>
       </c>
-      <c r="K26" s="9" t="s">
+      <c r="K26" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="L26" s="10">
+      <c r="L26" s="9">
         <v>24</v>
       </c>
       <c r="M26" s="21"/>
       <c r="N26" s="16" t="s">
         <v>373</v>
       </c>
-      <c r="O26" s="17">
+      <c r="O26" s="19">
         <v>1</v>
       </c>
-      <c r="P26" s="14" t="s">
+      <c r="P26" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="Q26" s="15">
+      <c r="Q26" s="11">
         <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="21"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="9" t="s">
+      <c r="B27" s="15"/>
+      <c r="C27" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27" s="9">
         <v>35</v>
       </c>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
       <c r="H27" s="21"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="9" t="s">
+      <c r="I27" s="17"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="L27" s="10">
+      <c r="L27" s="9">
         <v>21</v>
       </c>
       <c r="M27" s="21"/>
       <c r="N27" s="16"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="14" t="s">
+      <c r="O27" s="19"/>
+      <c r="P27" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="Q27" s="15">
+      <c r="Q27" s="11">
         <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="21"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="9" t="s">
+      <c r="B28" s="15"/>
+      <c r="C28" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D28" s="9">
         <v>17</v>
       </c>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
       <c r="H28" s="21"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="12">
+      <c r="I28" s="17"/>
+      <c r="J28" s="18">
         <v>3</v>
       </c>
-      <c r="K28" s="9" t="s">
+      <c r="K28" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="L28" s="10">
+      <c r="L28" s="9">
         <v>13</v>
       </c>
       <c r="M28" s="21"/>
       <c r="N28" s="16"/>
-      <c r="O28" s="17">
+      <c r="O28" s="19">
         <v>2</v>
       </c>
-      <c r="P28" s="14" t="s">
+      <c r="P28" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="Q28" s="15">
+      <c r="Q28" s="11">
         <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="21"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="9" t="s">
+      <c r="B29" s="15"/>
+      <c r="C29" s="8" t="s">
         <v>397</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D29" s="9">
         <v>45</v>
       </c>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
       <c r="H29" s="21"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="9" t="s">
+      <c r="I29" s="17"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="L29" s="10">
+      <c r="L29" s="9">
         <v>23</v>
       </c>
       <c r="M29" s="21"/>
       <c r="N29" s="16"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="14" t="s">
+      <c r="O29" s="19"/>
+      <c r="P29" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="Q29" s="15">
+      <c r="Q29" s="11">
         <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="21"/>
-      <c r="B30" s="13">
+      <c r="B30" s="14">
         <v>0.44375000000000003</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="D30" s="15">
+      <c r="D30" s="11">
         <v>15</v>
       </c>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
       <c r="H30" s="21"/>
       <c r="I30" s="16" t="s">
         <v>364</v>
       </c>
-      <c r="J30" s="17">
+      <c r="J30" s="19">
         <v>1</v>
       </c>
-      <c r="K30" s="14" t="s">
+      <c r="K30" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="L30" s="15">
+      <c r="L30" s="11">
         <v>4</v>
       </c>
       <c r="M30" s="21"/>
-      <c r="N30" s="11" t="s">
+      <c r="N30" s="17" t="s">
         <v>374</v>
       </c>
-      <c r="O30" s="12">
+      <c r="O30" s="18">
         <v>2</v>
       </c>
-      <c r="P30" s="9" t="s">
+      <c r="P30" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="Q30" s="10">
+      <c r="Q30" s="9">
         <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="21"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="14" t="s">
+      <c r="B31" s="14"/>
+      <c r="C31" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="D31" s="15">
+      <c r="D31" s="11">
         <v>11</v>
       </c>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
       <c r="H31" s="21"/>
       <c r="I31" s="16"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="14" t="s">
+      <c r="J31" s="19"/>
+      <c r="K31" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="L31" s="15">
+      <c r="L31" s="11">
         <v>6</v>
       </c>
       <c r="M31" s="21"/>
-      <c r="N31" s="11"/>
-      <c r="O31" s="12"/>
-      <c r="P31" s="9" t="s">
+      <c r="N31" s="17"/>
+      <c r="O31" s="18"/>
+      <c r="P31" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="Q31" s="10">
+      <c r="Q31" s="9">
         <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="21"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="14" t="s">
+      <c r="B32" s="14"/>
+      <c r="C32" s="10" t="s">
         <v>390</v>
       </c>
-      <c r="D32" s="15">
+      <c r="D32" s="11">
         <v>9</v>
       </c>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
       <c r="H32" s="21"/>
       <c r="I32" s="16"/>
-      <c r="J32" s="17">
+      <c r="J32" s="19">
         <v>3</v>
       </c>
-      <c r="K32" s="14" t="s">
+      <c r="K32" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="L32" s="15">
+      <c r="L32" s="11">
         <v>21</v>
       </c>
       <c r="M32" s="21"/>
-      <c r="N32" s="11"/>
-      <c r="O32" s="12">
+      <c r="N32" s="17"/>
+      <c r="O32" s="18">
         <v>4</v>
       </c>
-      <c r="P32" s="9" t="s">
+      <c r="P32" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="Q32" s="10">
+      <c r="Q32" s="9">
         <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="21"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="14" t="s">
+      <c r="B33" s="14"/>
+      <c r="C33" s="10" t="s">
         <v>391</v>
       </c>
-      <c r="D33" s="15">
+      <c r="D33" s="11">
         <v>7</v>
       </c>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
       <c r="H33" s="21"/>
       <c r="I33" s="16"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="14" t="s">
+      <c r="J33" s="19"/>
+      <c r="K33" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="L33" s="15">
+      <c r="L33" s="11">
         <v>11</v>
       </c>
       <c r="M33" s="21"/>
-      <c r="N33" s="11"/>
-      <c r="O33" s="12"/>
-      <c r="P33" s="18" t="s">
+      <c r="N33" s="17"/>
+      <c r="O33" s="18"/>
+      <c r="P33" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="Q33" s="10">
+      <c r="Q33" s="9">
         <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="21"/>
-      <c r="B34" s="8">
+      <c r="B34" s="15">
         <v>0.45</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="D34" s="10">
+      <c r="D34" s="9">
         <v>18</v>
       </c>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
       <c r="H34" s="21"/>
-      <c r="I34" s="11" t="s">
+      <c r="I34" s="17" t="s">
         <v>365</v>
       </c>
-      <c r="J34" s="12">
+      <c r="J34" s="18">
         <v>2</v>
       </c>
-      <c r="K34" s="9" t="s">
+      <c r="K34" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="L34" s="10">
+      <c r="L34" s="9">
         <v>13</v>
       </c>
       <c r="M34" s="21"/>
       <c r="N34" s="16" t="s">
         <v>375</v>
       </c>
-      <c r="O34" s="17">
+      <c r="O34" s="19">
         <v>1</v>
       </c>
-      <c r="P34" s="14" t="s">
+      <c r="P34" s="10" t="s">
         <v>390</v>
       </c>
-      <c r="Q34" s="15">
+      <c r="Q34" s="11">
         <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="21"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="9" t="s">
+      <c r="B35" s="15"/>
+      <c r="C35" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="D35" s="10">
+      <c r="D35" s="9">
         <v>31</v>
       </c>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
       <c r="H35" s="21"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="9" t="s">
+      <c r="I35" s="17"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="L35" s="10">
+      <c r="L35" s="9">
         <v>14</v>
       </c>
       <c r="M35" s="21"/>
       <c r="N35" s="16"/>
-      <c r="O35" s="17"/>
-      <c r="P35" s="14" t="s">
+      <c r="O35" s="19"/>
+      <c r="P35" s="10" t="s">
         <v>391</v>
       </c>
-      <c r="Q35" s="15">
+      <c r="Q35" s="11">
         <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="21"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="9" t="s">
+      <c r="B36" s="15"/>
+      <c r="C36" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="D36" s="10">
+      <c r="D36" s="9">
         <v>20</v>
       </c>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
       <c r="H36" s="21"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="12">
+      <c r="I36" s="17"/>
+      <c r="J36" s="18">
         <v>2</v>
       </c>
-      <c r="K36" s="9" t="s">
+      <c r="K36" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="L36" s="10">
+      <c r="L36" s="9">
         <v>15</v>
       </c>
       <c r="M36" s="21"/>
       <c r="N36" s="16"/>
-      <c r="O36" s="17">
+      <c r="O36" s="19">
         <v>1</v>
       </c>
-      <c r="P36" s="14" t="s">
+      <c r="P36" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="Q36" s="15">
+      <c r="Q36" s="11">
         <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="21"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="9" t="s">
+      <c r="B37" s="15"/>
+      <c r="C37" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="D37" s="10">
+      <c r="D37" s="9">
         <v>9</v>
       </c>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
       <c r="H37" s="21"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="9" t="s">
+      <c r="I37" s="17"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="L37" s="10">
+      <c r="L37" s="9">
         <v>8</v>
       </c>
       <c r="M37" s="21"/>
       <c r="N37" s="16"/>
-      <c r="O37" s="17"/>
-      <c r="P37" s="19" t="s">
+      <c r="O37" s="19"/>
+      <c r="P37" s="13" t="s">
         <v>393</v>
       </c>
-      <c r="Q37" s="15">
+      <c r="Q37" s="11">
         <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="21"/>
-      <c r="B38" s="13">
+      <c r="B38" s="14">
         <v>0.45624999999999999</v>
       </c>
-      <c r="C38" s="14" t="s">
+      <c r="C38" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="D38" s="15">
+      <c r="D38" s="11">
         <v>4</v>
       </c>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
       <c r="H38" s="21"/>
       <c r="I38" s="16">
         <v>7</v>
       </c>
-      <c r="J38" s="17">
+      <c r="J38" s="19">
         <v>4</v>
       </c>
-      <c r="K38" s="14" t="s">
+      <c r="K38" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="L38" s="15">
+      <c r="L38" s="11">
         <v>30</v>
       </c>
       <c r="M38" s="21"/>
-      <c r="N38" s="11" t="s">
+      <c r="N38" s="17" t="s">
         <v>376</v>
       </c>
-      <c r="O38" s="12">
+      <c r="O38" s="18">
         <v>4</v>
       </c>
-      <c r="P38" s="9" t="s">
+      <c r="P38" s="8" t="s">
         <v>337</v>
       </c>
-      <c r="Q38" s="10">
+      <c r="Q38" s="9">
         <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="21"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="14" t="s">
+      <c r="B39" s="14"/>
+      <c r="C39" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="D39" s="15">
+      <c r="D39" s="11">
         <v>6</v>
       </c>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
       <c r="H39" s="21"/>
       <c r="I39" s="16"/>
-      <c r="J39" s="17"/>
-      <c r="K39" s="14" t="s">
+      <c r="J39" s="19"/>
+      <c r="K39" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="L39" s="15">
+      <c r="L39" s="11">
         <v>30</v>
       </c>
       <c r="M39" s="21"/>
-      <c r="N39" s="11"/>
-      <c r="O39" s="12"/>
-      <c r="P39" s="9" t="s">
+      <c r="N39" s="17"/>
+      <c r="O39" s="18"/>
+      <c r="P39" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="Q39" s="10">
+      <c r="Q39" s="9">
         <v>23</v>
       </c>
     </row>
     <row r="40" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="21"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="14" t="s">
+      <c r="B40" s="14"/>
+      <c r="C40" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="D40" s="15">
+      <c r="D40" s="11">
         <v>11</v>
       </c>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
       <c r="H40" s="21"/>
       <c r="I40" s="16"/>
-      <c r="J40" s="17">
+      <c r="J40" s="19">
         <v>3</v>
       </c>
-      <c r="K40" s="14" t="s">
+      <c r="K40" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="L40" s="15">
+      <c r="L40" s="11">
         <v>11</v>
       </c>
       <c r="M40" s="21"/>
-      <c r="N40" s="11"/>
-      <c r="O40" s="12">
+      <c r="N40" s="17"/>
+      <c r="O40" s="18">
         <v>3</v>
       </c>
-      <c r="P40" s="9" t="s">
+      <c r="P40" s="8" t="s">
         <v>339</v>
       </c>
-      <c r="Q40" s="10">
+      <c r="Q40" s="9">
         <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="21"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="14" t="s">
+      <c r="B41" s="14"/>
+      <c r="C41" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="D41" s="15">
+      <c r="D41" s="11">
         <v>5</v>
       </c>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
       <c r="H41" s="21"/>
       <c r="I41" s="16"/>
-      <c r="J41" s="17"/>
-      <c r="K41" s="14" t="s">
+      <c r="J41" s="19"/>
+      <c r="K41" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="L41" s="15">
+      <c r="L41" s="11">
         <v>28</v>
       </c>
       <c r="M41" s="21"/>
-      <c r="N41" s="11"/>
-      <c r="O41" s="12"/>
-      <c r="P41" s="18" t="s">
+      <c r="N41" s="17"/>
+      <c r="O41" s="18"/>
+      <c r="P41" s="12" t="s">
         <v>340</v>
       </c>
-      <c r="Q41" s="10">
+      <c r="Q41" s="9">
         <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="21"/>
-      <c r="B42" s="8">
+      <c r="B42" s="15">
         <v>0.46249999999999997</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="C42" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="D42" s="10">
+      <c r="D42" s="9">
         <v>19</v>
       </c>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
       <c r="H42" s="21"/>
-      <c r="I42" s="11" t="s">
+      <c r="I42" s="17" t="s">
         <v>366</v>
       </c>
-      <c r="J42" s="12">
+      <c r="J42" s="18">
         <v>4</v>
       </c>
-      <c r="K42" s="9" t="s">
+      <c r="K42" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="L42" s="10">
+      <c r="L42" s="9">
         <v>34</v>
       </c>
       <c r="M42" s="21"/>
       <c r="N42" s="16" t="s">
         <v>389</v>
       </c>
-      <c r="O42" s="17">
+      <c r="O42" s="19">
         <v>4</v>
       </c>
-      <c r="P42" s="14" t="s">
+      <c r="P42" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="Q42" s="15">
+      <c r="Q42" s="11">
         <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="21"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="9" t="s">
+      <c r="B43" s="15"/>
+      <c r="C43" s="8" t="s">
         <v>348</v>
       </c>
-      <c r="D43" s="10">
+      <c r="D43" s="9">
         <v>35</v>
       </c>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
       <c r="H43" s="21"/>
-      <c r="I43" s="11"/>
-      <c r="J43" s="12"/>
-      <c r="K43" s="9" t="s">
+      <c r="I43" s="17"/>
+      <c r="J43" s="18"/>
+      <c r="K43" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="L43" s="10">
+      <c r="L43" s="9">
         <v>17</v>
       </c>
       <c r="M43" s="21"/>
       <c r="N43" s="16"/>
-      <c r="O43" s="17"/>
-      <c r="P43" s="14" t="s">
+      <c r="O43" s="19"/>
+      <c r="P43" s="10" t="s">
         <v>281</v>
       </c>
-      <c r="Q43" s="15">
+      <c r="Q43" s="11">
         <v>35</v>
       </c>
     </row>
     <row r="44" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="21"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="9" t="s">
+      <c r="B44" s="15"/>
+      <c r="C44" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="D44" s="10">
+      <c r="D44" s="9">
         <v>13</v>
       </c>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
       <c r="H44" s="21"/>
-      <c r="I44" s="11"/>
-      <c r="J44" s="12">
+      <c r="I44" s="17"/>
+      <c r="J44" s="18">
         <v>1</v>
       </c>
-      <c r="K44" s="9" t="s">
+      <c r="K44" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="L44" s="10">
+      <c r="L44" s="9">
         <v>10</v>
       </c>
       <c r="M44" s="21"/>
       <c r="N44" s="16"/>
-      <c r="O44" s="17">
+      <c r="O44" s="19">
         <v>4</v>
       </c>
-      <c r="P44" s="14" t="s">
+      <c r="P44" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="Q44" s="15">
+      <c r="Q44" s="11">
         <v>39</v>
       </c>
     </row>
     <row r="45" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="22"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="9" t="s">
+      <c r="B45" s="15"/>
+      <c r="C45" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="D45" s="10">
+      <c r="D45" s="9">
         <v>23</v>
       </c>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
       <c r="H45" s="22"/>
-      <c r="I45" s="11"/>
-      <c r="J45" s="12"/>
-      <c r="K45" s="9" t="s">
+      <c r="I45" s="17"/>
+      <c r="J45" s="18"/>
+      <c r="K45" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="L45" s="10">
+      <c r="L45" s="9">
         <v>7</v>
       </c>
       <c r="M45" s="22"/>
       <c r="N45" s="16"/>
-      <c r="O45" s="17"/>
-      <c r="P45" s="19" t="s">
+      <c r="O45" s="19"/>
+      <c r="P45" s="13" t="s">
         <v>280</v>
       </c>
-      <c r="Q45" s="15">
+      <c r="Q45" s="11">
         <v>35</v>
       </c>
     </row>
@@ -4873,19 +4873,19 @@
         <v>352</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D46" s="7" t="s">
         <v>257</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="H46" s="20"/>
       <c r="I46" s="7" t="s">
@@ -4895,7 +4895,7 @@
         <v>142</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="L46" s="7" t="s">
         <v>257</v>
@@ -4908,7 +4908,7 @@
         <v>142</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="Q46" s="7" t="s">
         <v>257</v>
@@ -4916,1471 +4916,1471 @@
     </row>
     <row r="47" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="21"/>
-      <c r="B47" s="13">
+      <c r="B47" s="14">
         <v>0.46875</v>
       </c>
-      <c r="C47" s="14" t="s">
+      <c r="C47" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="D47" s="15">
+      <c r="D47" s="11">
         <v>14</v>
       </c>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="14"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
       <c r="H47" s="21"/>
-      <c r="I47" s="11" t="s">
+      <c r="I47" s="17" t="s">
         <v>358</v>
       </c>
-      <c r="J47" s="12">
+      <c r="J47" s="18">
         <v>1</v>
       </c>
-      <c r="K47" s="9" t="s">
+      <c r="K47" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="L47" s="10">
+      <c r="L47" s="9">
         <v>8</v>
       </c>
       <c r="M47" s="21"/>
       <c r="N47" s="16" t="s">
         <v>366</v>
       </c>
-      <c r="O47" s="17">
+      <c r="O47" s="19">
         <v>2</v>
       </c>
-      <c r="P47" s="14" t="s">
+      <c r="P47" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="Q47" s="15">
+      <c r="Q47" s="11">
         <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="21"/>
-      <c r="B48" s="13"/>
-      <c r="C48" s="14" t="s">
+      <c r="B48" s="14"/>
+      <c r="C48" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="D48" s="15">
+      <c r="D48" s="11">
         <v>16</v>
       </c>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="14"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
       <c r="H48" s="21"/>
-      <c r="I48" s="11"/>
-      <c r="J48" s="12"/>
-      <c r="K48" s="9" t="s">
+      <c r="I48" s="17"/>
+      <c r="J48" s="18"/>
+      <c r="K48" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="L48" s="10">
+      <c r="L48" s="9">
         <v>2</v>
       </c>
       <c r="M48" s="21"/>
       <c r="N48" s="16"/>
-      <c r="O48" s="17"/>
-      <c r="P48" s="14" t="s">
+      <c r="O48" s="19"/>
+      <c r="P48" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="Q48" s="15">
+      <c r="Q48" s="11">
         <v>11</v>
       </c>
     </row>
     <row r="49" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="21"/>
-      <c r="B49" s="13"/>
-      <c r="C49" s="14" t="s">
+      <c r="B49" s="14"/>
+      <c r="C49" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="D49" s="15">
+      <c r="D49" s="11">
         <v>21</v>
       </c>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
       <c r="H49" s="21"/>
-      <c r="I49" s="11"/>
-      <c r="J49" s="12">
+      <c r="I49" s="17"/>
+      <c r="J49" s="18">
         <v>1</v>
       </c>
-      <c r="K49" s="9" t="s">
+      <c r="K49" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="L49" s="10">
+      <c r="L49" s="9">
         <v>3</v>
       </c>
       <c r="M49" s="21"/>
       <c r="N49" s="16"/>
-      <c r="O49" s="17">
+      <c r="O49" s="19">
         <v>1</v>
       </c>
-      <c r="P49" s="14" t="s">
+      <c r="P49" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="Q49" s="15">
+      <c r="Q49" s="11">
         <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="21"/>
-      <c r="B50" s="13"/>
-      <c r="C50" s="14" t="s">
+      <c r="B50" s="14"/>
+      <c r="C50" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="D50" s="15">
+      <c r="D50" s="11">
         <v>11</v>
       </c>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
       <c r="H50" s="21"/>
-      <c r="I50" s="11"/>
-      <c r="J50" s="12"/>
-      <c r="K50" s="9" t="s">
+      <c r="I50" s="17"/>
+      <c r="J50" s="18"/>
+      <c r="K50" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="L50" s="10">
+      <c r="L50" s="9">
         <v>5</v>
       </c>
       <c r="M50" s="21"/>
       <c r="N50" s="16"/>
-      <c r="O50" s="17"/>
-      <c r="P50" s="14" t="s">
+      <c r="O50" s="19"/>
+      <c r="P50" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="Q50" s="15">
+      <c r="Q50" s="11">
         <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="21"/>
-      <c r="B51" s="8">
+      <c r="B51" s="15">
         <v>0.47500000000000003</v>
       </c>
-      <c r="C51" s="9" t="s">
+      <c r="C51" s="8" t="s">
         <v>326</v>
       </c>
-      <c r="D51" s="10">
+      <c r="D51" s="9">
         <v>9</v>
       </c>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
       <c r="H51" s="21"/>
       <c r="I51" s="16" t="s">
         <v>359</v>
       </c>
-      <c r="J51" s="17">
+      <c r="J51" s="19">
         <v>1</v>
       </c>
-      <c r="K51" s="14" t="s">
+      <c r="K51" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="L51" s="15">
+      <c r="L51" s="11">
         <v>12</v>
       </c>
       <c r="M51" s="21"/>
-      <c r="N51" s="11" t="s">
+      <c r="N51" s="17" t="s">
         <v>367</v>
       </c>
-      <c r="O51" s="12">
+      <c r="O51" s="18">
         <v>4</v>
       </c>
-      <c r="P51" s="9" t="s">
+      <c r="P51" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="Q51" s="10">
+      <c r="Q51" s="9">
         <v>23</v>
       </c>
     </row>
     <row r="52" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="21"/>
-      <c r="B52" s="8"/>
-      <c r="C52" s="9" t="s">
+      <c r="B52" s="15"/>
+      <c r="C52" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="D52" s="10">
+      <c r="D52" s="9">
         <v>15</v>
       </c>
-      <c r="E52" s="9"/>
-      <c r="F52" s="9"/>
-      <c r="G52" s="9"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
       <c r="H52" s="21"/>
       <c r="I52" s="16"/>
-      <c r="J52" s="17"/>
-      <c r="K52" s="14" t="s">
+      <c r="J52" s="19"/>
+      <c r="K52" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="L52" s="15">
+      <c r="L52" s="11">
         <v>4</v>
       </c>
       <c r="M52" s="21"/>
-      <c r="N52" s="11"/>
-      <c r="O52" s="12"/>
-      <c r="P52" s="9" t="s">
+      <c r="N52" s="17"/>
+      <c r="O52" s="18"/>
+      <c r="P52" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="Q52" s="10">
+      <c r="Q52" s="9">
         <v>19</v>
       </c>
     </row>
     <row r="53" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="21"/>
-      <c r="B53" s="8"/>
-      <c r="C53" s="9" t="s">
+      <c r="B53" s="15"/>
+      <c r="C53" s="8" t="s">
         <v>317</v>
       </c>
-      <c r="D53" s="10">
+      <c r="D53" s="9">
         <v>27</v>
       </c>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
       <c r="H53" s="21"/>
       <c r="I53" s="16"/>
-      <c r="J53" s="17">
+      <c r="J53" s="19">
         <v>4</v>
       </c>
-      <c r="K53" s="14" t="s">
+      <c r="K53" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="L53" s="15">
+      <c r="L53" s="11">
         <v>23</v>
       </c>
       <c r="M53" s="21"/>
-      <c r="N53" s="11"/>
-      <c r="O53" s="12">
+      <c r="N53" s="17"/>
+      <c r="O53" s="18">
         <v>4</v>
       </c>
-      <c r="P53" s="9" t="s">
+      <c r="P53" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="Q53" s="10">
+      <c r="Q53" s="9">
         <v>32</v>
       </c>
     </row>
     <row r="54" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="21"/>
-      <c r="B54" s="8"/>
-      <c r="C54" s="9" t="s">
+      <c r="B54" s="15"/>
+      <c r="C54" s="8" t="s">
         <v>318</v>
       </c>
-      <c r="D54" s="10">
+      <c r="D54" s="9">
         <v>14</v>
       </c>
-      <c r="E54" s="9"/>
-      <c r="F54" s="9"/>
-      <c r="G54" s="9"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
       <c r="H54" s="21"/>
       <c r="I54" s="16"/>
-      <c r="J54" s="17"/>
-      <c r="K54" s="14" t="s">
+      <c r="J54" s="19"/>
+      <c r="K54" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="L54" s="15">
+      <c r="L54" s="11">
         <v>20</v>
       </c>
       <c r="M54" s="21"/>
-      <c r="N54" s="11"/>
-      <c r="O54" s="12"/>
-      <c r="P54" s="9" t="s">
+      <c r="N54" s="17"/>
+      <c r="O54" s="18"/>
+      <c r="P54" s="8" t="s">
         <v>351</v>
       </c>
-      <c r="Q54" s="10">
+      <c r="Q54" s="9">
         <v>19</v>
       </c>
     </row>
     <row r="55" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="21"/>
-      <c r="B55" s="13">
+      <c r="B55" s="14">
         <v>0.48125000000000001</v>
       </c>
-      <c r="C55" s="14" t="s">
+      <c r="C55" s="10" t="s">
         <v>338</v>
       </c>
-      <c r="D55" s="15">
+      <c r="D55" s="11">
         <v>23</v>
       </c>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="14"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
       <c r="H55" s="21"/>
-      <c r="I55" s="11" t="s">
+      <c r="I55" s="17" t="s">
         <v>381</v>
       </c>
-      <c r="J55" s="12">
+      <c r="J55" s="18">
         <v>2</v>
       </c>
-      <c r="K55" s="9" t="s">
+      <c r="K55" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="L55" s="10">
+      <c r="L55" s="9">
         <v>11</v>
       </c>
       <c r="M55" s="21"/>
       <c r="N55" s="16">
         <v>5</v>
       </c>
-      <c r="O55" s="17">
+      <c r="O55" s="19">
         <v>2</v>
       </c>
-      <c r="P55" s="14" t="s">
+      <c r="P55" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="Q55" s="15">
+      <c r="Q55" s="11">
         <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="21"/>
-      <c r="B56" s="13"/>
-      <c r="C56" s="14" t="s">
+      <c r="B56" s="14"/>
+      <c r="C56" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="D56" s="15">
+      <c r="D56" s="11">
         <v>28</v>
       </c>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c r="G56" s="14"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
       <c r="H56" s="21"/>
-      <c r="I56" s="11"/>
-      <c r="J56" s="12"/>
-      <c r="K56" s="9" t="s">
+      <c r="I56" s="17"/>
+      <c r="J56" s="18"/>
+      <c r="K56" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="L56" s="10">
+      <c r="L56" s="9">
         <v>7</v>
       </c>
       <c r="M56" s="21"/>
       <c r="N56" s="16"/>
-      <c r="O56" s="17"/>
-      <c r="P56" s="14" t="s">
+      <c r="O56" s="19"/>
+      <c r="P56" s="10" t="s">
         <v>328</v>
       </c>
-      <c r="Q56" s="15">
+      <c r="Q56" s="11">
         <v>15</v>
       </c>
     </row>
     <row r="57" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="21"/>
-      <c r="B57" s="13"/>
-      <c r="C57" s="14" t="s">
+      <c r="B57" s="14"/>
+      <c r="C57" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="D57" s="15">
+      <c r="D57" s="11">
         <v>18</v>
       </c>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c r="G57" s="14"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
       <c r="H57" s="21"/>
-      <c r="I57" s="11"/>
-      <c r="J57" s="12">
+      <c r="I57" s="17"/>
+      <c r="J57" s="18">
         <v>2</v>
       </c>
-      <c r="K57" s="9" t="s">
+      <c r="K57" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="L57" s="10">
+      <c r="L57" s="9">
         <v>7</v>
       </c>
       <c r="M57" s="21"/>
       <c r="N57" s="16"/>
-      <c r="O57" s="17">
+      <c r="O57" s="19">
         <v>2</v>
       </c>
-      <c r="P57" s="14" t="s">
+      <c r="P57" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="Q57" s="15">
+      <c r="Q57" s="11">
         <v>11</v>
       </c>
     </row>
     <row r="58" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="21"/>
-      <c r="B58" s="13"/>
-      <c r="C58" s="14" t="s">
+      <c r="B58" s="14"/>
+      <c r="C58" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="D58" s="15">
+      <c r="D58" s="11">
         <v>16</v>
       </c>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-      <c r="G58" s="14"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
       <c r="H58" s="21"/>
-      <c r="I58" s="11"/>
-      <c r="J58" s="12"/>
-      <c r="K58" s="9" t="s">
+      <c r="I58" s="17"/>
+      <c r="J58" s="18"/>
+      <c r="K58" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="L58" s="10">
+      <c r="L58" s="9">
         <v>16</v>
       </c>
       <c r="M58" s="21"/>
       <c r="N58" s="16"/>
-      <c r="O58" s="17"/>
-      <c r="P58" s="14" t="s">
+      <c r="O58" s="19"/>
+      <c r="P58" s="10" t="s">
         <v>302</v>
       </c>
-      <c r="Q58" s="15">
+      <c r="Q58" s="11">
         <v>15</v>
       </c>
     </row>
     <row r="59" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="21"/>
-      <c r="B59" s="8">
+      <c r="B59" s="15">
         <v>0.48749999999999999</v>
       </c>
-      <c r="C59" s="9" t="s">
+      <c r="C59" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="D59" s="10">
+      <c r="D59" s="9">
         <v>5</v>
       </c>
-      <c r="E59" s="9"/>
-      <c r="F59" s="9"/>
-      <c r="G59" s="9"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
       <c r="H59" s="21"/>
       <c r="I59" s="16" t="s">
         <v>380</v>
       </c>
-      <c r="J59" s="17">
+      <c r="J59" s="19">
         <v>2</v>
       </c>
-      <c r="K59" s="14" t="s">
+      <c r="K59" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="L59" s="15">
+      <c r="L59" s="11">
         <v>13</v>
       </c>
       <c r="M59" s="21"/>
-      <c r="N59" s="11" t="s">
+      <c r="N59" s="17" t="s">
         <v>372</v>
       </c>
-      <c r="O59" s="12">
+      <c r="O59" s="18">
         <v>3</v>
       </c>
-      <c r="P59" s="9" t="s">
+      <c r="P59" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="Q59" s="10">
+      <c r="Q59" s="9">
         <v>18</v>
       </c>
     </row>
     <row r="60" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="21"/>
-      <c r="B60" s="8"/>
-      <c r="C60" s="9" t="s">
+      <c r="B60" s="15"/>
+      <c r="C60" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="D60" s="10">
+      <c r="D60" s="9">
         <v>10</v>
       </c>
-      <c r="E60" s="9"/>
-      <c r="F60" s="9"/>
-      <c r="G60" s="9"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
       <c r="H60" s="21"/>
       <c r="I60" s="16"/>
-      <c r="J60" s="17"/>
-      <c r="K60" s="14" t="s">
+      <c r="J60" s="19"/>
+      <c r="K60" s="10" t="s">
         <v>295</v>
       </c>
-      <c r="L60" s="15">
+      <c r="L60" s="11">
         <v>14</v>
       </c>
       <c r="M60" s="21"/>
-      <c r="N60" s="11"/>
-      <c r="O60" s="12"/>
-      <c r="P60" s="9" t="s">
+      <c r="N60" s="17"/>
+      <c r="O60" s="18"/>
+      <c r="P60" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="Q60" s="10">
+      <c r="Q60" s="9">
         <v>15</v>
       </c>
     </row>
     <row r="61" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="21"/>
-      <c r="B61" s="8"/>
-      <c r="C61" s="9" t="s">
+      <c r="B61" s="15"/>
+      <c r="C61" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="D61" s="10">
+      <c r="D61" s="9">
         <v>8</v>
       </c>
-      <c r="E61" s="9"/>
-      <c r="F61" s="9"/>
-      <c r="G61" s="9"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
       <c r="H61" s="21"/>
       <c r="I61" s="16"/>
-      <c r="J61" s="17">
+      <c r="J61" s="19">
         <v>1</v>
       </c>
-      <c r="K61" s="14" t="s">
+      <c r="K61" s="10" t="s">
         <v>305</v>
       </c>
-      <c r="L61" s="15">
+      <c r="L61" s="11">
         <v>2</v>
       </c>
       <c r="M61" s="21"/>
-      <c r="N61" s="11"/>
-      <c r="O61" s="12">
+      <c r="N61" s="17"/>
+      <c r="O61" s="18">
         <v>2</v>
       </c>
-      <c r="P61" s="9" t="s">
+      <c r="P61" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="Q61" s="10">
+      <c r="Q61" s="9">
         <v>15</v>
       </c>
     </row>
     <row r="62" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="21"/>
-      <c r="B62" s="8"/>
-      <c r="C62" s="9" t="s">
+      <c r="B62" s="15"/>
+      <c r="C62" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="D62" s="10">
+      <c r="D62" s="9">
         <v>7</v>
       </c>
-      <c r="E62" s="9"/>
-      <c r="F62" s="9"/>
-      <c r="G62" s="9"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
       <c r="H62" s="21"/>
       <c r="I62" s="16"/>
-      <c r="J62" s="17"/>
-      <c r="K62" s="14" t="s">
+      <c r="J62" s="19"/>
+      <c r="K62" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="L62" s="15">
+      <c r="L62" s="11">
         <v>4</v>
       </c>
       <c r="M62" s="21"/>
-      <c r="N62" s="11"/>
-      <c r="O62" s="12"/>
-      <c r="P62" s="9" t="s">
+      <c r="N62" s="17"/>
+      <c r="O62" s="18"/>
+      <c r="P62" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="Q62" s="10">
+      <c r="Q62" s="9">
         <v>8</v>
       </c>
     </row>
     <row r="63" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="21"/>
-      <c r="B63" s="13">
+      <c r="B63" s="14">
         <v>0.49374999999999997</v>
       </c>
-      <c r="C63" s="14" t="s">
+      <c r="C63" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="D63" s="15">
+      <c r="D63" s="11">
         <v>11</v>
       </c>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c r="G63" s="14"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="10"/>
       <c r="H63" s="21"/>
-      <c r="I63" s="11" t="s">
+      <c r="I63" s="17" t="s">
         <v>360</v>
       </c>
-      <c r="J63" s="12">
+      <c r="J63" s="18">
         <v>2</v>
       </c>
-      <c r="K63" s="9" t="s">
+      <c r="K63" s="8" t="s">
         <v>329</v>
       </c>
-      <c r="L63" s="10">
+      <c r="L63" s="9">
         <v>16</v>
       </c>
       <c r="M63" s="21"/>
       <c r="N63" s="16" t="s">
         <v>377</v>
       </c>
-      <c r="O63" s="17">
+      <c r="O63" s="19">
         <v>4</v>
       </c>
-      <c r="P63" s="14" t="s">
+      <c r="P63" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="Q63" s="15">
+      <c r="Q63" s="11">
         <v>28</v>
       </c>
     </row>
     <row r="64" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="21"/>
-      <c r="B64" s="13"/>
-      <c r="C64" s="14" t="s">
+      <c r="B64" s="14"/>
+      <c r="C64" s="10" t="s">
         <v>302</v>
       </c>
-      <c r="D64" s="15">
+      <c r="D64" s="11">
         <v>15</v>
       </c>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-      <c r="G64" s="14"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
       <c r="H64" s="21"/>
-      <c r="I64" s="11"/>
-      <c r="J64" s="12"/>
-      <c r="K64" s="9" t="s">
+      <c r="I64" s="17"/>
+      <c r="J64" s="18"/>
+      <c r="K64" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="L64" s="10">
+      <c r="L64" s="9">
         <v>8</v>
       </c>
       <c r="M64" s="21"/>
       <c r="N64" s="16"/>
-      <c r="O64" s="17"/>
-      <c r="P64" s="14" t="s">
+      <c r="O64" s="19"/>
+      <c r="P64" s="10" t="s">
         <v>338</v>
       </c>
-      <c r="Q64" s="15">
+      <c r="Q64" s="11">
         <v>23</v>
       </c>
     </row>
     <row r="65" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="21"/>
-      <c r="B65" s="13"/>
-      <c r="C65" s="14" t="s">
+      <c r="B65" s="14"/>
+      <c r="C65" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="D65" s="15">
+      <c r="D65" s="11">
         <v>14</v>
       </c>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
-      <c r="G65" s="14"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="10"/>
       <c r="H65" s="21"/>
-      <c r="I65" s="11"/>
-      <c r="J65" s="12">
+      <c r="I65" s="17"/>
+      <c r="J65" s="18">
         <v>2</v>
       </c>
-      <c r="K65" s="9" t="s">
+      <c r="K65" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="L65" s="10">
+      <c r="L65" s="9">
         <v>7</v>
       </c>
       <c r="M65" s="21"/>
       <c r="N65" s="16"/>
-      <c r="O65" s="17">
+      <c r="O65" s="19">
         <v>4</v>
       </c>
-      <c r="P65" s="14" t="s">
+      <c r="P65" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="Q65" s="15">
+      <c r="Q65" s="11">
         <v>23</v>
       </c>
     </row>
     <row r="66" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="21"/>
-      <c r="B66" s="13"/>
-      <c r="C66" s="14" t="s">
+      <c r="B66" s="14"/>
+      <c r="C66" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="D66" s="15">
+      <c r="D66" s="11">
         <v>20</v>
       </c>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
-      <c r="G66" s="14"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="10"/>
+      <c r="G66" s="10"/>
       <c r="H66" s="21"/>
-      <c r="I66" s="11"/>
-      <c r="J66" s="12"/>
-      <c r="K66" s="9" t="s">
+      <c r="I66" s="17"/>
+      <c r="J66" s="18"/>
+      <c r="K66" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="L66" s="10">
+      <c r="L66" s="9">
         <v>12</v>
       </c>
       <c r="M66" s="21"/>
       <c r="N66" s="16"/>
-      <c r="O66" s="17"/>
-      <c r="P66" s="14" t="s">
+      <c r="O66" s="19"/>
+      <c r="P66" s="10" t="s">
         <v>300</v>
       </c>
-      <c r="Q66" s="15">
+      <c r="Q66" s="11">
         <v>30</v>
       </c>
     </row>
     <row r="67" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="21"/>
-      <c r="B67" s="8">
+      <c r="B67" s="15">
         <v>0.5</v>
       </c>
-      <c r="C67" s="9" t="s">
+      <c r="C67" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="D67" s="10">
+      <c r="D67" s="9">
         <v>23</v>
       </c>
-      <c r="E67" s="9"/>
-      <c r="F67" s="9"/>
-      <c r="G67" s="9"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
       <c r="H67" s="21"/>
       <c r="I67" s="16" t="s">
         <v>361</v>
       </c>
-      <c r="J67" s="17">
+      <c r="J67" s="19">
         <v>3</v>
       </c>
-      <c r="K67" s="14" t="s">
+      <c r="K67" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="L67" s="15">
+      <c r="L67" s="11">
         <v>22</v>
       </c>
       <c r="M67" s="21"/>
-      <c r="N67" s="11" t="s">
+      <c r="N67" s="17" t="s">
         <v>370</v>
       </c>
-      <c r="O67" s="12">
+      <c r="O67" s="18">
         <v>3</v>
       </c>
-      <c r="P67" s="9" t="s">
+      <c r="P67" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="Q67" s="10">
+      <c r="Q67" s="9">
         <v>14</v>
       </c>
     </row>
     <row r="68" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="21"/>
-      <c r="B68" s="8"/>
-      <c r="C68" s="9" t="s">
+      <c r="B68" s="15"/>
+      <c r="C68" s="8" t="s">
         <v>300</v>
       </c>
-      <c r="D68" s="10">
+      <c r="D68" s="9">
         <v>30</v>
       </c>
-      <c r="E68" s="9"/>
-      <c r="F68" s="9"/>
-      <c r="G68" s="9"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
       <c r="H68" s="21"/>
       <c r="I68" s="16"/>
-      <c r="J68" s="17"/>
-      <c r="K68" s="14" t="s">
+      <c r="J68" s="19"/>
+      <c r="K68" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="L68" s="15">
+      <c r="L68" s="11">
         <v>10</v>
       </c>
       <c r="M68" s="21"/>
-      <c r="N68" s="11"/>
-      <c r="O68" s="12"/>
-      <c r="P68" s="9" t="s">
+      <c r="N68" s="17"/>
+      <c r="O68" s="18"/>
+      <c r="P68" s="8" t="s">
         <v>327</v>
       </c>
-      <c r="Q68" s="10">
+      <c r="Q68" s="9">
         <v>16</v>
       </c>
     </row>
     <row r="69" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="21"/>
-      <c r="B69" s="8"/>
-      <c r="C69" s="9" t="s">
+      <c r="B69" s="15"/>
+      <c r="C69" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="D69" s="10">
+      <c r="D69" s="9">
         <v>28</v>
       </c>
-      <c r="E69" s="9"/>
-      <c r="F69" s="9"/>
-      <c r="G69" s="9"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
       <c r="H69" s="21"/>
       <c r="I69" s="16"/>
-      <c r="J69" s="17">
+      <c r="J69" s="19">
         <v>1</v>
       </c>
-      <c r="K69" s="14" t="s">
+      <c r="K69" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="L69" s="15">
+      <c r="L69" s="11">
         <v>10</v>
       </c>
       <c r="M69" s="21"/>
-      <c r="N69" s="11"/>
-      <c r="O69" s="12">
+      <c r="N69" s="17"/>
+      <c r="O69" s="18">
         <v>3</v>
       </c>
-      <c r="P69" s="9" t="s">
+      <c r="P69" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="Q69" s="10">
+      <c r="Q69" s="9">
         <v>13</v>
       </c>
     </row>
     <row r="70" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="21"/>
-      <c r="B70" s="8"/>
-      <c r="C70" s="18"/>
-      <c r="D70" s="10"/>
-      <c r="E70" s="9"/>
-      <c r="F70" s="9"/>
-      <c r="G70" s="9"/>
+      <c r="B70" s="15"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
       <c r="H70" s="21"/>
       <c r="I70" s="16"/>
-      <c r="J70" s="17"/>
-      <c r="K70" s="14" t="s">
+      <c r="J70" s="19"/>
+      <c r="K70" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="L70" s="15">
+      <c r="L70" s="11">
         <v>7</v>
       </c>
       <c r="M70" s="21"/>
-      <c r="N70" s="11"/>
-      <c r="O70" s="12"/>
-      <c r="P70" s="18" t="s">
+      <c r="N70" s="17"/>
+      <c r="O70" s="18"/>
+      <c r="P70" s="12" t="s">
         <v>289</v>
       </c>
-      <c r="Q70" s="10">
+      <c r="Q70" s="9">
         <v>23</v>
       </c>
     </row>
     <row r="71" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="21"/>
-      <c r="B71" s="13">
+      <c r="B71" s="14">
         <v>0.50624999999999998</v>
       </c>
-      <c r="C71" s="14" t="s">
+      <c r="C71" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="D71" s="15">
+      <c r="D71" s="11">
         <v>16</v>
       </c>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
-      <c r="G71" s="14"/>
+      <c r="E71" s="10"/>
+      <c r="F71" s="10"/>
+      <c r="G71" s="10"/>
       <c r="H71" s="21"/>
-      <c r="I71" s="11" t="s">
+      <c r="I71" s="17" t="s">
         <v>362</v>
       </c>
-      <c r="J71" s="12">
+      <c r="J71" s="18">
         <v>3</v>
       </c>
-      <c r="K71" s="9" t="s">
+      <c r="K71" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="L71" s="10">
+      <c r="L71" s="9">
         <v>21</v>
       </c>
       <c r="M71" s="21"/>
       <c r="N71" s="16" t="s">
         <v>371</v>
       </c>
-      <c r="O71" s="17">
+      <c r="O71" s="19">
         <v>4</v>
       </c>
-      <c r="P71" s="14" t="s">
+      <c r="P71" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="Q71" s="15">
+      <c r="Q71" s="11">
         <v>24</v>
       </c>
     </row>
     <row r="72" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="21"/>
-      <c r="B72" s="13"/>
-      <c r="C72" s="14" t="s">
+      <c r="B72" s="14"/>
+      <c r="C72" s="10" t="s">
         <v>332</v>
       </c>
-      <c r="D72" s="15">
+      <c r="D72" s="11">
         <v>8</v>
       </c>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
-      <c r="G72" s="14"/>
+      <c r="E72" s="10"/>
+      <c r="F72" s="10"/>
+      <c r="G72" s="10"/>
       <c r="H72" s="21"/>
-      <c r="I72" s="11"/>
-      <c r="J72" s="12"/>
-      <c r="K72" s="9" t="s">
+      <c r="I72" s="17"/>
+      <c r="J72" s="18"/>
+      <c r="K72" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="L72" s="10">
+      <c r="L72" s="9">
         <v>17</v>
       </c>
       <c r="M72" s="21"/>
       <c r="N72" s="16"/>
-      <c r="O72" s="17"/>
-      <c r="P72" s="14" t="s">
+      <c r="O72" s="19"/>
+      <c r="P72" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="Q72" s="15">
+      <c r="Q72" s="11">
         <v>21</v>
       </c>
     </row>
     <row r="73" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="21"/>
-      <c r="B73" s="13"/>
-      <c r="C73" s="14" t="s">
+      <c r="B73" s="14"/>
+      <c r="C73" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="D73" s="15">
+      <c r="D73" s="11">
         <v>17</v>
       </c>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14"/>
-      <c r="G73" s="14"/>
+      <c r="E73" s="10"/>
+      <c r="F73" s="10"/>
+      <c r="G73" s="10"/>
       <c r="H73" s="21"/>
-      <c r="I73" s="11"/>
-      <c r="J73" s="12">
+      <c r="I73" s="17"/>
+      <c r="J73" s="18">
         <v>1</v>
       </c>
-      <c r="K73" s="9" t="s">
+      <c r="K73" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="L73" s="10">
+      <c r="L73" s="9">
         <v>5</v>
       </c>
       <c r="M73" s="21"/>
       <c r="N73" s="16"/>
-      <c r="O73" s="17">
+      <c r="O73" s="19">
         <v>4</v>
       </c>
-      <c r="P73" s="14" t="s">
+      <c r="P73" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="Q73" s="15">
+      <c r="Q73" s="11">
         <v>34</v>
       </c>
     </row>
     <row r="74" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="21"/>
-      <c r="B74" s="13"/>
-      <c r="C74" s="14" t="s">
+      <c r="B74" s="14"/>
+      <c r="C74" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="D74" s="15">
+      <c r="D74" s="11">
         <v>21</v>
       </c>
-      <c r="E74" s="14"/>
-      <c r="F74" s="14"/>
-      <c r="G74" s="14"/>
+      <c r="E74" s="10"/>
+      <c r="F74" s="10"/>
+      <c r="G74" s="10"/>
       <c r="H74" s="21"/>
-      <c r="I74" s="11"/>
-      <c r="J74" s="12"/>
-      <c r="K74" s="9" t="s">
+      <c r="I74" s="17"/>
+      <c r="J74" s="18"/>
+      <c r="K74" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="L74" s="10">
+      <c r="L74" s="9">
         <v>10</v>
       </c>
       <c r="M74" s="21"/>
       <c r="N74" s="16"/>
-      <c r="O74" s="17"/>
-      <c r="P74" s="14" t="s">
+      <c r="O74" s="19"/>
+      <c r="P74" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="Q74" s="15">
+      <c r="Q74" s="11">
         <v>17</v>
       </c>
     </row>
     <row r="75" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="21"/>
-      <c r="B75" s="8">
+      <c r="B75" s="15">
         <v>0.51250000000000007</v>
       </c>
-      <c r="C75" s="9" t="s">
+      <c r="C75" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="D75" s="10">
+      <c r="D75" s="9">
         <v>23</v>
       </c>
-      <c r="E75" s="9"/>
-      <c r="F75" s="9"/>
-      <c r="G75" s="9"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
       <c r="H75" s="21"/>
       <c r="I75" s="16" t="s">
         <v>363</v>
       </c>
-      <c r="J75" s="17">
+      <c r="J75" s="19">
         <v>1</v>
       </c>
-      <c r="K75" s="14" t="s">
+      <c r="K75" s="10" t="s">
         <v>390</v>
       </c>
-      <c r="L75" s="15">
+      <c r="L75" s="11">
         <v>9</v>
       </c>
       <c r="M75" s="21"/>
-      <c r="N75" s="11" t="s">
+      <c r="N75" s="17" t="s">
         <v>373</v>
       </c>
-      <c r="O75" s="12">
+      <c r="O75" s="18">
         <v>3</v>
       </c>
-      <c r="P75" s="9" t="s">
+      <c r="P75" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="Q75" s="10">
+      <c r="Q75" s="9">
         <v>23</v>
       </c>
     </row>
     <row r="76" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="21"/>
-      <c r="B76" s="8"/>
-      <c r="C76" s="9" t="s">
+      <c r="B76" s="15"/>
+      <c r="C76" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="D76" s="10">
+      <c r="D76" s="9">
         <v>19</v>
       </c>
-      <c r="E76" s="9"/>
-      <c r="F76" s="9"/>
-      <c r="G76" s="9"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
       <c r="H76" s="21"/>
       <c r="I76" s="16"/>
-      <c r="J76" s="17"/>
-      <c r="K76" s="14" t="s">
+      <c r="J76" s="19"/>
+      <c r="K76" s="10" t="s">
         <v>391</v>
       </c>
-      <c r="L76" s="15">
+      <c r="L76" s="11">
         <v>7</v>
       </c>
       <c r="M76" s="21"/>
-      <c r="N76" s="11"/>
-      <c r="O76" s="12"/>
-      <c r="P76" s="9" t="s">
+      <c r="N76" s="17"/>
+      <c r="O76" s="18"/>
+      <c r="P76" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="Q76" s="10">
+      <c r="Q76" s="9">
         <v>12</v>
       </c>
     </row>
     <row r="77" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="21"/>
-      <c r="B77" s="8"/>
-      <c r="C77" s="9" t="s">
+      <c r="B77" s="15"/>
+      <c r="C77" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="D77" s="10">
+      <c r="D77" s="9">
         <v>23</v>
       </c>
-      <c r="E77" s="9"/>
-      <c r="F77" s="9"/>
-      <c r="G77" s="9"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
       <c r="H77" s="21"/>
       <c r="I77" s="16"/>
-      <c r="J77" s="17">
+      <c r="J77" s="19">
         <v>1</v>
       </c>
-      <c r="K77" s="14" t="s">
+      <c r="K77" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="L77" s="15">
+      <c r="L77" s="11">
         <v>9</v>
       </c>
       <c r="M77" s="21"/>
-      <c r="N77" s="11"/>
-      <c r="O77" s="12">
+      <c r="N77" s="17"/>
+      <c r="O77" s="18">
         <v>4</v>
       </c>
-      <c r="P77" s="9" t="s">
+      <c r="P77" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="Q77" s="10">
+      <c r="Q77" s="9">
         <v>19</v>
       </c>
     </row>
     <row r="78" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="21"/>
-      <c r="B78" s="8"/>
-      <c r="C78" s="18"/>
-      <c r="D78" s="10"/>
-      <c r="E78" s="9"/>
-      <c r="F78" s="9"/>
-      <c r="G78" s="9"/>
+      <c r="B78" s="15"/>
+      <c r="C78" s="12"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
       <c r="H78" s="21"/>
       <c r="I78" s="16"/>
-      <c r="J78" s="17"/>
-      <c r="K78" s="14" t="s">
+      <c r="J78" s="19"/>
+      <c r="K78" s="10" t="s">
         <v>393</v>
       </c>
-      <c r="L78" s="15">
+      <c r="L78" s="11">
         <v>5</v>
       </c>
       <c r="M78" s="21"/>
-      <c r="N78" s="11"/>
-      <c r="O78" s="12"/>
-      <c r="P78" s="18" t="s">
+      <c r="N78" s="17"/>
+      <c r="O78" s="18"/>
+      <c r="P78" s="12" t="s">
         <v>281</v>
       </c>
-      <c r="Q78" s="10">
+      <c r="Q78" s="9">
         <v>35</v>
       </c>
     </row>
     <row r="79" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="21"/>
-      <c r="B79" s="13">
+      <c r="B79" s="14">
         <v>0.51874999999999993</v>
       </c>
-      <c r="C79" s="14" t="s">
+      <c r="C79" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="D79" s="15">
+      <c r="D79" s="11">
         <v>12</v>
       </c>
-      <c r="E79" s="14"/>
-      <c r="F79" s="14"/>
-      <c r="G79" s="14"/>
+      <c r="E79" s="10"/>
+      <c r="F79" s="10"/>
+      <c r="G79" s="10"/>
       <c r="H79" s="21"/>
-      <c r="I79" s="11">
+      <c r="I79" s="17">
         <v>8</v>
       </c>
-      <c r="J79" s="12">
+      <c r="J79" s="18">
         <v>1</v>
       </c>
-      <c r="K79" s="9" t="s">
+      <c r="K79" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="L79" s="10">
+      <c r="L79" s="9">
         <v>5</v>
       </c>
       <c r="M79" s="21"/>
       <c r="N79" s="16" t="s">
         <v>374</v>
       </c>
-      <c r="O79" s="17">
+      <c r="O79" s="19">
         <v>3</v>
       </c>
-      <c r="P79" s="14" t="s">
+      <c r="P79" s="10" t="s">
         <v>317</v>
       </c>
-      <c r="Q79" s="15">
+      <c r="Q79" s="11">
         <v>27</v>
       </c>
     </row>
     <row r="80" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="21"/>
-      <c r="B80" s="13"/>
-      <c r="C80" s="14" t="s">
+      <c r="B80" s="14"/>
+      <c r="C80" s="10" t="s">
         <v>350</v>
       </c>
-      <c r="D80" s="15">
+      <c r="D80" s="11">
         <v>32</v>
       </c>
-      <c r="E80" s="14"/>
-      <c r="F80" s="14"/>
-      <c r="G80" s="14"/>
+      <c r="E80" s="10"/>
+      <c r="F80" s="10"/>
+      <c r="G80" s="10"/>
       <c r="H80" s="21"/>
-      <c r="I80" s="11"/>
-      <c r="J80" s="12"/>
-      <c r="K80" s="9" t="s">
+      <c r="I80" s="17"/>
+      <c r="J80" s="18"/>
+      <c r="K80" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="L80" s="10">
+      <c r="L80" s="9">
         <v>11</v>
       </c>
       <c r="M80" s="21"/>
       <c r="N80" s="16"/>
-      <c r="O80" s="17"/>
-      <c r="P80" s="14" t="s">
+      <c r="O80" s="19"/>
+      <c r="P80" s="10" t="s">
         <v>318</v>
       </c>
-      <c r="Q80" s="15">
+      <c r="Q80" s="11">
         <v>14</v>
       </c>
     </row>
     <row r="81" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="21"/>
-      <c r="B81" s="13"/>
-      <c r="C81" s="14" t="s">
+      <c r="B81" s="14"/>
+      <c r="C81" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="D81" s="15">
+      <c r="D81" s="11">
         <v>19</v>
       </c>
-      <c r="E81" s="14"/>
-      <c r="F81" s="14"/>
-      <c r="G81" s="14"/>
+      <c r="E81" s="10"/>
+      <c r="F81" s="10"/>
+      <c r="G81" s="10"/>
       <c r="H81" s="21"/>
-      <c r="I81" s="11"/>
-      <c r="J81" s="12">
+      <c r="I81" s="17"/>
+      <c r="J81" s="18">
         <v>3</v>
       </c>
-      <c r="K81" s="9" t="s">
+      <c r="K81" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="L81" s="10">
+      <c r="L81" s="9">
         <v>21</v>
       </c>
       <c r="M81" s="21"/>
       <c r="N81" s="16"/>
-      <c r="O81" s="17">
+      <c r="O81" s="19">
         <v>2</v>
       </c>
-      <c r="P81" s="14" t="s">
+      <c r="P81" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="Q81" s="15">
+      <c r="Q81" s="11">
         <v>9</v>
       </c>
     </row>
     <row r="82" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="21"/>
-      <c r="B82" s="13"/>
-      <c r="C82" s="19"/>
-      <c r="D82" s="15"/>
-      <c r="E82" s="14"/>
-      <c r="F82" s="14"/>
-      <c r="G82" s="14"/>
+      <c r="B82" s="14"/>
+      <c r="C82" s="13"/>
+      <c r="D82" s="11"/>
+      <c r="E82" s="10"/>
+      <c r="F82" s="10"/>
+      <c r="G82" s="10"/>
       <c r="H82" s="21"/>
-      <c r="I82" s="11"/>
-      <c r="J82" s="12"/>
-      <c r="K82" s="9" t="s">
+      <c r="I82" s="17"/>
+      <c r="J82" s="18"/>
+      <c r="K82" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="L82" s="10">
+      <c r="L82" s="9">
         <v>11</v>
       </c>
       <c r="M82" s="21"/>
       <c r="N82" s="16"/>
-      <c r="O82" s="17"/>
-      <c r="P82" s="19" t="s">
+      <c r="O82" s="19"/>
+      <c r="P82" s="13" t="s">
         <v>261</v>
       </c>
-      <c r="Q82" s="15">
+      <c r="Q82" s="11">
         <v>20</v>
       </c>
     </row>
     <row r="83" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="21"/>
-      <c r="B83" s="11"/>
-      <c r="C83" s="9"/>
-      <c r="D83" s="10"/>
-      <c r="E83" s="9"/>
-      <c r="F83" s="9"/>
-      <c r="G83" s="9"/>
+      <c r="B83" s="17"/>
+      <c r="C83" s="8"/>
+      <c r="D83" s="9"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
       <c r="H83" s="21"/>
       <c r="I83" s="16" t="s">
         <v>379</v>
       </c>
-      <c r="J83" s="17">
+      <c r="J83" s="19">
         <v>2</v>
       </c>
-      <c r="K83" s="14" t="s">
+      <c r="K83" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="L83" s="15">
+      <c r="L83" s="11">
         <v>14</v>
       </c>
       <c r="M83" s="21"/>
-      <c r="N83" s="11" t="s">
+      <c r="N83" s="17" t="s">
         <v>375</v>
       </c>
-      <c r="O83" s="12">
+      <c r="O83" s="18">
         <v>4</v>
       </c>
-      <c r="P83" s="9" t="s">
+      <c r="P83" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="Q83" s="10">
+      <c r="Q83" s="9">
         <v>31</v>
       </c>
     </row>
     <row r="84" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="21"/>
-      <c r="B84" s="11"/>
-      <c r="C84" s="9"/>
-      <c r="D84" s="10"/>
-      <c r="E84" s="9"/>
-      <c r="F84" s="9"/>
-      <c r="G84" s="9"/>
+      <c r="B84" s="17"/>
+      <c r="C84" s="8"/>
+      <c r="D84" s="9"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
       <c r="H84" s="21"/>
       <c r="I84" s="16"/>
-      <c r="J84" s="17"/>
-      <c r="K84" s="14" t="s">
+      <c r="J84" s="19"/>
+      <c r="K84" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="L84" s="15">
+      <c r="L84" s="11">
         <v>15</v>
       </c>
       <c r="M84" s="21"/>
-      <c r="N84" s="11"/>
-      <c r="O84" s="12"/>
-      <c r="P84" s="9" t="s">
+      <c r="N84" s="17"/>
+      <c r="O84" s="18"/>
+      <c r="P84" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="Q84" s="10">
+      <c r="Q84" s="9">
         <v>18</v>
       </c>
     </row>
     <row r="85" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="21"/>
-      <c r="B85" s="11"/>
-      <c r="C85" s="9"/>
-      <c r="D85" s="10"/>
-      <c r="E85" s="9"/>
-      <c r="F85" s="9"/>
-      <c r="G85" s="9"/>
+      <c r="B85" s="17"/>
+      <c r="C85" s="8"/>
+      <c r="D85" s="9"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
       <c r="H85" s="21"/>
       <c r="I85" s="16"/>
-      <c r="J85" s="17">
+      <c r="J85" s="19">
         <v>3</v>
       </c>
-      <c r="K85" s="14" t="s">
+      <c r="K85" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="L85" s="15">
+      <c r="L85" s="11">
         <v>11</v>
       </c>
       <c r="M85" s="21"/>
-      <c r="N85" s="11"/>
-      <c r="O85" s="12">
+      <c r="N85" s="17"/>
+      <c r="O85" s="18">
         <v>3</v>
       </c>
-      <c r="P85" s="9" t="s">
+      <c r="P85" s="8" t="s">
         <v>339</v>
       </c>
-      <c r="Q85" s="10">
+      <c r="Q85" s="9">
         <v>16</v>
       </c>
     </row>
     <row r="86" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="21"/>
-      <c r="B86" s="11"/>
-      <c r="C86" s="18"/>
-      <c r="D86" s="10"/>
-      <c r="E86" s="9"/>
-      <c r="F86" s="9"/>
-      <c r="G86" s="9"/>
+      <c r="B86" s="17"/>
+      <c r="C86" s="12"/>
+      <c r="D86" s="9"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
       <c r="H86" s="21"/>
       <c r="I86" s="16"/>
-      <c r="J86" s="17"/>
-      <c r="K86" s="14" t="s">
+      <c r="J86" s="19"/>
+      <c r="K86" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="L86" s="15">
+      <c r="L86" s="11">
         <v>28</v>
       </c>
       <c r="M86" s="21"/>
-      <c r="N86" s="11"/>
-      <c r="O86" s="12"/>
-      <c r="P86" s="18" t="s">
+      <c r="N86" s="17"/>
+      <c r="O86" s="18"/>
+      <c r="P86" s="12" t="s">
         <v>340</v>
       </c>
-      <c r="Q86" s="10">
+      <c r="Q86" s="9">
         <v>18</v>
       </c>
     </row>
     <row r="87" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="21"/>
       <c r="B87" s="16"/>
-      <c r="C87" s="14"/>
-      <c r="D87" s="15"/>
-      <c r="E87" s="14"/>
-      <c r="F87" s="14"/>
-      <c r="G87" s="14"/>
+      <c r="C87" s="10"/>
+      <c r="D87" s="11"/>
+      <c r="E87" s="10"/>
+      <c r="F87" s="10"/>
+      <c r="G87" s="10"/>
       <c r="H87" s="21"/>
-      <c r="I87" s="11" t="s">
+      <c r="I87" s="17" t="s">
         <v>378</v>
       </c>
-      <c r="J87" s="12">
+      <c r="J87" s="18">
         <v>1</v>
       </c>
-      <c r="K87" s="9" t="s">
+      <c r="K87" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="L87" s="10">
+      <c r="L87" s="9">
         <v>7</v>
       </c>
       <c r="M87" s="21"/>
       <c r="N87" s="16" t="s">
         <v>376</v>
       </c>
-      <c r="O87" s="17">
+      <c r="O87" s="19">
         <v>4</v>
       </c>
-      <c r="P87" s="14" t="s">
+      <c r="P87" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="Q87" s="15">
+      <c r="Q87" s="11">
         <v>30</v>
       </c>
     </row>
     <row r="88" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="21"/>
       <c r="B88" s="16"/>
-      <c r="C88" s="14"/>
-      <c r="D88" s="15"/>
-      <c r="E88" s="14"/>
-      <c r="F88" s="14"/>
-      <c r="G88" s="14"/>
+      <c r="C88" s="10"/>
+      <c r="D88" s="11"/>
+      <c r="E88" s="10"/>
+      <c r="F88" s="10"/>
+      <c r="G88" s="10"/>
       <c r="H88" s="21"/>
-      <c r="I88" s="11"/>
-      <c r="J88" s="12"/>
-      <c r="K88" s="9" t="s">
+      <c r="I88" s="17"/>
+      <c r="J88" s="18"/>
+      <c r="K88" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="L88" s="10">
+      <c r="L88" s="9">
         <v>11</v>
       </c>
       <c r="M88" s="21"/>
       <c r="N88" s="16"/>
-      <c r="O88" s="17"/>
-      <c r="P88" s="14" t="s">
+      <c r="O88" s="19"/>
+      <c r="P88" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="Q88" s="15">
+      <c r="Q88" s="11">
         <v>30</v>
       </c>
     </row>
     <row r="89" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="21"/>
       <c r="B89" s="16"/>
-      <c r="C89" s="14"/>
-      <c r="D89" s="15"/>
-      <c r="E89" s="14"/>
-      <c r="F89" s="14"/>
-      <c r="G89" s="14"/>
+      <c r="C89" s="10"/>
+      <c r="D89" s="11"/>
+      <c r="E89" s="10"/>
+      <c r="F89" s="10"/>
+      <c r="G89" s="10"/>
       <c r="H89" s="21"/>
-      <c r="I89" s="11"/>
-      <c r="J89" s="12">
+      <c r="I89" s="17"/>
+      <c r="J89" s="18">
         <v>3</v>
       </c>
-      <c r="K89" s="9" t="s">
+      <c r="K89" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="L89" s="10">
+      <c r="L89" s="9">
         <v>14</v>
       </c>
       <c r="M89" s="21"/>
       <c r="N89" s="16"/>
-      <c r="O89" s="17">
+      <c r="O89" s="19">
         <v>4</v>
       </c>
-      <c r="P89" s="14" t="s">
+      <c r="P89" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="Q89" s="15">
+      <c r="Q89" s="11">
         <v>39</v>
       </c>
     </row>
     <row r="90" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="22"/>
       <c r="B90" s="16"/>
-      <c r="C90" s="19"/>
-      <c r="D90" s="15"/>
-      <c r="E90" s="14"/>
-      <c r="F90" s="14"/>
-      <c r="G90" s="14"/>
+      <c r="C90" s="13"/>
+      <c r="D90" s="11"/>
+      <c r="E90" s="10"/>
+      <c r="F90" s="10"/>
+      <c r="G90" s="10"/>
       <c r="H90" s="22"/>
-      <c r="I90" s="11"/>
-      <c r="J90" s="12"/>
-      <c r="K90" s="9" t="s">
+      <c r="I90" s="17"/>
+      <c r="J90" s="18"/>
+      <c r="K90" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="L90" s="10">
+      <c r="L90" s="9">
         <v>20</v>
       </c>
       <c r="M90" s="22"/>
       <c r="N90" s="16"/>
-      <c r="O90" s="17"/>
-      <c r="P90" s="19" t="s">
+      <c r="O90" s="19"/>
+      <c r="P90" s="13" t="s">
         <v>280</v>
       </c>
-      <c r="Q90" s="15">
+      <c r="Q90" s="11">
         <v>35</v>
       </c>
     </row>
@@ -6410,7 +6410,6 @@
     <mergeCell ref="O34:O35"/>
     <mergeCell ref="N79:N82"/>
     <mergeCell ref="O79:O80"/>
-    <mergeCell ref="O36:O37"/>
     <mergeCell ref="O81:O82"/>
     <mergeCell ref="N67:N70"/>
     <mergeCell ref="O67:O68"/>
@@ -6435,6 +6434,8 @@
     <mergeCell ref="O55:O56"/>
     <mergeCell ref="O12:O13"/>
     <mergeCell ref="O57:O58"/>
+    <mergeCell ref="N22:N25"/>
+    <mergeCell ref="O36:O37"/>
     <mergeCell ref="I79:I82"/>
     <mergeCell ref="J79:J80"/>
     <mergeCell ref="J36:J37"/>
@@ -6447,7 +6448,6 @@
     <mergeCell ref="J85:J86"/>
     <mergeCell ref="I71:I74"/>
     <mergeCell ref="J71:J72"/>
-    <mergeCell ref="J28:J29"/>
     <mergeCell ref="J73:J74"/>
     <mergeCell ref="I30:I33"/>
     <mergeCell ref="J30:J31"/>
@@ -6457,7 +6457,6 @@
     <mergeCell ref="J77:J78"/>
     <mergeCell ref="I63:I66"/>
     <mergeCell ref="J63:J64"/>
-    <mergeCell ref="J20:J21"/>
     <mergeCell ref="J65:J66"/>
     <mergeCell ref="I22:I25"/>
     <mergeCell ref="J22:J23"/>
@@ -6467,7 +6466,7 @@
     <mergeCell ref="J69:J70"/>
     <mergeCell ref="I55:I58"/>
     <mergeCell ref="J55:J56"/>
-    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="J28:J29"/>
     <mergeCell ref="J57:J58"/>
     <mergeCell ref="I14:I17"/>
     <mergeCell ref="J14:J15"/>
@@ -6487,9 +6486,9 @@
     <mergeCell ref="J51:J52"/>
     <mergeCell ref="J8:J9"/>
     <mergeCell ref="J53:J54"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="I26:I29"/>
-    <mergeCell ref="I34:I37"/>
+    <mergeCell ref="I10:I13"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="J20:J21"/>
     <mergeCell ref="B30:B33"/>
     <mergeCell ref="I18:I21"/>
     <mergeCell ref="J18:J19"/>
@@ -6497,10 +6496,8 @@
     <mergeCell ref="J34:J35"/>
     <mergeCell ref="I42:I45"/>
     <mergeCell ref="J42:J43"/>
-    <mergeCell ref="N22:N25"/>
-    <mergeCell ref="I10:I13"/>
-    <mergeCell ref="J10:J11"/>
     <mergeCell ref="J44:J45"/>
+    <mergeCell ref="J12:J13"/>
     <mergeCell ref="N2:N5"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="O4:O5"/>
@@ -6510,6 +6507,21 @@
     <mergeCell ref="B59:B62"/>
     <mergeCell ref="B63:B66"/>
     <mergeCell ref="B67:B70"/>
+    <mergeCell ref="O47:O48"/>
+    <mergeCell ref="O59:O60"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="O61:O62"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="O63:O64"/>
+    <mergeCell ref="O20:O21"/>
+    <mergeCell ref="O65:O66"/>
+    <mergeCell ref="O22:O23"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="O30:O31"/>
+    <mergeCell ref="O38:O39"/>
+    <mergeCell ref="B14:B17"/>
     <mergeCell ref="B71:B74"/>
     <mergeCell ref="B38:B41"/>
     <mergeCell ref="B42:B45"/>
@@ -6520,32 +6532,20 @@
     <mergeCell ref="J87:J88"/>
     <mergeCell ref="J89:J90"/>
     <mergeCell ref="N47:N50"/>
-    <mergeCell ref="O47:O48"/>
     <mergeCell ref="B75:B78"/>
     <mergeCell ref="B79:B82"/>
     <mergeCell ref="B83:B86"/>
     <mergeCell ref="N38:N41"/>
     <mergeCell ref="N59:N62"/>
-    <mergeCell ref="O59:O60"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="O61:O62"/>
-    <mergeCell ref="O18:O19"/>
     <mergeCell ref="N63:N66"/>
-    <mergeCell ref="O63:O64"/>
-    <mergeCell ref="O20:O21"/>
-    <mergeCell ref="O65:O66"/>
-    <mergeCell ref="O22:O23"/>
     <mergeCell ref="B87:B90"/>
     <mergeCell ref="B34:B37"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B10:B13"/>
     <mergeCell ref="B18:B21"/>
     <mergeCell ref="B22:B25"/>
     <mergeCell ref="B26:B29"/>
     <mergeCell ref="N30:N33"/>
-    <mergeCell ref="O30:O31"/>
-    <mergeCell ref="O38:O39"/>
+    <mergeCell ref="I26:I29"/>
+    <mergeCell ref="I34:I37"/>
   </mergeCells>
   <pageMargins left="0.45" right="0.45" top="1" bottom="0.75" header="0.5" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/monster-golf-docs/monster2014/Monster2014.xlsx
+++ b/monster-golf-docs/monster2014/Monster2014.xlsx
@@ -9,15 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21435" windowHeight="6285" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21435" windowHeight="6285"/>
   </bookViews>
   <sheets>
     <sheet name="Flights" sheetId="4" r:id="rId1"/>
     <sheet name="Groups" sheetId="5" r:id="rId2"/>
-    <sheet name="Everything" sheetId="2" r:id="rId3"/>
+    <sheet name="Practice Results" sheetId="6" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="7" r:id="rId4"/>
+    <sheet name="Everything" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Groups!$A$1:$Q$90</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">Sheet2!$A$1:$K$23</definedName>
   </definedNames>
   <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="452">
   <si>
     <t>Jake</t>
   </si>
@@ -1241,6 +1244,150 @@
   </si>
   <si>
     <t>Blind Draw 10$</t>
+  </si>
+  <si>
+    <t>Net Skins</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Round 1</t>
+  </si>
+  <si>
+    <t>Herberger - Jorde</t>
+  </si>
+  <si>
+    <t>Clark - Levitt</t>
+  </si>
+  <si>
+    <t>Giesinger - Wald</t>
+  </si>
+  <si>
+    <t>Borreson - Stonefield</t>
+  </si>
+  <si>
+    <t>Bartsch - Krogstad</t>
+  </si>
+  <si>
+    <t>Haug - Hubrig</t>
+  </si>
+  <si>
+    <t>Bodine - Bodine</t>
+  </si>
+  <si>
+    <t>Ehase - Sumners</t>
+  </si>
+  <si>
+    <t>Hanson - Wald</t>
+  </si>
+  <si>
+    <t>Morey - Radke</t>
+  </si>
+  <si>
+    <t>Sumners - Ward</t>
+  </si>
+  <si>
+    <t>Evenson - Redfern</t>
+  </si>
+  <si>
+    <t>Hinners - Levitt</t>
+  </si>
+  <si>
+    <t>Plemel - Wald</t>
+  </si>
+  <si>
+    <t>Anderson - Haseleu</t>
+  </si>
+  <si>
+    <t>Schuette - Wald</t>
+  </si>
+  <si>
+    <t>Holso - Wurmlinger</t>
+  </si>
+  <si>
+    <t>Blackburn - Podolak</t>
+  </si>
+  <si>
+    <t>Borg - Ness</t>
+  </si>
+  <si>
+    <t>Becker - Stork</t>
+  </si>
+  <si>
+    <t>Erie - Irwin</t>
+  </si>
+  <si>
+    <t>Ahrens - Grondahl</t>
+  </si>
+  <si>
+    <t>Gies - Gies</t>
+  </si>
+  <si>
+    <t>Francis - Francis</t>
+  </si>
+  <si>
+    <t>Larson - Schneeweiss</t>
+  </si>
+  <si>
+    <t>Dumphy - Van Dyk</t>
+  </si>
+  <si>
+    <t>Hanson - Quarders</t>
+  </si>
+  <si>
+    <t>Dadisman - Podolak</t>
+  </si>
+  <si>
+    <t>Wald - Wald</t>
+  </si>
+  <si>
+    <t>Thayer - Wurmlinger</t>
+  </si>
+  <si>
+    <t>Robertson - Smith</t>
+  </si>
+  <si>
+    <t>Fennewald - Olson</t>
+  </si>
+  <si>
+    <t>Callahan - Levitt</t>
+  </si>
+  <si>
+    <t>Billstin - Stafford</t>
+  </si>
+  <si>
+    <t>Burbank - Loftis</t>
+  </si>
+  <si>
+    <t>Bess - Pitts</t>
+  </si>
+  <si>
+    <t>Benson - Hefta</t>
+  </si>
+  <si>
+    <t>Cruzan - Gulbransen</t>
+  </si>
+  <si>
+    <t>Epker - Gies</t>
+  </si>
+  <si>
+    <t>Mondala - Podolak</t>
+  </si>
+  <si>
+    <t>Burns - Liuska</t>
+  </si>
+  <si>
+    <t>Luoma - Thomas</t>
+  </si>
+  <si>
+    <t>Donaldson - Peterson</t>
+  </si>
+  <si>
+    <t>Roseleip - Roseleip</t>
+  </si>
+  <si>
+    <t>Team HCP</t>
   </si>
 </sst>
 </file>
@@ -1250,7 +1397,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1290,8 +1437,44 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1321,8 +1504,50 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5DEB3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFADD8E6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAFAD2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD3D3D3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1382,12 +1607,55 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1420,24 +1688,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1447,8 +1697,112 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="Explanatory Text" xfId="2" builtinId="53"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1815,7 +2169,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
@@ -3279,8 +3633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q90"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46:G46"/>
+    <sheetView view="pageLayout" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3303,7 +3657,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="20"/>
+      <c r="A1" s="14"/>
       <c r="B1" s="7" t="s">
         <v>352</v>
       </c>
@@ -3322,7 +3676,7 @@
       <c r="G1" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="H1" s="20"/>
+      <c r="H1" s="14"/>
       <c r="I1" s="7" t="s">
         <v>341</v>
       </c>
@@ -3335,7 +3689,7 @@
       <c r="L1" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="M1" s="20"/>
+      <c r="M1" s="14"/>
       <c r="N1" s="7" t="s">
         <v>341</v>
       </c>
@@ -3350,8 +3704,8 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21"/>
-      <c r="B2" s="15">
+      <c r="A2" s="15"/>
+      <c r="B2" s="22">
         <v>0.39999999999999997</v>
       </c>
       <c r="C2" s="8" t="s">
@@ -3363,7 +3717,7 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
-      <c r="H2" s="21"/>
+      <c r="H2" s="15"/>
       <c r="I2" s="17" t="s">
         <v>358</v>
       </c>
@@ -3376,11 +3730,11 @@
       <c r="L2" s="9">
         <v>12</v>
       </c>
-      <c r="M2" s="21"/>
-      <c r="N2" s="16" t="s">
+      <c r="M2" s="15"/>
+      <c r="N2" s="19" t="s">
         <v>367</v>
       </c>
-      <c r="O2" s="19">
+      <c r="O2" s="20">
         <v>4</v>
       </c>
       <c r="P2" s="10" t="s">
@@ -3391,8 +3745,8 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="21"/>
-      <c r="B3" s="15"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="22"/>
       <c r="C3" s="8" t="s">
         <v>311</v>
       </c>
@@ -3402,7 +3756,7 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-      <c r="H3" s="21"/>
+      <c r="H3" s="15"/>
       <c r="I3" s="17"/>
       <c r="J3" s="18"/>
       <c r="K3" s="8" t="s">
@@ -3411,9 +3765,9 @@
       <c r="L3" s="9">
         <v>4</v>
       </c>
-      <c r="M3" s="21"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="19"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="20"/>
       <c r="P3" s="10" t="s">
         <v>284</v>
       </c>
@@ -3422,8 +3776,8 @@
       </c>
     </row>
     <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21"/>
-      <c r="B4" s="15"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="22"/>
       <c r="C4" s="8" t="s">
         <v>291</v>
       </c>
@@ -3433,7 +3787,7 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="H4" s="21"/>
+      <c r="H4" s="15"/>
       <c r="I4" s="17"/>
       <c r="J4" s="18">
         <v>2</v>
@@ -3444,9 +3798,9 @@
       <c r="L4" s="9">
         <v>14</v>
       </c>
-      <c r="M4" s="21"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="19">
+      <c r="M4" s="15"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="20">
         <v>3</v>
       </c>
       <c r="P4" s="10" t="s">
@@ -3457,8 +3811,8 @@
       </c>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="21"/>
-      <c r="B5" s="15"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="22"/>
       <c r="C5" s="8" t="s">
         <v>292</v>
       </c>
@@ -3468,7 +3822,7 @@
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
-      <c r="H5" s="21"/>
+      <c r="H5" s="15"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
       <c r="K5" s="8" t="s">
@@ -3477,9 +3831,9 @@
       <c r="L5" s="9">
         <v>15</v>
       </c>
-      <c r="M5" s="21"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="19"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="20"/>
       <c r="P5" s="10" t="s">
         <v>285</v>
       </c>
@@ -3488,8 +3842,8 @@
       </c>
     </row>
     <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="21"/>
-      <c r="B6" s="14">
+      <c r="A6" s="15"/>
+      <c r="B6" s="21">
         <v>0.40625</v>
       </c>
       <c r="C6" s="10" t="s">
@@ -3501,11 +3855,11 @@
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="16" t="s">
+      <c r="H6" s="15"/>
+      <c r="I6" s="19" t="s">
         <v>359</v>
       </c>
-      <c r="J6" s="19">
+      <c r="J6" s="20">
         <v>1</v>
       </c>
       <c r="K6" s="10" t="s">
@@ -3514,7 +3868,7 @@
       <c r="L6" s="11">
         <v>8</v>
       </c>
-      <c r="M6" s="21"/>
+      <c r="M6" s="15"/>
       <c r="N6" s="17" t="s">
         <v>368</v>
       </c>
@@ -3529,8 +3883,8 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="21"/>
-      <c r="B7" s="14"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="21"/>
       <c r="C7" s="10" t="s">
         <v>307</v>
       </c>
@@ -3540,16 +3894,16 @@
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="19"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="20"/>
       <c r="K7" s="10" t="s">
         <v>314</v>
       </c>
       <c r="L7" s="11">
         <v>2</v>
       </c>
-      <c r="M7" s="21"/>
+      <c r="M7" s="15"/>
       <c r="N7" s="17"/>
       <c r="O7" s="18"/>
       <c r="P7" s="8" t="s">
@@ -3560,8 +3914,8 @@
       </c>
     </row>
     <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
-      <c r="B8" s="14"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="21"/>
       <c r="C8" s="10" t="s">
         <v>333</v>
       </c>
@@ -3571,9 +3925,9 @@
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="19">
+      <c r="H8" s="15"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="20">
         <v>2</v>
       </c>
       <c r="K8" s="10" t="s">
@@ -3582,7 +3936,7 @@
       <c r="L8" s="11">
         <v>11</v>
       </c>
-      <c r="M8" s="21"/>
+      <c r="M8" s="15"/>
       <c r="N8" s="17"/>
       <c r="O8" s="18">
         <v>4</v>
@@ -3595,8 +3949,8 @@
       </c>
     </row>
     <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="21"/>
-      <c r="B9" s="14"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="21"/>
       <c r="C9" s="10" t="s">
         <v>336</v>
       </c>
@@ -3606,16 +3960,16 @@
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="19"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="20"/>
       <c r="K9" s="10" t="s">
         <v>316</v>
       </c>
       <c r="L9" s="11">
         <v>7</v>
       </c>
-      <c r="M9" s="21"/>
+      <c r="M9" s="15"/>
       <c r="N9" s="17"/>
       <c r="O9" s="18"/>
       <c r="P9" s="8" t="s">
@@ -3626,8 +3980,8 @@
       </c>
     </row>
     <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="21"/>
-      <c r="B10" s="15">
+      <c r="A10" s="15"/>
+      <c r="B10" s="22">
         <v>0.41250000000000003</v>
       </c>
       <c r="C10" s="8" t="s">
@@ -3639,7 +3993,7 @@
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
-      <c r="H10" s="21"/>
+      <c r="H10" s="15"/>
       <c r="I10" s="17">
         <v>11</v>
       </c>
@@ -3652,11 +4006,11 @@
       <c r="L10" s="9">
         <v>3</v>
       </c>
-      <c r="M10" s="21"/>
-      <c r="N10" s="16" t="s">
+      <c r="M10" s="15"/>
+      <c r="N10" s="19" t="s">
         <v>369</v>
       </c>
-      <c r="O10" s="19">
+      <c r="O10" s="20">
         <v>2</v>
       </c>
       <c r="P10" s="10" t="s">
@@ -3667,8 +4021,8 @@
       </c>
     </row>
     <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="21"/>
-      <c r="B11" s="15"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="22"/>
       <c r="C11" s="8" t="s">
         <v>293</v>
       </c>
@@ -3678,7 +4032,7 @@
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
-      <c r="H11" s="21"/>
+      <c r="H11" s="15"/>
       <c r="I11" s="17"/>
       <c r="J11" s="18"/>
       <c r="K11" s="8" t="s">
@@ -3687,9 +4041,9 @@
       <c r="L11" s="9">
         <v>5</v>
       </c>
-      <c r="M11" s="21"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="19"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="20"/>
       <c r="P11" s="10" t="s">
         <v>302</v>
       </c>
@@ -3698,8 +4052,8 @@
       </c>
     </row>
     <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="21"/>
-      <c r="B12" s="15"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="22"/>
       <c r="C12" s="8" t="s">
         <v>297</v>
       </c>
@@ -3709,7 +4063,7 @@
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
-      <c r="H12" s="21"/>
+      <c r="H12" s="15"/>
       <c r="I12" s="17"/>
       <c r="J12" s="18">
         <v>1</v>
@@ -3720,9 +4074,9 @@
       <c r="L12" s="9">
         <v>2</v>
       </c>
-      <c r="M12" s="21"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="19">
+      <c r="M12" s="15"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="20">
         <v>3</v>
       </c>
       <c r="P12" s="10" t="s">
@@ -3733,8 +4087,8 @@
       </c>
     </row>
     <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="21"/>
-      <c r="B13" s="15"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="22"/>
       <c r="C13" s="8" t="s">
         <v>308</v>
       </c>
@@ -3744,7 +4098,7 @@
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
-      <c r="H13" s="21"/>
+      <c r="H13" s="15"/>
       <c r="I13" s="17"/>
       <c r="J13" s="18"/>
       <c r="K13" s="8" t="s">
@@ -3753,9 +4107,9 @@
       <c r="L13" s="9">
         <v>4</v>
       </c>
-      <c r="M13" s="21"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="19"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="20"/>
       <c r="P13" s="10" t="s">
         <v>304</v>
       </c>
@@ -3764,8 +4118,8 @@
       </c>
     </row>
     <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="21"/>
-      <c r="B14" s="14">
+      <c r="A14" s="15"/>
+      <c r="B14" s="21">
         <v>0.41875000000000001</v>
       </c>
       <c r="C14" s="10" t="s">
@@ -3777,11 +4131,11 @@
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="16" t="s">
+      <c r="H14" s="15"/>
+      <c r="I14" s="19" t="s">
         <v>360</v>
       </c>
-      <c r="J14" s="19">
+      <c r="J14" s="20">
         <v>1</v>
       </c>
       <c r="K14" s="10" t="s">
@@ -3790,7 +4144,7 @@
       <c r="L14" s="11">
         <v>5</v>
       </c>
-      <c r="M14" s="21"/>
+      <c r="M14" s="15"/>
       <c r="N14" s="17">
         <v>4</v>
       </c>
@@ -3805,8 +4159,8 @@
       </c>
     </row>
     <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="21"/>
-      <c r="B15" s="14"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="21"/>
       <c r="C15" s="10" t="s">
         <v>324</v>
       </c>
@@ -3816,16 +4170,16 @@
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="19"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="20"/>
       <c r="K15" s="10" t="s">
         <v>331</v>
       </c>
       <c r="L15" s="11">
         <v>10</v>
       </c>
-      <c r="M15" s="21"/>
+      <c r="M15" s="15"/>
       <c r="N15" s="17"/>
       <c r="O15" s="18"/>
       <c r="P15" s="8" t="s">
@@ -3836,8 +4190,8 @@
       </c>
     </row>
     <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="21"/>
-      <c r="B16" s="14"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="21"/>
       <c r="C16" s="10" t="s">
         <v>294</v>
       </c>
@@ -3847,9 +4201,9 @@
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="19">
+      <c r="H16" s="15"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="20">
         <v>2</v>
       </c>
       <c r="K16" s="10" t="s">
@@ -3858,7 +4212,7 @@
       <c r="L16" s="11">
         <v>7</v>
       </c>
-      <c r="M16" s="21"/>
+      <c r="M16" s="15"/>
       <c r="N16" s="17"/>
       <c r="O16" s="18">
         <v>3</v>
@@ -3871,8 +4225,8 @@
       </c>
     </row>
     <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="21"/>
-      <c r="B17" s="14"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="21"/>
       <c r="C17" s="10" t="s">
         <v>295</v>
       </c>
@@ -3882,16 +4236,16 @@
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="19"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="20"/>
       <c r="K17" s="10" t="s">
         <v>323</v>
       </c>
       <c r="L17" s="11">
         <v>16</v>
       </c>
-      <c r="M17" s="21"/>
+      <c r="M17" s="15"/>
       <c r="N17" s="17"/>
       <c r="O17" s="18"/>
       <c r="P17" s="8" t="s">
@@ -3902,8 +4256,8 @@
       </c>
     </row>
     <row r="18" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="21"/>
-      <c r="B18" s="15">
+      <c r="A18" s="15"/>
+      <c r="B18" s="22">
         <v>0.42499999999999999</v>
       </c>
       <c r="C18" s="8" t="s">
@@ -3915,7 +4269,7 @@
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
-      <c r="H18" s="21"/>
+      <c r="H18" s="15"/>
       <c r="I18" s="17" t="s">
         <v>361</v>
       </c>
@@ -3928,11 +4282,11 @@
       <c r="L18" s="9">
         <v>23</v>
       </c>
-      <c r="M18" s="21"/>
-      <c r="N18" s="16" t="s">
+      <c r="M18" s="15"/>
+      <c r="N18" s="19" t="s">
         <v>370</v>
       </c>
-      <c r="O18" s="19">
+      <c r="O18" s="20">
         <v>3</v>
       </c>
       <c r="P18" s="10" t="s">
@@ -3943,8 +4297,8 @@
       </c>
     </row>
     <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="21"/>
-      <c r="B19" s="15"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="22"/>
       <c r="C19" s="8" t="s">
         <v>267</v>
       </c>
@@ -3954,7 +4308,7 @@
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
-      <c r="H19" s="21"/>
+      <c r="H19" s="15"/>
       <c r="I19" s="17"/>
       <c r="J19" s="18"/>
       <c r="K19" s="8" t="s">
@@ -3963,9 +4317,9 @@
       <c r="L19" s="9">
         <v>20</v>
       </c>
-      <c r="M19" s="21"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="19"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="20"/>
       <c r="P19" s="10" t="s">
         <v>262</v>
       </c>
@@ -3974,8 +4328,8 @@
       </c>
     </row>
     <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="21"/>
-      <c r="B20" s="15"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="22"/>
       <c r="C20" s="8" t="s">
         <v>305</v>
       </c>
@@ -3985,7 +4339,7 @@
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
-      <c r="H20" s="21"/>
+      <c r="H20" s="15"/>
       <c r="I20" s="17"/>
       <c r="J20" s="18">
         <v>2</v>
@@ -3996,9 +4350,9 @@
       <c r="L20" s="9">
         <v>7</v>
       </c>
-      <c r="M20" s="21"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="19">
+      <c r="M20" s="15"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="20">
         <v>3</v>
       </c>
       <c r="P20" s="10" t="s">
@@ -4009,8 +4363,8 @@
       </c>
     </row>
     <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="21"/>
-      <c r="B21" s="15"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="22"/>
       <c r="C21" s="8" t="s">
         <v>306</v>
       </c>
@@ -4020,7 +4374,7 @@
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
-      <c r="H21" s="21"/>
+      <c r="H21" s="15"/>
       <c r="I21" s="17"/>
       <c r="J21" s="18"/>
       <c r="K21" s="8" t="s">
@@ -4029,9 +4383,9 @@
       <c r="L21" s="9">
         <v>12</v>
       </c>
-      <c r="M21" s="21"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="19"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="20"/>
       <c r="P21" s="10" t="s">
         <v>318</v>
       </c>
@@ -4040,8 +4394,8 @@
       </c>
     </row>
     <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="21"/>
-      <c r="B22" s="14">
+      <c r="A22" s="15"/>
+      <c r="B22" s="21">
         <v>0.43124999999999997</v>
       </c>
       <c r="C22" s="10" t="s">
@@ -4053,11 +4407,11 @@
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="16" t="s">
+      <c r="H22" s="15"/>
+      <c r="I22" s="19" t="s">
         <v>362</v>
       </c>
-      <c r="J22" s="19">
+      <c r="J22" s="20">
         <v>2</v>
       </c>
       <c r="K22" s="10" t="s">
@@ -4066,7 +4420,7 @@
       <c r="L22" s="11">
         <v>16</v>
       </c>
-      <c r="M22" s="21"/>
+      <c r="M22" s="15"/>
       <c r="N22" s="17" t="s">
         <v>371</v>
       </c>
@@ -4081,8 +4435,8 @@
       </c>
     </row>
     <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="21"/>
-      <c r="B23" s="14"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="21"/>
       <c r="C23" s="10" t="s">
         <v>288</v>
       </c>
@@ -4092,16 +4446,16 @@
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="19"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="20"/>
       <c r="K23" s="10" t="s">
         <v>332</v>
       </c>
       <c r="L23" s="11">
         <v>8</v>
       </c>
-      <c r="M23" s="21"/>
+      <c r="M23" s="15"/>
       <c r="N23" s="17"/>
       <c r="O23" s="18"/>
       <c r="P23" s="8" t="s">
@@ -4112,8 +4466,8 @@
       </c>
     </row>
     <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="21"/>
-      <c r="B24" s="14"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="21"/>
       <c r="C24" s="10" t="s">
         <v>274</v>
       </c>
@@ -4123,9 +4477,9 @@
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="19">
+      <c r="H24" s="15"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="20">
         <v>1</v>
       </c>
       <c r="K24" s="10" t="s">
@@ -4134,7 +4488,7 @@
       <c r="L24" s="11">
         <v>7</v>
       </c>
-      <c r="M24" s="21"/>
+      <c r="M24" s="15"/>
       <c r="N24" s="17"/>
       <c r="O24" s="18">
         <v>3</v>
@@ -4147,8 +4501,8 @@
       </c>
     </row>
     <row r="25" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="21"/>
-      <c r="B25" s="14"/>
+      <c r="A25" s="15"/>
+      <c r="B25" s="21"/>
       <c r="C25" s="10" t="s">
         <v>276</v>
       </c>
@@ -4158,16 +4512,16 @@
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="19"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="20"/>
       <c r="K25" s="10" t="s">
         <v>324</v>
       </c>
       <c r="L25" s="11">
         <v>11</v>
       </c>
-      <c r="M25" s="21"/>
+      <c r="M25" s="15"/>
       <c r="N25" s="17"/>
       <c r="O25" s="18"/>
       <c r="P25" s="12" t="s">
@@ -4178,8 +4532,8 @@
       </c>
     </row>
     <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="21"/>
-      <c r="B26" s="15">
+      <c r="A26" s="15"/>
+      <c r="B26" s="22">
         <v>0.4375</v>
       </c>
       <c r="C26" s="8" t="s">
@@ -4191,7 +4545,7 @@
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
-      <c r="H26" s="21"/>
+      <c r="H26" s="15"/>
       <c r="I26" s="17" t="s">
         <v>363</v>
       </c>
@@ -4204,11 +4558,11 @@
       <c r="L26" s="9">
         <v>24</v>
       </c>
-      <c r="M26" s="21"/>
-      <c r="N26" s="16" t="s">
+      <c r="M26" s="15"/>
+      <c r="N26" s="19" t="s">
         <v>373</v>
       </c>
-      <c r="O26" s="19">
+      <c r="O26" s="20">
         <v>1</v>
       </c>
       <c r="P26" s="10" t="s">
@@ -4219,8 +4573,8 @@
       </c>
     </row>
     <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="21"/>
-      <c r="B27" s="15"/>
+      <c r="A27" s="15"/>
+      <c r="B27" s="22"/>
       <c r="C27" s="8" t="s">
         <v>280</v>
       </c>
@@ -4230,7 +4584,7 @@
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
-      <c r="H27" s="21"/>
+      <c r="H27" s="15"/>
       <c r="I27" s="17"/>
       <c r="J27" s="18"/>
       <c r="K27" s="8" t="s">
@@ -4239,9 +4593,9 @@
       <c r="L27" s="9">
         <v>21</v>
       </c>
-      <c r="M27" s="21"/>
-      <c r="N27" s="16"/>
-      <c r="O27" s="19"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="20"/>
       <c r="P27" s="10" t="s">
         <v>320</v>
       </c>
@@ -4250,8 +4604,8 @@
       </c>
     </row>
     <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="21"/>
-      <c r="B28" s="15"/>
+      <c r="A28" s="15"/>
+      <c r="B28" s="22"/>
       <c r="C28" s="8" t="s">
         <v>312</v>
       </c>
@@ -4261,7 +4615,7 @@
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
-      <c r="H28" s="21"/>
+      <c r="H28" s="15"/>
       <c r="I28" s="17"/>
       <c r="J28" s="18">
         <v>3</v>
@@ -4272,9 +4626,9 @@
       <c r="L28" s="9">
         <v>13</v>
       </c>
-      <c r="M28" s="21"/>
-      <c r="N28" s="16"/>
-      <c r="O28" s="19">
+      <c r="M28" s="15"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="20">
         <v>2</v>
       </c>
       <c r="P28" s="10" t="s">
@@ -4285,8 +4639,8 @@
       </c>
     </row>
     <row r="29" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="21"/>
-      <c r="B29" s="15"/>
+      <c r="A29" s="15"/>
+      <c r="B29" s="22"/>
       <c r="C29" s="8" t="s">
         <v>397</v>
       </c>
@@ -4296,7 +4650,7 @@
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
-      <c r="H29" s="21"/>
+      <c r="H29" s="15"/>
       <c r="I29" s="17"/>
       <c r="J29" s="18"/>
       <c r="K29" s="8" t="s">
@@ -4305,9 +4659,9 @@
       <c r="L29" s="9">
         <v>23</v>
       </c>
-      <c r="M29" s="21"/>
-      <c r="N29" s="16"/>
-      <c r="O29" s="19"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="20"/>
       <c r="P29" s="10" t="s">
         <v>261</v>
       </c>
@@ -4316,8 +4670,8 @@
       </c>
     </row>
     <row r="30" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="21"/>
-      <c r="B30" s="14">
+      <c r="A30" s="15"/>
+      <c r="B30" s="21">
         <v>0.44375000000000003</v>
       </c>
       <c r="C30" s="10" t="s">
@@ -4329,11 +4683,11 @@
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="16" t="s">
+      <c r="H30" s="15"/>
+      <c r="I30" s="19" t="s">
         <v>364</v>
       </c>
-      <c r="J30" s="19">
+      <c r="J30" s="20">
         <v>1</v>
       </c>
       <c r="K30" s="10" t="s">
@@ -4342,7 +4696,7 @@
       <c r="L30" s="11">
         <v>4</v>
       </c>
-      <c r="M30" s="21"/>
+      <c r="M30" s="15"/>
       <c r="N30" s="17" t="s">
         <v>374</v>
       </c>
@@ -4357,8 +4711,8 @@
       </c>
     </row>
     <row r="31" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="21"/>
-      <c r="B31" s="14"/>
+      <c r="A31" s="15"/>
+      <c r="B31" s="21"/>
       <c r="C31" s="10" t="s">
         <v>264</v>
       </c>
@@ -4368,16 +4722,16 @@
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="19"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="20"/>
       <c r="K31" s="10" t="s">
         <v>273</v>
       </c>
       <c r="L31" s="11">
         <v>6</v>
       </c>
-      <c r="M31" s="21"/>
+      <c r="M31" s="15"/>
       <c r="N31" s="17"/>
       <c r="O31" s="18"/>
       <c r="P31" s="8" t="s">
@@ -4388,8 +4742,8 @@
       </c>
     </row>
     <row r="32" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="21"/>
-      <c r="B32" s="14"/>
+      <c r="A32" s="15"/>
+      <c r="B32" s="21"/>
       <c r="C32" s="10" t="s">
         <v>390</v>
       </c>
@@ -4399,9 +4753,9 @@
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="19">
+      <c r="H32" s="15"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="20">
         <v>3</v>
       </c>
       <c r="K32" s="10" t="s">
@@ -4410,7 +4764,7 @@
       <c r="L32" s="11">
         <v>21</v>
       </c>
-      <c r="M32" s="21"/>
+      <c r="M32" s="15"/>
       <c r="N32" s="17"/>
       <c r="O32" s="18">
         <v>4</v>
@@ -4423,8 +4777,8 @@
       </c>
     </row>
     <row r="33" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="21"/>
-      <c r="B33" s="14"/>
+      <c r="A33" s="15"/>
+      <c r="B33" s="21"/>
       <c r="C33" s="10" t="s">
         <v>391</v>
       </c>
@@ -4434,16 +4788,16 @@
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="19"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="20"/>
       <c r="K33" s="10" t="s">
         <v>272</v>
       </c>
       <c r="L33" s="11">
         <v>11</v>
       </c>
-      <c r="M33" s="21"/>
+      <c r="M33" s="15"/>
       <c r="N33" s="17"/>
       <c r="O33" s="18"/>
       <c r="P33" s="12" t="s">
@@ -4454,8 +4808,8 @@
       </c>
     </row>
     <row r="34" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="21"/>
-      <c r="B34" s="15">
+      <c r="A34" s="15"/>
+      <c r="B34" s="22">
         <v>0.45</v>
       </c>
       <c r="C34" s="8" t="s">
@@ -4467,7 +4821,7 @@
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
-      <c r="H34" s="21"/>
+      <c r="H34" s="15"/>
       <c r="I34" s="17" t="s">
         <v>365</v>
       </c>
@@ -4480,11 +4834,11 @@
       <c r="L34" s="9">
         <v>13</v>
       </c>
-      <c r="M34" s="21"/>
-      <c r="N34" s="16" t="s">
+      <c r="M34" s="15"/>
+      <c r="N34" s="19" t="s">
         <v>375</v>
       </c>
-      <c r="O34" s="19">
+      <c r="O34" s="20">
         <v>1</v>
       </c>
       <c r="P34" s="10" t="s">
@@ -4495,8 +4849,8 @@
       </c>
     </row>
     <row r="35" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="21"/>
-      <c r="B35" s="15"/>
+      <c r="A35" s="15"/>
+      <c r="B35" s="22"/>
       <c r="C35" s="8" t="s">
         <v>265</v>
       </c>
@@ -4506,7 +4860,7 @@
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
-      <c r="H35" s="21"/>
+      <c r="H35" s="15"/>
       <c r="I35" s="17"/>
       <c r="J35" s="18"/>
       <c r="K35" s="8" t="s">
@@ -4515,9 +4869,9 @@
       <c r="L35" s="9">
         <v>14</v>
       </c>
-      <c r="M35" s="21"/>
-      <c r="N35" s="16"/>
-      <c r="O35" s="19"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="19"/>
+      <c r="O35" s="20"/>
       <c r="P35" s="10" t="s">
         <v>391</v>
       </c>
@@ -4526,8 +4880,8 @@
       </c>
     </row>
     <row r="36" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="21"/>
-      <c r="B36" s="15"/>
+      <c r="A36" s="15"/>
+      <c r="B36" s="22"/>
       <c r="C36" s="8" t="s">
         <v>261</v>
       </c>
@@ -4537,7 +4891,7 @@
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
-      <c r="H36" s="21"/>
+      <c r="H36" s="15"/>
       <c r="I36" s="17"/>
       <c r="J36" s="18">
         <v>2</v>
@@ -4548,9 +4902,9 @@
       <c r="L36" s="9">
         <v>15</v>
       </c>
-      <c r="M36" s="21"/>
-      <c r="N36" s="16"/>
-      <c r="O36" s="19">
+      <c r="M36" s="15"/>
+      <c r="N36" s="19"/>
+      <c r="O36" s="20">
         <v>1</v>
       </c>
       <c r="P36" s="10" t="s">
@@ -4561,8 +4915,8 @@
       </c>
     </row>
     <row r="37" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="21"/>
-      <c r="B37" s="15"/>
+      <c r="A37" s="15"/>
+      <c r="B37" s="22"/>
       <c r="C37" s="8" t="s">
         <v>259</v>
       </c>
@@ -4572,7 +4926,7 @@
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
-      <c r="H37" s="21"/>
+      <c r="H37" s="15"/>
       <c r="I37" s="17"/>
       <c r="J37" s="18"/>
       <c r="K37" s="8" t="s">
@@ -4581,9 +4935,9 @@
       <c r="L37" s="9">
         <v>8</v>
       </c>
-      <c r="M37" s="21"/>
-      <c r="N37" s="16"/>
-      <c r="O37" s="19"/>
+      <c r="M37" s="15"/>
+      <c r="N37" s="19"/>
+      <c r="O37" s="20"/>
       <c r="P37" s="13" t="s">
         <v>393</v>
       </c>
@@ -4592,8 +4946,8 @@
       </c>
     </row>
     <row r="38" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="21"/>
-      <c r="B38" s="14">
+      <c r="A38" s="15"/>
+      <c r="B38" s="21">
         <v>0.45624999999999999</v>
       </c>
       <c r="C38" s="10" t="s">
@@ -4605,11 +4959,11 @@
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="16">
+      <c r="H38" s="15"/>
+      <c r="I38" s="19">
         <v>7</v>
       </c>
-      <c r="J38" s="19">
+      <c r="J38" s="20">
         <v>4</v>
       </c>
       <c r="K38" s="10" t="s">
@@ -4618,7 +4972,7 @@
       <c r="L38" s="11">
         <v>30</v>
       </c>
-      <c r="M38" s="21"/>
+      <c r="M38" s="15"/>
       <c r="N38" s="17" t="s">
         <v>376</v>
       </c>
@@ -4633,8 +4987,8 @@
       </c>
     </row>
     <row r="39" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="21"/>
-      <c r="B39" s="14"/>
+      <c r="A39" s="15"/>
+      <c r="B39" s="21"/>
       <c r="C39" s="10" t="s">
         <v>273</v>
       </c>
@@ -4644,16 +4998,16 @@
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="16"/>
-      <c r="J39" s="19"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="20"/>
       <c r="K39" s="10" t="s">
         <v>276</v>
       </c>
       <c r="L39" s="11">
         <v>30</v>
       </c>
-      <c r="M39" s="21"/>
+      <c r="M39" s="15"/>
       <c r="N39" s="17"/>
       <c r="O39" s="18"/>
       <c r="P39" s="8" t="s">
@@ -4664,8 +5018,8 @@
       </c>
     </row>
     <row r="40" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="21"/>
-      <c r="B40" s="14"/>
+      <c r="A40" s="15"/>
+      <c r="B40" s="21"/>
       <c r="C40" s="10" t="s">
         <v>320</v>
       </c>
@@ -4675,9 +5029,9 @@
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
-      <c r="H40" s="21"/>
-      <c r="I40" s="16"/>
-      <c r="J40" s="19">
+      <c r="H40" s="15"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="20">
         <v>3</v>
       </c>
       <c r="K40" s="10" t="s">
@@ -4686,7 +5040,7 @@
       <c r="L40" s="11">
         <v>11</v>
       </c>
-      <c r="M40" s="21"/>
+      <c r="M40" s="15"/>
       <c r="N40" s="17"/>
       <c r="O40" s="18">
         <v>3</v>
@@ -4699,8 +5053,8 @@
       </c>
     </row>
     <row r="41" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="21"/>
-      <c r="B41" s="14"/>
+      <c r="A41" s="15"/>
+      <c r="B41" s="21"/>
       <c r="C41" s="10" t="s">
         <v>319</v>
       </c>
@@ -4710,16 +5064,16 @@
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
-      <c r="H41" s="21"/>
-      <c r="I41" s="16"/>
-      <c r="J41" s="19"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="20"/>
       <c r="K41" s="10" t="s">
         <v>277</v>
       </c>
       <c r="L41" s="11">
         <v>28</v>
       </c>
-      <c r="M41" s="21"/>
+      <c r="M41" s="15"/>
       <c r="N41" s="17"/>
       <c r="O41" s="18"/>
       <c r="P41" s="12" t="s">
@@ -4730,8 +5084,8 @@
       </c>
     </row>
     <row r="42" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="21"/>
-      <c r="B42" s="15">
+      <c r="A42" s="15"/>
+      <c r="B42" s="22">
         <v>0.46249999999999997</v>
       </c>
       <c r="C42" s="8" t="s">
@@ -4743,7 +5097,7 @@
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
-      <c r="H42" s="21"/>
+      <c r="H42" s="15"/>
       <c r="I42" s="17" t="s">
         <v>366</v>
       </c>
@@ -4756,11 +5110,11 @@
       <c r="L42" s="9">
         <v>34</v>
       </c>
-      <c r="M42" s="21"/>
-      <c r="N42" s="16" t="s">
+      <c r="M42" s="15"/>
+      <c r="N42" s="19" t="s">
         <v>389</v>
       </c>
-      <c r="O42" s="19">
+      <c r="O42" s="20">
         <v>4</v>
       </c>
       <c r="P42" s="10" t="s">
@@ -4771,8 +5125,8 @@
       </c>
     </row>
     <row r="43" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="21"/>
-      <c r="B43" s="15"/>
+      <c r="A43" s="15"/>
+      <c r="B43" s="22"/>
       <c r="C43" s="8" t="s">
         <v>348</v>
       </c>
@@ -4782,7 +5136,7 @@
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
-      <c r="H43" s="21"/>
+      <c r="H43" s="15"/>
       <c r="I43" s="17"/>
       <c r="J43" s="18"/>
       <c r="K43" s="8" t="s">
@@ -4791,9 +5145,9 @@
       <c r="L43" s="9">
         <v>17</v>
       </c>
-      <c r="M43" s="21"/>
-      <c r="N43" s="16"/>
-      <c r="O43" s="19"/>
+      <c r="M43" s="15"/>
+      <c r="N43" s="19"/>
+      <c r="O43" s="20"/>
       <c r="P43" s="10" t="s">
         <v>281</v>
       </c>
@@ -4802,8 +5156,8 @@
       </c>
     </row>
     <row r="44" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="21"/>
-      <c r="B44" s="15"/>
+      <c r="A44" s="15"/>
+      <c r="B44" s="22"/>
       <c r="C44" s="8" t="s">
         <v>286</v>
       </c>
@@ -4813,7 +5167,7 @@
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
-      <c r="H44" s="21"/>
+      <c r="H44" s="15"/>
       <c r="I44" s="17"/>
       <c r="J44" s="18">
         <v>1</v>
@@ -4824,9 +5178,9 @@
       <c r="L44" s="9">
         <v>10</v>
       </c>
-      <c r="M44" s="21"/>
-      <c r="N44" s="16"/>
-      <c r="O44" s="19">
+      <c r="M44" s="15"/>
+      <c r="N44" s="19"/>
+      <c r="O44" s="20">
         <v>4</v>
       </c>
       <c r="P44" s="10" t="s">
@@ -4837,8 +5191,8 @@
       </c>
     </row>
     <row r="45" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="22"/>
-      <c r="B45" s="15"/>
+      <c r="A45" s="16"/>
+      <c r="B45" s="22"/>
       <c r="C45" s="8" t="s">
         <v>289</v>
       </c>
@@ -4848,7 +5202,7 @@
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
-      <c r="H45" s="22"/>
+      <c r="H45" s="16"/>
       <c r="I45" s="17"/>
       <c r="J45" s="18"/>
       <c r="K45" s="8" t="s">
@@ -4857,9 +5211,9 @@
       <c r="L45" s="9">
         <v>7</v>
       </c>
-      <c r="M45" s="22"/>
-      <c r="N45" s="16"/>
-      <c r="O45" s="19"/>
+      <c r="M45" s="16"/>
+      <c r="N45" s="19"/>
+      <c r="O45" s="20"/>
       <c r="P45" s="13" t="s">
         <v>280</v>
       </c>
@@ -4868,7 +5222,7 @@
       </c>
     </row>
     <row r="46" spans="1:17" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="20"/>
+      <c r="A46" s="14"/>
       <c r="B46" s="7" t="s">
         <v>352</v>
       </c>
@@ -4887,7 +5241,7 @@
       <c r="G46" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="H46" s="20"/>
+      <c r="H46" s="14"/>
       <c r="I46" s="7" t="s">
         <v>341</v>
       </c>
@@ -4900,7 +5254,7 @@
       <c r="L46" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="M46" s="20"/>
+      <c r="M46" s="14"/>
       <c r="N46" s="7" t="s">
         <v>341</v>
       </c>
@@ -4915,8 +5269,8 @@
       </c>
     </row>
     <row r="47" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="21"/>
-      <c r="B47" s="14">
+      <c r="A47" s="15"/>
+      <c r="B47" s="21">
         <v>0.46875</v>
       </c>
       <c r="C47" s="10" t="s">
@@ -4928,7 +5282,7 @@
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
-      <c r="H47" s="21"/>
+      <c r="H47" s="15"/>
       <c r="I47" s="17" t="s">
         <v>358</v>
       </c>
@@ -4941,11 +5295,11 @@
       <c r="L47" s="9">
         <v>8</v>
       </c>
-      <c r="M47" s="21"/>
-      <c r="N47" s="16" t="s">
+      <c r="M47" s="15"/>
+      <c r="N47" s="19" t="s">
         <v>366</v>
       </c>
-      <c r="O47" s="19">
+      <c r="O47" s="20">
         <v>2</v>
       </c>
       <c r="P47" s="10" t="s">
@@ -4956,8 +5310,8 @@
       </c>
     </row>
     <row r="48" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="21"/>
-      <c r="B48" s="14"/>
+      <c r="A48" s="15"/>
+      <c r="B48" s="21"/>
       <c r="C48" s="10" t="s">
         <v>327</v>
       </c>
@@ -4967,7 +5321,7 @@
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
-      <c r="H48" s="21"/>
+      <c r="H48" s="15"/>
       <c r="I48" s="17"/>
       <c r="J48" s="18"/>
       <c r="K48" s="8" t="s">
@@ -4976,9 +5330,9 @@
       <c r="L48" s="9">
         <v>2</v>
       </c>
-      <c r="M48" s="21"/>
-      <c r="N48" s="16"/>
-      <c r="O48" s="19"/>
+      <c r="M48" s="15"/>
+      <c r="N48" s="19"/>
+      <c r="O48" s="20"/>
       <c r="P48" s="10" t="s">
         <v>264</v>
       </c>
@@ -4987,8 +5341,8 @@
       </c>
     </row>
     <row r="49" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="21"/>
-      <c r="B49" s="14"/>
+      <c r="A49" s="15"/>
+      <c r="B49" s="21"/>
       <c r="C49" s="10" t="s">
         <v>271</v>
       </c>
@@ -4998,7 +5352,7 @@
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
-      <c r="H49" s="21"/>
+      <c r="H49" s="15"/>
       <c r="I49" s="17"/>
       <c r="J49" s="18">
         <v>1</v>
@@ -5009,9 +5363,9 @@
       <c r="L49" s="9">
         <v>3</v>
       </c>
-      <c r="M49" s="21"/>
-      <c r="N49" s="16"/>
-      <c r="O49" s="19">
+      <c r="M49" s="15"/>
+      <c r="N49" s="19"/>
+      <c r="O49" s="20">
         <v>1</v>
       </c>
       <c r="P49" s="10" t="s">
@@ -5022,8 +5376,8 @@
       </c>
     </row>
     <row r="50" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="21"/>
-      <c r="B50" s="14"/>
+      <c r="A50" s="15"/>
+      <c r="B50" s="21"/>
       <c r="C50" s="10" t="s">
         <v>272</v>
       </c>
@@ -5033,7 +5387,7 @@
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
       <c r="G50" s="10"/>
-      <c r="H50" s="21"/>
+      <c r="H50" s="15"/>
       <c r="I50" s="17"/>
       <c r="J50" s="18"/>
       <c r="K50" s="8" t="s">
@@ -5042,9 +5396,9 @@
       <c r="L50" s="9">
         <v>5</v>
       </c>
-      <c r="M50" s="21"/>
-      <c r="N50" s="16"/>
-      <c r="O50" s="19"/>
+      <c r="M50" s="15"/>
+      <c r="N50" s="19"/>
+      <c r="O50" s="20"/>
       <c r="P50" s="10" t="s">
         <v>273</v>
       </c>
@@ -5053,8 +5407,8 @@
       </c>
     </row>
     <row r="51" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="21"/>
-      <c r="B51" s="15">
+      <c r="A51" s="15"/>
+      <c r="B51" s="22">
         <v>0.47500000000000003</v>
       </c>
       <c r="C51" s="8" t="s">
@@ -5066,11 +5420,11 @@
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
-      <c r="H51" s="21"/>
-      <c r="I51" s="16" t="s">
+      <c r="H51" s="15"/>
+      <c r="I51" s="19" t="s">
         <v>359</v>
       </c>
-      <c r="J51" s="19">
+      <c r="J51" s="20">
         <v>1</v>
       </c>
       <c r="K51" s="10" t="s">
@@ -5079,7 +5433,7 @@
       <c r="L51" s="11">
         <v>12</v>
       </c>
-      <c r="M51" s="21"/>
+      <c r="M51" s="15"/>
       <c r="N51" s="17" t="s">
         <v>367</v>
       </c>
@@ -5094,8 +5448,8 @@
       </c>
     </row>
     <row r="52" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="21"/>
-      <c r="B52" s="15"/>
+      <c r="A52" s="15"/>
+      <c r="B52" s="22"/>
       <c r="C52" s="8" t="s">
         <v>328</v>
       </c>
@@ -5105,16 +5459,16 @@
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
-      <c r="H52" s="21"/>
-      <c r="I52" s="16"/>
-      <c r="J52" s="19"/>
+      <c r="H52" s="15"/>
+      <c r="I52" s="19"/>
+      <c r="J52" s="20"/>
       <c r="K52" s="10" t="s">
         <v>268</v>
       </c>
       <c r="L52" s="11">
         <v>4</v>
       </c>
-      <c r="M52" s="21"/>
+      <c r="M52" s="15"/>
       <c r="N52" s="17"/>
       <c r="O52" s="18"/>
       <c r="P52" s="8" t="s">
@@ -5125,8 +5479,8 @@
       </c>
     </row>
     <row r="53" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="21"/>
-      <c r="B53" s="15"/>
+      <c r="A53" s="15"/>
+      <c r="B53" s="22"/>
       <c r="C53" s="8" t="s">
         <v>317</v>
       </c>
@@ -5136,9 +5490,9 @@
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
-      <c r="H53" s="21"/>
-      <c r="I53" s="16"/>
-      <c r="J53" s="19">
+      <c r="H53" s="15"/>
+      <c r="I53" s="19"/>
+      <c r="J53" s="20">
         <v>4</v>
       </c>
       <c r="K53" s="10" t="s">
@@ -5147,7 +5501,7 @@
       <c r="L53" s="11">
         <v>23</v>
       </c>
-      <c r="M53" s="21"/>
+      <c r="M53" s="15"/>
       <c r="N53" s="17"/>
       <c r="O53" s="18">
         <v>4</v>
@@ -5160,8 +5514,8 @@
       </c>
     </row>
     <row r="54" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="21"/>
-      <c r="B54" s="15"/>
+      <c r="A54" s="15"/>
+      <c r="B54" s="22"/>
       <c r="C54" s="8" t="s">
         <v>318</v>
       </c>
@@ -5171,16 +5525,16 @@
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
-      <c r="H54" s="21"/>
-      <c r="I54" s="16"/>
-      <c r="J54" s="19"/>
+      <c r="H54" s="15"/>
+      <c r="I54" s="19"/>
+      <c r="J54" s="20"/>
       <c r="K54" s="10" t="s">
         <v>335</v>
       </c>
       <c r="L54" s="11">
         <v>20</v>
       </c>
-      <c r="M54" s="21"/>
+      <c r="M54" s="15"/>
       <c r="N54" s="17"/>
       <c r="O54" s="18"/>
       <c r="P54" s="8" t="s">
@@ -5191,8 +5545,8 @@
       </c>
     </row>
     <row r="55" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="21"/>
-      <c r="B55" s="14">
+      <c r="A55" s="15"/>
+      <c r="B55" s="21">
         <v>0.48125000000000001</v>
       </c>
       <c r="C55" s="10" t="s">
@@ -5204,7 +5558,7 @@
       <c r="E55" s="10"/>
       <c r="F55" s="10"/>
       <c r="G55" s="10"/>
-      <c r="H55" s="21"/>
+      <c r="H55" s="15"/>
       <c r="I55" s="17" t="s">
         <v>381</v>
       </c>
@@ -5217,11 +5571,11 @@
       <c r="L55" s="9">
         <v>11</v>
       </c>
-      <c r="M55" s="21"/>
-      <c r="N55" s="16">
+      <c r="M55" s="15"/>
+      <c r="N55" s="19">
         <v>5</v>
       </c>
-      <c r="O55" s="19">
+      <c r="O55" s="20">
         <v>2</v>
       </c>
       <c r="P55" s="10" t="s">
@@ -5232,8 +5586,8 @@
       </c>
     </row>
     <row r="56" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="21"/>
-      <c r="B56" s="14"/>
+      <c r="A56" s="15"/>
+      <c r="B56" s="21"/>
       <c r="C56" s="10" t="s">
         <v>337</v>
       </c>
@@ -5243,7 +5597,7 @@
       <c r="E56" s="10"/>
       <c r="F56" s="10"/>
       <c r="G56" s="10"/>
-      <c r="H56" s="21"/>
+      <c r="H56" s="15"/>
       <c r="I56" s="17"/>
       <c r="J56" s="18"/>
       <c r="K56" s="8" t="s">
@@ -5252,9 +5606,9 @@
       <c r="L56" s="9">
         <v>7</v>
       </c>
-      <c r="M56" s="21"/>
-      <c r="N56" s="16"/>
-      <c r="O56" s="19"/>
+      <c r="M56" s="15"/>
+      <c r="N56" s="19"/>
+      <c r="O56" s="20"/>
       <c r="P56" s="10" t="s">
         <v>328</v>
       </c>
@@ -5263,8 +5617,8 @@
       </c>
     </row>
     <row r="57" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="21"/>
-      <c r="B57" s="14"/>
+      <c r="A57" s="15"/>
+      <c r="B57" s="21"/>
       <c r="C57" s="10" t="s">
         <v>340</v>
       </c>
@@ -5274,7 +5628,7 @@
       <c r="E57" s="10"/>
       <c r="F57" s="10"/>
       <c r="G57" s="10"/>
-      <c r="H57" s="21"/>
+      <c r="H57" s="15"/>
       <c r="I57" s="17"/>
       <c r="J57" s="18">
         <v>2</v>
@@ -5285,9 +5639,9 @@
       <c r="L57" s="9">
         <v>7</v>
       </c>
-      <c r="M57" s="21"/>
-      <c r="N57" s="16"/>
-      <c r="O57" s="19">
+      <c r="M57" s="15"/>
+      <c r="N57" s="19"/>
+      <c r="O57" s="20">
         <v>2</v>
       </c>
       <c r="P57" s="10" t="s">
@@ -5298,8 +5652,8 @@
       </c>
     </row>
     <row r="58" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="21"/>
-      <c r="B58" s="14"/>
+      <c r="A58" s="15"/>
+      <c r="B58" s="21"/>
       <c r="C58" s="10" t="s">
         <v>339</v>
       </c>
@@ -5309,7 +5663,7 @@
       <c r="E58" s="10"/>
       <c r="F58" s="10"/>
       <c r="G58" s="10"/>
-      <c r="H58" s="21"/>
+      <c r="H58" s="15"/>
       <c r="I58" s="17"/>
       <c r="J58" s="18"/>
       <c r="K58" s="8" t="s">
@@ -5318,9 +5672,9 @@
       <c r="L58" s="9">
         <v>16</v>
       </c>
-      <c r="M58" s="21"/>
-      <c r="N58" s="16"/>
-      <c r="O58" s="19"/>
+      <c r="M58" s="15"/>
+      <c r="N58" s="19"/>
+      <c r="O58" s="20"/>
       <c r="P58" s="10" t="s">
         <v>302</v>
       </c>
@@ -5329,8 +5683,8 @@
       </c>
     </row>
     <row r="59" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="21"/>
-      <c r="B59" s="15">
+      <c r="A59" s="15"/>
+      <c r="B59" s="22">
         <v>0.48749999999999999</v>
       </c>
       <c r="C59" s="8" t="s">
@@ -5342,11 +5696,11 @@
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
-      <c r="H59" s="21"/>
-      <c r="I59" s="16" t="s">
+      <c r="H59" s="15"/>
+      <c r="I59" s="19" t="s">
         <v>380</v>
       </c>
-      <c r="J59" s="19">
+      <c r="J59" s="20">
         <v>2</v>
       </c>
       <c r="K59" s="10" t="s">
@@ -5355,7 +5709,7 @@
       <c r="L59" s="11">
         <v>13</v>
       </c>
-      <c r="M59" s="21"/>
+      <c r="M59" s="15"/>
       <c r="N59" s="17" t="s">
         <v>372</v>
       </c>
@@ -5370,8 +5724,8 @@
       </c>
     </row>
     <row r="60" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="21"/>
-      <c r="B60" s="15"/>
+      <c r="A60" s="15"/>
+      <c r="B60" s="22"/>
       <c r="C60" s="8" t="s">
         <v>331</v>
       </c>
@@ -5381,16 +5735,16 @@
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
-      <c r="H60" s="21"/>
-      <c r="I60" s="16"/>
-      <c r="J60" s="19"/>
+      <c r="H60" s="15"/>
+      <c r="I60" s="19"/>
+      <c r="J60" s="20"/>
       <c r="K60" s="10" t="s">
         <v>295</v>
       </c>
       <c r="L60" s="11">
         <v>14</v>
       </c>
-      <c r="M60" s="21"/>
+      <c r="M60" s="15"/>
       <c r="N60" s="17"/>
       <c r="O60" s="18"/>
       <c r="P60" s="8" t="s">
@@ -5401,8 +5755,8 @@
       </c>
     </row>
     <row r="61" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="21"/>
-      <c r="B61" s="15"/>
+      <c r="A61" s="15"/>
+      <c r="B61" s="22"/>
       <c r="C61" s="8" t="s">
         <v>313</v>
       </c>
@@ -5412,9 +5766,9 @@
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
-      <c r="H61" s="21"/>
-      <c r="I61" s="16"/>
-      <c r="J61" s="19">
+      <c r="H61" s="15"/>
+      <c r="I61" s="19"/>
+      <c r="J61" s="20">
         <v>1</v>
       </c>
       <c r="K61" s="10" t="s">
@@ -5423,7 +5777,7 @@
       <c r="L61" s="11">
         <v>2</v>
       </c>
-      <c r="M61" s="21"/>
+      <c r="M61" s="15"/>
       <c r="N61" s="17"/>
       <c r="O61" s="18">
         <v>2</v>
@@ -5436,8 +5790,8 @@
       </c>
     </row>
     <row r="62" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="21"/>
-      <c r="B62" s="15"/>
+      <c r="A62" s="15"/>
+      <c r="B62" s="22"/>
       <c r="C62" s="8" t="s">
         <v>316</v>
       </c>
@@ -5447,16 +5801,16 @@
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
-      <c r="H62" s="21"/>
-      <c r="I62" s="16"/>
-      <c r="J62" s="19"/>
+      <c r="H62" s="15"/>
+      <c r="I62" s="19"/>
+      <c r="J62" s="20"/>
       <c r="K62" s="10" t="s">
         <v>306</v>
       </c>
       <c r="L62" s="11">
         <v>4</v>
       </c>
-      <c r="M62" s="21"/>
+      <c r="M62" s="15"/>
       <c r="N62" s="17"/>
       <c r="O62" s="18"/>
       <c r="P62" s="8" t="s">
@@ -5467,8 +5821,8 @@
       </c>
     </row>
     <row r="63" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="21"/>
-      <c r="B63" s="14">
+      <c r="A63" s="15"/>
+      <c r="B63" s="21">
         <v>0.49374999999999997</v>
       </c>
       <c r="C63" s="10" t="s">
@@ -5480,7 +5834,7 @@
       <c r="E63" s="10"/>
       <c r="F63" s="10"/>
       <c r="G63" s="10"/>
-      <c r="H63" s="21"/>
+      <c r="H63" s="15"/>
       <c r="I63" s="17" t="s">
         <v>360</v>
       </c>
@@ -5493,11 +5847,11 @@
       <c r="L63" s="9">
         <v>16</v>
       </c>
-      <c r="M63" s="21"/>
-      <c r="N63" s="16" t="s">
+      <c r="M63" s="15"/>
+      <c r="N63" s="19" t="s">
         <v>377</v>
       </c>
-      <c r="O63" s="19">
+      <c r="O63" s="20">
         <v>4</v>
       </c>
       <c r="P63" s="10" t="s">
@@ -5508,8 +5862,8 @@
       </c>
     </row>
     <row r="64" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="21"/>
-      <c r="B64" s="14"/>
+      <c r="A64" s="15"/>
+      <c r="B64" s="21"/>
       <c r="C64" s="10" t="s">
         <v>302</v>
       </c>
@@ -5519,7 +5873,7 @@
       <c r="E64" s="10"/>
       <c r="F64" s="10"/>
       <c r="G64" s="10"/>
-      <c r="H64" s="21"/>
+      <c r="H64" s="15"/>
       <c r="I64" s="17"/>
       <c r="J64" s="18"/>
       <c r="K64" s="8" t="s">
@@ -5528,9 +5882,9 @@
       <c r="L64" s="9">
         <v>8</v>
       </c>
-      <c r="M64" s="21"/>
-      <c r="N64" s="16"/>
-      <c r="O64" s="19"/>
+      <c r="M64" s="15"/>
+      <c r="N64" s="19"/>
+      <c r="O64" s="20"/>
       <c r="P64" s="10" t="s">
         <v>338</v>
       </c>
@@ -5539,8 +5893,8 @@
       </c>
     </row>
     <row r="65" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="21"/>
-      <c r="B65" s="14"/>
+      <c r="A65" s="15"/>
+      <c r="B65" s="21"/>
       <c r="C65" s="10" t="s">
         <v>303</v>
       </c>
@@ -5550,7 +5904,7 @@
       <c r="E65" s="10"/>
       <c r="F65" s="10"/>
       <c r="G65" s="10"/>
-      <c r="H65" s="21"/>
+      <c r="H65" s="15"/>
       <c r="I65" s="17"/>
       <c r="J65" s="18">
         <v>2</v>
@@ -5561,9 +5915,9 @@
       <c r="L65" s="9">
         <v>7</v>
       </c>
-      <c r="M65" s="21"/>
-      <c r="N65" s="16"/>
-      <c r="O65" s="19">
+      <c r="M65" s="15"/>
+      <c r="N65" s="19"/>
+      <c r="O65" s="20">
         <v>4</v>
       </c>
       <c r="P65" s="10" t="s">
@@ -5574,8 +5928,8 @@
       </c>
     </row>
     <row r="66" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="21"/>
-      <c r="B66" s="14"/>
+      <c r="A66" s="15"/>
+      <c r="B66" s="21"/>
       <c r="C66" s="10" t="s">
         <v>304</v>
       </c>
@@ -5585,7 +5939,7 @@
       <c r="E66" s="10"/>
       <c r="F66" s="10"/>
       <c r="G66" s="10"/>
-      <c r="H66" s="21"/>
+      <c r="H66" s="15"/>
       <c r="I66" s="17"/>
       <c r="J66" s="18"/>
       <c r="K66" s="8" t="s">
@@ -5594,9 +5948,9 @@
       <c r="L66" s="9">
         <v>12</v>
       </c>
-      <c r="M66" s="21"/>
-      <c r="N66" s="16"/>
-      <c r="O66" s="19"/>
+      <c r="M66" s="15"/>
+      <c r="N66" s="19"/>
+      <c r="O66" s="20"/>
       <c r="P66" s="10" t="s">
         <v>300</v>
       </c>
@@ -5605,8 +5959,8 @@
       </c>
     </row>
     <row r="67" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="21"/>
-      <c r="B67" s="15">
+      <c r="A67" s="15"/>
+      <c r="B67" s="22">
         <v>0.5</v>
       </c>
       <c r="C67" s="8" t="s">
@@ -5618,11 +5972,11 @@
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
-      <c r="H67" s="21"/>
-      <c r="I67" s="16" t="s">
+      <c r="H67" s="15"/>
+      <c r="I67" s="19" t="s">
         <v>361</v>
       </c>
-      <c r="J67" s="19">
+      <c r="J67" s="20">
         <v>3</v>
       </c>
       <c r="K67" s="10" t="s">
@@ -5631,7 +5985,7 @@
       <c r="L67" s="11">
         <v>22</v>
       </c>
-      <c r="M67" s="21"/>
+      <c r="M67" s="15"/>
       <c r="N67" s="17" t="s">
         <v>370</v>
       </c>
@@ -5646,8 +6000,8 @@
       </c>
     </row>
     <row r="68" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="21"/>
-      <c r="B68" s="15"/>
+      <c r="A68" s="15"/>
+      <c r="B68" s="22"/>
       <c r="C68" s="8" t="s">
         <v>300</v>
       </c>
@@ -5657,16 +6011,16 @@
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
-      <c r="H68" s="21"/>
-      <c r="I68" s="16"/>
-      <c r="J68" s="19"/>
+      <c r="H68" s="15"/>
+      <c r="I68" s="19"/>
+      <c r="J68" s="20"/>
       <c r="K68" s="10" t="s">
         <v>292</v>
       </c>
       <c r="L68" s="11">
         <v>10</v>
       </c>
-      <c r="M68" s="21"/>
+      <c r="M68" s="15"/>
       <c r="N68" s="17"/>
       <c r="O68" s="18"/>
       <c r="P68" s="8" t="s">
@@ -5677,8 +6031,8 @@
       </c>
     </row>
     <row r="69" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="21"/>
-      <c r="B69" s="15"/>
+      <c r="A69" s="15"/>
+      <c r="B69" s="22"/>
       <c r="C69" s="8" t="s">
         <v>349</v>
       </c>
@@ -5688,9 +6042,9 @@
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
-      <c r="H69" s="21"/>
-      <c r="I69" s="16"/>
-      <c r="J69" s="19">
+      <c r="H69" s="15"/>
+      <c r="I69" s="19"/>
+      <c r="J69" s="20">
         <v>1</v>
       </c>
       <c r="K69" s="10" t="s">
@@ -5699,7 +6053,7 @@
       <c r="L69" s="11">
         <v>10</v>
       </c>
-      <c r="M69" s="21"/>
+      <c r="M69" s="15"/>
       <c r="N69" s="17"/>
       <c r="O69" s="18">
         <v>3</v>
@@ -5712,23 +6066,23 @@
       </c>
     </row>
     <row r="70" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="21"/>
-      <c r="B70" s="15"/>
+      <c r="A70" s="15"/>
+      <c r="B70" s="22"/>
       <c r="C70" s="12"/>
       <c r="D70" s="9"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
-      <c r="H70" s="21"/>
-      <c r="I70" s="16"/>
-      <c r="J70" s="19"/>
+      <c r="H70" s="15"/>
+      <c r="I70" s="19"/>
+      <c r="J70" s="20"/>
       <c r="K70" s="10" t="s">
         <v>311</v>
       </c>
       <c r="L70" s="11">
         <v>7</v>
       </c>
-      <c r="M70" s="21"/>
+      <c r="M70" s="15"/>
       <c r="N70" s="17"/>
       <c r="O70" s="18"/>
       <c r="P70" s="12" t="s">
@@ -5739,8 +6093,8 @@
       </c>
     </row>
     <row r="71" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="21"/>
-      <c r="B71" s="14">
+      <c r="A71" s="15"/>
+      <c r="B71" s="21">
         <v>0.50624999999999998</v>
       </c>
       <c r="C71" s="10" t="s">
@@ -5752,7 +6106,7 @@
       <c r="E71" s="10"/>
       <c r="F71" s="10"/>
       <c r="G71" s="10"/>
-      <c r="H71" s="21"/>
+      <c r="H71" s="15"/>
       <c r="I71" s="17" t="s">
         <v>362</v>
       </c>
@@ -5765,11 +6119,11 @@
       <c r="L71" s="9">
         <v>21</v>
       </c>
-      <c r="M71" s="21"/>
-      <c r="N71" s="16" t="s">
+      <c r="M71" s="15"/>
+      <c r="N71" s="19" t="s">
         <v>371</v>
       </c>
-      <c r="O71" s="19">
+      <c r="O71" s="20">
         <v>4</v>
       </c>
       <c r="P71" s="10" t="s">
@@ -5780,8 +6134,8 @@
       </c>
     </row>
     <row r="72" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="21"/>
-      <c r="B72" s="14"/>
+      <c r="A72" s="15"/>
+      <c r="B72" s="21"/>
       <c r="C72" s="10" t="s">
         <v>332</v>
       </c>
@@ -5791,7 +6145,7 @@
       <c r="E72" s="10"/>
       <c r="F72" s="10"/>
       <c r="G72" s="10"/>
-      <c r="H72" s="21"/>
+      <c r="H72" s="15"/>
       <c r="I72" s="17"/>
       <c r="J72" s="18"/>
       <c r="K72" s="8" t="s">
@@ -5800,9 +6154,9 @@
       <c r="L72" s="9">
         <v>17</v>
       </c>
-      <c r="M72" s="21"/>
-      <c r="N72" s="16"/>
-      <c r="O72" s="19"/>
+      <c r="M72" s="15"/>
+      <c r="N72" s="19"/>
+      <c r="O72" s="20"/>
       <c r="P72" s="10" t="s">
         <v>288</v>
       </c>
@@ -5811,8 +6165,8 @@
       </c>
     </row>
     <row r="73" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="21"/>
-      <c r="B73" s="14"/>
+      <c r="A73" s="15"/>
+      <c r="B73" s="21"/>
       <c r="C73" s="10" t="s">
         <v>262</v>
       </c>
@@ -5822,7 +6176,7 @@
       <c r="E73" s="10"/>
       <c r="F73" s="10"/>
       <c r="G73" s="10"/>
-      <c r="H73" s="21"/>
+      <c r="H73" s="15"/>
       <c r="I73" s="17"/>
       <c r="J73" s="18">
         <v>1</v>
@@ -5833,9 +6187,9 @@
       <c r="L73" s="9">
         <v>5</v>
       </c>
-      <c r="M73" s="21"/>
-      <c r="N73" s="16"/>
-      <c r="O73" s="19">
+      <c r="M73" s="15"/>
+      <c r="N73" s="19"/>
+      <c r="O73" s="20">
         <v>4</v>
       </c>
       <c r="P73" s="10" t="s">
@@ -5846,8 +6200,8 @@
       </c>
     </row>
     <row r="74" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="21"/>
-      <c r="B74" s="14"/>
+      <c r="A74" s="15"/>
+      <c r="B74" s="21"/>
       <c r="C74" s="10" t="s">
         <v>260</v>
       </c>
@@ -5857,7 +6211,7 @@
       <c r="E74" s="10"/>
       <c r="F74" s="10"/>
       <c r="G74" s="10"/>
-      <c r="H74" s="21"/>
+      <c r="H74" s="15"/>
       <c r="I74" s="17"/>
       <c r="J74" s="18"/>
       <c r="K74" s="8" t="s">
@@ -5866,9 +6220,9 @@
       <c r="L74" s="9">
         <v>10</v>
       </c>
-      <c r="M74" s="21"/>
-      <c r="N74" s="16"/>
-      <c r="O74" s="19"/>
+      <c r="M74" s="15"/>
+      <c r="N74" s="19"/>
+      <c r="O74" s="20"/>
       <c r="P74" s="10" t="s">
         <v>312</v>
       </c>
@@ -5877,8 +6231,8 @@
       </c>
     </row>
     <row r="75" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="21"/>
-      <c r="B75" s="15">
+      <c r="A75" s="15"/>
+      <c r="B75" s="22">
         <v>0.51250000000000007</v>
       </c>
       <c r="C75" s="8" t="s">
@@ -5890,11 +6244,11 @@
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
-      <c r="H75" s="21"/>
-      <c r="I75" s="16" t="s">
+      <c r="H75" s="15"/>
+      <c r="I75" s="19" t="s">
         <v>363</v>
       </c>
-      <c r="J75" s="19">
+      <c r="J75" s="20">
         <v>1</v>
       </c>
       <c r="K75" s="10" t="s">
@@ -5903,7 +6257,7 @@
       <c r="L75" s="11">
         <v>9</v>
       </c>
-      <c r="M75" s="21"/>
+      <c r="M75" s="15"/>
       <c r="N75" s="17" t="s">
         <v>373</v>
       </c>
@@ -5918,8 +6272,8 @@
       </c>
     </row>
     <row r="76" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="21"/>
-      <c r="B76" s="15"/>
+      <c r="A76" s="15"/>
+      <c r="B76" s="22"/>
       <c r="C76" s="8" t="s">
         <v>284</v>
       </c>
@@ -5929,16 +6283,16 @@
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
-      <c r="H76" s="21"/>
-      <c r="I76" s="16"/>
-      <c r="J76" s="19"/>
+      <c r="H76" s="15"/>
+      <c r="I76" s="19"/>
+      <c r="J76" s="20"/>
       <c r="K76" s="10" t="s">
         <v>391</v>
       </c>
       <c r="L76" s="11">
         <v>7</v>
       </c>
-      <c r="M76" s="21"/>
+      <c r="M76" s="15"/>
       <c r="N76" s="17"/>
       <c r="O76" s="18"/>
       <c r="P76" s="8" t="s">
@@ -5949,8 +6303,8 @@
       </c>
     </row>
     <row r="77" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="21"/>
-      <c r="B77" s="15"/>
+      <c r="A77" s="15"/>
+      <c r="B77" s="22"/>
       <c r="C77" s="8" t="s">
         <v>283</v>
       </c>
@@ -5960,9 +6314,9 @@
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
-      <c r="H77" s="21"/>
-      <c r="I77" s="16"/>
-      <c r="J77" s="19">
+      <c r="H77" s="15"/>
+      <c r="I77" s="19"/>
+      <c r="J77" s="20">
         <v>1</v>
       </c>
       <c r="K77" s="10" t="s">
@@ -5971,7 +6325,7 @@
       <c r="L77" s="11">
         <v>9</v>
       </c>
-      <c r="M77" s="21"/>
+      <c r="M77" s="15"/>
       <c r="N77" s="17"/>
       <c r="O77" s="18">
         <v>4</v>
@@ -5984,23 +6338,23 @@
       </c>
     </row>
     <row r="78" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="21"/>
-      <c r="B78" s="15"/>
+      <c r="A78" s="15"/>
+      <c r="B78" s="22"/>
       <c r="C78" s="12"/>
       <c r="D78" s="9"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
-      <c r="H78" s="21"/>
-      <c r="I78" s="16"/>
-      <c r="J78" s="19"/>
+      <c r="H78" s="15"/>
+      <c r="I78" s="19"/>
+      <c r="J78" s="20"/>
       <c r="K78" s="10" t="s">
         <v>393</v>
       </c>
       <c r="L78" s="11">
         <v>5</v>
       </c>
-      <c r="M78" s="21"/>
+      <c r="M78" s="15"/>
       <c r="N78" s="17"/>
       <c r="O78" s="18"/>
       <c r="P78" s="12" t="s">
@@ -6011,8 +6365,8 @@
       </c>
     </row>
     <row r="79" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="21"/>
-      <c r="B79" s="14">
+      <c r="A79" s="15"/>
+      <c r="B79" s="21">
         <v>0.51874999999999993</v>
       </c>
       <c r="C79" s="10" t="s">
@@ -6024,7 +6378,7 @@
       <c r="E79" s="10"/>
       <c r="F79" s="10"/>
       <c r="G79" s="10"/>
-      <c r="H79" s="21"/>
+      <c r="H79" s="15"/>
       <c r="I79" s="17">
         <v>8</v>
       </c>
@@ -6037,11 +6391,11 @@
       <c r="L79" s="9">
         <v>5</v>
       </c>
-      <c r="M79" s="21"/>
-      <c r="N79" s="16" t="s">
+      <c r="M79" s="15"/>
+      <c r="N79" s="19" t="s">
         <v>374</v>
       </c>
-      <c r="O79" s="19">
+      <c r="O79" s="20">
         <v>3</v>
       </c>
       <c r="P79" s="10" t="s">
@@ -6052,8 +6406,8 @@
       </c>
     </row>
     <row r="80" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="21"/>
-      <c r="B80" s="14"/>
+      <c r="A80" s="15"/>
+      <c r="B80" s="21"/>
       <c r="C80" s="10" t="s">
         <v>350</v>
       </c>
@@ -6063,7 +6417,7 @@
       <c r="E80" s="10"/>
       <c r="F80" s="10"/>
       <c r="G80" s="10"/>
-      <c r="H80" s="21"/>
+      <c r="H80" s="15"/>
       <c r="I80" s="17"/>
       <c r="J80" s="18"/>
       <c r="K80" s="8" t="s">
@@ -6072,9 +6426,9 @@
       <c r="L80" s="9">
         <v>11</v>
       </c>
-      <c r="M80" s="21"/>
-      <c r="N80" s="16"/>
-      <c r="O80" s="19"/>
+      <c r="M80" s="15"/>
+      <c r="N80" s="19"/>
+      <c r="O80" s="20"/>
       <c r="P80" s="10" t="s">
         <v>318</v>
       </c>
@@ -6083,8 +6437,8 @@
       </c>
     </row>
     <row r="81" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="21"/>
-      <c r="B81" s="14"/>
+      <c r="A81" s="15"/>
+      <c r="B81" s="21"/>
       <c r="C81" s="10" t="s">
         <v>351</v>
       </c>
@@ -6094,7 +6448,7 @@
       <c r="E81" s="10"/>
       <c r="F81" s="10"/>
       <c r="G81" s="10"/>
-      <c r="H81" s="21"/>
+      <c r="H81" s="15"/>
       <c r="I81" s="17"/>
       <c r="J81" s="18">
         <v>3</v>
@@ -6105,9 +6459,9 @@
       <c r="L81" s="9">
         <v>21</v>
       </c>
-      <c r="M81" s="21"/>
-      <c r="N81" s="16"/>
-      <c r="O81" s="19">
+      <c r="M81" s="15"/>
+      <c r="N81" s="19"/>
+      <c r="O81" s="20">
         <v>2</v>
       </c>
       <c r="P81" s="10" t="s">
@@ -6118,14 +6472,14 @@
       </c>
     </row>
     <row r="82" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="21"/>
-      <c r="B82" s="14"/>
+      <c r="A82" s="15"/>
+      <c r="B82" s="21"/>
       <c r="C82" s="13"/>
       <c r="D82" s="11"/>
       <c r="E82" s="10"/>
       <c r="F82" s="10"/>
       <c r="G82" s="10"/>
-      <c r="H82" s="21"/>
+      <c r="H82" s="15"/>
       <c r="I82" s="17"/>
       <c r="J82" s="18"/>
       <c r="K82" s="8" t="s">
@@ -6134,9 +6488,9 @@
       <c r="L82" s="9">
         <v>11</v>
       </c>
-      <c r="M82" s="21"/>
-      <c r="N82" s="16"/>
-      <c r="O82" s="19"/>
+      <c r="M82" s="15"/>
+      <c r="N82" s="19"/>
+      <c r="O82" s="20"/>
       <c r="P82" s="13" t="s">
         <v>261</v>
       </c>
@@ -6145,18 +6499,18 @@
       </c>
     </row>
     <row r="83" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="21"/>
+      <c r="A83" s="15"/>
       <c r="B83" s="17"/>
       <c r="C83" s="8"/>
       <c r="D83" s="9"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
-      <c r="H83" s="21"/>
-      <c r="I83" s="16" t="s">
+      <c r="H83" s="15"/>
+      <c r="I83" s="19" t="s">
         <v>379</v>
       </c>
-      <c r="J83" s="19">
+      <c r="J83" s="20">
         <v>2</v>
       </c>
       <c r="K83" s="10" t="s">
@@ -6165,7 +6519,7 @@
       <c r="L83" s="11">
         <v>14</v>
       </c>
-      <c r="M83" s="21"/>
+      <c r="M83" s="15"/>
       <c r="N83" s="17" t="s">
         <v>375</v>
       </c>
@@ -6180,23 +6534,23 @@
       </c>
     </row>
     <row r="84" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="21"/>
+      <c r="A84" s="15"/>
       <c r="B84" s="17"/>
       <c r="C84" s="8"/>
       <c r="D84" s="9"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
-      <c r="H84" s="21"/>
-      <c r="I84" s="16"/>
-      <c r="J84" s="19"/>
+      <c r="H84" s="15"/>
+      <c r="I84" s="19"/>
+      <c r="J84" s="20"/>
       <c r="K84" s="10" t="s">
         <v>270</v>
       </c>
       <c r="L84" s="11">
         <v>15</v>
       </c>
-      <c r="M84" s="21"/>
+      <c r="M84" s="15"/>
       <c r="N84" s="17"/>
       <c r="O84" s="18"/>
       <c r="P84" s="8" t="s">
@@ -6207,16 +6561,16 @@
       </c>
     </row>
     <row r="85" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="21"/>
+      <c r="A85" s="15"/>
       <c r="B85" s="17"/>
       <c r="C85" s="8"/>
       <c r="D85" s="9"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
-      <c r="H85" s="21"/>
-      <c r="I85" s="16"/>
-      <c r="J85" s="19">
+      <c r="H85" s="15"/>
+      <c r="I85" s="19"/>
+      <c r="J85" s="20">
         <v>3</v>
       </c>
       <c r="K85" s="10" t="s">
@@ -6225,7 +6579,7 @@
       <c r="L85" s="11">
         <v>11</v>
       </c>
-      <c r="M85" s="21"/>
+      <c r="M85" s="15"/>
       <c r="N85" s="17"/>
       <c r="O85" s="18">
         <v>3</v>
@@ -6238,23 +6592,23 @@
       </c>
     </row>
     <row r="86" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="21"/>
+      <c r="A86" s="15"/>
       <c r="B86" s="17"/>
       <c r="C86" s="12"/>
       <c r="D86" s="9"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
-      <c r="H86" s="21"/>
-      <c r="I86" s="16"/>
-      <c r="J86" s="19"/>
+      <c r="H86" s="15"/>
+      <c r="I86" s="19"/>
+      <c r="J86" s="20"/>
       <c r="K86" s="10" t="s">
         <v>277</v>
       </c>
       <c r="L86" s="11">
         <v>28</v>
       </c>
-      <c r="M86" s="21"/>
+      <c r="M86" s="15"/>
       <c r="N86" s="17"/>
       <c r="O86" s="18"/>
       <c r="P86" s="12" t="s">
@@ -6265,14 +6619,14 @@
       </c>
     </row>
     <row r="87" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="21"/>
-      <c r="B87" s="16"/>
+      <c r="A87" s="15"/>
+      <c r="B87" s="19"/>
       <c r="C87" s="10"/>
       <c r="D87" s="11"/>
       <c r="E87" s="10"/>
       <c r="F87" s="10"/>
       <c r="G87" s="10"/>
-      <c r="H87" s="21"/>
+      <c r="H87" s="15"/>
       <c r="I87" s="17" t="s">
         <v>378</v>
       </c>
@@ -6285,11 +6639,11 @@
       <c r="L87" s="9">
         <v>7</v>
       </c>
-      <c r="M87" s="21"/>
-      <c r="N87" s="16" t="s">
+      <c r="M87" s="15"/>
+      <c r="N87" s="19" t="s">
         <v>376</v>
       </c>
-      <c r="O87" s="19">
+      <c r="O87" s="20">
         <v>4</v>
       </c>
       <c r="P87" s="10" t="s">
@@ -6300,14 +6654,14 @@
       </c>
     </row>
     <row r="88" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="21"/>
-      <c r="B88" s="16"/>
+      <c r="A88" s="15"/>
+      <c r="B88" s="19"/>
       <c r="C88" s="10"/>
       <c r="D88" s="11"/>
       <c r="E88" s="10"/>
       <c r="F88" s="10"/>
       <c r="G88" s="10"/>
-      <c r="H88" s="21"/>
+      <c r="H88" s="15"/>
       <c r="I88" s="17"/>
       <c r="J88" s="18"/>
       <c r="K88" s="8" t="s">
@@ -6316,9 +6670,9 @@
       <c r="L88" s="9">
         <v>11</v>
       </c>
-      <c r="M88" s="21"/>
-      <c r="N88" s="16"/>
-      <c r="O88" s="19"/>
+      <c r="M88" s="15"/>
+      <c r="N88" s="19"/>
+      <c r="O88" s="20"/>
       <c r="P88" s="10" t="s">
         <v>276</v>
       </c>
@@ -6327,14 +6681,14 @@
       </c>
     </row>
     <row r="89" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="21"/>
-      <c r="B89" s="16"/>
+      <c r="A89" s="15"/>
+      <c r="B89" s="19"/>
       <c r="C89" s="10"/>
       <c r="D89" s="11"/>
       <c r="E89" s="10"/>
       <c r="F89" s="10"/>
       <c r="G89" s="10"/>
-      <c r="H89" s="21"/>
+      <c r="H89" s="15"/>
       <c r="I89" s="17"/>
       <c r="J89" s="18">
         <v>3</v>
@@ -6345,9 +6699,9 @@
       <c r="L89" s="9">
         <v>14</v>
       </c>
-      <c r="M89" s="21"/>
-      <c r="N89" s="16"/>
-      <c r="O89" s="19">
+      <c r="M89" s="15"/>
+      <c r="N89" s="19"/>
+      <c r="O89" s="20">
         <v>4</v>
       </c>
       <c r="P89" s="10" t="s">
@@ -6358,14 +6712,14 @@
       </c>
     </row>
     <row r="90" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="22"/>
-      <c r="B90" s="16"/>
+      <c r="A90" s="16"/>
+      <c r="B90" s="19"/>
       <c r="C90" s="13"/>
       <c r="D90" s="11"/>
       <c r="E90" s="10"/>
       <c r="F90" s="10"/>
       <c r="G90" s="10"/>
-      <c r="H90" s="22"/>
+      <c r="H90" s="16"/>
       <c r="I90" s="17"/>
       <c r="J90" s="18"/>
       <c r="K90" s="8" t="s">
@@ -6374,9 +6728,9 @@
       <c r="L90" s="9">
         <v>20</v>
       </c>
-      <c r="M90" s="22"/>
-      <c r="N90" s="16"/>
-      <c r="O90" s="19"/>
+      <c r="M90" s="16"/>
+      <c r="N90" s="19"/>
+      <c r="O90" s="20"/>
       <c r="P90" s="13" t="s">
         <v>280</v>
       </c>
@@ -6386,6 +6740,142 @@
     </row>
   </sheetData>
   <mergeCells count="160">
+    <mergeCell ref="B71:B74"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="N18:N21"/>
+    <mergeCell ref="I87:I90"/>
+    <mergeCell ref="J87:J88"/>
+    <mergeCell ref="J89:J90"/>
+    <mergeCell ref="N47:N50"/>
+    <mergeCell ref="B75:B78"/>
+    <mergeCell ref="B79:B82"/>
+    <mergeCell ref="B83:B86"/>
+    <mergeCell ref="N38:N41"/>
+    <mergeCell ref="N59:N62"/>
+    <mergeCell ref="N63:N66"/>
+    <mergeCell ref="B87:B90"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="N30:N33"/>
+    <mergeCell ref="I26:I29"/>
+    <mergeCell ref="I34:I37"/>
+    <mergeCell ref="N2:N5"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="N14:N17"/>
+    <mergeCell ref="O14:O15"/>
+    <mergeCell ref="B55:B58"/>
+    <mergeCell ref="B59:B62"/>
+    <mergeCell ref="B63:B66"/>
+    <mergeCell ref="B67:B70"/>
+    <mergeCell ref="O47:O48"/>
+    <mergeCell ref="O59:O60"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="O61:O62"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="O63:O64"/>
+    <mergeCell ref="O20:O21"/>
+    <mergeCell ref="O65:O66"/>
+    <mergeCell ref="O22:O23"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="O30:O31"/>
+    <mergeCell ref="O38:O39"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="I18:I21"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="J34:J35"/>
+    <mergeCell ref="I42:I45"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="I14:I17"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="I59:I62"/>
+    <mergeCell ref="J59:J60"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="J61:J62"/>
+    <mergeCell ref="I2:I5"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="I47:I50"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="J49:J50"/>
+    <mergeCell ref="I6:I9"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="I51:I54"/>
+    <mergeCell ref="J51:J52"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="J53:J54"/>
+    <mergeCell ref="I10:I13"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="I22:I25"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="I67:I70"/>
+    <mergeCell ref="J67:J68"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="J69:J70"/>
+    <mergeCell ref="I55:I58"/>
+    <mergeCell ref="J55:J56"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="J57:J58"/>
+    <mergeCell ref="I30:I33"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="I75:I78"/>
+    <mergeCell ref="J75:J76"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="J77:J78"/>
+    <mergeCell ref="I63:I66"/>
+    <mergeCell ref="J63:J64"/>
+    <mergeCell ref="J65:J66"/>
+    <mergeCell ref="I79:I82"/>
+    <mergeCell ref="J79:J80"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="J81:J82"/>
+    <mergeCell ref="I38:I41"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="I83:I86"/>
+    <mergeCell ref="J83:J84"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="J85:J86"/>
+    <mergeCell ref="I71:I74"/>
+    <mergeCell ref="J71:J72"/>
+    <mergeCell ref="J73:J74"/>
+    <mergeCell ref="N6:N9"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="N51:N54"/>
+    <mergeCell ref="O51:O52"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="O53:O54"/>
+    <mergeCell ref="N10:N13"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="N55:N58"/>
+    <mergeCell ref="O55:O56"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="O57:O58"/>
+    <mergeCell ref="N22:N25"/>
+    <mergeCell ref="O36:O37"/>
+    <mergeCell ref="O81:O82"/>
+    <mergeCell ref="N67:N70"/>
+    <mergeCell ref="O67:O68"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="O69:O70"/>
+    <mergeCell ref="N26:N29"/>
+    <mergeCell ref="O26:O27"/>
+    <mergeCell ref="N71:N74"/>
+    <mergeCell ref="O71:O72"/>
+    <mergeCell ref="O28:O29"/>
+    <mergeCell ref="O73:O74"/>
+    <mergeCell ref="O49:O50"/>
     <mergeCell ref="A1:A45"/>
     <mergeCell ref="A46:A90"/>
     <mergeCell ref="H1:H45"/>
@@ -6410,142 +6900,6 @@
     <mergeCell ref="O34:O35"/>
     <mergeCell ref="N79:N82"/>
     <mergeCell ref="O79:O80"/>
-    <mergeCell ref="O81:O82"/>
-    <mergeCell ref="N67:N70"/>
-    <mergeCell ref="O67:O68"/>
-    <mergeCell ref="O24:O25"/>
-    <mergeCell ref="O69:O70"/>
-    <mergeCell ref="N26:N29"/>
-    <mergeCell ref="O26:O27"/>
-    <mergeCell ref="N71:N74"/>
-    <mergeCell ref="O71:O72"/>
-    <mergeCell ref="O28:O29"/>
-    <mergeCell ref="O73:O74"/>
-    <mergeCell ref="O49:O50"/>
-    <mergeCell ref="N6:N9"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="N51:N54"/>
-    <mergeCell ref="O51:O52"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="O53:O54"/>
-    <mergeCell ref="N10:N13"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="N55:N58"/>
-    <mergeCell ref="O55:O56"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="O57:O58"/>
-    <mergeCell ref="N22:N25"/>
-    <mergeCell ref="O36:O37"/>
-    <mergeCell ref="I79:I82"/>
-    <mergeCell ref="J79:J80"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="J81:J82"/>
-    <mergeCell ref="I38:I41"/>
-    <mergeCell ref="J38:J39"/>
-    <mergeCell ref="I83:I86"/>
-    <mergeCell ref="J83:J84"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="J85:J86"/>
-    <mergeCell ref="I71:I74"/>
-    <mergeCell ref="J71:J72"/>
-    <mergeCell ref="J73:J74"/>
-    <mergeCell ref="I30:I33"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="I75:I78"/>
-    <mergeCell ref="J75:J76"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="J77:J78"/>
-    <mergeCell ref="I63:I66"/>
-    <mergeCell ref="J63:J64"/>
-    <mergeCell ref="J65:J66"/>
-    <mergeCell ref="I22:I25"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="I67:I70"/>
-    <mergeCell ref="J67:J68"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="J69:J70"/>
-    <mergeCell ref="I55:I58"/>
-    <mergeCell ref="J55:J56"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="J57:J58"/>
-    <mergeCell ref="I14:I17"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="I59:I62"/>
-    <mergeCell ref="J59:J60"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="J61:J62"/>
-    <mergeCell ref="I2:I5"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="I47:I50"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="J49:J50"/>
-    <mergeCell ref="I6:I9"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="I51:I54"/>
-    <mergeCell ref="J51:J52"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="J53:J54"/>
-    <mergeCell ref="I10:I13"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="I18:I21"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="J34:J35"/>
-    <mergeCell ref="I42:I45"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="J44:J45"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="N2:N5"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="N14:N17"/>
-    <mergeCell ref="O14:O15"/>
-    <mergeCell ref="B55:B58"/>
-    <mergeCell ref="B59:B62"/>
-    <mergeCell ref="B63:B66"/>
-    <mergeCell ref="B67:B70"/>
-    <mergeCell ref="O47:O48"/>
-    <mergeCell ref="O59:O60"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="O61:O62"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="O63:O64"/>
-    <mergeCell ref="O20:O21"/>
-    <mergeCell ref="O65:O66"/>
-    <mergeCell ref="O22:O23"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="O30:O31"/>
-    <mergeCell ref="O38:O39"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="B71:B74"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="B47:B50"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="N18:N21"/>
-    <mergeCell ref="I87:I90"/>
-    <mergeCell ref="J87:J88"/>
-    <mergeCell ref="J89:J90"/>
-    <mergeCell ref="N47:N50"/>
-    <mergeCell ref="B75:B78"/>
-    <mergeCell ref="B79:B82"/>
-    <mergeCell ref="B83:B86"/>
-    <mergeCell ref="N38:N41"/>
-    <mergeCell ref="N59:N62"/>
-    <mergeCell ref="N63:N66"/>
-    <mergeCell ref="B87:B90"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="N30:N33"/>
-    <mergeCell ref="I26:I29"/>
-    <mergeCell ref="I34:I37"/>
   </mergeCells>
   <pageMargins left="0.45" right="0.45" top="1" bottom="0.75" header="0.5" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6556,6 +6910,1650 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:V65"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="U52" sqref="U52:U54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6" style="42" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" style="42" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="43" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.140625" style="42" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6" style="44" customWidth="1"/>
+    <col min="7" max="7" width="6" style="42" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.28515625" style="42" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" style="42" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="8.140625" style="42" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="9.140625" style="42"/>
+    <col min="14" max="14" width="19.5703125" style="42" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" style="42"/>
+    <col min="16" max="16" width="15.85546875" style="42" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="42"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="45" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>405</v>
+      </c>
+      <c r="C1" s="46" t="s">
+        <v>451</v>
+      </c>
+      <c r="D1" s="47" t="s">
+        <v>406</v>
+      </c>
+      <c r="E1" s="48" t="s">
+        <v>406</v>
+      </c>
+      <c r="F1" s="41"/>
+      <c r="G1" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="H1" s="49" t="s">
+        <v>405</v>
+      </c>
+      <c r="I1" s="46" t="s">
+        <v>451</v>
+      </c>
+      <c r="J1" s="46" t="s">
+        <v>406</v>
+      </c>
+      <c r="K1" s="46" t="s">
+        <v>406</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="23">
+        <v>1</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>407</v>
+      </c>
+      <c r="C2" s="29">
+        <v>6</v>
+      </c>
+      <c r="D2" s="33">
+        <v>60</v>
+      </c>
+      <c r="E2" s="35">
+        <f>-(72-D2)</f>
+        <v>-12</v>
+      </c>
+      <c r="F2" s="41"/>
+      <c r="G2" s="39">
+        <v>3</v>
+      </c>
+      <c r="H2" s="37" t="s">
+        <v>429</v>
+      </c>
+      <c r="I2" s="31">
+        <v>35</v>
+      </c>
+      <c r="J2" s="27">
+        <v>59</v>
+      </c>
+      <c r="K2" s="27">
+        <f>-(72-J2)</f>
+        <v>-13</v>
+      </c>
+      <c r="N2" s="50" t="s">
+        <v>311</v>
+      </c>
+      <c r="O2" s="9">
+        <v>7</v>
+      </c>
+      <c r="P2" s="8">
+        <f ca="1">RAND()</f>
+        <v>0.45378401253205347</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="23">
+        <v>1</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>408</v>
+      </c>
+      <c r="C3" s="29">
+        <v>8</v>
+      </c>
+      <c r="D3" s="33">
+        <v>62</v>
+      </c>
+      <c r="E3" s="35">
+        <f t="shared" ref="E3:E45" si="0">-(72-D3)</f>
+        <v>-10</v>
+      </c>
+      <c r="F3" s="41"/>
+      <c r="G3" s="39">
+        <v>3</v>
+      </c>
+      <c r="H3" s="37" t="s">
+        <v>430</v>
+      </c>
+      <c r="I3" s="31">
+        <v>32</v>
+      </c>
+      <c r="J3" s="27">
+        <v>60</v>
+      </c>
+      <c r="K3" s="27">
+        <f>-(72-J3)</f>
+        <v>-12</v>
+      </c>
+      <c r="N3" s="50" t="s">
+        <v>292</v>
+      </c>
+      <c r="O3" s="9">
+        <v>10</v>
+      </c>
+      <c r="P3" s="8">
+        <f ca="1">RAND()</f>
+        <v>0.59624346387387639</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="23">
+        <v>1</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>409</v>
+      </c>
+      <c r="C4" s="29">
+        <v>16</v>
+      </c>
+      <c r="D4" s="33">
+        <v>63</v>
+      </c>
+      <c r="E4" s="35">
+        <f t="shared" si="0"/>
+        <v>-9</v>
+      </c>
+      <c r="F4" s="41"/>
+      <c r="G4" s="39">
+        <v>3</v>
+      </c>
+      <c r="H4" s="37" t="s">
+        <v>431</v>
+      </c>
+      <c r="I4" s="31">
+        <v>36</v>
+      </c>
+      <c r="J4" s="27">
+        <v>60</v>
+      </c>
+      <c r="K4" s="27">
+        <f>-(72-J4)</f>
+        <v>-12</v>
+      </c>
+      <c r="N4" s="51" t="s">
+        <v>326</v>
+      </c>
+      <c r="O4" s="9">
+        <v>9</v>
+      </c>
+      <c r="P4" s="8">
+        <f ca="1">RAND()</f>
+        <v>0.20814366014702657</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="23">
+        <v>1</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>410</v>
+      </c>
+      <c r="C5" s="29">
+        <v>17</v>
+      </c>
+      <c r="D5" s="33">
+        <v>63</v>
+      </c>
+      <c r="E5" s="35">
+        <f t="shared" si="0"/>
+        <v>-9</v>
+      </c>
+      <c r="F5" s="41"/>
+      <c r="G5" s="39">
+        <v>3</v>
+      </c>
+      <c r="H5" s="37" t="s">
+        <v>432</v>
+      </c>
+      <c r="I5" s="31">
+        <v>32</v>
+      </c>
+      <c r="J5" s="27">
+        <v>65</v>
+      </c>
+      <c r="K5" s="27">
+        <f>-(72-J5)</f>
+        <v>-7</v>
+      </c>
+      <c r="N5" s="51" t="s">
+        <v>260</v>
+      </c>
+      <c r="O5" s="11">
+        <v>21</v>
+      </c>
+      <c r="P5" s="8">
+        <f ca="1">RAND()</f>
+        <v>0.8045071079354017</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="23">
+        <v>1</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>411</v>
+      </c>
+      <c r="C6" s="29">
+        <v>15</v>
+      </c>
+      <c r="D6" s="33">
+        <v>64</v>
+      </c>
+      <c r="E6" s="35">
+        <f t="shared" si="0"/>
+        <v>-8</v>
+      </c>
+      <c r="F6" s="41"/>
+      <c r="G6" s="39">
+        <v>3</v>
+      </c>
+      <c r="H6" s="37" t="s">
+        <v>433</v>
+      </c>
+      <c r="I6" s="31">
+        <v>30</v>
+      </c>
+      <c r="J6" s="27">
+        <v>66</v>
+      </c>
+      <c r="K6" s="27">
+        <f>-(72-J6)</f>
+        <v>-6</v>
+      </c>
+      <c r="N6" s="50" t="s">
+        <v>293</v>
+      </c>
+      <c r="O6" s="9">
+        <v>15</v>
+      </c>
+      <c r="P6" s="8">
+        <f ca="1">RAND()</f>
+        <v>0.73581254723099576</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="23">
+        <v>1</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>412</v>
+      </c>
+      <c r="C7" s="29">
+        <v>16</v>
+      </c>
+      <c r="D7" s="33">
+        <v>65</v>
+      </c>
+      <c r="E7" s="35">
+        <f t="shared" si="0"/>
+        <v>-7</v>
+      </c>
+      <c r="F7" s="41"/>
+      <c r="G7" s="39">
+        <v>3</v>
+      </c>
+      <c r="H7" s="37" t="s">
+        <v>434</v>
+      </c>
+      <c r="I7" s="31">
+        <v>41</v>
+      </c>
+      <c r="J7" s="27">
+        <v>68</v>
+      </c>
+      <c r="K7" s="27">
+        <f>-(72-J7)</f>
+        <v>-4</v>
+      </c>
+      <c r="N7" s="50" t="s">
+        <v>320</v>
+      </c>
+      <c r="O7" s="11">
+        <v>11</v>
+      </c>
+      <c r="P7" s="8">
+        <f ca="1">RAND()</f>
+        <v>0.13310343973376459</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="23">
+        <v>1</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>413</v>
+      </c>
+      <c r="C8" s="29">
+        <v>18</v>
+      </c>
+      <c r="D8" s="33">
+        <v>66</v>
+      </c>
+      <c r="E8" s="35">
+        <f t="shared" si="0"/>
+        <v>-6</v>
+      </c>
+      <c r="F8" s="41"/>
+      <c r="G8" s="39">
+        <v>3</v>
+      </c>
+      <c r="H8" s="37" t="s">
+        <v>435</v>
+      </c>
+      <c r="I8" s="31">
+        <v>39</v>
+      </c>
+      <c r="J8" s="27">
+        <v>68</v>
+      </c>
+      <c r="K8" s="27">
+        <f>-(72-J8)</f>
+        <v>-4</v>
+      </c>
+      <c r="N8" s="51" t="s">
+        <v>264</v>
+      </c>
+      <c r="O8" s="11">
+        <v>11</v>
+      </c>
+      <c r="P8" s="8">
+        <f ca="1">RAND()</f>
+        <v>0.41139314120963943</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="23">
+        <v>1</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>414</v>
+      </c>
+      <c r="C9" s="29">
+        <v>16</v>
+      </c>
+      <c r="D9" s="33">
+        <v>68</v>
+      </c>
+      <c r="E9" s="35">
+        <f t="shared" si="0"/>
+        <v>-4</v>
+      </c>
+      <c r="F9" s="41"/>
+      <c r="G9" s="39">
+        <v>3</v>
+      </c>
+      <c r="H9" s="37" t="s">
+        <v>436</v>
+      </c>
+      <c r="I9" s="31">
+        <v>34</v>
+      </c>
+      <c r="J9" s="27">
+        <v>68</v>
+      </c>
+      <c r="K9" s="27">
+        <f>-(72-J9)</f>
+        <v>-4</v>
+      </c>
+      <c r="N9" s="51" t="s">
+        <v>339</v>
+      </c>
+      <c r="O9" s="11">
+        <v>16</v>
+      </c>
+      <c r="P9" s="8">
+        <f ca="1">RAND()</f>
+        <v>0.87845932024247009</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="23">
+        <v>1</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>415</v>
+      </c>
+      <c r="C10" s="29">
+        <v>10</v>
+      </c>
+      <c r="D10" s="33">
+        <v>69</v>
+      </c>
+      <c r="E10" s="35">
+        <f t="shared" si="0"/>
+        <v>-3</v>
+      </c>
+      <c r="F10" s="41"/>
+      <c r="G10" s="39">
+        <v>3</v>
+      </c>
+      <c r="H10" s="37" t="s">
+        <v>437</v>
+      </c>
+      <c r="I10" s="31">
+        <v>34</v>
+      </c>
+      <c r="J10" s="27">
+        <v>69</v>
+      </c>
+      <c r="K10" s="27">
+        <f>-(72-J10)</f>
+        <v>-3</v>
+      </c>
+      <c r="N10" s="50" t="s">
+        <v>308</v>
+      </c>
+      <c r="O10" s="9">
+        <v>5</v>
+      </c>
+      <c r="P10" s="8">
+        <f ca="1">RAND()</f>
+        <v>4.6045569261230379E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="23">
+        <v>1</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>416</v>
+      </c>
+      <c r="C11" s="29">
+        <v>14</v>
+      </c>
+      <c r="D11" s="33">
+        <v>70</v>
+      </c>
+      <c r="E11" s="35">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="F11" s="41"/>
+      <c r="G11" s="39">
+        <v>3</v>
+      </c>
+      <c r="H11" s="37" t="s">
+        <v>438</v>
+      </c>
+      <c r="I11" s="31">
+        <v>38</v>
+      </c>
+      <c r="J11" s="27">
+        <v>70</v>
+      </c>
+      <c r="K11" s="27">
+        <f>-(72-J11)</f>
+        <v>-2</v>
+      </c>
+      <c r="N11" s="50" t="s">
+        <v>330</v>
+      </c>
+      <c r="O11" s="9">
+        <v>5</v>
+      </c>
+      <c r="P11" s="8">
+        <f ca="1">RAND()</f>
+        <v>2.8054708767501935E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="23">
+        <v>1</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>417</v>
+      </c>
+      <c r="C12" s="29">
+        <v>10</v>
+      </c>
+      <c r="D12" s="33">
+        <v>71</v>
+      </c>
+      <c r="E12" s="35">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="F12" s="41"/>
+      <c r="G12" s="39">
+        <v>3</v>
+      </c>
+      <c r="H12" s="37" t="s">
+        <v>439</v>
+      </c>
+      <c r="I12" s="31">
+        <v>33</v>
+      </c>
+      <c r="J12" s="27">
+        <v>76</v>
+      </c>
+      <c r="K12" s="27">
+        <f>-(72-J12)</f>
+        <v>4</v>
+      </c>
+      <c r="N12" s="51" t="s">
+        <v>317</v>
+      </c>
+      <c r="O12" s="9">
+        <v>27</v>
+      </c>
+      <c r="P12" s="8">
+        <f ca="1">RAND()</f>
+        <v>0.57096823583615686</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="25">
+        <v>2</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>418</v>
+      </c>
+      <c r="C13" s="30">
+        <v>29</v>
+      </c>
+      <c r="D13" s="34">
+        <v>62</v>
+      </c>
+      <c r="E13" s="36">
+        <f t="shared" si="0"/>
+        <v>-10</v>
+      </c>
+      <c r="F13" s="41"/>
+      <c r="G13" s="40">
+        <v>4</v>
+      </c>
+      <c r="H13" s="38" t="s">
+        <v>440</v>
+      </c>
+      <c r="I13" s="32">
+        <v>51</v>
+      </c>
+      <c r="J13" s="28">
+        <v>60</v>
+      </c>
+      <c r="K13" s="28">
+        <f>-(72-J13)</f>
+        <v>-12</v>
+      </c>
+      <c r="N13" s="51" t="s">
+        <v>261</v>
+      </c>
+      <c r="O13" s="9">
+        <v>20</v>
+      </c>
+      <c r="P13" s="8">
+        <f ca="1">RAND()</f>
+        <v>0.79772730318427176</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="25">
+        <v>2</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>419</v>
+      </c>
+      <c r="C14" s="30">
+        <v>23</v>
+      </c>
+      <c r="D14" s="34">
+        <v>64</v>
+      </c>
+      <c r="E14" s="36">
+        <f t="shared" si="0"/>
+        <v>-8</v>
+      </c>
+      <c r="F14" s="41"/>
+      <c r="G14" s="40">
+        <v>4</v>
+      </c>
+      <c r="H14" s="38" t="s">
+        <v>441</v>
+      </c>
+      <c r="I14" s="32">
+        <v>51</v>
+      </c>
+      <c r="J14" s="28">
+        <v>62</v>
+      </c>
+      <c r="K14" s="28">
+        <f>-(72-J14)</f>
+        <v>-10</v>
+      </c>
+      <c r="N14" s="50" t="s">
+        <v>319</v>
+      </c>
+      <c r="O14" s="11">
+        <v>5</v>
+      </c>
+      <c r="P14" s="8">
+        <f ca="1">RAND()</f>
+        <v>0.19063049086483685</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="25">
+        <v>2</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>420</v>
+      </c>
+      <c r="C15" s="30">
+        <v>18</v>
+      </c>
+      <c r="D15" s="34">
+        <v>65</v>
+      </c>
+      <c r="E15" s="36">
+        <f t="shared" si="0"/>
+        <v>-7</v>
+      </c>
+      <c r="F15" s="41"/>
+      <c r="G15" s="40">
+        <v>4</v>
+      </c>
+      <c r="H15" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="I15" s="32">
+        <v>49</v>
+      </c>
+      <c r="J15" s="28">
+        <v>66</v>
+      </c>
+      <c r="K15" s="28">
+        <f>-(72-J15)</f>
+        <v>-6</v>
+      </c>
+      <c r="N15" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="O15" s="11">
+        <v>15</v>
+      </c>
+      <c r="P15" s="8">
+        <f ca="1">RAND()</f>
+        <v>0.34369607278911118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="25">
+        <v>2</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>421</v>
+      </c>
+      <c r="C16" s="30">
+        <v>19</v>
+      </c>
+      <c r="D16" s="34">
+        <v>66</v>
+      </c>
+      <c r="E16" s="36">
+        <f t="shared" si="0"/>
+        <v>-6</v>
+      </c>
+      <c r="F16" s="41"/>
+      <c r="G16" s="40">
+        <v>4</v>
+      </c>
+      <c r="H16" s="38" t="s">
+        <v>443</v>
+      </c>
+      <c r="I16" s="32">
+        <v>43</v>
+      </c>
+      <c r="J16" s="28">
+        <v>67</v>
+      </c>
+      <c r="K16" s="28">
+        <f>-(72-J16)</f>
+        <v>-5</v>
+      </c>
+      <c r="N16" s="51" t="s">
+        <v>258</v>
+      </c>
+      <c r="O16" s="11">
+        <v>4</v>
+      </c>
+      <c r="P16" s="8">
+        <f ca="1">RAND()</f>
+        <v>8.9022945255841646E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="25">
+        <v>2</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>422</v>
+      </c>
+      <c r="C17" s="30">
+        <v>23</v>
+      </c>
+      <c r="D17" s="34">
+        <v>66</v>
+      </c>
+      <c r="E17" s="36">
+        <f t="shared" si="0"/>
+        <v>-6</v>
+      </c>
+      <c r="F17" s="41"/>
+      <c r="G17" s="40">
+        <v>4</v>
+      </c>
+      <c r="H17" s="38" t="s">
+        <v>444</v>
+      </c>
+      <c r="I17" s="32">
+        <v>53</v>
+      </c>
+      <c r="J17" s="28">
+        <v>67</v>
+      </c>
+      <c r="K17" s="28">
+        <f>-(72-J17)</f>
+        <v>-5</v>
+      </c>
+      <c r="N17" s="51" t="s">
+        <v>349</v>
+      </c>
+      <c r="O17" s="9">
+        <v>28</v>
+      </c>
+      <c r="P17" s="8">
+        <f ca="1">RAND()</f>
+        <v>0.99490172796860865</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="25">
+        <v>2</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>423</v>
+      </c>
+      <c r="C18" s="30">
+        <v>26</v>
+      </c>
+      <c r="D18" s="34">
+        <v>67</v>
+      </c>
+      <c r="E18" s="36">
+        <f t="shared" si="0"/>
+        <v>-5</v>
+      </c>
+      <c r="F18" s="41"/>
+      <c r="G18" s="40">
+        <v>4</v>
+      </c>
+      <c r="H18" s="38" t="s">
+        <v>445</v>
+      </c>
+      <c r="I18" s="32">
+        <v>42</v>
+      </c>
+      <c r="J18" s="28">
+        <v>67</v>
+      </c>
+      <c r="K18" s="28">
+        <f>-(72-J18)</f>
+        <v>-5</v>
+      </c>
+      <c r="N18" s="50" t="s">
+        <v>289</v>
+      </c>
+      <c r="O18" s="9">
+        <v>23</v>
+      </c>
+      <c r="P18" s="8">
+        <f ca="1">RAND()</f>
+        <v>0.70681957149260821</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="25">
+        <v>2</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>424</v>
+      </c>
+      <c r="C19" s="30">
+        <v>24</v>
+      </c>
+      <c r="D19" s="34">
+        <v>68</v>
+      </c>
+      <c r="E19" s="36">
+        <f t="shared" si="0"/>
+        <v>-4</v>
+      </c>
+      <c r="F19" s="41"/>
+      <c r="G19" s="40">
+        <v>4</v>
+      </c>
+      <c r="H19" s="38" t="s">
+        <v>446</v>
+      </c>
+      <c r="I19" s="32">
+        <v>54</v>
+      </c>
+      <c r="J19" s="28">
+        <v>69</v>
+      </c>
+      <c r="K19" s="28">
+        <f>-(72-J19)</f>
+        <v>-3</v>
+      </c>
+      <c r="N19" s="50" t="s">
+        <v>338</v>
+      </c>
+      <c r="O19" s="11">
+        <v>23</v>
+      </c>
+      <c r="P19" s="8">
+        <f ca="1">RAND()</f>
+        <v>0.68494538454325449</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="25">
+        <v>2</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>425</v>
+      </c>
+      <c r="C20" s="30">
+        <v>26</v>
+      </c>
+      <c r="D20" s="34">
+        <v>68</v>
+      </c>
+      <c r="E20" s="36">
+        <f t="shared" si="0"/>
+        <v>-4</v>
+      </c>
+      <c r="F20" s="41"/>
+      <c r="G20" s="40">
+        <v>4</v>
+      </c>
+      <c r="H20" s="38" t="s">
+        <v>447</v>
+      </c>
+      <c r="I20" s="32">
+        <v>44</v>
+      </c>
+      <c r="J20" s="28">
+        <v>70</v>
+      </c>
+      <c r="K20" s="28">
+        <f>-(72-J20)</f>
+        <v>-2</v>
+      </c>
+      <c r="N20" s="51" t="s">
+        <v>336</v>
+      </c>
+      <c r="O20" s="11">
+        <v>12</v>
+      </c>
+      <c r="P20" s="8">
+        <f ca="1">RAND()</f>
+        <v>0.98723409160793851</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="25">
+        <v>2</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>426</v>
+      </c>
+      <c r="C21" s="30">
+        <v>29</v>
+      </c>
+      <c r="D21" s="34">
+        <v>68</v>
+      </c>
+      <c r="E21" s="36">
+        <f t="shared" si="0"/>
+        <v>-4</v>
+      </c>
+      <c r="F21" s="41"/>
+      <c r="G21" s="40">
+        <v>4</v>
+      </c>
+      <c r="H21" s="38" t="s">
+        <v>448</v>
+      </c>
+      <c r="I21" s="32">
+        <v>51</v>
+      </c>
+      <c r="J21" s="28">
+        <v>70</v>
+      </c>
+      <c r="K21" s="28">
+        <f>-(72-J21)</f>
+        <v>-2</v>
+      </c>
+      <c r="N21" s="51" t="s">
+        <v>275</v>
+      </c>
+      <c r="O21" s="9">
+        <v>11</v>
+      </c>
+      <c r="P21" s="8">
+        <f ca="1">RAND()</f>
+        <v>0.30882049256829769</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="25">
+        <v>2</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>427</v>
+      </c>
+      <c r="C22" s="30">
+        <v>27</v>
+      </c>
+      <c r="D22" s="34">
+        <v>69</v>
+      </c>
+      <c r="E22" s="36">
+        <f t="shared" si="0"/>
+        <v>-3</v>
+      </c>
+      <c r="F22" s="41"/>
+      <c r="G22" s="40">
+        <v>4</v>
+      </c>
+      <c r="H22" s="38" t="s">
+        <v>449</v>
+      </c>
+      <c r="I22" s="32">
+        <v>60</v>
+      </c>
+      <c r="J22" s="28">
+        <v>71</v>
+      </c>
+      <c r="K22" s="28">
+        <f>-(72-J22)</f>
+        <v>-1</v>
+      </c>
+      <c r="N22" s="50" t="s">
+        <v>263</v>
+      </c>
+      <c r="O22" s="11">
+        <v>15</v>
+      </c>
+      <c r="P22" s="8">
+        <f ca="1">RAND()</f>
+        <v>0.2327347565372192</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="25">
+        <v>2</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>428</v>
+      </c>
+      <c r="C23" s="30">
+        <v>24</v>
+      </c>
+      <c r="D23" s="34">
+        <v>75</v>
+      </c>
+      <c r="E23" s="36">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F23" s="41"/>
+      <c r="G23" s="40">
+        <v>4</v>
+      </c>
+      <c r="H23" s="38" t="s">
+        <v>450</v>
+      </c>
+      <c r="I23" s="32">
+        <v>74</v>
+      </c>
+      <c r="J23" s="28">
+        <v>72</v>
+      </c>
+      <c r="K23" s="28">
+        <f>-(72-J23)</f>
+        <v>0</v>
+      </c>
+      <c r="N23" s="50" t="s">
+        <v>332</v>
+      </c>
+      <c r="O23" s="11">
+        <v>8</v>
+      </c>
+      <c r="P23" s="8">
+        <f ca="1">RAND()</f>
+        <v>0.6812690954527667</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N24" s="51" t="s">
+        <v>325</v>
+      </c>
+      <c r="O24" s="11">
+        <v>14</v>
+      </c>
+      <c r="P24" s="8">
+        <f ca="1">RAND()</f>
+        <v>0.67474735487357196</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N25" s="51" t="s">
+        <v>280</v>
+      </c>
+      <c r="O25" s="9">
+        <v>35</v>
+      </c>
+      <c r="P25" s="8">
+        <f ca="1">RAND()</f>
+        <v>0.95513695425901834</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N26" s="50" t="s">
+        <v>298</v>
+      </c>
+      <c r="O26" s="9">
+        <v>23</v>
+      </c>
+      <c r="P26" s="8">
+        <f ca="1">RAND()</f>
+        <v>0.17999581278044297</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N27" s="50" t="s">
+        <v>290</v>
+      </c>
+      <c r="O27" s="9">
+        <v>18</v>
+      </c>
+      <c r="P27" s="8">
+        <f ca="1">RAND()</f>
+        <v>0.53907606340599035</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N28" s="51" t="s">
+        <v>328</v>
+      </c>
+      <c r="O28" s="9">
+        <v>15</v>
+      </c>
+      <c r="P28" s="8">
+        <f ca="1">RAND()</f>
+        <v>0.32750359331715118</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N29" s="51" t="s">
+        <v>327</v>
+      </c>
+      <c r="O29" s="11">
+        <v>16</v>
+      </c>
+      <c r="P29" s="8">
+        <f ca="1">RAND()</f>
+        <v>3.0957205449790526E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N30" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="O30" s="9">
+        <v>12</v>
+      </c>
+      <c r="P30" s="8">
+        <f ca="1">RAND()</f>
+        <v>0.5518275875113996</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N31" s="50" t="s">
+        <v>279</v>
+      </c>
+      <c r="O31" s="9">
+        <v>39</v>
+      </c>
+      <c r="P31" s="8">
+        <f ca="1">RAND()</f>
+        <v>0.33082762538443911</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N32" s="51" t="s">
+        <v>313</v>
+      </c>
+      <c r="O32" s="9">
+        <v>8</v>
+      </c>
+      <c r="P32" s="8">
+        <f ca="1">RAND()</f>
+        <v>0.65382501718697639</v>
+      </c>
+    </row>
+    <row r="33" spans="14:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N33" s="51" t="s">
+        <v>340</v>
+      </c>
+      <c r="O33" s="11">
+        <v>18</v>
+      </c>
+      <c r="P33" s="8">
+        <f ca="1">RAND()</f>
+        <v>0.71022537427574173</v>
+      </c>
+    </row>
+    <row r="34" spans="14:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N34" s="50" t="s">
+        <v>287</v>
+      </c>
+      <c r="O34" s="11">
+        <v>24</v>
+      </c>
+      <c r="P34" s="8">
+        <f ca="1">RAND()</f>
+        <v>0.85695518701193618</v>
+      </c>
+    </row>
+    <row r="35" spans="14:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N35" s="50" t="s">
+        <v>329</v>
+      </c>
+      <c r="O35" s="11">
+        <v>16</v>
+      </c>
+      <c r="P35" s="8">
+        <f ca="1">RAND()</f>
+        <v>0.32318536423478583</v>
+      </c>
+    </row>
+    <row r="36" spans="14:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N36" s="51" t="s">
+        <v>259</v>
+      </c>
+      <c r="O36" s="9">
+        <v>9</v>
+      </c>
+      <c r="P36" s="8">
+        <f ca="1">RAND()</f>
+        <v>0.38782030950867818</v>
+      </c>
+    </row>
+    <row r="37" spans="14:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N37" s="51" t="s">
+        <v>321</v>
+      </c>
+      <c r="O37" s="9">
+        <v>7</v>
+      </c>
+      <c r="P37" s="8">
+        <f ca="1">RAND()</f>
+        <v>0.85268764198032143</v>
+      </c>
+    </row>
+    <row r="38" spans="14:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N38" s="50" t="s">
+        <v>286</v>
+      </c>
+      <c r="O38" s="9">
+        <v>13</v>
+      </c>
+      <c r="P38" s="8">
+        <f ca="1">RAND()</f>
+        <v>0.27034949216415594</v>
+      </c>
+    </row>
+    <row r="39" spans="14:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N39" s="50" t="s">
+        <v>307</v>
+      </c>
+      <c r="O39" s="11">
+        <v>3</v>
+      </c>
+      <c r="P39" s="8">
+        <f ca="1">RAND()</f>
+        <v>0.70876262534590817</v>
+      </c>
+    </row>
+    <row r="40" spans="14:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N40" s="51" t="s">
+        <v>283</v>
+      </c>
+      <c r="O40" s="9">
+        <v>23</v>
+      </c>
+      <c r="P40" s="8">
+        <f ca="1">RAND()</f>
+        <v>0.26398516432500529</v>
+      </c>
+    </row>
+    <row r="41" spans="14:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N41" s="51" t="s">
+        <v>268</v>
+      </c>
+      <c r="O41" s="11">
+        <v>4</v>
+      </c>
+      <c r="P41" s="8">
+        <f ca="1">RAND()</f>
+        <v>0.32514673089156565</v>
+      </c>
+    </row>
+    <row r="42" spans="14:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N42" s="50" t="s">
+        <v>324</v>
+      </c>
+      <c r="O42" s="11">
+        <v>11</v>
+      </c>
+      <c r="P42" s="8">
+        <f ca="1">RAND()</f>
+        <v>0.52288820907742817</v>
+      </c>
+    </row>
+    <row r="43" spans="14:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N43" s="50" t="s">
+        <v>333</v>
+      </c>
+      <c r="O43" s="11">
+        <v>7</v>
+      </c>
+      <c r="P43" s="8">
+        <f ca="1">RAND()</f>
+        <v>0.65507099780985589</v>
+      </c>
+    </row>
+    <row r="44" spans="14:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N44" s="51" t="s">
+        <v>273</v>
+      </c>
+      <c r="O44" s="11">
+        <v>6</v>
+      </c>
+      <c r="P44" s="8">
+        <f ca="1">RAND()</f>
+        <v>0.57825956154457525</v>
+      </c>
+    </row>
+    <row r="45" spans="14:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N45" s="51" t="s">
+        <v>272</v>
+      </c>
+      <c r="O45" s="11">
+        <v>11</v>
+      </c>
+      <c r="P45" s="8">
+        <f ca="1">RAND()</f>
+        <v>0.49080565377257512</v>
+      </c>
+    </row>
+    <row r="46" spans="14:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N46" s="50" t="s">
+        <v>284</v>
+      </c>
+      <c r="O46" s="9">
+        <v>19</v>
+      </c>
+      <c r="P46" s="8">
+        <f ca="1">RAND()</f>
+        <v>0.28605453104290868</v>
+      </c>
+    </row>
+    <row r="47" spans="14:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N47" s="50" t="s">
+        <v>331</v>
+      </c>
+      <c r="O47" s="9">
+        <v>10</v>
+      </c>
+      <c r="P47" s="8">
+        <f ca="1">RAND()</f>
+        <v>0.49127878880693765</v>
+      </c>
+    </row>
+    <row r="48" spans="14:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N48" s="51" t="s">
+        <v>294</v>
+      </c>
+      <c r="O48" s="11">
+        <v>13</v>
+      </c>
+      <c r="P48" s="8">
+        <f ca="1">RAND()</f>
+        <v>0.76898694470999984</v>
+      </c>
+    </row>
+    <row r="49" spans="14:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N49" s="51" t="s">
+        <v>312</v>
+      </c>
+      <c r="O49" s="9">
+        <v>17</v>
+      </c>
+      <c r="P49" s="8">
+        <f ca="1">RAND()</f>
+        <v>0.46488959431697363</v>
+      </c>
+    </row>
+    <row r="50" spans="14:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N50" s="50" t="s">
+        <v>295</v>
+      </c>
+      <c r="O50" s="11">
+        <v>14</v>
+      </c>
+      <c r="P50" s="8">
+        <f ca="1">RAND()</f>
+        <v>0.72903506927685791</v>
+      </c>
+    </row>
+    <row r="51" spans="14:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N51" s="50" t="s">
+        <v>265</v>
+      </c>
+      <c r="O51" s="9">
+        <v>31</v>
+      </c>
+      <c r="P51" s="8">
+        <f ca="1">RAND()</f>
+        <v>1.1774639545797272E-2</v>
+      </c>
+      <c r="S51" s="42">
+        <v>620</v>
+      </c>
+      <c r="T51" s="42">
+        <v>0.4</v>
+      </c>
+      <c r="U51" s="42">
+        <v>300</v>
+      </c>
+      <c r="V51" s="42">
+        <f>U51/$S$51</f>
+        <v>0.4838709677419355</v>
+      </c>
+    </row>
+    <row r="52" spans="14:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N52" s="51" t="s">
+        <v>262</v>
+      </c>
+      <c r="O52" s="11">
+        <v>17</v>
+      </c>
+      <c r="P52" s="8">
+        <f ca="1">RAND()</f>
+        <v>0.9969519424296569</v>
+      </c>
+      <c r="T52" s="42">
+        <v>0.3</v>
+      </c>
+      <c r="U52" s="42">
+        <v>180</v>
+      </c>
+      <c r="V52" s="42">
+        <f t="shared" ref="V52:V54" si="1">U52/$S$51</f>
+        <v>0.29032258064516131</v>
+      </c>
+    </row>
+    <row r="53" spans="14:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N53" s="51" t="s">
+        <v>297</v>
+      </c>
+      <c r="O53" s="9">
+        <v>8</v>
+      </c>
+      <c r="P53" s="8">
+        <f ca="1">RAND()</f>
+        <v>0.18232349856461716</v>
+      </c>
+      <c r="T53" s="42">
+        <v>0.2</v>
+      </c>
+      <c r="U53" s="42">
+        <v>100</v>
+      </c>
+      <c r="V53" s="42">
+        <f t="shared" si="1"/>
+        <v>0.16129032258064516</v>
+      </c>
+    </row>
+    <row r="54" spans="14:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N54" s="50" t="s">
+        <v>305</v>
+      </c>
+      <c r="O54" s="9">
+        <v>2</v>
+      </c>
+      <c r="P54" s="8">
+        <f ca="1">RAND()</f>
+        <v>0.38418083971403816</v>
+      </c>
+      <c r="T54" s="52">
+        <v>0.1</v>
+      </c>
+      <c r="U54" s="42">
+        <v>40</v>
+      </c>
+      <c r="V54" s="42">
+        <f t="shared" si="1"/>
+        <v>6.4516129032258063E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="14:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N55" s="50" t="s">
+        <v>303</v>
+      </c>
+      <c r="O55" s="11">
+        <v>14</v>
+      </c>
+      <c r="P55" s="8">
+        <f ca="1">RAND()</f>
+        <v>0.27333959221636583</v>
+      </c>
+      <c r="T55" s="52"/>
+      <c r="U55" s="42">
+        <f t="shared" ref="U52:U55" si="2">T55*$S$51</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="14:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N56" s="51" t="s">
+        <v>291</v>
+      </c>
+      <c r="O56" s="9">
+        <v>22</v>
+      </c>
+      <c r="P56" s="8">
+        <f ca="1">RAND()</f>
+        <v>0.38431674668065474</v>
+      </c>
+    </row>
+    <row r="57" spans="14:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N57" s="51" t="s">
+        <v>391</v>
+      </c>
+      <c r="O57" s="11">
+        <v>7</v>
+      </c>
+      <c r="P57" s="8">
+        <f ca="1">RAND()</f>
+        <v>0.14093797916955464</v>
+      </c>
+    </row>
+    <row r="58" spans="14:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N58" s="50" t="s">
+        <v>316</v>
+      </c>
+      <c r="O58" s="9">
+        <v>7</v>
+      </c>
+      <c r="P58" s="8">
+        <f ca="1">RAND()</f>
+        <v>0.34881601868721857</v>
+      </c>
+    </row>
+    <row r="59" spans="14:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N59" s="50" t="s">
+        <v>285</v>
+      </c>
+      <c r="O59" s="11">
+        <v>12</v>
+      </c>
+      <c r="P59" s="8">
+        <f ca="1">RAND()</f>
+        <v>0.29674074361870706</v>
+      </c>
+    </row>
+    <row r="60" spans="14:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N60" s="51" t="s">
+        <v>266</v>
+      </c>
+      <c r="O60" s="9">
+        <v>18</v>
+      </c>
+      <c r="P60" s="8">
+        <f ca="1">RAND()</f>
+        <v>0.95315175584573009</v>
+      </c>
+    </row>
+    <row r="61" spans="14:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N61" s="51" t="s">
+        <v>306</v>
+      </c>
+      <c r="O61" s="9">
+        <v>4</v>
+      </c>
+      <c r="P61" s="8">
+        <f ca="1">RAND()</f>
+        <v>0.4732772951871842</v>
+      </c>
+    </row>
+    <row r="62" spans="14:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N62" s="50" t="s">
+        <v>337</v>
+      </c>
+      <c r="O62" s="11">
+        <v>28</v>
+      </c>
+      <c r="P62" s="8">
+        <f ca="1">RAND()</f>
+        <v>0.85686077885705036</v>
+      </c>
+    </row>
+    <row r="63" spans="14:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N63" s="50" t="s">
+        <v>390</v>
+      </c>
+      <c r="O63" s="11">
+        <v>9</v>
+      </c>
+      <c r="P63" s="8">
+        <f ca="1">RAND()</f>
+        <v>0.53345282968495711</v>
+      </c>
+    </row>
+    <row r="64" spans="14:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N64" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="O64" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="P64" s="7" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="65" spans="14:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N65" s="13"/>
+      <c r="O65" s="11"/>
+      <c r="P65" s="10"/>
+    </row>
+  </sheetData>
+  <sortState ref="N2:P64">
+    <sortCondition ref="P2:P64"/>
+  </sortState>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" display="javascript:Sort('Flight DESC')"/>
+    <hyperlink ref="B1" r:id="rId2" display="javascript:Sort('Name DESC')"/>
+    <hyperlink ref="D1" r:id="rId3" display="javascript:Sort('Round 1 DESC')"/>
+    <hyperlink ref="E1" r:id="rId4" display="javascript:Sort('Round 1 DESC')"/>
+    <hyperlink ref="G1" r:id="rId5" display="javascript:Sort('Flight DESC')"/>
+    <hyperlink ref="H1" r:id="rId6" display="javascript:Sort('Name DESC')"/>
+    <hyperlink ref="J1" r:id="rId7" display="javascript:Sort('Round 1 DESC')"/>
+    <hyperlink ref="K1" r:id="rId8" display="javascript:Sort('Round 1 DESC')"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE45"/>
   <sheetViews>
